--- a/TestODScat_345_tagged.xlsx
+++ b/TestODScat_345_tagged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C703"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
           <t>sdg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>sdg_predecido</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,8 +451,7 @@
           <t xml:space="preserve"> Han examinado la contribuciÃ³n de las universidades y las instituciones de educaciÃ³n terciaria al desarrollo del capital humano y las competencias, la transferencia de tecnologÃa y la innovaciÃ³n empresarial, el desarrollo social, cultural y medioambiental, y la creaciÃ³n de capacidad regional. El proceso de revisiÃ³n ha facilitado la creaciÃ³n de asociaciones en ciudades y regiones al reunir a instituciones de educaciÃ³n terciaria y organismos pÃºblicos y privados para identificar objetivos estratÃ©gicos y trabajar juntos para alcanzarlos. Complementa las revisiones que se han llevado a cabo en la región transfronteriza México-Estados Unidos, de gran importancia estratégica y económica, como las de Nuevo León, la región Paso del Norte y, más recientemente, la del sur de Arizona (2011), junto al estado de Sonora. </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -467,8 +461,7 @@
           <t xml:space="preserve">En la última década, y en particular desde 2010, el número de altas per cápita ha tendido a disminuir, y ahora está en línea con la media de la OCDE mencionada anteriormente. Por ejemplo, los habitantes de zonas rurales representan el 43% de la población, pero sólo el 32% de las altas hospitalarias. A falta de información complementaria, no es posible determinar si esta diferencia indica o no disparidades en el acceso de las poblaciones rurales y, en caso afirmativo, si las causas son geográficas, culturales o infraestructurales. No parece que se recojan datos sobre el acceso a la atención desde el punto de vista del paciente, lo que ayudaría a comprender la naturaleza de los obstáculos al acceso (y las soluciones). En general, no es posible determinar con los datos disponibles si los ingresos o las características socioeconómicas de los pacientes influyen a la hora de llegar a las puertas del hospital o de ser ingresado. El acceso desigual probablemente se deba también a la incapacidad de los centros de las distintas regiones para prestar los mismos servicios. </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -478,8 +471,7 @@
           <t>¿En qué países los estudiantes de alto rendimiento se sienten atraídos por la docencia? Las encuestas de docentes en servicio a menudo muestran que los maestros actuales están muy motivados por los beneficios intrínsecos de la enseñanza: trabajar con niños y ayudarlos a desarrollarse y hacer una contribución a la sociedad, mientras que los estudios que encuestan a grandes grupos de graduados sobre sus opciones de carrera muestran que la los salarios relativos de las ocupaciones de los graduados juegan un papel en sus elecciones: si los salarios de los docentes hubieran sido más altos, más "docentes potenciales" habrían considerado seriamente una carrera en la enseñanza. A nivel de país, los resultados indican que tanto los salarios de los docentes como la estatus social de la profesión docente se asocian positivamente con las expectativas de los estudiantes de trabajar como docentes.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -489,8 +481,7 @@
           <t xml:space="preserve">A raíz de su preocupación por el hecho de que los médicos de todo el sistema sanitario japonés no fueran capaces de identificar los signos de sufrimiento psicológico que podrían ayudar a reducir los suicidios, la Asociación Médica Japonesa informa de que empezó a compartir información y orientaciones sobre la depresión con todos los médicos, primero en 2004 y luego de nuevo en 2009. En la actualidad, sólo se recogen indicadores sobre la tasa de reclusión y contención, y de ingresos involuntarios, por parte de los proveedores y a nivel prefectural. La información recopilada sistemáticamente sobre el sistema de atención de salud mental se limita a indicadores estructurales: instalaciones, número de personal, número de camas. </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -500,8 +491,7 @@
           <t>1999|H5|, Ares Abalde, 2014[ij]. El pequeño número de estudiantes y docentes en estas escuelas da forma a las formas en que las escuelas pueden utilizar el tiempo de docentes y alumnos, y cómo estos se agrupan por grados y habilidades (Mulcahy, 2009[ii6i). Los padres pueden estar preocupados por el hecho de que sus hijos aprendan junto con niños de diferentes edades en el mismo salón de clases (Cornish, 2006[ii7j), pero la investigación sugiere que la enseñanza multigrado no es necesariamente menos efectiva que en clases de edades específicas.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -511,8 +501,7 @@
           <t>A continuación, se propone una síntesis de país con el fin de resaltar la coherencia de la política nacional en la materia. Dicha coherencia se construye sobre la fuerza de las asociaciones que existen entre los Niveles 2, 3 y 4. La siguiente tabla resume el contenido de las recomendaciones y especifica si existe un diploma relacionado con el campo de los usos de las TIC en la educación. El caso de cada país se describe específicamente en los siguientes párrafos.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="B7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -522,8 +511,7 @@
           <t>A diferencia de los acuerdos anteriores, la nueva normativa no estipula la cantidad de tiempo que debe utilizarse para distintos fines, como la enseÃ±anza y la preparaciÃ³n. Las decisiones sobre el uso del tiempo de los profesores y el lugar de trabajo recaen ahora en la direcciÃ³n del centro y se espera que los profesores trabajen de forma diferente. En 35 sistemas, el tiempo de enseÃ±anza se especifica contractualmente.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -533,8 +521,7 @@
           <t xml:space="preserve">Por ejemplo, los servicios de urgencias tienen que prestar asistencia aunque ya se hayan cubierto las cuotas anuales de determinados servicios, por lo que el número de casos de este tipo puede proporcionar alguna indicación de si las cuotas se han fijado adecuadamente. El origen y destino final de los pacientes también puede proporcionar una indicación de si la capacidad en los distintos niveles de atención es adecuada, tanto en términos de acceso como de calidad de la atención. En 2013, había 3,1 médicos en ejercicio por cada 1 000 habitantes, cerca de la media de la OCDE de 3,2, y un ligero aumento con respecto a 2000, cuando había 2,9 médicos en ejercicio por cada 1 000 habitantes en Letonia. </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="B9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -544,8 +531,7 @@
           <t xml:space="preserve">A lo largo de diez años cerraron escuelas especiales y destinaron los recursos al sistema general. No obstante, reconoce que no siempre se trata a las personas como iguales y que los jóvenes con discapacidad sufren discriminación y desventajas. El Consejo cree que la educación especial segregada es un factor importante de discriminación. </t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="B10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -555,8 +541,7 @@
           <t>A medida que se implemente la nueva estructura de carrera, será crucial que el proceso de certificación establecido envíe señales claras de rigor para identificar tanto el buen desempeño en las diferentes etapas de la carrera como el bajo desempeño como docente. Un tema importante será resolver la duplicidad actual entre el proceso de certificación asociado a la estructura de carrera y el sistema de evaluación del desempeño docente. Para aprovechar el carácter continuo del sistema de evaluación del desempeño docente y atender la necesidad de que los docentes demuestren continuamente su idoneidad para la profesión en los diferentes niveles de la estructura de la carrera, podría considerarse la introducción del requisito de recertificación en determinada etapa de la carrera.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -566,8 +551,7 @@
           <t>Además, el seguimiento y planificación de la red escolar es limitado. Hay bastantes escuelas muy pequeñas con clases pequeñas que no ofrecen una rica experiencia de aprendizaje a los estudiantes. Esta situación surge porque no se ha realizado una revisión de la red escolar para evaluar la necesidad de alguna reorganización de la oferta educativa local y no se han desarrollado estrategias importantes de transporte escolar.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -577,8 +561,7 @@
           <t xml:space="preserve">Cada vez se reconocen más las repercusiones de un medio ambiente degradado sobre la salud y su reducción se considera uno de los principales objetivos de la política, los programas y la normativa de protección medioambiental. Se ha avanzado en el control de la calidad de los principales medios ambientales y en la vigilancia de las enfermedades infecciosas. Se ha reforzado la capacidad profesional en materia de salud pública y medioambiental con métodos avanzados de vigilancia sanitaria y evaluación de riesgos. </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="B13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -588,8 +571,7 @@
           <t xml:space="preserve">Formulario único de recogida de datos - Datos agregados). Una estancia de más de 24 horas se considera una lesión grave, y menos, una lesión leve. Sin embargo, desde 2010, la ANSV está trabajando con el Ministerio de Salud de la Nación para vincular los registros hospitalarios y los datos del Formulario Naranja. Este proyecto de vinculación se inició como piloto en dos de las provincias más pobladas de Argentina, con el fin de recopilar datos basados en el MAIS 3. </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -599,8 +581,7 @@
           <t xml:space="preserve">El principal instrumento de medición, el Adult Mental Health Benchmarking Toolkit, presenta indicadores de resultados en formato de cuadro de mando, combinando indicadores estructurales, de proceso y de resultados. Por lo general, se entiende que los trastornos leves a moderados (como la depresión y la ansiedad) no requieren tratamientos altamente especializados administrados por psiquiatras o en régimen de hospitalización en la gran mayoría de los casos. Por el contrario, requieren una sólida atención primaria y comunitaria. Aunque la atención primaria es, en la inmensa mayoría de los casos, el primer punto al que acuden las personas que sufren trastornos mentales, los médicos de atención primaria no siempre disponen de las competencias y opciones de tratamiento adecuadas para responder eficazmente a las necesidades. </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -610,8 +591,7 @@
           <t xml:space="preserve">Los esfuerzos deben centrarse en abordar las desigualdades en el acceso a los servicios sanitarios -entre regiones, asÃ como entre ciudades y zonas rurales- teniendo en cuenta la geografÃa del paÃs y la baja densidad de poblaciÃ³n en la planificaciÃ³n de la prestaciÃ³n sanitaria. Las redes de instalaciones a todos los niveles deberÃan reorganizarse de forma compatible con los nuevos modelos de prestaciÃ³n de servicios y en apoyo de los mismos, y ajustarse a las tendencias demogrÃ¡ficas y los patrones de acceso. Para este ejercicio, un punto de partida podrÃan ser los planes maestros de prestaciÃ³n de servicios desarrollados en los Ãºltimos aÃ±os. </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -621,8 +601,7 @@
           <t xml:space="preserve">Incluso en los países de la OCDE considerados con una atención primaria fuerte, como el Reino Unido, Australia y Nueva Zelanda, una gran proporción de médicos sigue trabajando en solitario. En Israel, un consultorio medio de atención primaria cuenta con el equivalente a 3,4 médicos generalistas, 2,6 enfermeras, 1,5 auxiliares y la mayoría tiene un director de consulta. En los últimos años, el Reino Unido, Australia, Francia y Suiza han modificado la financiación o proporcionado pagos adicionales a los médicos de cabecera para intentar dar prioridad a estos servicios, pero han tenido un éxito limitado a la hora de impulsar un cambio en todo el sistema. </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="B17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,8 +611,7 @@
           <t xml:space="preserve">Además, los alumnos de los cursos 9º y 10º tienen una tarea de proyecto obligatoria que les da la oportunidad de completar y presentar un proyecto interdisciplinar. El proyecto se evalúa mediante una declaración escrita basada en el contenido, el proceso de trabajo y la presentación del trabajo final. La evaluación del proyecto se puede indicar en el certificado de fin de estudios. </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="B18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -643,8 +621,7 @@
           <t>Al abordar este desafío político, los REA pueden actuar contra los “silos de conocimiento” (Plotkin, 2010:5), independientemente de si estos se derivan de las diferencias entre las instituciones educativas, los países o los entornos de aprendizaje formales, informales y no formales. En cada caso, el intercambio de recursos hecho posible por REA es más valioso cuando los recursos se liberan como REA completos que permiten no solo reutilizar sino también remezclar y reutilizar.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="B19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -654,8 +631,7 @@
           <t xml:space="preserve">Sin embargo, la prevalencia de niños de 0 a 6 meses con bajo peso aumentó del 6,9% en 2005 al 8,4% en 2010. En 2014, el bajo peso al nacer era más frecuente en las zonas rurales (sobre todo en la región occidental, con un 6,6%) que en las urbanas (3,8% en Ulán Bator). En 1997, el Gobierno aprobó una primera lista de productos químicos tóxicos y peligrosos prohibidos y de uso limitado. </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -665,8 +641,7 @@
           <t>Al final de la educación primaria, las escuelas deben informar sobre la medida en que sus alumnos han alcanzado los objetivos de aprendizaje básicos esperados. Si bien las escuelas tienen la libertad de utilizar diferentes instrumentos para este propósito, el 85% de las escuelas utilizan la prueba de fin de primaria de Cito, que brinda información sobre el tipo de escuela más adecuado para cada estudiante en la siguiente etapa de la educación. Las nuevas leyes que se implementarán a partir del año escolar 2014/15 obligan a las escuelas primarias a administrar sistemas regulares de monitoreo de estudiantes, así como una prueba final al final del año 8.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="B21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -676,8 +651,7 @@
           <t>Con el telón de fondo de una prolongada falta de fuentes oficiales de información fiable sobre la producción, el tráfico y el uso indebido de drogas ilícitas entre los países de la región, ha habido varios informes de los medios de comunicación y anecdóticos sobre el uso indebido generalizado de comprimidos falsificados de Captagon (que contienen anfetamina) entre todas las partes implicadas en la violencia armada en la República Árabe Siria. Es significativo que, por primera vez en seis años, el Estudio sobre el Opio en Afganistán 2015, del que se dispone del resumen ejecutivo, señala que se ha producido una disminución de la superficie total estimada de cultivo ilícito de adormidera en Afganistán, que en 2015 ascendió a 183.000 hectáreas (ha). Esto representa una disminución en comparación con 2014, cuando el cultivo alcanzó niveles récord, con 224.000 hectáreas.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -687,8 +661,7 @@
           <t>Al mismo tiempo, la información oficial sobre las pruebas nacionales repite claramente el mensaje de que las pruebas nacionales solo miden un área discreta del conocimiento y las habilidades de los estudiantes, brindando una instantánea del rendimiento de los estudiantes en objetivos de aprendizaje seleccionados, y que se necesitan evaluaciones complementarias para medir completamente proceso estudiantil. La investigación de diferentes países indica que, si bien la evaluación tiene como objetivo principal medir el progreso y los resultados del aprendizaje, también tiene efectos en el proceso de aprendizaje en sí (Somerset, 1996). Varios autores han descrito esta influencia de la evaluación en la enseñanza y el aprendizaje como el “efecto de retroceso” de la evaluación de los estudiantes (Alderson y Wall, 1993, Baartman et al.,</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="B23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -698,8 +671,7 @@
           <t>La falta de pruebas sólidas de la medición de la seguridad de los pacientes en los entornos de atención primaria y ambulatoria puede explicarse en parte por la naturaleza fragmentada de este entorno descrita en la introducción. De hecho, las respuestas a la encuesta sugieren que el carÃ¡cter fragmentado de los "sistemas" de atenciÃ³n primaria y ambulatoria y la falta de gobernanza general del sistema son el principal obstÃ¡culo para la aplicaciÃ³n de medidas e intervenciones de seguridad (vÃ©ase el capÃtulo 4). Esto significa que la informaciÃ³n rara vez puede vincularse. Estos obstÃ¡culos tÃ©cnicos pueden impedir captar con precisiÃ³n la imagen completa de la frecuencia y magnitud de los daÃ±os sufridos por los pacientes a lo largo de su recorrido.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="B24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -709,8 +681,7 @@
           <t>Los estudios que utilizan la clase ocupacional o el nivel educativo en lugar de la renta como indicador socioeconÃ³mico encuentran resultados cualitativamente similares, aunque las diferencias en la esperanza de vida son significativamente menores (Palosuo et al., El proyecto TEROKA pretende desarrollar una base de conocimientos y herramientas para promover la consecuciÃ³n del objetivo del programa de salud pÃºblica Salud 2015 de reducir las desigualdades en salud. An analysis of the recent hospital reform in Norwayâ€, en: Andresen y Gronlie (eds.), â€œ</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="B25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -720,8 +691,7 @@
           <t xml:space="preserve">Al no tratarse de planes de clase detallados, los recursos exigen (y presuponen) una gran autonomía y capacidad de acción por parte del profesorado. Están dirigidos a profesores expertos que pueden diseñar su entorno de aprendizaje y sus clases. Sin embargo, como se ha comprobado sobre el terreno, los recursos pedagógicos no son suficientes para la mayoría de los profesores y deben complementarse con otros recursos de aprendizaje. </t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="B26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -731,8 +701,7 @@
           <t>Mientras que la eficacia mide el efecto de un agente terapéutico en condiciones y entornos controlados, la efectividad mide el efecto de un tratamiento en condiciones menos controladas en entornos sanitarios del "mundo real". Medir la eficacia es mucho más fácil en pacientes con una sola enfermedad. Por ello, es muy habitual que las personas con múltiples enfermedades crónicas queden excluidas de los ensayos clínicos aleatorizados.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="B27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -742,8 +711,7 @@
           <t>Algunos de los beneficios del reconocimiento de habilidades recaen en los empleadores solo colectivamente (por ejemplo, un sector económico), ya que un sector tiene interés en tener un grupo de trabajadores calificados y calificados y el riesgo de caza furtiva asociado con habilidades más visibles es menos problemático para un sector que para un empleador individual. Incluyen tanto las habilidades relativamente simples involucradas en tareas físicas o servicios digitales (ingreso de datos o soporte administrativo) hasta habilidades de nivel superior en actividades como programación o consultoría empresarial (OCDE 2016b). En estos contextos, muchas de las herramientas "tradicionales" de capacitación y reconocimiento de habilidades no se aplicarán: no hay un empleador que recompense a un empleado que aprende rápido con salarios por hora más altos o testifique que el trabajador ha adquirido un conjunto específico de habilidades.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="B28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -753,8 +721,7 @@
           <t>Aún queda mucho por hacer para reducir los tiempos de espera en las consultas externas de los hospitales de otras zonas, y el Gobierno se ha comprometido a construir un nuevo bloque de consultas externas para aumentar la capacidad de atender la demanda. También se está llevando a cabo un ejercicio para mejorar la eficiencia interna en la gestión de los servicios ambulatorios con vistas a reducir los tiempos de espera. Otros factores que ponen a prueba la capacidad del sistema sanitario son el aumento de la inmigración de trabajadores y pensionistas, los turistas que utilizan el sistema sanitario y los cambios en los comportamientos de riesgo de la población.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="B29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -764,8 +731,7 @@
           <t>Algunos ejemplos son el Informe nacional sobre el estado y el desarrollo de la educación, los resultados del estudio de seguimiento de la evaluación del desempeño de los estudiantes de quinto y noveno grado, el análisis de los resultados de la evaluación externa del rendimiento de los estudiantes de noveno grado y el análisis de los resultados de la prueba nacional unificada de 2012. No existen esquemas formales para que los líderes escolares participen en el apoyo a sus pares en otras escuelas (por ejemplo, intercambiando mejores prácticas, asesorando a nuevos líderes, apoyando a aquellos en escuelas aisladas o de bajo rendimiento) y el concepto de líder del sistema que no solo puede liderar a su la escuela, sino que también contribuyen a la mejora de todo el sistema es bastante incipiente. Existen pocos mecanismos para compartir recursos entre las escuelas con el fin de hacer un uso más eficiente de su infraestructura física, equipos y materiales didácticos, o de sus recursos humanos.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="B30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -775,8 +741,7 @@
           <t>Algunos municipios también han introducido políticas de área de código postal y “aplicación central” para inscribir a los estudiantes en una determinada escuela sobre la base de las necesidades y características de la escuela en lugar de dar a las familias la posibilidad de elegir la escuela completa (Ministerie van Onderwijs, Cultuur en Wctcnschap, 2008(9oi En otras dos ciudades holandesas, Nijmegen y Deventer, el gobierno local impuso la integración como criterio en el proceso de elección de escuela, con el objetivo de tener un 70% de estudiantes nativos junto con un 30% de estudiantes inmigrantes (Ladd, Fiske and Ruijs, 2009[ 7oj). Más concretamente, todas las escuelas primarias de Nijmegen han acordado un sistema de suscripción central basado en la distribución de los alumnos en diferentes categorías para llegar a un porcentaje del 30 % de alumnos desfavorecidos en cada escuela.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="B31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -786,8 +751,7 @@
           <t>Algunos países, incluidos Austria, Bélgica, Canadá, Chile, Italia, Japón, los Países Bajos y España, también brindan incentivos fiscales explícitos para la capacitación, además de la deducibilidad estándar de los costos de capacitación y de los salarios pagados a los aprendices y aprendices. Las lecciones de evaluaciones recientes muestran que la efectividad de los incentivos fiscales depende de su diseño. Por ejemplo, un diseño muy complejo puede reducir las tasas de aceptación, generar reclamos de alivio laxo por debajo del nivel óptimo o conducir a altas tasas de incumplimiento.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="B32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -797,8 +761,7 @@
           <t>Así, donde la vivienda está altamente segregada, las escuelas también tienden a estar segregadas. Las escuelas que se perciben como de mejor calidad a menudo están ubicadas en áreas donde los precios de las propiedades y los alquileres son más altos. Por lo tanto, la educación de buena calidad a menudo tiene un precio implícito en el mercado de la vivienda y es posible que los estudiantes inmigrantes de entornos socioeconómicos bajos no tengan acceso a ella (Field et al.,</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="B33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -808,8 +771,7 @@
           <t>El Ministerio planea ahora implicarse más a través del proyecto "Implantación de Guías de Práctica Clínica en la asistencia cubierta por el seguro médico público", financiado por la UE y puesto en marcha a finales de 2013. El sistema de auditoría interna de la calidad y el sistema de supervisión de la seguridad de los pacientes son obligatorios por ley, pero siguen sin aplicarse. No está claro hasta qué punto estas auditorías se traducen en procesos reales de mejora de la atención al paciente.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="B34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -819,8 +781,7 @@
           <t>Aunque existen algunas variaciones en las definiciones detalladas que se utilizan, las siguientes descripciones ofrecen una indicación útil de cómo los términos 'formal', 'no formal' e 'informal' se aplican comúnmente a la educación y el aprendizaje. El aprendizaje no formal tiene muchas manifestaciones, pero los ejemplos incluirían clases de alfabetización para adultos en las aldeas y la formación de entrenadores en un club deportivo. El sitio web iSpot Nature ofrece un ejemplo en línea de aprendizaje colaborativo y autodirigido donde los usuarios aprenden a identificar y apreciar la flora y la fauna compartiendo información en una comunidad en línea (Recuadro 1.1).</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="B35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -830,8 +791,7 @@
           <t>El sistema inglés de atención a la salud mental, que opera predominantemente bajo el Servicio Nacional de Salud, pero también bajo Salud Pública de Inglaterra y junto a las Autoridades Locales gubernamentales, se compone de atención primaria y especializada ("atención secundaria" y "atención terciaria"), y atención social. Es probable que la atenciÃ³n integral de la salud mental incluya tambiÃ©n cierta intervenciÃ³n de los servicios de atenciÃ³n social, tanto de los servicios financiados y gestionados por Public Health England como de los servicios sociales locales gestionados por las Autoridades Locales. Los servicios de atenciÃ³n de salud mental financiados por el gobierno y gestionados por el estado se complementan a veces con servicios voluntarios y con servicios privados pagados por el NHS, especialmente para la atenciÃ³n de seguridad media y baja (vÃ©anse la secciÃ³n 3.2 y la secciÃ³n 4.3.ii).</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="B36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -841,8 +801,7 @@
           <t>Aunque la financiación pública ha sufrido algunas reducciones debido a la crisis económica, el gasto por alumno sigue estando por encima de la media de la OCDE. Las altas tasas de abandono escolar y desempleo juvenil requieren esfuerzos para consolidar las habilidades básicas y adaptarse mejor a las necesidades del mercado laboral, centrándose en la calidad de la educación y la provisión de educación y formación profesional. Al mismo tiempo, la calidad de los docentes y el liderazgo escolar se puede mejorar a través de una formación inicial y continua más específica.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="B37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -852,8 +811,7 @@
           <t xml:space="preserve">Los requisitos actuales del Plan, introducidos en 2013, incluyen objetivos regionales especÃficos, y tambiÃ©n se definen varios objetivos a travÃ©s de la lista de tarifas. â€˜ Health Japan 21" establece un objetivo de prevenciÃ³n de enfermedades asociadas a los hÃ¡bitos de la vida adulta. El cumplimiento de las directrices es voluntario y no estÃ¡ claro el impacto de su evoluciÃ³n en la calidad. Esto se debe a la falta de indicadores completos y procesables que apoyen la mejora de la calidad. </t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="B38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -863,8 +821,7 @@
           <t>Basado en datos armonizados de rendimiento de estudiantes de 15 años recopilados a nivel individual, el análisis empírico muestra que, mientras que los países nórdicos de Europa exhiben niveles relativamente bajos de desigualdad, Europa continental se caracteriza por altos niveles de desigualdad, en particular de segregación escolar según el nivel socioeconómico. -líneas económicas- mientras que los países anglosajones ocupan una posición algo intermedia. A pesar de la dificultad de identificar adecuadamente la relación causal, el análisis de regresión entre países proporciona información sobre el potencial de las políticas para explicar las diferencias observadas en la equidad en la educación. Las políticas que permiten una mayor mezcla social están asociadas con una menor segregación socioeconómica escolar sin afectar el desempeño general.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="B39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -874,8 +831,7 @@
           <t xml:space="preserve">En la actualidad hay pocos indicadores que midan la calidad de la coordinación asistencial. Sin una investigación biomédica adecuada sobre la mejor manera de tratar a una persona con múltiples afecciones crónicas, será difícil crear parámetros de calidad basados en pruebas. Como ya se ha señalado, es difícil elaborar directrices prácticas o parámetros de calidad para las personas con múltiples enfermedades crónicas. </t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="B40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -885,8 +841,7 @@
           <t xml:space="preserve">Cabe preguntarse, sin embargo, si los alumnos con más talento del país asisten a estos centros, ya que los estudiantes desfavorecidos tienen un acceso más limitado a las clases extraescolares para prepararse para la admisión. Además, la proporción de alumnos con mejores resultados en las evaluaciones internacionales sigue siendo muy pequeña, mientras que un gran número se queda rezagado con respecto a sus compañeros de otros países. Los sistemas educativos que mejoran más rápidamente en PISA muestran que las mejoras en la parte superior e inferior de la escala de rendimiento pueden ir de la mano. </t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="B41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -896,8 +851,7 @@
           <t>Chalmers School of Entrepreneurship (CSE), www.entrepreneur.chalmers.se, es a la vez una plataforma educativa, donde se pueden adquirir habilidades empresariales y una preincubadora para desarrollar ideas comerciales en etapas iniciales y para iniciar una empresa (la mayoría de los estudiantes iniciar una empresa legal durante el año del proyecto). El núcleo de esto es una red que reúne a personas, universidades y empresas innovadoras interesadas en desarrollar y comercializar ideas de alta tecnología en etapas tempranas con alto potencial de mercado. Hoy en día, CSE practica un proceso de “Encubación”, es decir, ofrece una educación de nivel de Maestría combinada con la incubación de empresas a través de una organización incubadora, Encubator, que opera en simbiosis con la educación pero es propiedad de Chalmersinvest. Al participar como proveedor de ideas, los investigadores universitarios y otros inventores tienen la oportunidad de probar su invento en un proyecto de innovación de un año en CSE.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="B42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -907,8 +861,7 @@
           <t>Cinco de estos se ofrecen en universidades regionales bajo el Consejo de Educación Superior: Ort Braude, Tel Hai, Sakhnin, Western Galilee y Sefad Colleges. Persisten las brechas socioeconómicas entre los grupos de población y las disparidades entre Galilea y el centro de Israel. Israel necesita una estrategia política continua y concertada”. La política debe garantizar que la infraestructura educativa que se ofrece a todos los niños árabes y judíos, incluidas cuestiones como el tamaño de las clases, las instalaciones educativas en todos los niveles, los estándares básicos en inglés, matemáticas y ciencias, sea de un nivel similar.</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="B43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -918,8 +871,7 @@
           <t>Como concluye el informe de PISA, Estudiantes, computadoras y aprendizaje: Haciendo la conexión (OCDE, 2015): en general, las escuelas y los sistemas educativos no han sido efectivos para aprovechar el potencial de la tecnología. En los países de la OCDE, hay 0,77 computadoras por estudiante en la escuela, el 96% de las cuales están conectadas a Internet (Tabla 11.6.4). Existen grandes diferencias en la proporción de computadoras por estudiante entre los sistemas educativos.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
+      <c r="B44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -929,8 +881,7 @@
           <t>Como él lo expresó, esta es una pregunta que parece olvidarse en la búsqueda de comparar y medir, y de justificar lo que hacen los educadores. Agregó: “Donde podemos esperar perder el rumbo es cuando nos alejamos de la comprensión de esos valores fundamentales y lo que se supone que deben lograr en la educación y la capacitación a un proceso que burocratiza el endeudamiento”. Mirando a través de sus 23 universidades y más de 20,000 escuelas, Sudáfrica se ha vuelto muy buena para dar la impresión de lograr resultados particulares sin haberlos logrado en absoluto.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
+      <c r="B45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -940,8 +891,7 @@
           <t xml:space="preserve">Arogya World recurrió a una asociación público-privada para financiar y poner en marcha el programa. Entre los socios, además de Nokia y la Universidad de Emory, estaban Johnson &amp; Johnson y Aetna. Al menos 5 millones de personas padecen diabetes en la India. La diabetes mata a 10 lakh de indios cada año. Un nivel alto de azúcar en sangre durante periodos prolongados perjudica al organismo. </t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
+      <c r="B46" t="n">
         <v>3</v>
       </c>
     </row>
@@ -951,8 +901,7 @@
           <t>Como grupo históricamente desfavorecido en Nueva Zelanda (Marie, Fergusson y Boden, 2008, 177]), estas pautas especiales ayudan a los nuevos maestros a apoyar a los estudiantes maoríes. Es importante destacar que el programa está integrado en el horario de todos los maestros nuevos. Los equipos ofrecen apoyo a los maestros y la administración que trabajan con niños inmigrantes. Además, a menudo hay un psicólogo calificado para ayudar a los niños que han experimentado traumas o dificultades en sus vidas (Scholten et al., este apoyo varía y puede incluir consejos para maestros, trabajo de casos individuales con estudiantes inmigrantes y talleres para mejorar el clima de clase). Es importante destacar que los MIT interactúan con los padres de los estudiantes inmigrantes para integrarlos en la comunidad escolar (Felder-Puig, Maier y Teutsch, 2016, 183) y, a menudo, sirven como puente lingüístico entre los estudiantes, los padres y la escuela (profesores, administradores, etc) (</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
+      <c r="B47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -962,8 +911,7 @@
           <t>Aunque el abuso del alcohol tiene un impacto importante en el patrón de mortalidad de las regiones septentrionales en general, ha tenido un impacto especialmente significativo en los pueblos indígenas, con niveles de consumo de alcohol atípicamente altos entre las mujeres. Por ejemplo, en la región de Berezovo del distrito autónomo de Khanty-Mansi, en 1996-1999, de las 362 muertes entre la población indígena, excluidos los lactantes, un tercio estaban asociadas al alcohol, mientras que la tasa de muertes relacionadas con el alcohol era del 15% en la población no indígena. Las muertes de mujeres relacionadas con el alcohol fueron cinco veces más altas entre los pueblos indígenas que entre los norteños rusos.565 En el distrito autónomo de Chukchi, el alcohol causó el 42% de las muertes de mujeres indígenas, mientras que el alcohol blanco causó el 19% de las muertes de mujeres no indígenas.566 Incluso cuando no acaba en pérdidas humanas, el consumo de alcohol provoca pérdidas económicas que directa o indirectamente disminuyen la calidad de vida. La tasa de mortalidad por causas externas entre los indígenas norteños es más del doble de la media rusa.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
+      <c r="B48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -973,8 +921,7 @@
           <t>Como resultado, los requisitos de admisión se han vuelto más estrictos y ahora existen requisitos específicos en términos de rendimiento en la educación secundaria superior. La entrada es ahora un proceso de dos niveles. A aquellos con las calificaciones más altas se les otorga la admisión directa, pero cualquier otra persona que desee inscribirse debe realizar un examen que incluye una entrevista, los cuales se califican para determinar el ingreso.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
+      <c r="B49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -984,8 +931,7 @@
           <t>La calidad de los servicios de salud mental debe incluir no sólo la calidad de los servicios especializados, sino también la calidad de los servicios de atención primaria y la calidad de los servicios prestados por otros sectores, por ejemplo los servicios de vivienda o empleo. Sin embargo, a menudo no se puede evitar elegir indicadores para la evaluación comparativa de la calidad que reflejen la fuente de datos disponible en lugar de medidas óptimas de la calidad de la atención, lo que ha perpetuado la dependencia de los indicadores orientados a la hospitalización, en lugar de reflejar el cambio en los patrones de prestación de la atención. Es crucial que, una vez acordadas las medidas óptimas de calidad, exista el compromiso de trabajar para recopilar estos datos. La creación de registros y la evaluación periódica de las personas con SMI en la atención primaria pueden ayudar a reducir la carga de la enfermedad física y mejorar la calidad de la atención (Holt et al.,</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
+      <c r="B50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -995,8 +941,7 @@
           <t>Los problemas de salud mental leves a moderados constituyen la mayor parte de los casos, y estos problemas van en aumento desde hace varias décadas. Por otra parte, las autoridades suecas reconocen que la enfermedad mental es un asunto nacional primordial. Suecia también ha sido un país precursor en la desinstitucionalización y la puesta en marcha de programas oficiales de prevención del suicidio.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
+      <c r="B51" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1006,8 +951,7 @@
           <t>Como sugirió el proyecto de la OCDE sobre liderazgo escolar, las perspectivas de desarrollo profesional, así como las escalas salariales para los líderes escolares que estén separadas de las escalas salariales de los docentes y que reflejen las estructuras de liderazgo y los factores del nivel escolar, pueden ayudar a atraer líderes de alto rendimiento a todas las escuelas (Pont et al., El uso de los resultados de la evaluación para informar el avance profesional puede ayudar a que la evaluación para la rendición de cuentas sea más efectiva y significativa. Sin embargo, es importante tener en cuenta que la investigación sobre los efectos de tales sistemas que vinculan la evaluación con el avance profesional es escasa. Esto requiere indicadores confiables y aspectos y criterios de valoración claros, capacitación de los evaluadores y la debida consideración del contexto en el que se desempeña un líder escolar, dependiendo del contexto del país, esto se refiere a conceptos como director de escuela en Australia, Canadá y Estados Unidos o el director en el Reino Unido e Irlanda.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
+      <c r="B52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1017,8 +961,7 @@
           <t>Si se midieran los beneficios aportados por las tecnologías, se trataría de un análisis coste-eficacia. Repercusiones de los avances de la tecnología médica en Australia. La principal conclusión es que el envejecimiento de la población y el cambio climático plantean importantes riesgos a largo plazo para la economía y la sostenibilidad de las finanzas públicas, sobre todo en el sector sanitario.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="n">
+      <c r="B53" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1028,8 +971,7 @@
           <t>Con la implementación de las nuevas leyes sobre evaluación de estudiantes (Capítulo 1), el Colegio para Exámenes también supervisará la calidad de las pruebas de fin de primaria administradas por las escuelas. Las responsabilidades de las escuelas y las juntas escolares incluyen la evaluación formativa y sumativa regular de los estudiantes, las evaluaciones de desempeño de los maestros individuales y la atención de calidad interna de la escuela. Además de los tres actores tradicionales (el Ministerio, la Inspección y las escuelas), una serie de organizaciones intermedias tienen una influencia cada vez mayor en la evaluación y evaluación en el país. Los Consejos de Educación Primaria y Secundaria juegan un papel clave en la recopilación y difusión de datos sobre el desempeño de las escuelas individuales, fortaleciendo así la rendición de cuentas tanto horizontal como vertical.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
+      <c r="B54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1039,8 +981,7 @@
           <t>Conocimiento profesional en los estándares de posgrado australianos y áreas pedagógicas básicas. Las iniciativas de política implicaron mejorar la formación docente inicial y el desarrollo profesional, desarrollar estándares docentes o un marco de competencias y vincularlos con la evaluación docente, introducir etapas de carrera para los docentes, etc. (OCDE, 2015[ij, 2013(2]) - Cada vez más estudios de en las características de calidad de la formación docente en sistemas de alto rendimiento (Darling-Hammond, Wei and Andree, 2010p), Hammerness and Klette, 2015[4j, Darling-Hammond, 2006[5|, Darling-Hammond et al., Teaching standards have también han sido examinados y comparados (Toledo, Revai and Guerriero, 2017(9), Kleinhenz and Ingvarson, 2007(|0]), y la evidencia sobre su impacto en la formación docente se extiende a un número creciente de contextos localizados (Chung and Kim, 2010(H), Tummons, 2014(i2), Page, 2015[i3j, Kriewaldt, 2012[i4], Ceulemans, Simons y Struyf, 2012[i5j].</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
+      <c r="B55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1050,8 +991,7 @@
           <t xml:space="preserve">Considera que el Nivel 2 en lectura y matemáticas es el nivel mínimo de competencia necesario para que los alumnos participen plenamente en la sociedad del conocimiento (véase la sección Definiciones). En Estonia, Finlandia y Japón, al menos el 83% de los alumnos alcanzan el Nivel 2 o superior tanto en lectura como en matemáticas, mientras que menos del 35% de los alumnos lo hacen en Brasil, Colombia y Costa Rica. Sin embargo, PISA también muestra sistemáticamente que un alto rendimiento y una mayor equidad no son mutuamente excluyentes (Figura 2). De hecho, poder mejorar el rendimiento de todos los estudiantes, independientemente de su origen, es necesario para que los países se conviertan en países de alto rendimiento y alcancen las metas del ODS 4. </t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="n">
+      <c r="B56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1061,8 +1001,7 @@
           <t>Contribuye al estudio de la desigualdad educativa al evaluar cómo la forma en que se conceptualiza y mide la desigualdad educativa influye en las clasificaciones de los países. Tales opciones, a su vez, tienen implicaciones para las conclusiones de política que se extraen de las comparaciones internacionales. Estos valores se han incorporado cada vez más a un consenso global, ahora que forman un Objetivo de Desarrollo Sostenible explícito (Naciones Unidas, 2014), un objetivo del Banco Mundial (2015) y parte de la narrativa más reciente del Fondo Monetario Internacional (FMI) (FMI, 2017, Clements et al., Los mismos valores también han sido fundamentales para los objetivos de movimientos de protesta recientes como Occupy Wall Street y Los Indignados.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="n">
+      <c r="B57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1072,8 +1011,7 @@
           <t>Las prioridades actuales son la promoción y prevención de la salud, la salud medioambiental y el impacto de la migración. Los impuestos sobre el tabaco y el alcohol se utilizan para financiar el instituto nacional de lucha contra el alcoholismo y la drogodependencia, así como el CONAPAM (véase más arriba). La estrategia nacional contra las enfermedades no transmisibles y la obesidad define varios objetivos, entre ellos una reducción del 12% de la prevalencia del tabaquismo, una reducción del 15% de la ingesta de sal y una reducción del 2% de los niveles de obesidad infantil antes de 2021.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
+      <c r="B58" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1083,8 +1021,7 @@
           <t>Corea, otro país de Asia Oriental con alto rendimiento en PISA, se basa en el proceso de selección de candidatos a docentes, la capacitación docente previa al servicio y el proceso de evaluación nacional, todo lo cual sirve para garantizar que solo los mejores y más brillantes se unan a las filas de los docentes (OCDE, 2014a). Del mismo modo, Webb et al. (Incluso cuando la calidad de los docentes es similar, la evidencia disponible sugiere que la autonomía tiene un impacto positivo cuando se otorga a cambio de la rendición de cuentas.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="n">
+      <c r="B59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1094,8 +1031,7 @@
           <t>En Finlandia, varios centros o puestos de salud han empezado a utilizar un modelo de enfermera especializada en depresión. Una encuesta realizada en 2008 en todos los centros de salud finlandeses indicó que el 78% de todos los centros de salud tenían una enfermera especializada en depresión o psiquiatría y que el 61% de los centros habían adoptado una práctica uniforme para el cribado de la depresión (Partanen et al., Las enfermeras de salud mental desempeñan un papel cada vez más importante en la prestación de servicios de atención primaria de salud mental y algunos países, como Australia, han introducido incentivos económicos para apoyar y desarrollar esta función (Happell et al.,</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
+      <c r="B60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1105,8 +1041,7 @@
           <t>Cuando existía este tipo de apoyo, estaba fragmentado y no había una verdadera colaboración entre las instituciones de enseñanza superior de la región. El modelo del Fondo de Innovación de la Enseñanza Superior (HEIF) del Reino Unido podría servir de fuente de inspiración (véase el Capítulo 5). Una estrategia que hiciera hincapié en el desarrollo endógeno de la industria tradicional que se dedica a la I+D serviría mejor a la región.</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
+      <c r="B61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1116,8 +1051,7 @@
           <t>Cuando la instrucción se centra estrictamente en conocimientos, habilidades y formatos de preguntas específicos, los resultados de las pruebas se convierten en una medida cada vez más engañosa del rendimiento de los estudiantes (Hout y Elliott, 2011). Este problema a menudo se exacerba cuando los maestros perciben que las pruebas tienen mucho en juego como resultado de los sistemas de incentivos, también puede ser causado inadvertidamente si las pruebas no se actualizan con frecuencia. Por ejemplo, en Suecia, la prueba estandarizada de Year 5 se usa durante 2 años consecutivos y los maestros pueden, sin darse cuenta, "enseñar para la prueba" en el segundo año, lo que genera inflación en las calificaciones y reduce la validez de los resultados (Nusche, de próxima publicación). En Dinamarca, la enseñanza para el examen toma la forma de un mayor enfoque en las áreas de contenido evaluadas y un enfoque reducido en las habilidades creativas, innovadoras y orales (Wandall, 2010 citado en Shewbridge et al.,</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
+      <c r="B62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1127,8 +1061,7 @@
           <t>Europe &amp; Central Asia Knowledge Brief, Vol. Por ejemplo, hay muchas posibilidades de mejorar la dieta para reducir el riesgo de enfermedades cardiovasculares y cáncer. En este contexto, la experiencia finlandesa (en Carelia del Norte) indica los considerables beneficios potenciales que pueden obtenerse modificando la dieta y otros factores de riesgo. Por lo que respecta al abuso de sustancias, los impuestos sobre el tabaco y el alcohol han ido en aumento, pero -según los datos internacionales disponibles- siguen estando por debajo de las normas europeas (Figura 3.17).26 Existen pruebas de que los bajos precios de estos productos fomentan un mayor consumo de tabaco y bebidas espirituosas (Treisman, 2008). Limitar la influencia de los grupos de presión de los productores contribuiría a aumentar la coherencia de las políticas y a reducir el consumo de sustancias a largo plazo. Las muertes de tráfico también podrían reducirse con medidas sencillas para reducir la velocidad de los vehículos mediante radares, el aumento de las multas por infracciones de tráfico y simples badenes pueden ser políticas rentables.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="n">
+      <c r="B63" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1138,8 +1071,7 @@
           <t>Sin embargo, la legislación de 2010 sobre el sistema de seguro médico obligatorio parece haber reforzado el papel del sistema de seguros. Esto, a su vez, puede haber contribuido a los recientes descensos de la mortalidad y al alargamiento de la vida media. Sin embargo, dado el poco tiempo transcurrido desde la introducción de estos programas, probablemente sea demasiado pronto para juzgar el resultado final. Las encuestas (realizadas por el Centro Levada) muestran que la proporción de la población que indica que la calidad de la atención sanitaria ha mejorado durante el último año pasó del 11% en 2002 al 20% en 2008 (Tabla 3.3).</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
+      <c r="B64" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1149,8 +1081,7 @@
           <t>Busca perfilar las políticas clave de calidad de la atención y comparar la medida en que se están empleando las políticas para monitorear y mejorar la calidad en el sistema de salud turco. Al describir la estructura de gobernanza de la calidad y el papel del Ministerio de Salud y las organizaciones afiliadas, el capítulo destaca cómo Turquía debe continuar con los pasos hacia una gobernanza más descentralizada y trabajar para alinear la gobernanza de los hospitales públicos y el sistema de salud pública. Al abordar la calidad de los insumos en el sistema de salud, el capítulo recomienda que Turquía continúe el impresionante trabajo iniciado en estándares de calidad y acreditación mientras trabaja para construir buenos sistemas de garantía de calidad y seguridad del paciente. El capítulo concluye con una recomendación de que Turquía desarrolle una política coherente sobre cómo fortalecer la infraestructura de información turca para facilitar el uso de indicadores de calidad.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="n">
+      <c r="B65" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1160,8 +1091,7 @@
           <t>La subrepresentación de mujeres en puestos de alta responsabilidad puede estar relacionada con las importantes tasas de abandono de la fuerza laboral femenina a una edad temprana, ya que muchos de estos puestos son accesibles solo con una experiencia laboral considerable. La dificultad para acceder a altos cargos podría ser un factor adicional que disuada a las mujeres de ingresar o permanecer en el mercado laboral. En 2014, las tasas de desempleo de las mujeres jóvenes oscilaron entre el 19,1 % en Marruecos y el 69,2 % en Libia, una cifra considerablemente alta en comparación con la media del 16,2 % en los países de la OCDE (Gráfico 1.6).</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
+      <c r="B66" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1171,8 +1101,7 @@
           <t>También plantean la cuestión de si el acceso es proporcional a la necesidad. Los datos sobre los diagnósticos de alta (basados ​​en los códigos ICD-10), así como los diagnósticos quirúrgicos (basados ​​en los códigos ICD-9), sugieren que la mayoría de los hospitales continúan enfocados en brindar servicios básicos de complejidad limitada, una proporción significativa de los cuales probablemente se brindará en instalaciones de nivel inferior en los países de la OCDE. Los servicios obstétricos también dominan en gran medida el panorama de la actividad hospitalaria en Kazajstán. De hecho, la mayoría de estos servicios deberían estar basados ​​en hospitales, pero su prominencia sugiere que la actividad en los hospitales kazajos no es ni muy compleja ni muy diversa.</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="n">
+      <c r="B67" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1182,8 +1111,7 @@
           <t>También puede importar la versión genérica del medicamento (patente vencida o con licencia voluntaria). Sin embargo, no puede importar de un fabricante al que su gobierno haya emitido una licencia obligatoria. En este último caso, la producción será predominantemente para el abastecimiento del mercado interno y por lo tanto existe una restricción de facto a las exportaciones.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
+      <c r="B68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1193,8 +1121,7 @@
           <t>Los encuestados también enumeraron ocasionalmente los intereses comerciales entre los impulsores de la medicina estratificada. Sin embargo, solo en Finlandia e Israel esto pareció ser una preocupación importante, mientras que un encuestado chino anticipó beneficios bastante diferentes en forma de un movimiento hacia la introducción de elementos de una economía de mercado en la atención médica. Por lo tanto, si bien los encuestados pudieron citar ejemplos ocasionales de estratificación exitosa de intervenciones médicas (cánceres hematológicos en Finlandia y cáncer de pulmón en Luxemburgo, por ejemplo), estos fueron ejemplos predominantemente locales, tanto geográficamente como en términos de estar limitados a unos pocos, bastante específicos. condiciones, mientras que la opinión general entre los encuestados fue que aún era demasiado pronto para buscar mejoras significativas en el cuidado de la salud atribuibles a la medicina estratificada.</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
+      <c r="B69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1204,8 +1131,7 @@
           <t>La discriminación de género impide que las niñas y mujeres jóvenes, especialmente en las poblaciones dominadas por youdi de hoy. Las niñas y mujeres jóvenes enfrentan las mayores brechas entre su matriculación en la escuela secundaria, una puerta de entrada fundamental para la participación en la sociedad y la economía. Del mismo modo, se enfrentan a una discriminación general que inhibe aún más su compromiso y sus contribuciones a sus familias, comunidades y la sociedad en general, como se ilustra al comparar los porcentajes de jóvenes en las poblaciones de los países y las clasificaciones de esos países en un índice de discriminación de género del Programa de las Naciones Unidas para el Desarrollo. . Esto es especialmente dañino porque la buena salud allana el camino hacia las oportunidades económicas, una larga vida y el bienestar general. En la mayoría de los países, su número complica los desafíos para escapar de la violencia, encontrar un trabajo digno o acceder a una educación decente y servicios de salud amigables para los jóvenes, incluidos los servicios de salud reproductiva y planificación familiar. Entre las estrategias más prometedoras para estimular el desarrollo nacional y mejorar las perspectivas de los jóvenes se encuentran las inversiones enérgicas y oportunas en educación, salud, incluida la salud sexual y reproductiva, y la condición de la mujer.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
+      <c r="B70" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1215,8 +1141,7 @@
           <t>Los cerdos, búfalos y vacas eran los animales de granja más comunes en los hogares agrícolas. El 46% de los hogares encabezados por mujeres y el 52% de los encabezados por hombres criaban ganado vacuno, y el 57% de los hogares encabezados por mujeres y el 62% de los encabezados por hombres criaban cerdos, pero los hogares encabezados por mujeres mantenían un mayor proporción de búfalos y cabras. Como en el caso de Camboya, los precios medios del ganado y las aves de corral vendidos fueron más altos para los hogares encabezados por hombres que para los encabezados por mujeres (un 47 % más altos para los pavos y un 20 % para los patos), como resultado de las diferencias en el tipos de mercados y/o compradores a los que tienen acceso los hogares encabezados por mujeres y hombres (FAO/SIDA, 2010b).</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="n">
+      <c r="B71" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1226,8 +1151,7 @@
           <t>En cuanto a los hospitales privados, solo reciben una tarifa plana de la Institución de Seguridad Social por cada paciente que atienden y son libres de cobrar costos adicionales a los pacientes, hasta un tope fijado en 90% más que el precio del hospital público. Sin embargo, esto se ve empañado por el hecho de que los proveedores tienen pocos incentivos para ofrecer la gama completa de atención secundaria, particularmente paquetes de atención complejos para los pacientes con mayor necesidad, ya que el conjunto actual de códigos de reembolso no refleja la gravedad del caso. Además, hay pocos incentivos para que los hospitales públicos contengan los costos, ya que los gastos excesivos debido a la actividad no presupuestada pueden, en algunos casos, ser compensados ​​con fondos excedentes de otros hospitales públicos. Los precios pagados por la Institución de Seguridad Social, sin embargo, están bien controlados y no muestran evidencia de inflación.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="n">
+      <c r="B72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1237,8 +1161,7 @@
           <t xml:space="preserve">Dada la evidencia de que muchos estudiantes en Costa Rica comienzan la escuela con escasas competencias básicas, especialmente en lectura, el país también podría considerar adelantar la evaluación de primaria a un curso anterior, o añadir una evaluación adicional en los primeros años de primaria. Comprender mejor dónde y cómo" los alumnos empiezan a quedarse atrás permitiría desarrollar ayudas más eficaces para profesores y escuelas. Reconociendo la importancia de consolidar las habilidades básicas en los primeros grados para el aprendizaje posterior, muchos países de la OCDE han introducido una evaluación nacional en el segundo (por ejemplo, Francia, Italia), tercer (por ejemplo, Alemania, Suecia), o cuarto grado (por ejemplo, Chile, Corea) de la escuela primaria (OCDE, 2013). Una mejora esencial en cualquier grado en Costa Rica es una mejor información sobre la equidad de los resultados. </t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="n">
+      <c r="B73" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1248,8 +1171,7 @@
           <t>De acuerdo con el último informe PISA sobre el bienestar de los estudiantes (OCDE, 2017), el 44 % de los estudiantes informaron que esperan completar la educación terciaria en promedio en los países de la OCDE. Solo el 26 % de los estudiantes en el cuartil inferior del índice ESCS de PISA informaron que esperan completar la universidad, en comparación con el 66 % de los estudiantes del índice ESCS superior en promedio en los países de la OCDE. En Alemania, los Países Bajos, Eslovenia, menos del 10% de los estudiantes informaron que esperaban obtener un título universitario.</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="n">
+      <c r="B74" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1259,8 +1181,7 @@
           <t>De acuerdo con la evidencia presentada en el Capítulo 1, en el estado de Morelos, las escuelas ubicadas en las ciudades más pequeñas que se encuentran en la periferia de las áreas metropolitanas parecen concentrar los peores desempeños de los estudiantes y pueden requerir mayor atención. El aumento de la calidad de la enseñanza y el aprendizaje de los que se benefician los niños en la educación básica afecta directamente el resto de su trayectoria escolar. A pesar de la existencia de programas de becas destinados a incentivar la asistencia, mejorar la transición de la educación básica a la educación media superior en el estado de Morelos es una batalla cuesta arriba. La relación entre los recursos educativos de las escuelas y las puntuaciones en matemáticas en PISA es significativa. La evidencia también muestra que, en promedio en los países de la OCDE, los estudiantes de mayor rendimiento generalmente asisten a escuelas con mejores recursos educativos (OCDE, 2012a, OCDE, 2013a). Los recursos educativos tienden a referirse a equipos de laboratorio de ciencias, materiales didácticos/computadoras y/o maestros calificados en áreas clave, mientras que la infraestructura física tiende a referirse a edificios escolares, sistemas de calefacción y refrigeración y espacios educativos.</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
+      <c r="B75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1270,8 +1191,7 @@
           <t>Deben llevarse a cabo reformas para aumentar la flexibilidad de la oferta. Todas las escuelas financiadas por el gobierno deben disfrutar de la misma libertad para atraer y establecer salarios para nivelar el campo de juego en los diferentes tipos de escuelas. Para medir mejor el progreso e informar a los responsables de la formulación de políticas, las escuelas y los padres sobre los resultados educativos, se deben desarrollar medidas de rendimiento adicionales y tomar medidas para reducir la dependencia de las calificaciones en la gestión del rendimiento.</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
+      <c r="B76" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1281,8 +1201,7 @@
           <t>Destaca y explora las relaciones y roles jerárquicos y desiguales entre hombres y mujeres, el valor desigual que se le da al trabajo de las mujeres y el acceso desigual de las mujeres al poder y la toma de decisiones, así como a la propiedad y los recursos. La incorporación o integración de género ayuda a evaluar el impacto de diferentes leyes, políticas y programas en grupos de hombres y mujeres, como se explica en el recuadro a continuación. Es una estrategia para hacer de las preocupaciones y experiencias de mujeres y hombres una dimensión integral del diseño, implementación, monitoreo y evaluación de políticas y programas en todas las esferas políticas, económicas y sociales para que mujeres y hombres se beneficien por igual y no se perpetúe la desigualdad. . El objetivo final es lograr la igualdad entre hombres y mujeres.</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="n">
+      <c r="B77" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1292,8 +1211,7 @@
           <t>Debido a la mayor cantidad de material de la encuesta de prueba de campo en TALIS 2018, se implementó un diseño de cuestionario rotativo que requería un tamaño de muestra por país de 600 docentes y 30 directores de 30 escuelas muestreadas para el nivel básico de CINE 2 y cada opción internacional. Cada participante debía realizar esta prueba de campo, incluida la administración de todas las versiones de idiomas acordadas de acuerdo con los procedimientos estandarizados. Se implementaron estándares técnicos y las correspondientes medidas de control de calidad basadas en las implementadas en TALIS 2013 para garantizar que la implementación del estudio de 2018 produzca datos comparables con los datos de 2013.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
+      <c r="B78" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1303,8 +1221,7 @@
           <t>La distribución desigual de las responsabilidades familiares y domésticas significa que cuando los servicios públicos como la salud, el cuidado de los niños, el agua y el saneamiento se recortan o se vuelven menos asequibles, por lo general son las mujeres y las niñas las que llenan el vacío resultante, dedicando más tiempo al cuidado no remunerado y al trabajo doméstico. trabajo (ver Capítulo 6). Finalmente, debido a que las mujeres tienen más probabilidades de ser empleadas en el sector público, se ven particularmente afectadas por los recortes de personal y salarios en este sector. En el Reino Unido, el Women's Budget Group ha denunciado repetidamente la naturaleza regresiva de la consolidación fiscal, que se basa en recortes de gastos en lugar de aumentos de impuestos, y cuantificó el costo que los recortes presupuestarios tienen para las mujeres y niñas más desfavorecidas del país.</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
+      <c r="B79" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1314,8 +1231,7 @@
           <t>Del mismo modo, Dinamarca prevé una mayor y mejor coherencia en la formación y educación inicial de los docentes y el personal de EAPI. Este enfoque común garantizará tanto la coherencia como mejores oportunidades de cooperación entre la EAPI y la escuela (véase el Capítulo 3). Sin embargo, los equipos de trabajo no siempre garantizan la cooperación (como se señala en el informe de la inspección escolar sueca (Inspección Escolar Sueca, 2015)). Los mismos celos profesionales y la falta de comprensión descritos anteriormente pueden obstruir la cooperación, incluso dentro de los equipos de trabajo.</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="n">
+      <c r="B80" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1325,8 +1241,7 @@
           <t>Del mismo modo, el vendedor puede calificarnos como compradores confiables. Los docentes allí son juiciosos y selectivos en el uso de la tecnología en sus aulas, pero adoptan la tecnología cuando se trata de mejorar y compartir la práctica profesional. Cuando visité Shanghái en 2013, vi maestros que usaban una plataforma digital para compartir planes de lecciones. Eso en sí mismo no es inusual, lo que lo hizo diferente de otros lugares fue que la plataforma se combinó con métricas de reputación. Cuantas más lecciones descargaran, criticaran o mejoraran otros profesores, mayor sería la reputación del profesor que las había compartido.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
+      <c r="B81" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1336,8 +1251,7 @@
           <t>Es más probable que los padres que abusan de las drogas vivan en hogares en los que familiares, amigos y extraños también consumen drogas, lo que expone a los niños a posibles daños emocionales y físicos. Además, los niños que tienen que ser retirados de tales entornos tienen más probabilidades de participar en delitos, consumo de drogas y delincuencia. El uso indebido de drogas es motivo de especial preocupación entre los niños de la calle en todo el mundo.</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="n">
+      <c r="B82" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1347,8 +1261,7 @@
           <t>La UE15 comprendía los siguientes 15 países: Austria, Bélgica, Dinamarca, Finlandia, Francia, Alemania, Grecia, Irlanda, Italia, Luxemburgo, Países Bajos, Portugal, España, Suecia y el Reino Unido. Fuente: OECD Health Data 2010 y Rosstat. Tomadas individualmente, las diferentes categorías de ENT y lesiones constituyen las diez principales causas de muerte en la Federación Rusa y representan el 90% de las muertes en la población rusa en su conjunto (Rosstat, 2008). Las tasas de mortalidad estandarizadas (SMR, por sus siglas en inglés) por enfermedades cerebrovasculares y cardiopatías isquémicas son el doble del promedio de la OCDE y diez veces mayores que las de los países de la OCDE con mejor desempeño (Figura 3.3).</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
+      <c r="B83" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1358,8 +1271,7 @@
           <t>Una persona que sufre de burnout ya no logra superar los eventos estresantes cotidianos y experimenta “fatiga emocional”. Sin embargo, es difícil estimar la prevalencia del agotamiento en la población, ya que, por ejemplo, puede ser difícil distinguirlo de la depresión. El trastorno por déficit de atención con hiperactividad, por otro lado, ocurre entre el 3% y el 6% de los niños en edad escolar, y los niños padecen este estado de 2 a 3 veces más a menudo que las niñas.</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1369,8 +1281,7 @@
           <t>Si bien es un concepto importante, no ha sido utilizado ampliamente por los órganos creados en virtud de tratados. Por ejemplo, aunque, como hemos visto, se hace mucho hincapié en la importancia de la igualdad de remuneración por un trabajo de igual valor para mujeres y hombres, rara vez se hace explícito que la remuneración de las mujeres debe aumentar a la de los hombres. En las últimas décadas, ha habido una fuerte oposición a tales restricciones por considerar que violan el principio de igualdad. Sin embargo, esto ha llevado a dos respuestas bastante contradictorias. El Comité CEDAW ha alentado a Austria a garantizar que se incluyan medidas de "nivelación" en su legislación contra la discriminación, Comité CEDAW, Austria, op.</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
+      <c r="B85" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1380,8 +1291,7 @@
           <t>Desde tiempos prehistóricos, los residentes del Ártico han desarrollado habilidades y conocimientos que les permiten sobrevivir y prosperar en condiciones adversas. Se ha observado que los norteños tienen un buen conocimiento de los asuntos importantes para su sustento y poseen un conocimiento único y diversificado sobre cómo garantizar su bienestar (Megatrends, 2011). Al mismo tiempo, la capacidad de las sociedades árticas para beneficiarse del conocimiento codificado estandarizado y la educación formal ha sido bastante limitada.</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
+      <c r="B86" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1391,8 +1301,7 @@
           <t>Después de 2000 se produjo un gran salto en las inscripciones, de modo que en 2005 el 19,4 % y en 2007 el 24,4 % del grupo de edad de 19 a 24 años estaba en instituciones de educación superior (Tabla 1.5.). De acuerdo con el Noveno Plan de Malasia (2006-10), se espera que 1,6 millones de estudiantes o el 40 % de la cohorte de edad relevante en educación terciaria se inscriba en educación terciaria en 2010 y el 50 % de estos estudie en instituciones privadas. Para 2008, el número 214 941 en 2002, año a partir del cual el Ministerio de Salud está disponible en datos electrónicos, aumentó a 933 728.</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="n">
+      <c r="B87" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1402,8 +1311,7 @@
           <t>Disponibilidad de los resultados de las evaluaciones nacionales en Dinamarca: ¿quién tiene acceso a los resultados? ( En consecuencia, los estudiantes, padres y maestros pueden usar los resultados de la evaluación para seguir la adquisición de conocimientos y habilidades de un estudiante individual, y las municipalidades y las escuelas pueden usar los resultados para compararse con el promedio nacional y para ayudar en la toma de decisiones, pero los resultados no se puede utilizar como base para la evaluación comparativa sistemática y el intercambio de mejores prácticas entre diferentes escuelas y municipios o para clasificar municipios o escuelas (Houlberg et al., Las evaluaciones nacionales fueron concebidas i) para proporcionar una herramienta pedagógica para maestros contra áreas comprobables del Objetivos Comunes, y ii) proporcionar una herramienta para monitorear el progreso nacional a lo largo del tiempo a través de un perfil de desempeño nacional que muestre los resultados promedio de las pruebas nacionales y permitir que los municipios monitoreen sus escuelas contra este perfil nacional.</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
+      <c r="B88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1413,8 +1321,7 @@
           <t>El abandono escolar también se redujo en 3,2 puntos porcentuales más que en las escuelas que no formaban parte del programa. Las tasas de abandono durante el programa han sido mucho más bajas que la media nacional, más del 90% de los graduados de las escuelas BRAC pasan al sistema formal (Nath, 2009). Estas desventajas se reflejaron en el escaso impacto de la supresión de las tasas escolares en la matriculación. Según una estimación, sólo uno de cada seis niños keniatas discapacitados asistía a la escuela tras la supresión de las tasas (Mulama, 2004).</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
+      <c r="B89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1424,8 +1331,7 @@
           <t>El capítulo sugiere una serie de recomendaciones de política para mejorar la gobernanza del uso de los recursos escolares. El uso de dichos datos por parte de la OCDE es sin perjuicio del estado de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional. El nivel central gobierna a distancia y establece las condiciones y lineamientos centrales dentro de los cuales los municipios y las escuelas ejercen su autonomía.</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="n">
+      <c r="B90" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1435,8 +1341,7 @@
           <t>Ningún país de la región ha identificado a las mujeres empresarias como un grupo objetivo específico. Un factor explicativo puede ser que las políticas para las PYME se centraron inicialmente en los sectores industriales, donde las mujeres están en gran medida ausentes. En la última parte de la década, las políticas para las PYME se han aplicado de manera más general a todos los sectores de la actividad económica.</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
+      <c r="B91" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1446,8 +1351,7 @@
           <t>Además, las unidades de género pueden desempeñar un papel importante en la capacitación de sensibilización sobre género, así como en la capacitación sobre cómo evitar el sesgo de género en la recopilación de datos. A través de sus contactos con los mecanismos nacionales para la mujer y las organizaciones no gubernamentales, las unidades de género y los puntos focales de género pueden facilitar la comunicación entre los productores y algunos de los usuarios finales de las estadísticas de género (Naciones Unidas, 2006). Estas unidades pueden brindar información a los usuarios y ayudarlos a comprender los usos de las estadísticas existentes. El desarrollo de materiales metodológicos sobre estadísticas de género tiene una historia bastante corta.</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
+      <c r="B92" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1457,8 +1361,7 @@
           <t>El censo abarcó únicamente a los docentes que trabajaban en instituciones públicas mantenidas por la Administración Nacional de Educación Pública (ANEP). Por lo tanto, los datos de educación inicial y preprimaria no incluyen a los docentes de las escuelas administradas por el Ministerio de Educación y Cultura (MEC) y por el Instituto de la Niñez y la Adolescencia del Uruguay (INAU). También los datos sobre programas técnico-profesionales incluyen a los docentes en programas de nivel terciario (una proporción menor de los programas supervisados ​​por el CETP). En la educación primaria pública, el tamaño promedio de las clases ha disminuido en la última década a 24 estudiantes en 2012.</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
+      <c r="B93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1468,8 +1371,7 @@
           <t>El desempeño de los estudiantes comenzó a caer ya en la década de 1980, pero parece probable que las amplias reformas emprendidas en la década de 1990 contribuyeron al declive (Holmlund et al., Decentralization from 1991-93 (Box 2.2) delegó la responsabilidad de las escuelas primarias y secundarias de los gobierno central a los municipios La mala organización, la falta de experiencia y las responsabilidades poco claras siguen siendo problemas importantes a nivel municipal, dos décadas después de la reforma (SNAE, 2011), y la asignación subóptima de recursos significa que las escuelas más débiles no reciben suficiente apoyo.</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
+      <c r="B94" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1479,8 +1381,7 @@
           <t>Por el contrario, las mujeres en el sector informal experimentan una penalización salarial por maternidad estadísticamente significativa en todas las especificaciones. Encontramos que la penalización salarial no es igual para todas las madres, ya que tener más hijos aumenta la penalización estimada (7,8% para un hijo, 15,5% para dos hijos y 26,3% para tres o más hijos). Las estimaciones del coeficiente para la penalización salarial por maternidad, según se informa en el cuadro 3, parecen ser relativamente estables en el tiempo, mostrando una penalización más alta en el período anterior al shock (10,1 % frente a 5,7 % para un hijo, 16,4 % frente a 13,1 % para dos hijos y 27,3% versus 26,0% para tres o más hijos). Los coeficientes estimados asociados con la maternidad y los hijos no son significativos en todas las regresiones del sector formal. Al igual que en los resultados de ols, las trabajadoras del sector formal no experimentan penalizaciones salariales por maternidad estadísticamente significativas. A lo largo del período de tiempo completo de los datos, dos especificaciones diferentes de la maternidad (una por el número de hijos y otra por su edad) no muestran sanciones salariales significativas para las madres que trabajan en el sector formal.</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
+      <c r="B95" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,8 +1391,7 @@
           <t>Las mujeres representan menos del 20 % de los ingresantes en programas de informática de nivel terciario en los países de la OCDE y solo alrededor del 18 % de los ingresantes en ingeniería. Y mientras menos del 0,5 % de las niñas desea ser profesional de las TIC, casi el 5 % de los niños lo desea. Desde que el Consejo de la OCDE adoptó la Recomendación de género de la OCDE, muchos países han tomado nuevas medidas o han reforzado las existentes para aumentar la participación de grupos subrepresentados, que incluyen mujeres y niñas, en estudios y ocupaciones STEM.</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
+      <c r="B96" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1501,8 +1401,7 @@
           <t>Algunos países han adaptado estas preguntas a su contexto local incluyendo diferentes circunstancias, como si gasta demasiado dinero, si desobedece, si le es infiel, si lo insulta, si descuida las tareas del hogar, si le falta el respeto suegros y si habla de la necesidad de protegerse contra el VIH/SIDA. La Encuesta multipaís de la OMS sobre la salud de la mujer y la violencia doméstica midió las actitudes de las mujeres hacia la violencia doméstica preguntándoles sobre las situaciones en las que creen que un hombre tiene una buena razón para golpear a su esposa, incluidas situaciones en las que no completa las tareas del hogar, desobedece a su marido o se niega a tener relaciones sexuales con él. Un segundo conjunto de preguntas abordó las situaciones en las que las mujeres creen que una mujer tiene derecho a negarse a tener relaciones sexuales con su esposo, incluidas situaciones en las que ella no quiere, él está borracho, ella está enferma o él la está maltratando ( García-Moreno y otros, 2005).</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1512,8 +1411,7 @@
           <t>En la mayoría de los países, las políticas monetarias se enfocan casi exclusivamente en cumplir metas de inflación muy bajas, que se logran elevando las tasas de interés para evitar que los precios aumenten más rápidamente.40 Las tasas de interés altas ralentizan la actividad económica al encarecer y hacer menos accesible el crédito, reduciendo compras de los consumidores y elevando el costo de financiar las inversiones productivas. Todos estos factores reducen la demanda de mano de obra. Investigaciones recientes han demostrado que el empleo de las mujeres ha disminuido más rápido que el de los hombres en una variedad de países en desarrollo, incluidos Brasil, Colombia, Costa Rica, Filipinas y la República de Corea, que están experimentando reducciones en la inflación asociadas con políticas monetarias restrictivas.41 En países que mantienen un entorno monetario menos restrictivo, tales desigualdades de género son menos evidentes.</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
+      <c r="B98" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1523,8 +1421,7 @@
           <t>El equipo de revisión de la OCDE quedó impresionado por el compromiso profesional de los docentes en las escuelas que visitó, pero las partes interesadas informaron que no había suficientes recursos para garantizar que los docentes recibieran el apoyo y la capacitación necesarios. El contexto también está cambiando rápidamente en muchas escuelas con grupos crecientes y cambiantes de estudiantes de origen inmigrante. Por lo tanto, están mal preparados para abordar las necesidades de una población cada vez más diversa. Esto supuso la contratación de muchos estudiantes de magisterio de origen inmigrante pero sin una cualificación formal de profesor o con una cualificación de profesor extranjero, pero se les brinda la oportunidad (a través de un plan de becas) de obtener la cualificación formal noruega.</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
+      <c r="B99" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1534,8 +1431,7 @@
           <t>Aquí nuevamente, el debate está abierto. Cabe mencionar aquí al menos tres implicaciones. Desde la primera propuesta para instituir un salario familiar hasta el extremo de exigir la implementación de un “salario de ama de casa”, el debate es amplio, controvertido y continuo. Recientemente, como consecuencia del impulso que ha ido cobrando el tema en el debate de políticas públicas, algunos países han incorporado componentes a las reformas de la seguridad social que buscan, no necesariamente remunerar el trabajo de cuidado no remunerado, sino compensar a las mujeres por los ingresos que pierden a lo largo del tiempo. el ciclo de vida asumiendo estas responsabilidades.</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
+      <c r="B100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1545,8 +1441,7 @@
           <t>El estudio EPPE concluyó que lo que hacen los padres es mucho más importante para el desarrollo de los niños que quiénes son, en términos de estatus socioeconómico, niveles de educación y antecedentes raciales y lingüísticos. Cuando el desarrollo temprano de los niños no ha progresado bien en los años iniciales, la EAPI puede ser eficaz para ayudar a los niños a retomar el rumbo de su desarrollo, especialmente en áreas clave como el lenguaje. Además, la EAPI puede ayudar a los niños a desarrollar otras habilidades clave, como la autorregulación, la empatía, la confianza en los demás, las habilidades prosociales, las habilidades motoras gruesas y finas y la aritmética temprana (OCDE, próxima publicación).</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
+      <c r="B101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1556,8 +1451,7 @@
           <t>Por ejemplo, en Polonia, más del 60 % de los mandos intermedios son mujeres (la proporción de mujeres en puestos de alta dirección en el servicio público supera el 47 %7). En Canadá, la representación de mujeres en los niveles gerenciales intermedios (EX menos 1 y EX menos 28) está aumentando gradualmente, y las mujeres constituyen el 38,2 % en los niveles EX menos 1 y el 47,2 % en los niveles EX menos 2 en 2011 (Treasury Board of Secretaría de Canadá, 2011). En Australia, donde siete de cada diez parlamentarios federales y estatales son hombres (y esto no ha cambiado en los últimos diez años), la situación en el servicio público está mejorando: ha aumentado la proporción de mujeres en puestos de dirección media y alta. del 35% en 2002 al 46% en 2012 (Oficina de Estadística de Australia, enero de 2013).</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
+      <c r="B102" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1567,8 +1461,7 @@
           <t>Los médicos seleccionados como “tratante médico” reciben un pago anual adicional por pacientes diagnosticados con ALD. Este pago cubre la coordinación asistencial necesaria para implementar protocolos asistenciales específicos. El protocolo de atención de un paciente enumera todos los servicios médicos y paramédicos necesarios para un tratamiento integral, e identifica automáticamente los servicios por los cuales los pacientes están exentos de copago. En casi todos los casos, esta función de coordinación la cumplen los médicos de cabecera.</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
+      <c r="B103" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1578,8 +1471,7 @@
           <t>En general, las mujeres dedican más de una hora más al trabajo remunerado y no remunerado que los hombres, la “doble carga”, lo que las deja con menos tiempo para el cuidado personal (incluido el sueño) y el ocio. Al igual que en los países de la OCDE, las mujeres tienen entre 40 y 50 minutos menos de tiempo libre que los hombres en todos los países, con la excepción de Bangladesh. A medida que aumenta el PIB, disminuye el tiempo que mujeres y hombres dedican al trabajo de cuidados no remunerado.</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
+      <c r="B104" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1589,8 +1481,7 @@
           <t>Sin embargo, las diferencias en definiciones, fuentes y métodos podrían desdibujar las comparaciones internacionales. Además, todavía faltan datos para muchos de estos indicadores para un tercio o más de los países de la OCDE. A modo de ilustración, los datos sobre las tasas de supervivencia para cánceres seleccionados están disponibles para el mismo año para, en el mejor de los casos, 11 países.</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
+      <c r="B105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1600,8 +1491,7 @@
           <t>El foco se encuentra en la diversidad en el pasado y en el presente y permite a los docentes reflexionar y examinar críticamente diferentes campos de tensión en la dimensión intercultural de la profesión docente. Hay un fuerte énfasis en la democracia, los valores y la creación de normas, y cómo estos temas podrían enseñarse en aulas cada vez más heterogéneas (Universidad de Sodertorn, (n.d.) [issi, 2018 (186]). La investigación ha encontrado que falta multilingüismo en la formación docente. (Carlson, 2009' (1991) a pesar de que muchos informes nacionales han señalado la importancia del conocimiento lingüístico de los docentes como parte integral de la enseñanza de contenidos básicos (Skolinspektionen, 2010(2ooi, Skolverket, 2012[2oi])- En En la formación del profesorado sueco, los futuros profesores estudian el contenido de la materia y la teoría correspondiente (Amnes- och amnesdidaktiska studier) además de los requisitos básicos educativos.</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
+      <c r="B106" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1611,8 +1501,7 @@
           <t>Las mujeres representan 1.100 millones de personas de la Commonwealth y forman el mayor número de votantes en cualquier elección, sin embargo, son las menos representadas en los procesos políticos y de gobierno. Además, estos legados políticos han creado una cultura de aferrarse al poder sin oportunidades para preparar nuevos líderes. El nepotismo abunda y la transferencia del poder ha visto la devolución a los familiares, una forma de 'monarquía política'. Como resultado, muchas mujeres siguen siendo desafiadas por estos factores limitantes, que obstaculizan persistentemente su participación. Además, algunos países de la Commonwealth han incorporado a las mujeres en la toma de decisiones al reconocer su abrumadora contribución en las luchas de liberación, las guerras civiles y/o las políticas de protesta (en Mozambique, Namibia, Ruanda, Sierra Leona y Sudáfrica), dejando de lado la excelencia académica como criterio. o garantía de participar en la gobernanza.</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
+      <c r="B107" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1622,8 +1511,7 @@
           <t>Pero siempre fuimos conscientes de cuántas otras personas estaban sufriendo, así que eso significaba no solo que tengo suficiente para alimentarme, sino que puedo vivir una vida con un propósito”. La cultura ha cambiado”, dice ella. â€œ Las mujeres pueden trabajar y cuidar de sÃ mismas y no necesitan depender de sus maridosâ€. Los anticonceptivos estÃ¡n disponibles prÃ¡cticamente en todas las tiendas de la esquina. â€œ</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
+      <c r="B108" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1633,8 +1521,7 @@
           <t>Los datos son recopilados por la Organización Mundial de la Salud (OMS) anualmente y muestran un crecimiento sólido y lineal durante el período 2003-2013. El crecimiento del número de instituciones conectadas ha crecido un impresionante 600 por ciento desde una línea de base original en 2003 de 792 instituciones conectadas a 5 584 a finales de 2013. El seguimiento de la adopción de estrategias de eSalud se propone como otra fuente de datos. Una estrategia de eSalud puede ser un buen indicador de la opinión de un gobierno sobre la importancia de la eSalud y el papel que desempeñará en el fortalecimiento del sector de la salud, incluida la creación de conectividad. El Observatorio Mundial de eSalud de la OMS informa que el número de países con estrategias de eSalud muestra un aumento constante. En 2009, 55 países indicaron que tenían estrategias de eSalud y en 2013 este número aumentó a 85.</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
+      <c r="B109" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1644,8 +1531,7 @@
           <t>El gobierno lo apoyó patrocinando las cuotas de los estudiantes. Se realizaron talleres de capacitación y concientización en todo el país para informar a los educadores y la comunidad sobre la importancia de la educación inclusiva. A fines de ese año, los primeros seis aprendices se graduaron de la Facultad de Educación, con especialización en educación especial. La mayoría se las arregla bien y logra satisfacer las diversas necesidades de los niños en la comunidad.</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
+      <c r="B110" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1655,8 +1541,7 @@
           <t>El índice está construido para ser comparable internacionalmente (ver el Informe Técnico PISA 2012, OCDE, 2014a). Se considera que los estudiantes tienen ventajas socioeconómicas si se encuentran entre el 25 % de los estudiantes con el ESCS más alto en su país o economía; los estudiantes con desventajas socioeconómicas son aquellos que se encuentran entre el 25 % de los estudiantes con el ESCS más bajo. Las escuelas se definen como aventajadas (desfavorecidas) socioeconómicamente si el ESCS promedio de los estudiantes en la escuela es estadísticamente significativamente superior (inferior) al de la escuela promedio. Estos patrones reflejan, en parte, las ventajas inherentes a los recursos que proporciona un estatus socioeconómico relativamente alto.</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
+      <c r="B111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1666,8 +1551,7 @@
           <t>El Marco ahora establece un enfoque nacional acordado para la integración de la educación financiera en los años obligatorios de escolaridad desde la Fundación hasta el Año 10 y brinda orientación sobre cómo se puede estructurar el tema para apoyar las progresiones del aprendizaje. La capacidad de influir en las políticas públicas y ver los vínculos entre el gobierno y la educación ha sido esencial. En el desarrollo del Marco original en 2005, la consulta fue clave para informar el enfoque nacional. El Grupo de Trabajo MCEETYA que desarrolló el Marco incluía un equipo altamente especializado de expertos en educación de todas las jurisdicciones y sectores educativos que conocían bien el panorama educativo nacional y jurisdiccional, tenían excelentes redes de partes interesadas y formaron relaciones productivas y respetuosas.</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
+      <c r="B112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1677,8 +1561,7 @@
           <t>El MoES es responsable del desarrollo de políticas educativas y planes estratégicos aprobados por el gobierno y también coordina los departamentos de educación municipales en la implementación de la política educativa estatal. Coordina la distribución de la financiación escolar del presupuesto estatal y la asignación de los fondos estructurales de la UE. El Ministerio también es responsable de la garantía de la calidad, la acreditación del plan de estudios de educación general y los exámenes finales. Fuera del Ministerio, la Oficina Nacional de Auditoría de Lituania desempeña un papel clave, que realiza periódicamente auditorías financieras de las instituciones presupuestarias en el campo de la educación y revisa las actividades del MoES a través de auditorías de desempeño planificadas.</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
+      <c r="B113" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1688,8 +1571,7 @@
           <t>Las políticas de desarrollo pueden basarse en este principio para promover la difusión de buenas prácticas dentro de las redes profesionales de mujeres agricultoras y comerciantes de la región. Al modificar la arquitectura de las relaciones sociales, su objetivo es incrementar el capital social de los individuos resultante de la combinación de vínculos internos a una comunidad y vínculos externos con otros grupos sociales más diversos desde el punto de vista geográfico, étnico, religioso o identitario. vista (Walther, 2015). La incorporación de actores parece especialmente adecuada para el caso de sectores agrícolas, como el arroz, en los que las mujeres están subrepresentadas.</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
+      <c r="B114" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1699,8 +1581,7 @@
           <t>El nivel de habilidades generales (alfabetización funcional) se alcanza típicamente en el nivel de educación primaria. Las habilidades específicas se adquieren durante la educación secundaria y los conocimientos científicos y técnicos avanzados se obtienen a través de la educación superior. Sin embargo, la educación formal no es la única fuente de capital humano. De hecho, estudios recientes sugieren que en el Ártico el capital humano está menos relacionado con los niveles formales de escolaridad que en el sur (Petrov, 2008, Petrov y Cavin, 2013).</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
+      <c r="B115" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1710,8 +1591,7 @@
           <t>El personal docente de Lituania, aunque tiene una formación de grado, muestra habilidades numéricas más bajas que las de otros graduados de educación terciaria y más bajas que el nivel promedio de los docentes en los países miembros de la OCDE que participan en la Encuesta de Habilidades de Adultos (Figura 3.5). Los puntajes competitivos utilizados en las admisiones a la educación superior, que se basan en los puntajes de los exámenes matura, muestran que el puntaje mínimo requerido para ingresar a los programas de formación docente es consistentemente mucho más bajo que el requerido para el campo más popular y selectivo, la medicina (Tabla 3.6). El principal proveedor de programas de formación de docentes, la universidad pedagógica del país, ha recibido una aprobación institucional limitada del organismo de garantía de la calidad de la educación superior del país, y hay debates en curso sobre la forma en que los programas y las instituciones pueden desempeñar mejor sus funciones iniciales. formación docente.</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="n">
+      <c r="B116" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1721,8 +1601,7 @@
           <t>Sin embargo, suponiendo que exista una brecha salarial por la cual las mujeres ganen salarios más bajos, una segunda hipótesis es que la entrada de mujeres en la fuerza laboral reduce los salarios promedio y, por lo tanto, los costos de producción. Esto implica que la feminización contribuye al crecimiento pero que este efecto positivo puede verse acentuado por la existencia de desigualdades de género que luego pueden permanecer por los ahorros que permiten. El resultado anterior podría ser una combinación de los efectos de estos dos factores, pero los hallazgos discutidos anteriormente indican que, durante el período bajo estudio, el primer efecto superó al segundo excepto en el caso de Brasil. Los efectos negativos de selección en la oferta laboral generados por la exclusión del mercado de trabajo de algunas personas que podrían estar participando en él y no lo están haciendo (en este caso, las mujeres) se mantuvieron prácticamente invariables durante este período y, de hecho, tendieron a aumentar.</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="n">
+      <c r="B117" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1732,8 +1611,7 @@
           <t>Sin embargo, no todas estas mujeres están divorciadas o abandonadas por sus maridos, pero sin duda son las que enfrentan problemas en su vida. El hecho de que las mujeres no estén dispuestas a revelar que sus maridos las han abandonado les impide acudir a los organismos estatales en busca de asistencia, ya que esto podría conducir a la pérdida de su estatus en la comunidad. Esto también se debe a su incapacidad para proporcionar documentos oficiales a las autoridades debido al hecho de que los matrimonios religiosos representan una alta proporción del número total de matrimonios (OIM, 2009).</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="n">
+      <c r="B118" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1743,8 +1621,7 @@
           <t>En 19 de 30 países y economías, más hombres que mujeres pudieron responder correctamente al menos cinco preguntas (como lo indican las barras azules). Las diferencias de género en el conocimiento financiero registradas en la encuesta de 2011 (como lo indican los rombos grises) generalmente también favorecieron a los hombres. Entre los diez países para los que se dispone de datos comparables a lo largo del tiempo, Albania y Polonia informaron una reducción estadísticamente significativa en las diferencias de género en el conocimiento financiero, mientras que en los demás países las diferencias de género no han cambiado significativamente (Tabla 10.A1.1 en el Anexo 10 en línea). .A1). Cuando se les preguntó cómo calificarían su propio conocimiento sobre asuntos financieros en comparación con otros adultos en su país, los hombres son más propensos que las mujeres a reportar un conocimiento superior al promedio en 13 países/economías de 30, incluso después de comparar hombres y mujeres con niveles similares de conocimiento financiero (basado en pruebas).</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
+      <c r="B119" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1754,8 +1631,7 @@
           <t>Como lo demuestra la suscripción excesiva de los fondos de Trapezia en el Reino Unido, existe una oportunidad comercial y un margen para que los financiadores de capital satisfagan las necesidades de las mujeres empresarias (ver el estudio de caso VIII). También es probable que tengan menos tiempo para realizar transacciones financieras debido a las demandas de tiempo de las responsabilidades familiares y de cuidado. Instituciones como DFCU Group en Uganda han reconocido este desafío de acceso y han posicionado sucursales 'amigables para las mujeres' en lugares cercanos a donde hay grupos de mujeres empresarias y alinearon los horarios de operación de las sucursales para que se correspondan con los requisitos de este grupo de clientes. . Un número significativo de mujeres utiliza la banca por Internet: 41 por ciento en el Reino Unido y 29 por ciento en Malta, por ejemplo (Eurostat 2010).</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="n">
+      <c r="B120" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1765,8 +1641,7 @@
           <t>El plan de estudios es lo suficientemente flexible para hacer frente a las diferencias a nivel local y en las escuelas individuales. A nivel escolar, los estudios del curso pueden complementarse mediante la colaboración con instituciones regionales y locales, empresas y asociaciones cívicas. Los nuevos edificios se diseñan y construyen siguiendo principios de sostenibilidad y estándares de eficiencia energética.</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
+      <c r="B121" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1776,8 +1651,7 @@
           <t>En atención primaria, estos se enfocan principalmente en la estructura física del edificio y la disponibilidad de equipos clínicos y medicamentos de emergencia, y hay un número limitado de estándares relacionados con la actividad. Turquía se ha embarcado en un ambicioso programa para traducir un extenso conjunto de guías clínicas escritas por la Sociedad Médica Finlandesa. Sin embargo, existen dificultades para incorporar un gran número de directrices a la vez y, en particular, para cambiar la práctica a través de directrices con poco sentido de propiedad local o participación durante el desarrollo.</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
+      <c r="B122" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1787,8 +1661,7 @@
           <t>La reciente crisis del ébola en África Occidental no hace más que subrayar el imperativo de abordar colectivamente los problemas no solo de acceso sino también de innovación (véase el recuadro 1). De hecho, por tales razones, el Objetivo de Desarrollo del Milenio (ODM) 8 incluyó un enfoque en mejorar el acceso a medicamentos esenciales asequibles en los países en desarrollo. El Banco Mundial, por ejemplo, estimó una pérdida de alrededor del 12 por ciento del producto interno bruto para estos tres países más afectados en 2015.b La crisis del ébola ha subrayado la necesidad urgente de intensificar la acción internacional y nacional para mejorar el acceso a la atención médica. y medicinas</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="n">
+      <c r="B123" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1798,8 +1671,7 @@
           <t>Por ejemplo, menos de la mitad de los niños en edad de asistir a la escuela primaria en Sudán del Sur asistían a la escuela en 2015, solo alrededor de un tercio de las niñas asistían a la escuela. Se observan niveles igualmente bajos de matriculación en la escuela primaria en países como la República Democrática del Congo y Liberia. El Coeficiente de Gini es una medida de la distribución del ingreso en un país y es la medida más utilizada de la desigualdad del ingreso. El gráfico sugiere que los países con estructuras de edad jóvenes son generalmente más desiguales en términos de ingresos.</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="n">
+      <c r="B124" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1809,8 +1681,7 @@
           <t>Los defensores de la teoría del desencanto por el empleo argumentan que las mujeres son infelices porque su avance profesional está bloqueado. Los teóricos de la movilidad bloqueada ilustraron esto con los factores “techo de cristal” (Still, 1997, Wirth, 2001), “puertas de cristal” y “suelo pegajoso” (Still, 1997). Los investigadores en emprendimiento étnico agregaron el “techo de acento” (Collins et al., mientras que “techo de cristal” se refiere a las barreras para el avance profesional de las mujeres, “piso pegajoso” se refiere a la ausencia de movimiento profesional más allá del trabajo de entrada inicial, mientras que el â€œtecho de acentoâ€ se refiere a la discriminaciÃ³n racial que bloquea a las mujeres inmigrantes en el mercado laboral.En segundo lugar, la vida empresarial atrae cada vez a mÃ¡s jÃ³venes solteras.</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="n">
+      <c r="B125" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1820,8 +1691,7 @@
           <t>Arrojar luz sobre algunos de los detalles de esa imagen puede ayudar al diseño y focalización de políticas para abordar los daños asociados con el consumo de alcohol. Los resultados de los análisis del consumo de alcohol en 20 países de la OCDE se presentaron en las secciones anteriores de este documento. Los análisis se realizaron sobre la base de datos de consumo de alcohol a nivel individual de varias oleadas de encuestas nacionales de salud y estilo de vida, e incluyeron la identificación de tendencias a lo largo del tiempo en el consumo general de alcohol y en medidas de consumo de alcohol peligroso y episódico intenso, así como regresión- análisis basados ​​en las disparidades sociales en los patrones de consumo de alcohol y el cálculo de índices de concentración para países individuales.</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="n">
+      <c r="B126" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1831,8 +1701,7 @@
           <t>El PME debe contener iniciativas y apoyos técnicos y pedagógicos que respondan específicamente a las necesidades prioritarias de los estudiantes e implementar estrategias pedagógicas para estudiantes con bajo rendimiento académico (ver el Capítulo 2 para el rol de la SEP en el sistema de financiamiento y el Capítulo 4 para el uso de programas de mejoramiento escolar). planes en las escuelas). Como complemento a la SEP y condicionado a la participación en la SEP, los proveedores escolares pueden recibir una Subvención por Concentración de Alumnos Prioritarios. Esta subvención proporciona una cantidad adicional por estudiante que depende de la proporción de estudiantes desfavorecidos en la escuela. Los proveedores escolares con escuelas que matriculan estudiantes en extrema pobreza también pueden beneficiarse de una Subvención para la Retención (Subuencion Educacional Pro-retención). La beca se otorga a cada estudiante desfavorecido perteneciente a una familia que participa en el programa Chile Solidario, parte del sistema de protección social de Chile diseñado para atender las necesidades de familias, personas y áreas geográficas vulnerables (ver también Capítulo 2) ( MINEDUC, ACE y ES, 2016). Los docentes en condiciones de trabajo difíciles reciben un subsidio por condiciones de trabajo difíciles (Asignación por desempeno en condiciones difíciles).</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="n">
+      <c r="B127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1842,8 +1711,7 @@
           <t>En Sierra Leona, por ejemplo, los proyectos comenzaron con una evaluación de las actitudes relacionadas con los estereotipos de género en torno al saneamiento. A partir de la información recabada, se organizaron jornadas de sensibilización para abordar las actitudes frente a los trabajos considerados de mujeres y niñas, como limpiar letrinas, lavar ropa y platos, barrer, ir a buscar agua y asear y vestir a los niños. La provisión de servicios sociales adecuados y asequibles—en particular, salud, agua y saneamiento y atención—es esencial para reducir las demandas de las mujeres del trabajo doméstico y de cuidados no remunerado y, por lo tanto, aumentar su probabilidad de obtener acceso a una educación o a un ingreso de su bolsillo. propio. El crecimiento y la institucionalización de programas de transferencias monetarias a gran escala y de pensiones no contributivas, especialmente en algunos países de ingresos medios, son un avance alentador para las mujeres.</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
+      <c r="B128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1853,8 +1721,7 @@
           <t>Esto sugiere la necesidad de que las instituciones desde el nivel local hasta el global incluyan cuestiones relacionadas con la igualdad de género y la representación de los intereses de las mujeres. La acción y la presión de los movimientos sociales son fundamentales para desafiar y reelaborar las culturas, prácticas, sesgos y estereotipos discriminatorios que a menudo son evidentes en las instituciones y organizaciones políticas. En muchos países y regiones, los trabajadores, productores y consumidores de la economía informal se están organizando colectivamente, tanto para impugnar los modelos de desarrollo dominantes como para defender y demostrar alternativas. Incluyen La Vía Campesina, que desde la década de 1990 se ha convertido en un movimiento en red mundial para defender los derechos de los pequeños agricultores frente a las presiones de la agricultura corporativa a gran escala.</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="n">
+      <c r="B129" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1864,8 +1731,7 @@
           <t>El retraimiento y las formas encubiertas de resistencia pueden haber sido respuestas naturales a las lecciones que no podían seguir y sobre las que no tenían control. Pero incluso estos comportamientos ponen a los estudiantes en riesgo de reprobar los exámenes y, en consecuencia, abandonar o ser etiquetados como reprobados de forma duradera. Los estudiantes de hogares pobres tenían pocos mecanismos de apoyo si les iba mal y, a diferencia de los estudiantes de clase media, no podían dar por sentado que aprobarían sus SSC de una forma u otra.</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="n">
+      <c r="B130" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1875,8 +1741,7 @@
           <t>No está claro en qué marco de tiempo se superarán estos obstáculos. Aprovecha el hecho de que, como la mayoría de los organismos superiores, incluidos los mamíferos y los humanos, el mosquito lleva un microbioma significativo (bacterias simbióticas) en su intestino (Pumpuni et al., La idea es diseñar estas bacterias simbióticas para producir interferencias). productos (moléculas efectoras) que detienen el desarrollo del parásito.</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="n">
+      <c r="B131" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1886,8 +1751,7 @@
           <t>Están diseñados para En Escocia, los registros nacionales de calidad y las auditorías clínicas han surgido como procesos de abajo hacia arriba dirigidos por clínicos en Escocia, a menudo dirigidos por médicos pioneros. Además, Escocia participa en el programa de auditorías clínicas nacionales en todo el Reino Unido dirigido por el Programa de mejora de la calidad de la atención médica (HQIP). Escocia Realiza medidas e informes sobre el progreso en el logro de los resultados en el Marco Nacional de Desempeño.</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
+      <c r="B132" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1897,8 +1761,7 @@
           <t>El sistema de nivelación no tiene la ambición de nivelar completamente la situación económica en todos los municipios, condicionado al nivel socioeconómico, sino de reducir las diferencias importantes. Aunque hay evidencia que indica que la tarea puede mejorar el rendimiento de los estudiantes (Falch y Ronning, 2012), la tarea también tiene efectos distributivos, ya que los estudiantes de un nivel socioeconómico alto suelen recibir más ayuda con la tarea que los estudiantes de un nivel socioeconómico bajo. Puede ser particularmente difícil para los padres inmigrantes apoyar a sus hijos con la tarea.</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="n">
+      <c r="B133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1908,8 +1771,7 @@
           <t>El sistema educativo tiene una serie de características que promueven la equidad, incluida una alta proporción de estudiantes matriculados en educación de la primera infancia, baja repetición de grado y escolarización integral hasta los 16 años. Las tasas de graduación de la secundaria superior son altas, al igual que las tasas de matriculación en educación y formación profesional. (FP), pero el abandono de la FP también es alto. La educación terciaria es accesible para todos, a través de políticas como un plan de subvenciones y préstamos financiado con fondos públicos. En la Encuesta de habilidades de adultos de la OCDE, los adultos en Dinamarca demuestran habilidades de alfabetización por debajo del promedio y habilidades de aritmética por encima del promedio en comparación con el promedio en los países participantes, y los adultos más jóvenes obtienen puntajes alrededor del promedio.</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="n">
+      <c r="B134" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1919,8 +1781,7 @@
           <t>En la región se han realizado estudios que muestran deficiencias en la cobertura de las pensiones y jubilaciones que impactan más a las mujeres, quienes perciben en promedio alrededor de un 20% menos que los hombres (Marco, 2016, CEPAL, 2016a). En los últimos años, el tiempo se ha convertido en objeto de estudio como medida del bienestar: se ha analizado el problema de la pobreza desde varias perspectivas no convencionales y se ha puesto de manifiesto un círculo vicioso entre la pobreza y el tiempo dedicado al trabajo no remunerado (Vaca-Trigo, 2015, CEPAL, 2016a). Por lo tanto, para lograr un desarrollo sostenible, es importante considerar esta dimensión en el diseño de políticas públicas. Como se muestra en el gráfico IV.11, las mujeres pobres que reciben transferencias en ambos países dedican más horas a la semana al trabajo doméstico y de cuidado no remunerado.</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="n">
+      <c r="B135" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1930,8 +1791,7 @@
           <t>Es necesario identificar medios rentables para rastrear y mantener públicamente viva y duradera la promoción. Como parte del compromiso cívico y la defensa, la investigación de políticas de vanguardia debe llevarse a cabo de manera constante. Parte de la movilización cívica en torno a esto debería ser empoderar a las jóvenes aspirantes.</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
+      <c r="B136" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1941,8 +1801,7 @@
           <t>El uso de un proceso de evaluación para el avance profesional en nuevos roles, como el descrito anteriormente, sería una forma más justa y equitativa de brindar a los maestros incentivos para desarrollar competencias en muchas áreas diferentes asociadas con la enseñanza efectiva. Los docentes en Rumania informaron al Equipo de Revisión de la OCDE que actualmente se necesita la bonificación salarial por grado de mérito para complementar sus bajos salarios. Los formuladores de políticas también deberían considerar instituir un aumento general en los salarios de los docentes, particularmente para los nuevos docentes, de modo que los mejores candidatos se sientan atraídos por la profesión. El trabajo para revisar y evaluar el proceso de evaluación debe involucrar a las partes interesadas, incluidos los sindicatos de docentes y los docentes, y todos los cambios deben comunicarse claramente al sector educativo para aumentar la probabilidad de que el proceso sea aceptado como válido y confiable.</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
+      <c r="B137" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1952,8 +1811,7 @@
           <t>Si bien la proporción general de personas que reportan mala salud es menor que en otros países nórdicos, el gradiente por nivel educativo no es menos pronunciado (ver Figura 4.5). Las mujeres también reportan peor salud en todos los niveles de educación. Además, las personas con niveles de educación más bajos (sin formación o formación corta) tienen más probabilidades de tener una enfermedad a largo plazo (46,9% de los encuestados sin formación, en comparación con el 25,7% de los encuestados con 12 o más años de educación) o ser muy molesto por el dolor o la incomodidad (48% sin educación y 37% con formación corta, en comparación con el 24,7% de los encuestados con 12 o más años de educación) que las personas con 12 o más años de educación.</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="n">
+      <c r="B138" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1963,8 +1821,7 @@
           <t>En 2010, teniendo en cuenta las horas trabajadas por los profesores, la ratio alumno-profesor era de 22,1, 18,6, 14,4 y 21,7 en los sectores municipal, privado concertado, privado no concertado y administración delegada, respectivamente. Curiosamente, mientras que en el sector municipal la ratio alumno-profesor aumentó de 16,8 en 2004, disminuyó significativamente en el sector privado subvencionado de 30,0 en el mismo año (Ministerio de Educación, de próxima publicación). Este último es un centro de formación del profesorado dedicado principalmente a la formación de maestros de primaria que dejó de existir en 1974.</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="n">
+      <c r="B139" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1974,8 +1831,7 @@
           <t>El gobierno escocés, ISD Scotland y Health Boards también implementaron procesos para producir información adicional sobre la gestión de las listas de espera, por ejemplo, identificando cuándo los pacientes se registran como no disponibles por motivos de elección del paciente, lo que ha ayudado a agregar transparencia al proceso. Además de este programa, se han desarrollado una serie de indicadores de atención primaria para identificar problemas relacionados con la variación evitable y el desperdicio del sistema de salud. Estos indicadores incluyen derivaciones, ingresos hospitalarios, prescripción y experiencia del paciente.</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="n">
+      <c r="B140" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1985,8 +1841,7 @@
           <t>En 2011, se revisó la normativa de acreditación de programas para incluir criterios sobre la pertinencia académica y disciplinar (Kantardjiev y Haakstad, 2017). En la sección 4.2 de la normativa se exige a las instituciones de educación superior que describan la pertinencia de cada programa para la vida laboral y/o la continuación de los estudios mediante la descripción de las competencias desarrolladas en el programa y el modo en que dichas competencias se ajustan al mercado laboral (Nord University, 2011). La evaluación de la pertinencia de los programas para el mercado laboral suele realizarse mediante el diálogo con los empleadores, pero existen dudas sobre la solidez y la validez de este proceso de consulta (Kantardjiev y Haakstad, 2017). Los programas ahora "deben estar profesionalmente actualizados y ser claramente pertinentes para los estudios posteriores y/o la vida laboral" (Ministerio de Educación e Investigación de Noruega, 2017b).</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="n">
+      <c r="B141" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1996,8 +1851,7 @@
           <t>La formación y el apoyo a los asistentes jurídicos pueden ser una forma muy eficaz de llegar a los hombres y mujeres más vulnerables, especialmente en las zonas rurales. Otras medidas podrían incluir el apoyo a los tribunales itinerantes, la prestación de asistencia jurídica y el apoyo a las OSC que brindan asistencia y orientación jurídica. Las políticas deben revisarse para garantizar que sean apropiadas y no discriminatorias, especialmente en las áreas de prisión preventiva, sentencias y sanciones no privativas de libertad. Por ejemplo, las responsabilidades familiares deben tenerse en cuenta tanto para mujeres como para hombres. Es necesario apoyar políticas que reduzcan los niveles inapropiados de seguridad para las mujeres, que a menudo son detenidas según clasificaciones de seguridad más estrictas de lo necesario debido al pequeño número de prisiones para mujeres.</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="n">
+      <c r="B142" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2007,8 +1861,7 @@
           <t>Además, el efecto agregado de la búsqueda de objetivos secundarios de política en el sistema de contratación pública debe evaluarse periódicamente para abordar la posible sobrecarga de objetivos. Los siguientes ejemplos no proporcionan una lista exhaustiva de las medidas empleadas por los países. Un enfoque es encargar a los proveedores que demuestren su cumplimiento con las leyes o requisitos relacionados con la igualdad de género.</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="n">
+      <c r="B143" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2018,8 +1871,7 @@
           <t>Se deben hacer todos los esfuerzos posibles para incluir cuestiones clave de género en el propio informe, así como en su resumen. Además, considerando que es probable que el informe sirva como base para las acciones de seguimiento, este análisis específico de género es fundamental para apoyar los esfuerzos y las iniciativas adaptadas destinadas a promover el acceso de las víctimas a la justicia y recursos efectivos. Esto incluiría el establecimiento de unidades de protección especial y oficinas de género en las comisarías, etc. Véase la guía Noleof ttaSecTeiaryGeneral' Reparations (o Conflict-related Sexual Violence, junio de 2014.</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="n">
+      <c r="B144" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2029,8 +1881,7 @@
           <t>En 2013, 9 700 estudiantes asistían a 14 escuelas operativas en Astana (2), Aktobe, Atyrau, Karaganda, Kokshetau, Kyzylorda, Pavlodar, Semey, Shymkent (2), Taraz, Ust-Kamenogorsk y Uralsk. Los NEI atienden a unos 1108 estudiantes de zonas rurales en régimen de internado. Desde 2013, el proceso de selección incluye pruebas de matemáticas, idiomas (kazajo, ruso e inglés) y capacidad para estudiar matemáticas y ciencias (razonamiento cuantitativo y pensamiento espacial).</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="n">
+      <c r="B145" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2040,8 +1891,7 @@
           <t>En 2014, una media del 77 % de los niños de 3 años estaban matriculados en programas de desarrollo educativo para la primera infancia o en educación preescolar en los países de la UE22 (en comparación con la media de la OCDE del 71 %). Entre 2005 y 2014, la matrícula de niños de 3 años en educación preescolar aumentó del 69 % al 76 %, y la matrícula de niños de 4 años aumentó del 84 % al 89 %, en promedio entre los países con datos para ambos años . En Bélgica, Dinamarca, Francia, Alemania, Italia, Luxemburgo, los Países Bajos, España y el Reino Unido, al menos el 95 % de los niños de 4 años están matriculados en educación infantil.</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="n">
+      <c r="B146" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2051,8 +1901,7 @@
           <t>En Brasil, el gobierno federal establece las normas generales para las escuelas pero no tiene responsabilidades directas, con algunas excepciones, sobre las escuelas primarias y secundarias, que son principalmente locales (municipios) y regionales (estados). Ambos niveles tienen un alto grado de autonomía en la determinación de su plan de estudios. El grupo también tuvo como objetivo brindar la asesoría técnica necesaria para dar forma al programa de acuerdo con la metodología educativa oficial, así como facilitar la inclusión de conceptos financieros en el currículo normal de las escuelas primarias y secundarias.</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="n">
+      <c r="B147" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2062,8 +1911,7 @@
           <t>Epidemias como el sarampión y la poliomielitis y la limitada respuesta del sistema de salud están empeorando la situación. Los indicadores de salud incluso mejoraron durante la década de 1980, la mortalidad infantil disminuyó de 80 por 1.000 nacidos vivos en 1979 a 40 en 1989, y la tasa de mortalidad de menores de 5 años se redujo de 120 a 60 por 1.000 nacidos vivos.21 Sanciones internacionales impuestas durante la década de 1980 y Sin embargo, el consiguiente retroceso del desarrollo económico afectó el sistema de salud y los resultados sanitarios. La esperanza de vida al nacer y la esperanza de vida ajustada por salud no mejoraron entre los jóvenes entre 1990 y 2010.</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="n">
+      <c r="B148" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2073,8 +1921,7 @@
           <t>Para la salud, el NDOH presenta sus planes de negocios (incluidas las nuevas ofertas) al Tesoro Nacional, y los nueve departamentos de salud provinciales presentan planes de negocios a sus correspondientes tesorerías provinciales. Luego tienen lugar las negociaciones iniciales. Para la salud, se llevan a cabo reuniones bilaterales entre la Tesorería Nacional y altos funcionarios de salud, con reuniones equivalentes entre la tesorería provincial y los departamentos de salud provinciales, para discutir si los programas están adecuadamente financiados.</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="n">
+      <c r="B149" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2084,8 +1931,7 @@
           <t>El sector privado generalmente apoya la prestación de servicios y la recaudación de fondos. En algunos países, el sector privado se encuentra en las primeras etapas de desarrollo, mientras que en otros se ha expandido considerablemente (Cercone, 2005). Revertir esta tendencia e implementar los mecanismos necesarios para contener los crecientes costos del sistema son los principales desafíos que enfrentan los países del Caribe en términos de equidad y acceso a los servicios de salud.</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="n">
+      <c r="B150" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2095,8 +1941,7 @@
           <t>En gran parte del Norte Circumpolar, los pueblos indígenas tenían experiencias comunes dentro de los sistemas educativos basados ​​en formas "occidentales" de enseñanza, aprendizaje y conocimiento y operando con la intención de asimilación. Ahora, en todo el norte y en otros lugares, como Nueva Zelanda y Hawái, los pueblos indígenas están trabajando para crear sistemas educativos controlados por los indígenas basados ​​no en la forma occidental de escolarización que se les impuso durante el último siglo (o más) sino más bien basados ​​en la educación indígena. epistemologías y cosmovisiones. En algunas regiones circumpolares, estos esfuerzos están ocurriendo junto con el sistema educativo occidental dominante, mientras que en otras, los sistemas occidentales están siendo reemplazados por completo.</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="n">
+      <c r="B151" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2106,8 +1951,7 @@
           <t>Tal visión puede establecer nuevas expectativas para las actitudes y el comportamiento de hombres y mujeres. Un plan estratégico puede estructurar los planes nacionales de igualdad de género y guiar la puesta en marcha de las reformas institucionales necesarias para cumplir los objetivos nacionales y alinearse con los estándares internacionales de igualdad de género. Juntos, una visión inspiradora y un plan estratégico cuidadosamente elaborado pueden trazar un curso de reforma y facilitar un enfoque de comunicación efectivo que involucre a una amplia gama de partes interesadas (por ejemplo, organizaciones de mujeres, tomadores de decisiones clave en todos los niveles de gobierno, organizaciones sin fines de lucro). actores, así como ciudadanos y ciudadanas) como socios para poner fin a la desigualdad de género.</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="n">
+      <c r="B152" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2117,8 +1961,7 @@
           <t>En los Estados Unidos, la gran oferta de cannabis se debe a la extensa producción ilegal dentro del país, el contrabando a gran escala desde México y la producción a gran escala y el desvío de los estados dentro de los Estados Unidos que permiten la producción de cannabis con fines no médicos y con fines medicinales. programas Las autoridades de algunos estados se han quejado de un efecto indirecto creado en su territorio por el desvío con fines de tráfico de cannabis de los estados vecinos que han legalizado la droga para fines no médicos. Las autoridades de los Estados Unidos también han informado de un aumento del 62% en el número de visitas a los servicios de urgencias relacionadas con el cannabis entre 2004 y 2011.</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="n">
+      <c r="B153" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2128,8 +1971,7 @@
           <t>Por ejemplo, en Nepal, el PNUD apoyó un caucus de mujeres de todos los partidos que construyó con éxito poder y una agenda común en torno a los derechos de las mujeres en la Asamblea Constituyente de 2008 a 2013.118 Sin embargo, su éxito no fue duradero, y la segunda La Asamblea Constituyente, elegida en 2013, abolió el caucus. A los ojos de las mujeres involucradas en el caucus, esto se debió a que habían construido una base de poder sólida, solidaridad y una voz fuerte a través de las líneas partidistas que amenazaban el liderazgo y el statu quo. Bajo la Unión Soviética, la participación de las mujeres en los mercados laborales y la política era igual a la participación de los hombres.</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="n">
+      <c r="B154" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2139,8 +1981,7 @@
           <t>Para uno de estos encuestados, el problema era principalmente uno de desarrollo económico desigual entre los centros urbanos y rurales. Pero vale la pena señalar que los encuestados chinos también vieron los beneficios de la colaboración en torno al control de enfermedades infecciosas en ambas direcciones, no solo hacia China, sino hacia el resto del mundo. Por lo tanto, dos encuestados señalaron que el control de enfermedades infecciosas no es simplemente una preocupación nacional, sino que tiene implicaciones internacionales y globales, y que, en consecuencia, como lo expresó uno de los encuestados, "es necesario un enfoque global integrado para comprender la transmisión y evolución de los agentes de enfermedades infecciosas". . Por lo tanto, la cooperación y el intercambio internacionales beneficiarían no solo a China, sino que contribuirían al trabajo de control de enfermedades infecciosas en un contexto internacional. En el caso de Sudáfrica, este patrón se invirtió. Las respuestas sudafricanas a las secciones del cuestionario que preguntaban sobre medicina estratificada fueron muy breves en comparación con las relacionadas con el control de enfermedades infecciosas.</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="n">
+      <c r="B155" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2150,8 +1991,7 @@
           <t>Sin embargo, a nivel mundial, los datos sobre el uso del tiempo siguen siendo limitados, en particular para los países en desarrollo, debido a los importantes costos y capacidades necesarios para realizar una encuesta sobre el uso del tiempo. La presentación de informes sobre la Meta 5.4 de los ODS requiere datos recopilados regularmente sobre el uso del tiempo, desglosados ​​por sexo, grupo de edad y ubicación. Sin embargo, hasta la fecha, solo 83 países han realizado alguna vez encuestas sobre el uso del tiempo, y solo el 24 % de ellas se realizaron después de 2010 (ONU Mujeres, 2018). De los 47 países menos adelantados, solo 8 han recopilado datos sobre el uso del tiempo.</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="n">
+      <c r="B156" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2161,8 +2001,7 @@
           <t>La participación de los profesionales, a través de programas que son fáciles de usar, flexibles en el tiempo, interactivos y que responden a las necesidades de los profesionales, maximizará el impacto de los programas de CPD. En varios países de la OCDE, existen incentivos para CPD. En Austria, la formación básica en salud mental para los médicos de atención primaria es bastante limitada, pero algunos médicos de atención primaria han recibido formación adicional en medicina psicoterapéutica en diferentes intensidades. La formación tiene como resultado la acreditación de los diplomas psy-1, psy-2 y psy-3 que también permiten a los médicos de atención primaria administrar determinados tratamientos (en total, unos 5 000 médicos generales en Austria tienen uno de estos diplomas).</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="n">
+      <c r="B157" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2172,8 +2011,7 @@
           <t>En Hungría, la Ley de Educación Pública de 2011 legisla expresamente el enfoque de escuela integral, encargando a los ministros responsables de la educación y el medio ambiente que desarrollen los programas Green Kindergarten y Eco-School en todo el país. Sobre la base de esta promoción, parecería que el número de jardines de infancia verdes ha aumentado a 633 (el 17,6 % de todos los jardines de infancia), y aproximadamente 700 escuelas ahora forman parte del programa Eco-Schools (el 14,6 % de todas las escuelas) (Hungría , informe informal de 2014). Finlandia ha incluido planes de EDS en sus estrategias generales de EDS y proporciona a las escuelas modelos, ejemplos y apoyo práctico para elaborar planes de DS. Sus hallazgos son consistentes con los comentarios proporcionados por los Estados miembros a través de sus NIR e informes nacionales informales.</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="n">
+      <c r="B158" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2183,8 +2021,7 @@
           <t>En la comunidad flamenca, hay indicios de que existe una distribución desigual de los docentes en las escuelas, y los docentes más experimentados suelen emplearse en las escuelas menos desafiantes. Según los datos de TALIS 2013, mientras que el 16 % de los docentes de secundaria inferior trabajaban en escuelas con más del 30 % de estudiantes provenientes de entornos familiares desfavorecidos, este era el caso del 26,6 % de los docentes principiantes (es decir, docentes con 5 años de experiencia docente o menos). . En los países y economías que se encuentran en la parte superior de esta figura (con diferencias positivas), es más probable que los docentes experimentados trabajen en escuelas con una alta proporción de estudiantes de entornos socioeconómicamente desfavorecidos. La Figura 4.6 muestra que para la mayoría de los países, sin embargo, ocurre lo contrario.</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="n">
+      <c r="B159" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2194,8 +2031,7 @@
           <t>Su nivel educativo sería inferior a 3 años en comparación con el nivel educativo promedio de su esposo de poco menos de 4. Dado que el punto de referencia para la alfabetización funcional se establece en un rango entre 3 y 5 años de educación (UNESCO ha adoptado el punto de referencia de 5 años en sus encuestas sobre este tema), esto significa que la mujer promedio en este momento tendría una alfabetización limitada (Gray, 1969). Cincuenta años después, la mujer equivalente tendría más del doble del nivel educativo de su hermana de la década de 1950, habiendo pasado un promedio de casi 6,5 años en la escuela.</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="n">
+      <c r="B160" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2205,8 +2041,7 @@
           <t>En las áreas rurales, 11 grupos de distrito involucran a personas discapacitadas, padres, maestros y niños que se identifican como personas discapacitadas, aseguran suficientes materiales de enseñanza y aprendizaje y maestros auxiliares, hacen que el ambiente de aprendizaje sea acogedor, organizan eventos para crear conciencia y recolectan fondos para educación física. mejoras de acceso. El trabajo con las familias fue fundamental para alentarlas a escolarizar a sus hijos discapacitados y convertirse en aliadas en su lucha por los derechos y la educación. Los estudios de casos se utilizan en la promoción nacional e internacional de cambios en las leyes, políticas y programas de desarrollo relevantes para la educación inclusiva.</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="n">
+      <c r="B161" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2216,8 +2051,7 @@
           <t>En las sociedades multiculturales, los gobiernos pueden querer crear una fuerza laboral capacitada y bien informada y priorizar los valores compartidos para construir un sentido de comunidad. Mientras tanto, algunas personas pueden estar preocupadas por transmitir idiomas y costumbres específicas a los niños respetando creencias específicas sobre la crianza de los niños. En el contexto de Nueva Zelanda, algunas de estas consideraciones reciben un peso y una forma más específicos por la relación entre la Corona y los maoríes definida por el Tratado de Waitangi, y el estatus único de los maoríes como tangata whenua (indígena). Los planes de estudio pueden contribuir a equilibrar las diferentes expectativas del desarrollo de la primera infancia en el plan de estudios y garantizar que se cumplan las expectativas y necesidades de las diferentes partes interesadas (Bennett, 2011, Siraj-Blatchford y Woodhead, 2009, Vandenbroeck, 2011). Un currículo enfocado con metas claras ayuda a asegurar que el personal de ECE cubra áreas críticas de aprendizaje o desarrollo.</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="n">
+      <c r="B162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2227,8 +2061,7 @@
           <t>Sin embargo, incluso las decisiones políticas aparentemente neutras en cuanto al género pueden tener efectos, ya sea intencionales o no, en las posibilidades de las mujeres de convertirse en participantes equitativas en la sociedad. Pueden hacer que les resulte más difícil encontrar empleo, asegurar una educación, iniciar un negocio, satisfacer las necesidades de su familia o garantizar sus derechos humanos. La UE define GIA como “un proceso para comparar y evaluar, de acuerdo con criterios relevantes de género, la situación actual y la tendencia con el desarrollo esperado resultante de la introducción de la política propuesta” (Comisión Europea, n.d.).</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="n">
+      <c r="B163" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2238,8 +2071,7 @@
           <t>La tabla tiene, en contraste con esta heterogeneidad real específica de cada país, principalmente un valor didáctico. El sector privado de atención de salud mental (psicólogos o psiquiatras en práctica privada, según el país) también está abierto a personas con trastornos más leves y condiciones por debajo del umbral. Sin embargo, la mayoría de los enfermos mentales necesitados, que tienen al menos un trastorno mental leve y, a menudo, están parcialmente aislados de la vida social y laboral, no encuentran la ayuda adecuada. El consultorio de atención primaria es el lugar donde se presenta la mayoría de las personas con problemas de salud mental, especialmente por primera vez.</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="n">
+      <c r="B164" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2249,8 +2081,7 @@
           <t>En los países de la OCDE, un estudiante con más ventajas socioeconómicas obtiene 39 puntos más en matemáticas, el equivalente a casi un año de escolaridad, que un estudiante con menos ventajas. En Portugal, la diferencia de rendimiento en matemáticas es de 35 puntos. Junto con Chile, Hungría, Luxemburgo y la República Eslovaca, la relación en Portugal entre desempeño y estatus socioeconómico está significativamente por encima del promedio de la OCDE (OCDE, 2014a). La posición de Portugal contrasta con la de Italia, que, por ejemplo, mostró un nivel de desempeño y una mejora en los resultados de PISA similares a los de Portugal entre 2003 y 2012 (ver Figura 9).</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="n">
+      <c r="B165" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2260,8 +2091,7 @@
           <t>Los flujos de ayuda restantes que no se compararon con el marcador se atribuyeron principalmente a los informes de los Estados Unidos. Los otros 23 miembros del DAC combinaron un total del 92% de su ayuda. Canadá se destaca como la excepción en este sentido, con el 42,4% de su ayuda dirigida a la igualdad de género como objetivo principal.</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="n">
+      <c r="B166" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2271,8 +2101,7 @@
           <t>Como resultado, los resultados de salud siguen siendo inferiores a los de la OCDE y las desigualdades son significativas. En general, las reformas han ido en la dirección correcta. Por lo tanto, las razones del progreso limitado son profundas y difíciles de captar, especialmente en un entorno donde los sistemas de información no están orientados hacia ese objetivo. En parte, el lento progreso puede atribuirse a la magnitud de la tarea en cuestión. De hecho, no se presta suficiente atención a la medición del progreso real hacia la implementación efectiva.</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="n">
+      <c r="B167" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2282,8 +2111,7 @@
           <t>Sin embargo, basadas en actitudes de “culpar a la víctima”, en las que se prestaba una atención y un enfoque considerables a mejorar el comportamiento del ser humano, las políticas de seguridad vial carecían del enfoque holístico necesario para lograr una reducción significativa de las lesiones. Un Sistema Seguro no ve las muertes y lesiones en las carreteras como el precio inevitable a pagar por una sociedad altamente motorizada. Al ver cualquier muerte en la carretera como una falla inaceptable del sistema, se contrarresta el riesgo de que los planificadores del transporte puedan adoptar medidas de eficiencia del transporte que toleren muertes que se pueden prevenir de manera asequible.</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="n">
+      <c r="B168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2293,8 +2121,7 @@
           <t>La densidad de camas también es marcadamente baja, con 1,6 camas por 1 000 habitantes en 2013, en comparación con 4,8 camas por 1 000 en toda la OCDE: nuevamente, la más baja entre los países de la OCDE. Aunque el gasto total per cápita ahora es bastante similar para las personas con y sin seguridad social (a MXN 3 429 per cápita para las personas sin seguridad social en 2013, en comparación con 3 505 para el IMSS y 3 945 para los afiliados al ISSSTE), las diferencias en los derechos persisten, involucrando algunas enfermedades comunes y devastadoras. Los infartos de miocardio en mayores de 60 años, los accidentes cerebrovasculares, la diálisis tras insuficiencia renal, la esclerosis múltiple y el cáncer de pulmón, por ejemplo, no están cubiertos por el SP. Algunas diferencias en el acceso también son evidentes.</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="n">
+      <c r="B169" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2304,8 +2131,7 @@
           <t>En otras escuelas, los maestros establecen objetivos educativos para sus alumnos y evalúan su desempeño en gran medida por sí mismos. En la red SIP, las organizaciones asociadas brindan desarrollo profesional, así como clases de recuperación y apoyo psicosocial para niños. La Sociedad de Instrucción Primaria (cont.) La enseñanza está estructurada por los objetivos formulados por el departamento pedagógico y los incentivos económicos para los maestros a veces están ligados a su logro.</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
+      <c r="B170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2315,8 +2141,7 @@
           <t>Si bien las mujeres viven más que los hombres, también se enferman con más frecuencia. A las niñas ahora les va mejor que a los niños en la escuela, pero siguen estando insuficientemente representadas en los campos clave de la educación que brindan mayores oportunidades laborales. Del mismo modo, aunque las mujeres están cada vez más presentes en el mercado laboral, todavía ganan menos que los hombres, dedican más horas al trabajo no remunerado y les resulta más difícil llegar a la cima de la carrera profesional o iniciar su propio negocio. Los hombres son con mayor frecuencia las víctimas de homicidios y agresiones, pero las mujeres son el objetivo principal de la violencia de pareja.</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="n">
+      <c r="B171" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2326,8 +2151,7 @@
           <t>En particular, la caída significativa en el número de estudiantes matriculados en programas vocacionales cortos provoca escasez de ciertas ocupaciones. Este número se redujo en más del 50 % (de alrededor de 2 000 estudiantes a alrededor de 1 000) entre 2007 y 2009. Los programas de formación profesional media también experimentaron grandes descensos en la matrícula de más de 18 000 estudiantes en 2007 a alrededor de 12 000 estudiantes en 2009.</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="n">
+      <c r="B172" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2337,8 +2161,7 @@
           <t>En particular, los objetivos establecidos por la ley son: i) evaluar el aprendizaje de los estudiantes, ii) trabajar en las innovaciones pedagógicas necesarias para mejorar el aprendizaje de los estudiantes, iii) intercambiar experiencias pedagógicas, iv) diseñar estrategias de enseñanza para los estudiantes, v) establecer criterios para planes de mejora. , y vi) recibir asistencia técnica de las asesorías técnico-pedagógicas del Ministerio de Educación (Asesores Tecnico-Pedagogicos, ATP) o de asesorías independientes (Asesores Tecnico-Pedagógicos, ATE). El canal, sin embargo, ha llegado a muy pocas escuelas (en total 1000 escuelas en Latinoamérica) (https://escue!ap!us.com/). Este programa se introdujo en 2000 como una estrategia para expandir el programa Conexiones (Enlaces) a las áreas rurales e incluyó la provisión de computadoras a las aulas multigrado, así como la capacitación de maestros.</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="n">
+      <c r="B173" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2348,8 +2171,7 @@
           <t>Desde la década de 1980, los países nórdicos han implementado una variedad de diferentes tipos de medidas destinadas a mejorar el equilibrio de género en el mundo académico. Se han implementado medidas de igualdad de género dentro de los sectores de educación e investigación, en los consejos nacionales de investigación y en universidades, colegios universitarios e institutos de investigación independientes. Estas medidas se han centrado en mejorar el equilibrio de género en áreas temáticas específicas, categorías de puestos e instituciones o en la academia y el sector de la investigación en general. Primero, las estadísticas sobre educación e investigación en la región nórdica se han desglosado por género desde la década de 1980, e incluso antes en algunos países, lo que ha sido crucial para desarrollar datos adecuados sobre las medidas de igualdad de género en el mundo académico.</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="n">
+      <c r="B174" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2359,8 +2181,7 @@
           <t>En programas exitosos, los maestros mentores brindan orientación y supervisión a los maestros principiantes en estrecha colaboración con la institución de formación inicial de maestros. Estos mentores brindan apoyo en el trabajo, identifican deficiencias en el conocimiento de la materia, estrategias de gestión del aula y otros procesos pedagógicos. A menudo, las escuelas que necesitarían brindar el mayor apoyo a los maestros principiantes son las menos capaces de ofrecer programas de inducción de alta calidad.</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="n">
+      <c r="B175" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2370,8 +2191,7 @@
           <t>En promedio en los países de la OCDE, y después de tener en cuenta el perfil socioeconómico de las escuelas, no se puede identificar una asociación entre el porcentaje de estudiantes inmigrantes que asisten a una escuela y la probabilidad de que los estudiantes que asisten a esa escuela alcancen los niveles básicos de competencia académica. Después de tener en cuenta el perfil socioeconómico de las escuelas, una alta concentración de estudiantes inmigrantes se asoció con un desempeño más bajo en Alemania, Eslovenia, España y Suiza. Eslovenia fue el único país donde los estudiantes que asisten a escuelas en las que más de uno de cada cuatro estudiantes tiene un origen inmigrante tienen menos probabilidades de alcanzar los niveles básicos de competencia, después de tener en cuenta el perfil socioeconómico de la escuela.</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="n">
+      <c r="B176" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2381,8 +2201,7 @@
           <t>Esto también implica dar suficientes recursos a los casos difíciles y conservar los recursos en los casos en que su uso sería subóptimo. Además, los cambios en los sistemas de pago podrían tener consecuencias a largo plazo para el uso de la tecnología, las prácticas médicas y los costos a lo largo del tiempo (McClellan, 2011). Sin embargo, no han sido efectivos para evitar derivaciones innecesarias y ofrecer atención definitiva. Entre 1990 y 2008, el número de derivaciones no diagnósticas a atención especializada ambulatoria aumentó más de cuatro veces, mientras que el número de pacientes derivados a atención hospitalaria por médico aumentó casi un 80% (Gaal et al.,</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="n">
+      <c r="B177" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2392,8 +2211,7 @@
           <t>En promedio, una diferencia de casi 40 puntos en el dominio de la alfabetización separa a los adultos de padres con un alto nivel educativo de aquellos cuyos padres tienen los niveles más bajos de educación. En promedio, la probabilidad de tener un desempeño bajo es alrededor de 25 puntos porcentuales menor para los adultos con al menos un padre con educación terciaria, en comparación con los adultos cuyos padres tienen educación secundaria superior. Los adultos cuya alfabetización está clasificada en el Nivel 1 e inferior predominantemente tienen padres con poca educación. En promedio, más de la mitad de los adultos (52,2 %) por debajo de la línea de base en el dominio de la lectura tenían padres que no habían completado la educación secundaria superior.</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="n">
+      <c r="B178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2403,8 +2221,7 @@
           <t>Tal progreso ha permitido que Colombia se convierta en un líder regional en actividades clave. Su agencia de evaluación de tecnologías de la salud, el Instituto de Evaluación Tecnológica en Salud, es una de las más avanzadas de América Latina, por ejemplo. El conflicto ha provocado desplazamiento y toma forzosa de tierras, reclutamiento forzado y secuestro, homicidios, lesiones y violencia sexual. En total, se estima que 7,1 millones han sido víctimas del conflicto armado entre 1985 y 2015, en su mayoría colombianos pobres y rurales.</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="n">
+      <c r="B179" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2414,8 +2231,7 @@
           <t>Reducen la producción económica mundial y nacional, ejercen presión sobre los gobiernos y los sistemas de salud nacionales, sobrecargan a los hogares vulnerables, ponen en riesgo los derechos humanos y socavan gravemente el progreso del desarrollo (PNUD 2013b, Banco Mundial 2014). La pérdida de productividad debido a enfermedad, discapacidad o muerte por ENT puede impedir el crecimiento macroeconómico y desviar los presupuestos públicos de otros objetivos importantes de salud y desarrollo (OMS 2010, Bloom et al. En contraste, las muertes por enfermedades transmisibles durante el mismo período se redujeron en un 27 por ciento de alrededor de 16,1 millones de personas en 1990 a 11,8 millones en 2013, mientras que las muertes por diversas formas de lesiones aumentaron en un 10 por ciento de alrededor de 4,3 millones de personas en 1990 a 4,8 millones en 2013 (GBD 2013).</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
+      <c r="B180" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2425,8 +2241,7 @@
           <t>En segundo lugar, la enseñanza para el examen enfatiza la memorización y un enfoque más pasivo del aprendizaje, ya que los maestros pasan más tiempo desarrollando estrategias para tomar exámenes en lugar de cultivar las habilidades de resolución de problemas de los estudiantes (Kellaghan et al., Al involucrar a los maestros en el desarrollo e implementación de pruebas estandarizadas y capacitar a los maestros sobre cómo usar y analizar de manera efectiva los resultados de las pruebas, puede haber menos riesgo de enseñar para la prueba. Sin embargo, los incentivos adjuntos a los resultados de las pruebas deben construirse cuidadosamente para evitar motivar comportamientos estratégicos como enseñar para la prueba, la investigación es mezclados en cuanto a cómo promover de manera efectiva comportamientos positivos como resultado de incentivos mientras se reducen los comportamientos negativos.</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
+      <c r="B181" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2436,8 +2251,7 @@
           <t>Una reforma reciente ha permitido a los padres de niños nacidos después de junio de 2016 hacer un uso aún más flexible de la provisión de protección laboral: con el consentimiento del empleador, pueden usar 12 meses del período de protección laboral de 36 meses en cualquier momento entre el tercer y octavo cumpleaños del niño. Pero, más allá de las disposiciones de la licencia parental (Elternzeit) y la licencia para el cuidado de la familia (Pflegezeit y Familienpflegezeit), los empleados en Alemania no tienen derecho legal a reanudar el trabajo a tiempo completo una vez que su empleador haya aprobado la reducción de su jornada laboral (consulte el Capítulo 3 para obtener más información). una comparación internacional de disposiciones legales). En promedio, las madres que trabajan a tiempo completo en Alemania dedican casi 42 horas a la semana, superadas solo por las madres suizas y austriacas con alrededor de 44 horas a la semana (Figura 4.6).</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
+      <c r="B182" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2447,8 +2261,7 @@
           <t>El plan de especialización debe abordar la preocupación entre los cirujanos y los responsables políticos en Dinamarca de que ciertos servicios especializados se prestan en circunstancias potencialmente inseguras. Si bien es demasiado pronto para evaluar sistemáticamente el impacto de estas reformas, será importante que los formuladores de políticas utilicen los cambios en la oferta de servicios hospitalarios para impulsar mejoras en la calidad de la atención. Para ayudar a evaluar el éxito del plan y monitorear la calidad de manera continua, la DHMA debe buscar que los hospitales monitoreen internamente los datos sobre el desempeño de los médicos individuales, junto con los esfuerzos de todo el sistema que ya se están realizando para evaluar el desempeño de los hospitales especializados.</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
+      <c r="B183" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2458,8 +2271,7 @@
           <t>En segundo lugar, los muy altos retornos de la educación superior para el gobierno sugieren que una gran parte de los retornos de la educación superior pueden ser gravados en Portugal (OCDE, 2017|2]). En tercer lugar, las partes interesadas mencionaron razones económicas que han disminuido el interés en seguir una educación superior, tanto durante la crisis, debido a los costos de participación, como en el período de recuperación. Otros países tienen matrícula para los programas de educación de adultos, incluso para la formación básica, que no se aplican a las personas que demuestran necesidad económica, por lo general aquellos que son elegibles para los beneficios sociales. A continuación se incluyen ejemplos de estos dos enfoques.</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
+      <c r="B184" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2469,8 +2281,7 @@
           <t>Aucune intervencion isolee ne sera a meme de garantir que lespatients se font deivrer les medicaments presents et qu'ils les prennent correctement. Les mesures mises en lumiere doivent etre appliquees ensemble. Las medidas reglamentarias y los indicadores de calidad y rendimiento se encuentran en el dominio de un estímulo para los sistemas de sanidad, más eficaces y más eficientes.</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
+      <c r="B185" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2480,8 +2291,7 @@
           <t>Kazajstán también promulgó una estrategia nacional de igualdad de género (2006-16) seguida de planes de acción específicos para su implementación. Más recientemente, en la Reunión de Líderes Globales de la ONU sobre Igualdad de Género y Empoderamiento de la Mujer, Kazajstán se comprometió a defender e implementar plenamente la Plataforma de Acción de Beijing con un compromiso acelerado y más profundo que hasta ahora. En vista de la implementación de los Objetivos de Desarrollo Sostenible (más específicamente el Objetivo 5 sobre la igualdad de género), Kazajstán se comprometió a financiar adecuadamente las iniciativas de igualdad de género, establecer una rendición de cuentas fuerte, transparente y abierta de los mecanismos gubernamentales y utilizar datos de género comparables de alto nivel en todos los aspectos de la igualdad de género. (ONU Mujeres, 2015).</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
+      <c r="B186" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2491,8 +2301,7 @@
           <t>En Suecia, entre los estudiantes nativos de herencia mixta, los hablantes no nativos tenían 17 puntos porcentuales menos de probabilidad de ser académicamente resilientes en comparación con los hablantes nativos. La diferencia fue de al menos 20 puntos porcentuales en los países europeos de aprendizaje entre pares. En Canadá, los estudiantes nativos y no nativos con diferentes orígenes inmigrantes tenían la misma probabilidad de alcanzar la competencia académica básica.</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
+      <c r="B187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2502,8 +2311,7 @@
           <t>Estos esfuerzos generalmente se llevan a cabo a través de los ministerios de asuntos de la mujer que tienen conexiones limitadas con los ministerios económicos, aunque está surgiendo evidencia de que los ministerios económicos están reconociendo que las necesidades de las mujeres empresarias requieren una consideración especial. Además, no hay evidencia de ninguna política para apoyar a las mujeres en empresas orientadas al crecimiento. Las empresarias orientadas al crecimiento ciertamente existen en la región, pero son pocas y en gran parte invisibles.</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
+      <c r="B188" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2513,8 +2321,7 @@
           <t>Como dijo una encuestada: “Podemos hacer las cosas nosotras mismas, no dependemos de los hombres. En el pasado, decir los nombres de nuestro esposo y nuestra suegra era un tabú social, pero tal restricción ya no existe”. Sin embargo, los programas en Nepal de Helvetas y el Banco Asiático de Desarrollo (ADB) mostraron cómo los programas de infraestructura puede reducir el trabajo de cuidados no remunerado de las mujeres y desafiar las normas de género discriminatorias existentes. Esto se hizo a través de la representación de las mujeres (considerada una cuarta “R” en el marco de las 3R de la OIT [2018]) en la fase de diseño del programa y/o en los procesos de toma de decisiones (ver Cuadro 5).</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="n">
+      <c r="B189" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2524,8 +2331,7 @@
           <t>En teoría, un docente con estatus permanente puede ser despedido, por ejemplo, como resultado de una medida disciplinaria o si ha recibido dos evaluaciones "insuficientes" consecutivas. Sin embargo, en la práctica, despedir a un docente permanente puede resultar difícil y rara vez ocurre. La carrera docente no prevé etapas diferenciadas asociadas a niveles de competencia o roles y responsabilidades determinados en las escuelas.</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
+      <c r="B190" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2535,8 +2341,7 @@
           <t>Específicamente, las mujeres fundadoras tienden a estar menos preparadas en términos de educación y experiencia profesional, una vez que se controla por el sector de actividad de puesta en marcha. En ese sentido, parte de la brecha de género puede atribuirse a una brecha de género en educación y campos de interés y carreras (por ejemplo, STEM). La política para cerrar la brecha de género en la financiación tendría que abordar los factores anteriores relacionados con la educación y la formación.</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="n">
+      <c r="B191" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2546,8 +2351,7 @@
           <t>En las regiones más desarrolladas, el 98% de los gobiernos habían adoptado tanto medidas legales como políticas para prevenir la violencia doméstica, en comparación con el 71% con medidas legales, el 87% con políticas y el 65% con ambas en los gobiernos de las regiones menos desarrolladas. Esta proporción también fue relativamente baja en África (68 por ciento) y Asia (69 por ciento). Cuatro gobiernos de África y cinco gobiernos de Asia no contaban con disposiciones legales o políticas para prevenir la violencia doméstica (cuadro III.6).</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="n">
+      <c r="B192" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2557,8 +2361,7 @@
           <t>La Convención sobre la eliminación de todas las formas de discriminación contra la mujer exige a los Estados partes que adopten "todas las medidas apropiadas para eliminar la discriminación contra la mujer en todos los asuntos relacionados con el matrimonio y las relaciones familiares" (art. Esto incluye garantizar el mismo derecho a contraer matrimonio con libre y pleno consentimiento y a elegir libremente cónyuge, los mismos derechos y responsabilidades durante el matrimonio y su disolución y con respecto a sus hijos, y los mismos derechos personales como marido y mujer, tales como el derecho a elegir un apellido, una profesión y una ocupación Los derechos relacionados con el acceso a la propiedad y la salud sexual y reproductiva, que se examinarán por separado en este capítulo, también están cubiertos por esta disposición.</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="n">
+      <c r="B193" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2568,8 +2371,7 @@
           <t>La estrategia podría incorporar elementos importantes de reformas legales, regulatorias e institucionales de manera integral y coherente para garantizar que se eliminen los obstáculos para el desarrollo equitativo y sostenible. Esta estrategia también puede incorporar la participación de mujeres en áreas estratégicas y posiciones de poder, así como facilitar el apoyo para el análisis de impacto de género y la recopilación de datos desagregados por género. Junto con los ministerios interesados, las asociaciones y organizaciones de mujeres de toda España participaron en la preparación del plan estratégico para incorporar sus puntos de vista en un proceso colaborativo de elaboración de políticas.</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="n">
+      <c r="B194" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2579,8 +2381,7 @@
           <t>En todo su trabajo, los pedagogos se enfocan en la importancia del juego y el desarrollo integral de los niños y jóvenes, que incluye su desarrollo intelectual, social, emocional, neuromuscular, ético, moral y estético (BUPL, 2016). Estos profesores especialistas se centran en los procesos sociales en las escuelas y constituyen un recurso central en áreas relacionadas con el comportamiento, la psicología y el bienestar. Pueden apoyar a estudiantes individuales dentro y fuera de las aulas y trabajar junto con los maestros en el aula para ayudar a ofrecer una enseñanza diferenciada de acuerdo con las necesidades de los estudiantes.</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="n">
+      <c r="B195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2590,8 +2391,7 @@
           <t>El procedimiento IV permite depurar la variable salud a partir de su correlación con el término de error e_it, es decir, a partir de sus fuentes de endogeneidad. Sin embargo, encontrar un instrumento sólido y válido suele ser difícil, en el mejor de los casos. Por ejemplo, al observar la relación entre la obesidad y los salarios, Cawley (2004) utilizó el peso de los hermanos como instrumento para el peso individual.</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="n">
+      <c r="B196" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2601,8 +2401,7 @@
           <t>En varios estados y territorios de Australia, Bélgica (Comunidad francesa), en varias provincias y territorios de Canadá, Chile (Evaluación del desempeño) y Nueva Zelanda, por ejemplo, queda a discreción de los líderes y evaluadores escolares seleccionar los instrumentos y herramientas para recabar información dependiendo de los aspectos y criterios de evaluación elegidos y/o de los objetivos de desempeño definidos individualmente. Los instrumentos y las fuentes de información utilizados para reunir pruebas sobre el desempeño de un líder escolar también pueden diferir entre los puestos de liderazgo, los directores escolares y los subdirectores escolares. Aunque los costos y esfuerzos requeridos deben sopesarse con los beneficios de usar múltiples fuentes de información, es esencial reunir una cantidad factible de información precisa, válida, confiable y útil (Glasman y Glasman, 2010). Estas reuniones entre evaluador y evaluado pueden basarse simplemente en una lista de comprobación que examine si se ha demostrado un aspecto de la evaluación (Lashway, 2003).</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="n">
+      <c r="B197" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2612,8 +2411,7 @@
           <t>Enfatiza la centralidad del conocimiento y el aprendizaje y tiene como objetivo promover la inclusión, la coherencia y la flexibilidad en la práctica educativa. También destaca la importancia de la adaptabilidad, la audacia y la concienciación sobre cuestiones de sostenibilidad medioambiental como aspectos fundamentales del enfoque educativo del siglo XXI. Esto incluye la expectativa de que el ciudadano desarrolle pensamiento crítico, autoconciencia, autonomía y responsabilidad. Las personas deben poder hacer frente a la incertidumbre en un mundo que cambia rápidamente, utilizar las habilidades que han desarrollado, continuar aprendiendo durante toda la vida y deben respetar los principios fundamentales de la sociedad democrática y los derechos, garantías y libertades en los que se basa. . Estos incluyen: responsabilidad e integridad, excelencia y altos estándares, curiosidad, reflexión e innovación, ciudadanía y participación, y libertad. Estos incluyen: el uso de lenguajes y textos, información y comunicación, razonamiento y resolución de problemas, pensamiento crítico y creativo, relaciones interpersonales, autonomía y desarrollo personal, bienestar, salud y medio ambiente, sensibilidad/conciencia estética y artística, científica, técnica y conocimientos tecnológicos, y conciencia y dominio del cuerpo.</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="n">
+      <c r="B198" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2623,8 +2421,7 @@
           <t>Por lo tanto, aunque las causas estructurales más amplias de la emigración parecen ser neutras desde el punto de vista del género, el papel de la desigualdad de género en las instituciones sociales no lo es. Además de los determinantes estándar, las instituciones sociales discriminatorias influyen en los patrones de migración femenina. Esto es fundamental para comprender el papel de las instituciones sociales en la toma de decisiones de las mujeres.</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="n">
+      <c r="B199" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2634,8 +2431,7 @@
           <t>Estas acciones pueden considerarse transformadoras, ya que provocan un cambio de género al renegociar espacios en el contexto político inestable. Centrarse en cuestiones políticas no relacionadas con los conflictos también es una opción estratégica para que estas organizaciones rompan las barreras de identidad étnica y promuevan iniciativas de reconciliación bicomunal. Sus articulaciones de derechos humanos son fuertemente inclusivas. Estas CoSO por lo general tienen un impacto de no titulización/retención o un impacto de desecuritización/consolidación de la paz.</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="n">
+      <c r="B200" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2645,8 +2441,7 @@
           <t>Entonces los maestros saben que el enfoque más fácil para ellos puede ser simplemente esperar a que pasen los intentos de reforma. Lo que es más importante, existe una brecha sustancial entre el momento en que se incurre en el costo inicial de la reforma y el momento en que es evidente si los beneficios de la reforma realmente se materializarán. Si bien el tiempo complica la política de reforma en muchos dominios, parece tener un mayor impacto en la reforma educativa, donde los retrasos suelen implicar muchos años. Es un largo camino hacia la implementación exitosa de la reforma, el fracaso a menudo está a solo un pequeño paso de distancia. Como resultado, el ciclo político puede tener un impacto directo en el momento, alcance y contenido de la reforma educativa. La reforma educativa se convierte en una tarea ingrata cuando se realizan elecciones antes de que se realicen los beneficios de la reforma.</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="n">
+      <c r="B201" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2656,8 +2451,7 @@
           <t>Entre otras cosas, considera cómo se distribuyen las responsabilidades para la organización y el funcionamiento de la escuela, cómo se estructuran el desarrollo y la garantía de calidad de la escuela (por ejemplo, autoevaluación escolar, externalidad en la garantía de calidad), cómo se organiza, distribuye y prepara el liderazgo escolar, cómo se organizan, distribuyen y preparan los recursos en las escuelas están organizadas para crear entornos propicios para la enseñanza y el aprendizaje efectivos (p. ej., organización del aprendizaje, alcance a los padres y las comunidades), y cómo se utilizan las instalaciones y los materiales escolares para apoyar dichos entornos (p. ej., uso de las instalaciones escolares fuera del horario de instrucción). En Uruguay, el 41,4% de los jóvenes de 15 años que tomaron la evaluación PISA 2012 estaban matriculados en educación secundaria básica y el 58,6% en educación secundaria superior. Casi todos los estudiantes que realizaron la evaluación PISA siguieron un programa general (97,3 %) (OCDE, 2013a, tablas IV.2.4 y IV.2.6).</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="n">
+      <c r="B202" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2667,8 +2461,7 @@
           <t>Es importante tener en cuenta que la organización de la red escolar debe tener como objetivo garantizar una educación de calidad para todos los niños. El acceso de los estudiantes a una educación de alta calidad no debería verse afectado negativamente por su lugar de residencia. En algunos casos, cerrar la escuela puede no ser la mejor solución; la distancia a recorrer puede simplemente no ser practicable.</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="n">
+      <c r="B203" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2678,8 +2471,7 @@
           <t>Eslovenia tiene una de las proporciones más altas de la población de 25 a 64 años que ha completado al menos la educación secundaria superior, y ocupa un lugar destacado en las pruebas internacionales de rendimiento educativo. Sin embargo, en algunas áreas, las reformas podrían mejorar significativamente el desempeño y equipar a la fuerza laboral con las habilidades más demandadas en una economía que cambia rápidamente. En particular, las bajas proporciones de alumnos por maestro, el tamaño reducido de las clases y una alta proporción de personal no docente sugieren que hay espacio para mejorar la eficiencia del gasto. La racionalización del personal docente y no docente también liberaría valiosos recursos públicos que podrían redirigirse hacia aspectos del sistema educativo que carecen de fondos suficientes.</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="n">
+      <c r="B204" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2689,8 +2481,7 @@
           <t>Además, es más probable que las fundadoras deseen mantener el control de la empresa y continuar haciendo crecer su negocio de forma independiente. Este argumento parece plausible dado que, en general, las mujeres y los hombres empresarios declaran tener diferentes motivaciones que los hombres para iniciar un negocio (Figura 2). La validación o el rechazo de esta hipótesis conlleva importantes implicaciones de política.</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="n">
+      <c r="B205" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2700,8 +2491,7 @@
           <t>En la mayor parte del mundo emergente, sin embargo, persisten brechas de género severas y mejorar los logros educativos de las mujeres debería seguir siendo una preocupación principal para los formuladores de políticas. Además, un círculo vicioso de baja productividad y acceso limitado al capital puede reforzarse a sí mismo y fomentar trampas de pobreza. Esto puede suceder si las restricciones crediticias generales que enfrentan las empresarias reprimen la inversión en sus negocios, lo que hace que la productividad permanezca baja y reduzca aún más su solvencia crediticia.</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="n">
+      <c r="B206" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2711,8 +2501,7 @@
           <t>Esto debe incluir respetar a los pacientes, involucrarlos en la priorización y planificación de los sistemas de atención médica y promover su voz y elección a través de una mayor alfabetización en salud. La recopilación de medidas de la experiencia del paciente es fundamental para brindar servicios de salud que realmente respondan a las necesidades de los pacientes. De manera complementaria, el papel de los profesionales de la salud debe modernizarse para brindar una mayor atención centrada en el paciente.</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="n">
+      <c r="B207" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2722,8 +2511,7 @@
           <t>Esta diferencia, sin embargo, varía significativamente según el grupo socioeconómico. Mientras que el 44,1% de los estudiantes del PIE de nivel socioeconómico bajo son diagnosticados con una necesidad especial permanente, solo el 12% de los estudiantes del PIE de nivel socioeconómico alto son diagnosticados con dicha necesidad (ver Figura 3.5). También hay diferencias por proveedor de la escuela: las escuelas municipales tienen más probabilidades de matricular a estudiantes con discapacidades permanentes que las escuelas privadas subvencionadas.</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="n">
+      <c r="B208" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2733,8 +2521,7 @@
           <t>Esta no es una tarea fácil cuando el tamaño de las clases varía mucho debido a la existencia de escuelas rurales o remotas. También surgen dificultades en la consideración de las necesidades de los estudiantes y las escuelas en la fórmula (por ejemplo, requisitos curriculares, equipamiento escolar, ritmo de aprendizaje de los estudiantes). Es necesario lograr un equilibrio entre una fórmula simple, que podría no capturarlo todo, y una fórmula sofisticada, que podría ser difícil de entender y cuyo ajuste podría generar resultados inesperados y desagradables.</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="n">
+      <c r="B209" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2744,8 +2531,7 @@
           <t>Por lo tanto, es necesario diseñar políticas que provoquen cambios en la estructura productiva y su orientación para que los factores de demanda abran el camino a un tipo de crecimiento más sólidamente basado en la equidad, siendo la equidad un objetivo de política en su por derecho propio, en lugar de ser visto como un "complemento". Esto requerirá derribar las principales barreras de entrada al mercado laboral para que la protección social pueda combinarse con políticas laborales y económicas que proporcionen financiamiento confiable y continuo para los sistemas de servicios integrados. La política laboral debe enfocarse en asegurar que el régimen laboral incorpore las necesidades asociadas al ciclo de vida familiar y que las normas laborales diseñadas para brindar protección social se apliquen por igual a hombres y mujeres para que las mujeres no sean vistas como trabajadoras “costosas”. por los posibles empleadores y que las horas que las mujeres trabajan en el mercado laboral se correspondan con un impacto positivo en la demanda agregada, la productividad y el crecimiento.</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="n">
+      <c r="B210" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2755,8 +2541,7 @@
           <t>Dado que normalmente no se debe brindar atención sin el consentimiento de la persona, el tratamiento obligatorio solo se puede ordenar para los pacientes que se oponen a la atención, pero que padecen un trastorno psiquiátrico grave (excluida la discapacidad del desarrollo). Esta atención solo debe brindarse en los casos en que "debido a su condición psiquiátrica o circunstancias personales", una persona necesita tratamiento psiquiátrico que solo será efectivo si el paciente es admitido en un centro de atención psiquiátrica para pacientes internados (Bolling et al, 2009 ). El tratamiento ambulatorio involuntario, bajo condiciones especiales, solo puede comenzar después de un período de tratamiento ambulatorio involuntario.</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="n">
+      <c r="B211" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2766,8 +2551,7 @@
           <t>Establecidos en 2004-2005, estos cursos solían ser ofrecidos por varias instituciones, incluidas escuelas, centros de formación y politécnicos, y reclutaron a más de 12 000 participantes en 2014-2015. A partir de 2015-2016, los politécnicos ya no están autorizados a ofrecer estos cursos. El número de estudiantes disminuyó ese año a 6 300.</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="n">
+      <c r="B212" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2777,8 +2561,7 @@
           <t>Estas habilidades describen lo que la OCDE ha llamado Teaming to learn: las estrategias, prácticas y motivaciones asociadas con el alto rendimiento (OCDE, 2010). El "modelo de tres capas" del aprendizaje autorregulado (Boekaerts, Pintrich y Zeidner, 2000) es un marco que captura los diferentes tipos de mentalidades, disposiciones y habilidades que deben desarrollarse para que los estudiantes sean capaces de aprender. capaces de aprender productivamente por sí mismos. La capa interna de regulación cognitiva abarca las prácticas que un estudiante necesita dominar para llevar a cabo el procesamiento de la información. La capa intermedia de regulación metacognitiva describe el conocimiento y las habilidades de los estudiantes que les permiten tomar decisiones efectivas sobre lo que estudian y cómo. La capa externa de regulación motivacional representa el "yo", las propias metas, necesidades y expectativas del alumno.</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="n">
+      <c r="B213" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2788,8 +2571,7 @@
           <t>Los hombres también contribuyen a la seguridad social por más tiempo que las mujeres en México. Entre todos los trabajadores por cuenta propia (mayores de 15 años) que son mujeres, el 77,5% nunca ha cotizado a la seguridad social, en comparación con el 65,1% de los trabajadores por cuenta propia que son hombres (estimaciones de la ENIGH de la OCDE, 2014). La cobertura es aún peor para los grupos marginados como los trabajadores domésticos, que en su inmensa mayoría son mujeres.</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="n">
+      <c r="B214" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2799,8 +2581,7 @@
           <t>Los datos de la Asociación China de Mujeres Empresarias muestran que las mujeres empresarias representan alrededor del 25% de todos los empresarios, tienen más educación que los hombres, son optimistas sobre su futuro y cada vez más propensas a buscar información comercial en Internet y llegar a los mercados internacionales. Se ha prestado especial atención a los programas para mejorar la inclusión financiera de las mujeres empresarias. Incluyen tasas de interés preferenciales y esquemas de garantía de crédito.</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="n">
+      <c r="B215" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2810,8 +2591,7 @@
           <t>Los datos se refieren a la duración promedio de la estadía para atención curativa (aguda) (lo que resulta en una subestimación). Fuente: Estadísticas de salud de la OCDE (2016), http://dx.doi.org/10.1787/health-data-en. En comparación con el sector hospitalario, existe un déficit importante de información sobre los patrones de atención y los resultados en la atención primaria.</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="n">
+      <c r="B216" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2821,8 +2601,7 @@
           <t>Las medidas específicas incluyeron auditorías de género de los ministerios sectoriales, evaluaciones de género, sensibilización y el establecimiento de un Comité de Presupuesto con Perspectiva de Género. El Ministerio de Hacienda desarrolló un sistema de seguimiento presupuestario para medir la sensibilidad de género del gasto público y la ayuda de los donantes. Como resultado de estos cambios, las asignaciones presupuestarias con perspectiva de género en Nepal aumentaron constantemente del 11 % en 2007 a casi el 22 % en 2014.</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="n">
+      <c r="B217" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2832,8 +2611,7 @@
           <t>La experiencia de otros países de la OCDE ha demostrado que cuando la provisión de nivel de atención primaria para trastornos leves a moderados es muy eficaz cuando también está respaldada por una buena formación (tanto durante la formación médica como como parte de la educación médica continua), por el apoyo de especialistas en salud mental, profesionales de la salud y redes de apoyo, y mediante buenas opciones de derivación en caso de que un paciente necesite acceder a un nivel de atención más especializado (por ejemplo, un psicólogo o un servicio o centro comunitario especializado en salud mental). La competencia en el tratamiento y diagnóstico de trastornos leves y moderados debe integrarse en la formación para la especialidad de atención primaria de Japón desde el principio. Se recomienda que Japón considere la expansión de tratamientos basados ​​en evidencia para trastornos de leves a moderados, en particular aumentando la disponibilidad de terapias psicológicas.</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="n">
+      <c r="B218" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2843,8 +2621,7 @@
           <t>Después del accidente nuclear de Fukushima no se notó ningún impacto en los valores medidos. La NFA registra plaguicidas y agroquímicos, y medicamentos veterinarios. La NFA es responsable de controlar todo tipo de establecimientos productores de alimentos/piensos desde 2011, de acuerdo con la Ley de Calidad e Inocuidad de los Alimentos.</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="n">
+      <c r="B219" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2854,8 +2631,7 @@
           <t>La categorización de estas etapas en el proceso de selección proporciona un marco claro para la identificación de acciones concretas en cada etapa del ciclo electoral. Las reglas y prácticas deben asegurar que mujeres y hombres tengan igualdad de oportunidades y apoyo en todo el proceso electoral, es decir, durante los períodos preelectoral, electoral y postelectoral. La Tabla 1.4 resume las responsabilidades estatales clave en relación con las elecciones y las dimensiones de género de cada una.</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="n">
+      <c r="B220" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2865,8 +2641,7 @@
           <t>Si invertimos de todo corazón en las niñas, veremos comunidades y familias más fuertes, economías sostenibles, tasas más bajas de mortalidad y morbilidad materna, tasas más bajas de VIH y SIDA, menos pobreza, más innovación, tasas reducidas de desempleo y una prosperidad más equitativa. Con el apoyo de la Fundación de las Naciones Unidas, el Grupo de Trabajo tiene como objetivo fortalecer la colaboración interinstitucional tanto a nivel mundial como nacional, facilitar el desarrollo de programas efectivos para abordar los derechos y necesidades de las adolescentes, apoyar el impulso para lograr los ODM y eliminar todos formas de violencia y discriminación contra las niñas y mujeres jóvenes. Las agencias se comprometieron a aumentar el apoyo a los gobiernos y las sociedades civiles durante los próximos cinco años para promover políticas y programas para empoderar a las adolescentes más difíciles de alcanzar. Fondo CbiWren de las Naciones Unidas.</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="n">
+      <c r="B221" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2876,8 +2651,7 @@
           <t>Este acceso casi universal significa que el contenido educativo televisado tiene la mayor posibilidad de llegar a la mayoría de los estudiantes en las zonas rurales y desfavorecidas. A diciembre de 2014, Tailandia tenía 97,7 millones de suscriptores móviles (Leesanguansuk, 2015). Actualmente tiene la tercera tasa de penetración de banda ancha móvil más alta entre los países de la Asociación de Naciones del Sudeste Asiático (ASEAN), alrededor de 50 millones de usuarios, y se convertirá en el segundo suscriptor de banda ancha móvil más grande en el sudeste asiático después de Singapur una vez que el lanzamiento de la cuarta banda ancha de alta velocidad. La red de generación (4G) está completa. Tailandia debería continuar con sus inversiones digitales en ambos, asegurándose de equilibrar el gasto entre el gasto en dispositivos y acceso a Internet, y el gasto en costos de mantenimiento técnico para las escuelas.</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="n">
+      <c r="B222" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2887,8 +2661,7 @@
           <t>Este capítulo comienza con una descripción general de las reformas de Tailandia relacionadas con el uso de las TIC en la educación, y luego proporciona un análisis de los problemas de política relacionados con esta área, presentando recomendaciones para mejorar para apoyar el uso de las TIC para mejorar la calidad y la equidad de la educación. sistema educativo en su conjunto. El objetivo de estas estrategias ha sido utilizar las TIC para crear una “Tailandia inteligente”: una sociedad que sea “inteligente y alfabetizada en información”, donde el conocimiento beneficie a los ciudadanos y a la “sociedad en su conjunto” (Ministerio de TIC, 2009a). La educación ha sido un pilar clave en estos esfuerzos.</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="n">
+      <c r="B223" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2898,8 +2671,7 @@
           <t>Este capítulo describe su demografía, economía, gobierno y, en particular, su sistema educativo, incluidos los recientes esfuerzos y desafíos de reforma. Ha sido gratuito desde 2009 y las tasas de participación ahora son altas, con una educación preescolar y primaria casi universal. Los esfuerzos de reforma para descentralizar la administración y aumentar la calidad de su educación para cumplir objetivos de desarrollo más amplios han tenido menos impacto, y aún quedan desafíos por resolver en cuanto a eficacia, eficiencia y equidad.</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="n">
+      <c r="B224" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2909,8 +2681,7 @@
           <t>Este enfoque dirigido por el sector para la mejora escolar fue beneficioso no solo para las escuelas beneficiarias sino también para las escuelas de origen, ya que las relaciones de asociación crearon un entorno mejorado para la reflexión sobre la eficacia escolar. Sin embargo, como Baars et al. (En particular, los líderes educativos locales y nacionales como líderes consultores necesitaban una selección, capacitación y garantía de calidad muy cuidadosas, ya que no hay garantía de que un buen director sea un buen líder consultor.</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="n">
+      <c r="B225" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2920,8 +2691,7 @@
           <t>Este es el caso de los programas de educación secundaria inferior en Noruega, de los programas de educación secundaria superior en Finlandia y de ambos tipos de programas en el Reino Unido. En Canadá, los estudiantes de secundaria inferior y superior generalmente repiten solo los cursos que han reprobado y no grados completos, mientras que los estudiantes de primaria generalmente no repiten grados. Alcanza el 2 % en los programas generales de secundaria inferior (esto excluye a los estudiantes adultos) y aumenta con los niveles educativos más altos. La repetición de grado es relativamente poco común en los programas generales de secundaria inferior y está por debajo del 5% en la mayoría de los países.</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="n">
+      <c r="B226" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2931,8 +2701,7 @@
           <t>Dado el alcance de la segregación de género en los mercados laborales en general, y dentro de la industria en particular, donde las mujeres constituyen solo el 30 por ciento de la fuerza laboral mundial, existe el riesgo de que los esfuerzos para una industria ecológica no solo pasen por alto a las mujeres, sino que las marginen. Los sectores a los que se dirige la expansión del empleo verde, como la energía, la construcción y la industria básica, están muy dominados por los hombres y las tendencias recientes indican que la segregación sectorial está aumentando en lugar de disminuir.21 Entre los empleos verdes que ya existen, las mujeres tienden a tener una baja representación y/o u ocupar los peldaños de menor valor agregado. En las economías en desarrollo, las mujeres se concentran en gran medida en el extremo de bajo valor agregado de los empleos verdes existentes, por ejemplo, como trabajadoras informales en la recolección y el reciclaje de desechos (Strietska-llina y otros, 2011).</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="n">
+      <c r="B227" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2942,8 +2711,7 @@
           <t>Dada la diversidad interregional en el financiamiento y la provisión de atención médica, la información sobre el desempeño del sistema de salud regional es muy deseable y puede permitir la evaluación comparativa del desempeño en todas las regiones. La decisión de las autoridades federales de identificar y recopilar un conjunto de 300 indicadores definidos comúnmente (72 relacionados con la salud) es un avance positivo. Solo se puede enfatizar que estos datos serían aún más útiles si se definieran y recopilaran de acuerdo con los estándares internacionales, lo que permitiría la evaluación comparativa internacional e interregional.</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="n">
+      <c r="B228" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2953,8 +2721,7 @@
           <t>Sin embargo, a nivel micro, ha habido una variación considerable en la implementación y en la persistencia del esquema de seguro de salud más antiguo, lo que permite sacar algunas conclusiones. La participación en esquemas de seguros parece mejorar el estado de salud autoinformado según un estudio (Gao y Meng, 2009), pero otros estudios no presentan resultados tan claros. Las tasas de reembolso por enfermedades catastróficas son bajas.</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="n">
+      <c r="B229" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2964,8 +2731,7 @@
           <t>Si no se abordan estos desafíos, las áreas clave de los ODS no serán monitoreadas desde una perspectiva de igualdad de género. Las estadísticas de género incluyen datos recopilados, analizados y presentados por sexo y otras características, así como datos que no están desglosados ​​por sexo pero que reflejan las necesidades, oportunidades y contribuciones específicas de las mujeres y las niñas en la sociedad. Los datos sobre la violencia contra la mujer o sobre la asistencia de parteras capacitadas durante el parto son ejemplos de estos últimos.</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="n">
+      <c r="B230" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2975,8 +2741,7 @@
           <t>Este es un hallazgo algo lógico, ya que las prácticas activas podrían considerarse más riesgosas que los métodos de enseñanza directa. Puede ser un desafío usar las TIC en su enseñanza o hacer que los estudiantes trabajen en grupos si no está seguro de tener las habilidades necesarias en pedagogía, contenido o gestión del aula. Los datos indican que cuando los profesores dirigen el aprendizaje de los alumnos, estos tienen una probabilidad un poco mayor de resolver con éxito los problemas matemáticos más sencillos de PISA.</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="n">
+      <c r="B231" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2986,8 +2751,7 @@
           <t>Este nuevo sistema de apoyo a la mejora escolar busca desarrollar la capacidad de las escuelas y los proveedores escolares para la autosuperación y hacer un mejor uso de PEI y PME. Con este fin, también busca establecer el PME como una herramienta más independiente de la SEP y los requisitos de rendición de cuentas relacionados. Otro desarrollo positivo es que gracias a los programas de financiamiento focalizado en la forma de la SEP y el programa de integración escolar (PIE), las escuelas tienen recursos adicionales para contratar personal de apoyo al aprendizaje que apoye a los maestros en su trabajo y brinde apoyo a los estudiantes dentro de las escuelas.</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="n">
+      <c r="B232" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2997,8 +2761,7 @@
           <t>Se brinda atención integral, que incluye tratamiento médico, evaluación psiquiátrica, asistencia psicológica y social. En Europa occidental y central, el cannabis es la droga más comúnmente incautada, representando alrededor del 80% de todas las incautaciones. La cocaína ocupa el segundo lugar en general y representa más del doble del número de incautaciones notificadas de anfetaminas o heroína.</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="n">
+      <c r="B233" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3008,8 +2771,7 @@
           <t>En general, las mujeres parecen representar una proporción más pequeña de los SDE más orientados individualmente (como la consultoría) y los SDE más sofisticados (como la formación en gestión empresarial) que en los programas de formación empresarial basados ​​en grupos. Esto en un programa de formación empresarial apoyado por la ANPME en Marruecos que se dirige específicamente a mujeres empresarias. La ANPME normalmente no brinda capacitación empresarial como parte de su oferta de programas para pequeñas y medianas empresas (PYME).</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="n">
+      <c r="B234" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3019,8 +2781,7 @@
           <t>Para los hombres en pareja, esta cifra es aproximadamente el doble. Los países donde la participación de las mujeres en el mercado laboral es alta, o donde la brecha salarial de género es limitada, tienden a tener resultados más equitativos. Carreras laborales más cortas y perfiles de carrera e ingresos restringidos, en relación con los hombres, ayudan a explicar por qué, en promedio, las pensiones de las mujeres son de menor valor que las de los hombres. El gráfico 13.4 muestra que, entre los beneficiarios de pensiones en 2013/14, la brecha de género en las pensiones era inferior al 10 % solo en Estonia, Dinamarca y la República Eslovaca.</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="n">
+      <c r="B235" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3030,8 +2791,7 @@
           <t>Esta descentralización dificultó la movilidad de los pacientes entre regiones debido a los complicados procedimientos burocráticos y resultó en muchos casos de abuso y corrupción debido a un sistema de control subdesarrollado (Comisión Europea, 2010). El Fondo Nacional de Salud (NFZ) se creó en 2003 mediante la fusión de los Fondos de Enfermedad. Hungría, Irlanda, Italia, Nueva Zelanda, Noruega y el Reino Unido tienden a compartir características similares (OCDE, 2010a).</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="n">
+      <c r="B236" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3041,8 +2801,7 @@
           <t xml:space="preserve">Este proceso permitió comparar de forma sencilla a los alumnos inmigrantes con sus compañeros nativos en los diez indicadores. La figura 1.1 ofrece una visión gráfica del rendimiento relativo de los dos grupos de alumnos y, lo que es más importante, destaca las áreas en las que las diferencias entre ambos grupos son más significativas. Los valores medios de los alumnos inmigrantes se convierten en valores relativos de 10. </t>
         </is>
       </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="n">
+      <c r="B237" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3052,8 +2811,7 @@
           <t>Deben continuar realizando tareas como cocinar, lavar la ropa y cuidar a los niños, además de dedicar más horas al trabajo agrícola u otros trabajos. En Bosnia, Camboya y Guatemala, la carga de trabajo de las mujeres aumentó drásticamente a raíz de los crímenes masivos. Muchos niños pierden a sus padres durante crímenes masivos, otros son separados de sus familias durante conflictos y migraciones forzadas.</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="n">
+      <c r="B238" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3063,8 +2821,7 @@
           <t>Las alumnas se sienten especialmente atraídas por la educación de nivel de licenciatura en "Trabajo social", "Periodismo", "Formación de docentes" y "Enfermería", así como en "Lengua, literatura y medios" (Poppel, M. y Chemnitz Kleist 2009: 346). La representación de las mujeres aumentó considerablemente en las elecciones parlamentarias de 2002: del 19 % al 36 % (12 de 31 miembros). No se eligieron candidatas del Partido de las Mujeres, pero el partido logró llamar la atención sobre diferentes aspectos de las desigualdades de género y, sobre todo, sobre la falta de candidatas en los diferentes partidos (Poppel, M. 2009).</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="n">
+      <c r="B239" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3074,8 +2831,7 @@
           <t>Esto ayudó a las regiones a ver el objetivo en términos más concretos y alcanzables. Por ejemplo, en una región se llegó a la conclusión de que si 34 alumnos indígenas en situación de riesgo obtuvieran el QCE, se cerraría la brecha. Los esfuerzos de la oficina central también incluyeron talleres y sesiones de liderazgo para que los líderes escolares y el personal regional se centraran en por qué eran necesarias las mejoras y cómo podrían llevarse a cabo.</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="n">
+      <c r="B240" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3085,8 +2841,7 @@
           <t>En la medida en que más mujeres participen en la política, es menos probable que se ignoren o silencien los derechos, las prioridades, las necesidades y los intereses de las mujeres. Históricamente, la participación de las mujeres se ha minimizado a pesar de que representan al menos la mitad de la población en la mayoría de los países. Precisamente por eso, su nivel de implicación y compromiso en la vida pública y política es clave. Surgieron más organizaciones de mujeres en respuesta a la mayor participación de las mujeres en la vida pública y, a pesar de la polarización política que surgió, estos grupos lograron mantenerse unidos para presionar por la preservación y el avance de los derechos de las mujeres.</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="n">
+      <c r="B241" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3096,8 +2851,7 @@
           <t>El llamado segmento A consiste en servicios hospitalarios para los cuales los precios regulados se derivan de un presupuesto hospitalario global. El segmento B consiste en servicios hospitalarios donde los precios se negocian libremente con las aseguradoras de salud y, por lo general, comprende servicios menos complejos (por ejemplo, reemplazos de rodilla y cadera). La participación del segmento B ha aumentado de menos del 10 % en 2005 a más del 30 % en 2011 y al 70 % tras la reforma de 2012 (descrita a continuación). Al mismo tiempo, los precios reales en el segmento B han disminuido, reflejando el mayor poder de negociación de las aseguradoras de salud (Cuadro 7).</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="n">
+      <c r="B242" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3107,8 +2861,7 @@
           <t>Dadas estas cifras, se podría argumentar que Letonia ha tenido más espacio fiscal para dedicar a la inversión en el sistema de salud que otras economías de la OCDE. La proporción del PIB para el sector público en Letonia es del 36,5 %, mucho más bajo que el promedio de todos los países europeos de la OCDE (excluyendo Turquía) en 45,6 % en 2012 (OCDE, 2015d) y Letonia gasta el 9 % del gasto público en salud, un una proporción más pequeña que cualquier país de la OCDE (Figura 1.13). En el otro extremo del espectro, la participación supera el 20 % en Nueva Zelanda, Suiza, los Países Bajos y los Estados Unidos.</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="n">
+      <c r="B243" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3118,8 +2871,7 @@
           <t>Los pacientes pueden elegir a cualquier médico de cabecera, pero como no hay un sistema de control, también pueden elegir visitar directamente a cualquier especialista médico. Hay pocos contactos ambulatorios por persona (58 en 2015) y una gobernanza de atención primaria débil (por ejemplo, falta de inspección estatal, políticas de atención primaria de apoyo). También existe un relativo subdesarrollo de la fuerza laboral de atención primaria con bajos niveles de ingresos en relación con los especialistas. Más positivamente, se ha juzgado que el sistema de atención primaria es relativamente efectivo y eficiente con respecto a la coordinación y la integralidad de la atención (Ktingos et al, 2015, Kringosetal, 2013).</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="n">
+      <c r="B244" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3129,8 +2881,7 @@
           <t>Esto es particularmente importante para los estudiantes de entornos desfavorecidos, para quienes la escuela puede ser su principal medio para desarrollar habilidades. Alcanzar un número cercano al promedio de años de educación de la OCDE parece proporcionar un factor protector para que los estudiantes mejoren la probabilidad de éxito académico. Esto se debe en gran medida a que para alcanzar el promedio de la OCDE de 14 años, los estudiantes deben ingresar al sistema educativo a los 3 o 4 años y permanecer en él hasta los 17 o 18 años. siendo las actividades entre los niños y sus padres y/o cuidadores el principal determinante del aprendizaje temprano.</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="n">
+      <c r="B245" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3140,8 +2891,7 @@
           <t>En realidad, los defensores de estos puntos de vista no solo han buscado socavar los derechos de las mujeres, sino que simultáneamente han adoptado políticas que erosionan las condiciones que permiten que las familias y sus miembros prosperen. Es a través de las familias que las personas comparten recursos como la vivienda y los ingresos, cuidan a los enfermos y frágiles, y se reproducen, nutren y cuidan a la próxima generación. Las familias pueden ser lugares de amor y afecto, y fundamentales para el sentido de identidad y pertenencia de cada miembro. A lo largo de su vida, aproximadamente una de cada tres mujeres puede esperar experimentar abuso físico o sexual a manos de una pareja íntima.</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="n">
+      <c r="B246" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3151,8 +2901,7 @@
           <t>Esto podría incluir una revisión de los reglamentos de las responsabilidades de los directores y subdirectores y el desarrollo de un conjunto relacionado de estándares de liderazgo escolar profesional. Dichos estándares proporcionarían una declaración clara y concisa de los elementos centrales de un liderazgo exitoso al trazar un mapa de lo que se espera que los líderes escolares sepan, puedan hacer y cómo. Además, Uruguay necesita reevaluar los niveles actuales de remuneración de los directores y subdirectores para garantizar que el liderazgo escolar sea sostenible en el futuro y que los docentes calificados e interesados ​​que deseen asumir más responsabilidades no se vean disuadidos de dar este paso.</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="n">
+      <c r="B247" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3162,8 +2911,7 @@
           <t>Una brecha de financiamiento de capital, que dificulta la capacidad de las mujeres para financiar empresas innovadoras. Una brecha en la creación de redes, generada por el bajo número de mujeres emprendedoras en industrias intensivas en innovación y por la baja visibilidad de mujeres innovadoras exitosas. Varios países están tomando medidas concretas para promover a las mujeres innovadoras y emprendedoras de alto crecimiento (Comisión Europea, 2008), reconociendo que el crecimiento económico se basa en la comercialización y aplicación continuas de nuevas ideas, muchas de las cuales son generadas por mujeres.</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="n">
+      <c r="B248" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3173,8 +2921,7 @@
           <t>Esto podría llevarse a cabo como una investigación de acción, en la que los propios profesores participen probando y evaluando diferentes enfoques. El Ministerio también debería explorar, con las embajadas de los países de origen, la posibilidad de adaptar los programas de alfabetización y lenguaje que se han desarrollado para su uso en esos países, a las necesidades de aprendizaje de los jóvenes y adultos que ahora viven en Dinamarca15. Esta sección se ocupa de aquellos padres inmigrantes que, por ejemplo, no hablan danés, que pueden no haber pasado por el sistema educativo danés o que tienen bajos niveles de educación, que viven en barrios de inmigrantes, que son de un nivel socioeconómico menos favorecido antecedentes, pueden estar desempleados y que no entienden cómo funciona el sistema educativo danés.</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="n">
+      <c r="B249" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3184,8 +2931,7 @@
           <t>Como tal, existe la necesidad de un análisis completo cualitativo, completo y basado en informantes con implicaciones políticas a largo plazo que cubra a los países árabes desde una perspectiva regional. Este estudio intenta llenar este vacío, tanto arrojando luz sobre las condiciones estructurales y contextuales que permiten la ocurrencia del matrimonio infantil en la región en tiempos de 'paz' como en el contexto de crisis humanitarias, y explorando las consecuencias del matrimonio infantil para las niñas en entornos de conflicto y posconflicto. El estudio intenta distinguir entre, por un lado, los determinantes estructurales del matrimonio infantil que han estado presentes durante mucho tiempo en muchos países árabes, como los desequilibrios de género arraigados y las desigualdades institucionalizadas, y, por otro lado, los determinantes contextuales del matrimonio infantil que resultan de situaciones de desplazamiento, conflicto e inestabilidad agravadas por la pobreza extrema. El objetivo general es fortalecer las capacidades de los legisladores árabes y los grupos de defensa para prevenir, proteger y responder al matrimonio infantil como una forma de violencia de género (GBV)19 y como una violación de los derechos humanos.</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="n">
+      <c r="B250" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3195,8 +2941,7 @@
           <t>Esto puede conducir a que el niño discapacitado quede efectivamente excluido internamente del aprendizaje y, a menudo, puede provocar que el niño abandone los estudios. Esta puede ser una presión particularmente fuerte cuando los currículos nacionales y las políticas de evaluación son demasiado rígidos, competitivos y no permiten la flexibilidad y el trabajo colaborativo. Los requisitos externos impuestos a las escuelas por el gobierno deben abordarse mediante la reforma del currículo y la evaluación. Las escuelas informales BRAC en Bangladesh han demostrado recientemente que donde los maestros están capacitados en métodos amigables para los niños y en cómo acomodar a las niñas y los niños discapacitados, hay una tasa de deserción más baja para ambos grupos antes de la transferencia a la escuela secundaria inferior estatal que en la escuela primaria estatal. escuelas.</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="n">
+      <c r="B251" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3206,8 +2951,7 @@
           <t>Se ha dedicado una sección específica a las no contributivas, su evolución en todo el mundo y su potencial para solucionar las deficiencias existentes en el acceso a la protección de las personas de edad avanzada de los diferentes grupos de ingresos y genero. Por último, se analizan algunos de los com-ponentes más relevantes incorporados a los sistemas de pensiones contributivas a fin de proteger a las mujeres en el seno de la familia, incluido el derecho de lasmujeresviudasydivorciadasa recibiruna pensión y los creditos de cotizacion para las y los cuidadores . Dado que las mujeres cuentan con historiales contributivos mas limitados y que su esperanza de vida supera a la de los hombres, las politicas que refuerzan los requisitos contributivos o hacen hincapie en el ahorro individual pueden dificultar la obtencion de prestaciones adecuadas por parte de las mujeres.</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="n">
+      <c r="B252" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3217,8 +2961,7 @@
           <t>Esto se refleja en el sistema educativo, que se caracteriza por un extenso sistema de planificación y normas. Kazajstán utiliza la planificación estratégica nacional para establecer ampliamente una visión del país, pero también para regular todos los aspectos del sistema educativo a nivel central. Una serie de estrategias y documentos de planificación, en particular el Programa Estatal para el Desarrollo de la Educación en la República de Kazajstán para 2011-20 (SPED), garantizan la coherencia y guían la formulación de políticas.</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="n">
+      <c r="B253" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3228,8 +2971,7 @@
           <t>Estos premios también beneficiaron a 28 455 auxiliares de educación con un monto extra promedio anual de USD 267. Del total de escuelas premiadas en 2010-11, 52,7% son del sector municipal, 46,0% del sector privado subvencionado y 1,3 son escuelas con administración delegada. Asimismo, del total de escuelas evaluadas en el SNED 2010-11, el 57% había sido premiada al menos una vez en las ocho postulaciones del SNED desde 1996-97. En el municipio de Concepción, por ejemplo, existe un equipo técnico a nivel municipal que mantiene contacto con los docentes y visita las escuelas para observar las aulas. El municipio también realiza pruebas SIMCE de prueba para obtener información sobre los resultados del aprendizaje en las escuelas y las aulas.</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="n">
+      <c r="B254" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3239,8 +2981,7 @@
           <t>Por lo tanto, deben garantizarse decisiones claras y transparentes basadas en la competencia en el área de fusiones entre aseguradoras de salud basándose en la metodología de evaluación de fusiones publicada. La mayor competencia entre las aseguradoras de salud ha restringido los precios de los servicios hospitalarios y los medicamentos recetados para pacientes ambulatorios. Además, la competencia entre hospitales ha aumentado debido a la entrada de un número sustancial de clínicas independientes (ZBC). Sin embargo, el gasto en atención de la salud ha aumentado debido a un fuerte aumento en el volumen de la atención, incluida la atención de la salud mental (Cuadro 1).</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="n">
+      <c r="B255" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3250,8 +2991,7 @@
           <t>Por lo tanto, afectan a una mayor proporción de la población (por ejemplo, en Suiza y los Países Bajos). En países donde la cobertura de salud está principalmente ligada a la ocupación, las políticas que aseguran el acceso universal a la cobertura de salud son aún más importantes en tiempos de crisis. Los países deben asegurarse de que las personas que pierden su trabajo no pierdan la cobertura de salud al mismo tiempo.</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="n">
+      <c r="B256" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3261,8 +3001,7 @@
           <t>Por esta razón, se selecciona una gama de indicadores que capturan la desigualdad de género en diferentes etapas del ciclo de vida. Por último, el capítulo se centra en los indicadores que han demostrado ser importantes para el desarrollo general de las sociedades (p. ej., Banco Mundial, 2011). Por esta razón, no se podrían cubrir todos los temas clave que afectan el bienestar de las mujeres y que están incluidos en los índices de desigualdad de género contemporáneos. No fue posible, por ejemplo, incluir medidas como los ingresos o el acceso a trabajos bien remunerados, que son factores cruciales para la posición económica de las mujeres (Kabeer, 1999).6 Lo que se pierde en la comparabilidad con los índices actuales, sin embargo, se compensa en la perspectiva a largo plazo.7 A pesar de las limitaciones en la disponibilidad de datos, existen criterios teóricos y metodológicos detrás de la elección de las variables de igualdad de género empleadas.</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="n">
+      <c r="B257" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3272,8 +3011,7 @@
           <t>Existen sistemas para monitorear el progreso de los niños discapacitados en las escuelas donde se capacitó a los maestros. Hay planes individuales para cada niño y mayor énfasis en mostrar sus logros. Los planes de trabajo individuales de los niños se incorporan al plan anual de desarrollo de jardín de infantes y primaria. Recientemente, con fondos de la FTI, se han establecido más de 100 escuelas móviles en tiendas de campaña. Sesenta y dos por ciento de los nuevos ingresantes a la educación primaria son niñas y entre 2004 y 2009 las tasas de finalización de las niñas se duplicaron.</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="n">
+      <c r="B258" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3283,8 +3021,7 @@
           <t>Frente a las exigencias de una sociedad del conocimiento, esto supone un reto para el desarrollo del sector educativo (Jensen, 2012). Por ejemplo, el Gobierno no puede limitarse a encargar cursos a consultores y hacer que los profesores o los directores de centros absorban pasivamente estos conocimientos y cambien su prÃ¡ctica de acuerdo con la intenciÃ³n del Gobierno. Al igual que en la educación en general, en el desarrollo profesional el alumno es un individuo creativo que participa en los procesos de aprendizaje de maneras que no podemos prever (Lillejord, 2003).</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="n">
+      <c r="B259" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3294,8 +3031,7 @@
           <t>Se preguntó a los encuestados sobre las formas más adecuadas de medir sistemáticamente la incidencia, la naturaleza y el impacto del daño al paciente en la atención primaria y ambulatoria. Las respuestas de los países desarrollados se presentan en la (Figura 2.1). La medición como base para mejorar la seguridad se analiza más adelante en el Capítulo 4. Elija tres de las opciones proporcionadas. (</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr"/>
-      <c r="C260" t="n">
+      <c r="B260" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3305,8 +3041,7 @@
           <t>Garantizar la igualdad de oportunidades para todos los estudiantes inmigrantes, independientemente de la escuela a la que asistan, es de vital importancia. La segunda sección, sobre la estrategia de financiación, presenta enfoques para gestionar las desigualdades a través de la financiación dirigida a áreas desfavorecidas, escuelas o grupos de estudiantes particulares después de una cuidadosa consideración de las prioridades educativas. Finalmente, la tercera sección subraya la importancia del seguimiento y la evaluación para garantizar la calidad de la educación de los migrantes.</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="n">
+      <c r="B261" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3316,8 +3051,7 @@
           <t>Si se lleva a cabo correctamente, dicho proceso podría, de hecho, ser sanador y fortalecedor. Como mínimo, información sobre violaciones (p. ej., ejecuciones extrajudiciales, desapariciones forzadas, tortura, privación de libertad, violencia basada en género, etc.). Esto es clave para determinar las especificidades de género de las violaciones de derechos humanos, así como para brindar una descripción precisa de la experiencia particular. de mujeres, niñas, hombres y niños y para identificar prácticas o ataques potencialmente discriminatorios (p. ej., basados ​​en el origen étnico, la religión, la afiliación política, la orientación sexual, la discapacidad, etc.).</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="n">
+      <c r="B262" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3327,8 +3061,7 @@
           <t>Grundsatze und Umsetzung in den Kantonen, BBT, Berna. Identificar alternativas que funcionen no es tarea fácil. En Alemania, por ejemplo, un “sistema de transición” para cuidar de los estudiantes de bajo rendimiento en riesgo de abandonar la educación se ha convertido en una “jungla” opaca de medidas no relacionadas que a menudo ni siquiera conducen a la transición. La Revisión de Políticas de Alemania de la OCDE ha criticado este arreglo como costoso e ineficiente (Hoeckel y Schwartz, próxima publicación).</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr"/>
-      <c r="C263" t="n">
+      <c r="B263" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3338,8 +3071,7 @@
           <t>Se debe tener plenamente en cuenta el derecho de las mujeres a un acceso inclusivo a la economía, así como a la agencia en sus vidas personales al traducir los artículos constitucionales relevantes al código legal. Asimismo, en lo que respecta al emprendimiento, no ha habido reformas importantes a los elementos legales que afectan el establecimiento, administración o desarrollo de empresas, sin embargo, estas leyes generalmente se consideran neutrales en cuanto al género. Algunas disposiciones destinadas a proteger a las mujeres imponen restricciones o costos adicionales a los empleadores privados.</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="n">
+      <c r="B264" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3349,8 +3081,7 @@
           <t>Ha habido un debate público considerable sobre el marco de contenido apropiado de la educación técnica. Lo que ahora se privilegia es la integración de la educación técnico-profesional con la educación académica general, en cierto modo con un enfoque curricular integral. Sin embargo, durante esta fase de transición, no siempre se logra en la práctica, y requerirá acciones más coordinadas entre los distintos departamentos del MEC.</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="n">
+      <c r="B265" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3360,8 +3091,7 @@
           <t xml:space="preserve">Hay muchos profesores no cualificados en las escuelas, ya que es difícil contratar a profesores cualificados. Un indicio del reconocimiento del importante papel de los profesores en este contexto es la inclusiÃ³n por Alberta de preguntas adicionales en la Encuesta Internacional sobre la EnseÃ±anza y el Aprendizaje de la OCDE de 2018 relativas a la comprensiÃ³n por parte de los profesores y los lÃderes escolares de cuestiones relacionadas con las culturas indÃgenas, la historia y el trabajo con alumnos indÃgenas, asÃ como sobre el desarrollo profesional pertinente. El enfoque holÃstico de los pueblos indÃgenas hace hincapiÃ© en lo mucho que estos contribuyen al bienestar general de los niÃ±os, asÃ como al de todos los demÃ¡s, ademÃ¡s de factores como las ventajas y desventajas materiales. El trauma sufrido por los pueblos indígenas, incluso a través del sistema de escuelas residenciales, todavía es sentido agudamente por muchos. De hecho, se nos dijo que los síntomas del trauma pueden aumentar en lugar de disminuir con el paso del tiempo, exacerbados por las relaciones intergeneracionales. Frente a este panorama más amplio, pueden comprenderse mejor los estudios específicos de determinadas provincias y territorios, y la comparación entre jóvenes indígenas y no indígenas (Freeman, King y Pickett, 2016). </t>
         </is>
       </c>
-      <c r="B266" t="inlineStr"/>
-      <c r="C266" t="n">
+      <c r="B266" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3371,8 +3101,7 @@
           <t>Introdujo un registro electrónico de pacientes armonizado a nivel nacional, el Depósito nacional de datos de pacientes (conocido como KANTA). También incluye receta electrónica obligatoria y un portal de salud que permite a los ciudadanos consultar su propia información. Esta historia clínica electrónica cubre a toda la población desde septiembre de 2016.</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="n">
+      <c r="B267" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3382,8 +3111,7 @@
           <t>Hay una sobreoferta de formación docente inicial que tiene una calidad desigual y las oportunidades de desarrollo profesional carecen tanto de estructura como de un enfoque basado en la escuela. De manera similar, los líderes escolares y otros líderes educativos no están bien preparados, apoyados o reconocidos, y su rol carece de un enfoque en la mejora educativa. Han emprendido un programa aprobado de preparación docente o su equivalente en otro lugar.</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr"/>
-      <c r="C268" t="n">
+      <c r="B268" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3393,8 +3121,7 @@
           <t>Hay una variedad de opciones que podrían considerarse para garantizar un uso más efectivo de la información existente por parte de los actores clave en el sistema educativo. Las opciones simples incluyen garantizar que los datos se utilicen de manera efectiva para la gestión de la transición entre las escuelas y analizar los datos a nivel de las Oficinas Regionales del Ministerio de Educación. Estas mejoras en la presentación de informes tienen el potencial de mejorar las interconexiones entre las escuelas y entre las escuelas y las jurisdicciones regionales y nacionales en materia de educación.</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr"/>
-      <c r="C269" t="n">
+      <c r="B269" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3404,8 +3131,7 @@
           <t>Incluso bajo la Lei das Cotas, el 50% de las plazas gratuitas en las instituciones públicas serán ocupadas por estudiantes acomodados, muchos de los cuales podrían permitirse pagar su educación universitaria. La evidencia internacional sugiere que la introducción de tasas no reduce la participación, siempre que se acompañe de un sistema digno de apoyo a los estudiantes (que ya existe en Brasil bajo la forma de ProUni y FIES, aunque luego deberían extenderse a los estudiantes que asisten a instituciones públicas). también). Alternativamente, Andrade (2010) argumentó que un sistema de cupones focalizados aumentaría la eficiencia del sistema de educación superior brasileño, en comparación con el sistema actual.</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="n">
+      <c r="B270" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3415,8 +3141,7 @@
           <t>Esto también puede mejorar las oportunidades para las mujeres dentro de las empresas (como salarios más equitativos y más mujeres en la gestión) y ayudar a la contratación de una fuerza laboral diversa. Esto es especialmente importante para los trabajadores de bajos ingresos, que a menudo luchan por encontrar un cuidado infantil consistente y confiable cuando sus turnos cambian de manera errática. La investigación de campo en México confirma que los empleados son reacios a abandonar el lugar de trabajo mientras su gerente todavía está en el lugar.</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="n">
+      <c r="B271" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3426,8 +3151,7 @@
           <t>Incluso en las escuelas grandes, cuentan con la ayuda de un diputado para tratar asuntos administrativos, pero no pueden asignarles roles de liderazgo educativo. Los directores pueden pagar recargos a algunos maestros para que asuman diferentes tareas (por ejemplo, revisar los planes de enseñanza, participar en un comité mensual), pero ninguno de estos implica una responsabilidad y autoridad reales para el liderazgo educativo a los ojos de otros maestros. En la práctica, los docentes reciben poca retroalimentación y apoyo para mejorar su práctica, ya sea por parte de los líderes escolares o de otros compañeros. Un número cada vez mayor de países de la OCDE ha creado tales puestos de liderazgo para fortalecer el desarrollo profesional docente a nivel escolar, basándose en investigaciones que muestran que la retroalimentación y el apoyo entre docentes son uno de los medios más efectivos para mejorar los estándares de enseñanza (consulte el recuadro 3.3). ).</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="n">
+      <c r="B272" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3437,8 +3161,7 @@
           <t>En el ámbito profesional, los campos de estudio que tienen más probabilidades de ser elegidos por mujeres jóvenes, como las humanidades y las ciencias sociales, pueden no ser tan atractivos para los empleadores como las disciplinas técnicas y científicas dominadas por hombres. Por lo tanto, sus habilidades rara vez son la principal barrera para su participación en la economía. Al mismo tiempo que la población joven se ha expandido y se ha vuelto más educada, las empresas nacionales y extranjeras han expresado una creciente falta de voluntad para invertir en la región.209 La escasez general de puestos de trabajo puede exacerbar las barreras tradicionales que enfrentan las mujeres en el lugar de trabajo.</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="n">
+      <c r="B273" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3448,8 +3171,7 @@
           <t>Esta proporción es mucho menor entre las chicas de 15 años (7%) que entre los chicos (16%). Sin embargo, la actividad física entre los adultos en Dinamarca es más alta que en la mayoría de los demás países de la UE, con casi el 80% de los adultos que informan que realizan al menos una actividad física moderada cada semana. La excepción es el consumo excesivo de alcohol entre los adultos, que parece ser igualmente frecuente en los diferentes grupos socioeconómicos. Las tasas de tabaquismo entre las personas con el nivel educativo más bajo son más del doble de las tasas entre las personas más educadas.</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr"/>
-      <c r="C274" t="n">
+      <c r="B274" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3459,8 +3181,7 @@
           <t>Informe de Finalización y Resultados", el proyecto logró parcialmente sus objetivos: revisión e implementación de planes de estudio generales y vocacionales, disponibilidad pública de los resultados de los logros de los estudiantes, distribución de materiales para maestros, mejora de las habilidades de los maestros vocacionales, introducción de un Sistema de Información de Carreras en línea, Capacitación de los equipos de gestión escolar sobre los planes de desarrollo escolar y distribución de subvenciones a las escuelas en áreas de baja matrícula Según la Ley Básica de Educación Nacional de 1973, el Ministerio de Educación Nacional (MoNE) es responsable del sistema educativo, y las direcciones generales y sus Las unidades son responsables de diferentes aspectos de la educación y el cumplimiento de las políticas, como la educación básica, la educación secundaria, la educación vocacional, la educación especial y la orientación y el asesoramiento. Las direcciones provinciales y distritales de educación nacional en 81 provincias turcas apoyan la implementación de la política educativa. La Dirección de Educación Servicio de Orientación e Inspección es como la unidad de inspección.</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr"/>
-      <c r="C275" t="n">
+      <c r="B275" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3470,8 +3191,7 @@
           <t>Instó a los países a “desarrollar sistemas educativos inclusivos, receptivos y resilientes” para satisfacer sus necesidades (UNESCO, 2015). Pero la posición de los refugiados que dependen de los países de acogida para extender los derechos internacionales a la educación no es idéntica a la de las personas desplazadas dentro de sus países de origen y cuyos gobiernos tienen responsabilidades específicas para cumplir con los derechos de sus ciudadanos. Estos arreglos se están probando entre los 15 países donde se está implementando el Marco de Respuesta Integral para Refugiados (CRRF). En la parte de seguimiento del informe se abordan otros temas importantes seleccionados relacionados con la educación de los refugiados, incluidos el cuidado y la educación de la primera infancia (Enfoque de política 9.1), la educación terciaria (Enfoque de política 10.1), las personas desplazadas con discapacidad (Enfoque de política 12.1), el papel de la tecnología (Enfoque de política 15.1) y la eficacia de la ayuda humanitaria (Enfoque de política 19.3).</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr"/>
-      <c r="C276" t="n">
+      <c r="B276" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3481,8 +3201,7 @@
           <t>Además, algunos estudios (Khera y Nayak 2009) han demostrado que este programa trajo beneficios significativos para las mujeres, incluida la mejora de su seguridad alimentaria y la capacidad de evitar trabajos peligrosos. La muestra cubre mujeres casadas con edades entre 25 y 54 años, que viven en áreas rurales y cuyo hogar participa en el programa NREGA. En 2009, 12 701 mujeres de la muestra viven en hogares que participaron del programa y 56 333 no lo hicieron.</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="n">
+      <c r="B277" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3492,8 +3211,7 @@
           <t>Involucrar a las partes interesadas clave (por ejemplo, sindicatos de docentes, universidades, asesores pedagógicos) en su desarrollo será fundamental para construir una comprensión compartida de la "buena enseñanza" y garantizar que los estándares sean aceptados y utilizados. Costa Rica debería considerar la creación de un organismo profesional para docentes para apoyar este trabajo y proporcionar información para el desarrollo de políticas docentes de manera más amplia. Fortalecer la formación inicial y la contratación de docentes.</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr"/>
-      <c r="C278" t="n">
+      <c r="B278" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3503,8 +3221,7 @@
           <t>Brinda asesoramiento comercial, capacitación y microfinanciamiento a estas mujeres para ayudarlas a iniciar y administrar micro y pequeñas empresas, además de brindarles oportunidades de participación en ferias comerciales locales y regionales. Su objetivo es fortalecer el papel de las mujeres empresarias como líderes en la economía palestina a través de la promoción, la creación de redes y la prestación de servicios comerciales. Sirve a sus miembros y ofrece programas y servicios a mujeres empresarias aspirantes que buscan establecer o hacer crecer sus negocios.</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr"/>
-      <c r="C279" t="n">
+      <c r="B279" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3514,8 +3231,7 @@
           <t>L' instauration de droits de scolarite universels, paraleloment a des prets remboursables en fonction des ressources, pourrait aporter une solution &amp; ces problemes. Ce Document de travail se rapporte a VEtude economique de l'OCDE de la Slovenie 2011 (www.oecd.org/eco/etudes/Slovenie). El uso de dichos datos por parte de la OCDE es sin perjuicio del estado de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional. Sin embargo, el sistema enfrenta desafíos importantes.</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr"/>
-      <c r="C280" t="n">
+      <c r="B280" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3525,8 +3241,7 @@
           <t>Los procesos participativos de revisión de la defensa que aseguren la plena participación de hombres y mujeres de diferentes segmentos de la sociedad tengan una comprensión más precisa de la situación de seguridad y construyan la propiedad nacional y la confianza civil. Estos proyectos han sido implementados por las fuerzas armadas nacionales de países como Benin, Ecuador, Madagascar, Mongolia, Paraguay y Ucrania. Los proyectos contienen fuertes componentes de capacitación y concientización sobre una variedad de temas, como la prevención del VIH/SIDA y la salud materna. Este enfoque en la salud reproductiva ha sido un punto de entrada para abordar la violencia de género y los problemas de igualdad de género.</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr"/>
-      <c r="C281" t="n">
+      <c r="B281" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3536,8 +3251,7 @@
           <t>También debe proporcionar incentivos para que los padres tomen licencia. Debe introducirse una legislación específica que prohíba la discriminación en la contratación y la remuneración por motivos de género en caso de ausencia. También debe abordarse la discriminación contra las mujeres embarazadas. El acceso al sistema legal debe ser lo más simple posible y los costos de las acciones legales deben mantenerse bajos para permitir que los trabajadores más pobres presenten denuncias contra los abusos. Cuando la discriminación es el resultado de percepciones erróneas y estereotipos persistentes, la acción afirmativa puede desempeñar un papel importante al ayudar a las mujeres a aprovechar buenas oportunidades laborales y demostrar su valía. Un diseño conductual cuidadoso puede ayudar a superar los sesgos de género profundamente arraigados en las prácticas de contratación y gestión.</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr"/>
-      <c r="C282" t="n">
+      <c r="B282" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3547,8 +3261,7 @@
           <t>El Artículo 24.1 de la UNDRIP es ilustrativo de tal autonomía. Establece que "los pueblos indígenas tienen derecho a sus medicinas tradicionales y a mantener sus prácticas de salud, incluida la conservación de sus plantas, animales y minerales medicinales vitales". El proceso los ha desplazado de sus tierras y los ha alienado de sus recursos naturales.</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="n">
+      <c r="B283" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3558,8 +3271,7 @@
           <t>2012. "Explicaciones institucionales y demográficas del empleo de las mujeres en 18 países de la OCDE, 1975-1999". Journal of Marriage and the Family 74, no. International Journal of Sociology and Social Policy 37, no. Ingresos de las mujeres y desigualdad en el hogar en la OCDE Países, 1973-2013.â€Acta Sociologica 60, n.º 2016.â€œ¿Se ha agotado el potencial para compensar la pobreza mediante el crecimiento del empleo de las mujeres?â€</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr"/>
-      <c r="C284" t="n">
+      <c r="B284" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3569,8 +3281,7 @@
           <t>En 2008, aumentó aún más el número de mujeres que se presentaron a las elecciones y se postularon para cargos públicos. La Dra. Fehmida Mirza se convirtió en la primera mujer presidenta de la Asamblea Nacional en la historia democrática de Pakistán e inició la red para aprovechar su capacidad colectiva e iniciar un diálogo sobre los derechos y el empoderamiento de las mujeres.</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr"/>
-      <c r="C285" t="n">
+      <c r="B285" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3580,8 +3291,7 @@
           <t>Con poco menos del 10% de su personal total de 270 con contratos permanentes y la falta de personal especializado, su capacidad organizativa estaba limitada. El Banco Mundial informa que las iniciativas de reorganización debilitaron aún más la institución, lo que llevó a la interrupción de algunas de sus funciones más importantes.6 Este ejemplo confirma que un liderazgo de alto nivel comprometido con los objetivos de igualdad de género con acceso a posibles aliados políticos puede ser crucial para el mecanismo. la eficacia y la viabilidad a largo plazo. Estas áreas, sin embargo, han sido identificadas entre las principales barreras para promover la igualdad de género por parte de los países de la OCDE.</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr"/>
-      <c r="C286" t="n">
+      <c r="B286" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3591,8 +3301,7 @@
           <t>Aunque bien reconocidos y ampliamente difundidos, no existen requisitos ni incentivos para que los médicos o los pacientes los sigan en la práctica, como se analiza en el Capítulo 1. Tampoco existen mecanismos de monitoreo para indicar hasta qué punto los médicos miden y tratan los niveles de presión arterial de manera rutinaria. , niveles de azúcar y colesterol en sangre u otros parámetros clínicos en pacientes con alto riesgo de eventos cardiovasculares. No obstante, las tasas de mortalidad cardiovascular y las tasas de ingreso hospitalario por diabetes siguen siendo algunas de las más altas de la OCDE.</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr"/>
-      <c r="C287" t="n">
+      <c r="B287" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3602,8 +3311,7 @@
           <t>La alfabetización también se ha relacionado sistemáticamente con un mejor rendimiento y logros escolares, así como con una mayor productividad, más adelante en la vida. La evidencia sugiere que la alfabetización debe centrarse en mejorar el vocabulario y las habilidades auditivas, desarrollar el conocimiento del código alfabético e introducir la imprenta (NIEER, 2006). La OCDE ha demostrado que los niños cuyos padres les leen con frecuencia muestran puntuaciones notablemente más altas en PISA 2009 que los estudiantes cuyos padres les leen con poca frecuencia o nunca (OCDE, 2011).</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr"/>
-      <c r="C288" t="n">
+      <c r="B288" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3613,8 +3321,7 @@
           <t>Con este fin, los países de la OCDE utilizan cada vez más herramientas como el análisis de impacto de género y la elaboración de presupuestos con perspectiva de género para implementar la incorporación de la perspectiva de género y evaluar los diferentes efectos de cualquier política, legislación o práctica sobre la igualdad de género. De hecho, mientras que varios países emplean algún tipo de análisis de género, la Autoridad Palestina es el único país de la región que ha establecido mecanismos para la evaluación regular de los impactos de todos los proyectos de ley y políticas. Una cantidad suficiente de datos de buena calidad proporciona la base para actividades sólidas de medición, seguimiento y evaluación del desempeño. Sin embargo, la práctica general de la participación ciudadana y la consulta pública sigue siendo limitada y esporádica, y con frecuencia involucra solo a ciertas partes interesadas dentro o fuera del gobierno (ver OCDE, 2013).</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr"/>
-      <c r="C289" t="n">
+      <c r="B289" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3624,8 +3331,7 @@
           <t>Para ciertas sustancias o en ciertos contextos, puede asumir un patrón patológico que debe abordarse. A lo largo de la historia de la civilización humana, las sociedades han mostrado diferentes niveles de tolerancia y permisividad hacia el uso de sustancias psicoactivas y de control sobre el mismo. Algunas de esas sustancias, como el tabaco y el alcohol, han sido reguladas más o menos estrictamente en la mayoría de las sociedades.</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr"/>
-      <c r="C290" t="n">
+      <c r="B290" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3635,8 +3341,7 @@
           <t>La asistencia por exceso de edad como resultado de la repetición de grado y/o el ingreso tardío corre el riesgo de reducir la participación en la educación (UNESCO, 2016(7]). Para todos los demás países con datos disponibles, esta proporción oscila entre 0% y 5% (Figura Bl. a) En el último grado de educación secundaria inferior, esta proporción aumenta en la mayoría de los países y se duplica en promedio en la OCDE (del 2 % al 4 %). hasta el último grado de educación secundaria inferior para Argentina (en 10 puntos porcentuales), Costa Rica (en 14 puntos porcentuales), Luxemburgo (en 12 puntos porcentuales) y España (en 8 puntos porcentuales), mientras que disminuye sustancialmente para Hungría (en 7 puntos porcentuales), destacando una alta tasa de deserción y una caída en las tasas de matrícula para jóvenes de 15 a 19 años.</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr"/>
-      <c r="C291" t="n">
+      <c r="B291" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3646,8 +3351,7 @@
           <t>La brecha en los resultados generales de los estudiantes entre Tailandia y los países de altos ingresos sigue siendo grande. Las evaluaciones internacionales y nacionales indican que una proporción significativa de estudiantes tailandeses están adquiriendo habilidades a un nivel bajo, y que aquellos en áreas rurales desfavorecidas del país son los que más luchan. Tailandia deberá realizar mejoras estratégicas si su sistema educativo quiere ser un motor más eficaz de movilidad y progreso social y económico.</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr"/>
-      <c r="C292" t="n">
+      <c r="B292" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3657,8 +3361,7 @@
           <t>La clase impartida debe formar parte de la unidad de aprendizaje prevista en el portafolios. La clase debe contener dos o más actividades. Los temas abordados incluyen el análisis de la secuencia de actividades, la gestión del tiempo y la interacción en clase. Requiere que el maestro lleve a cabo el análisis de la progresión del aprendizaje de un solo estudiante, una cuenta del desempeño del estudiante dentro de la clase y una evaluación de sus propias fortalezas y debilidades.</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="n">
+      <c r="B293" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3668,8 +3371,7 @@
           <t>Tener su propia cuenta bancaria aumenta la autonomía de las mujeres dentro de un hogar. Facilitar el acceso a la financiación también puede facilitar la creación de empresas o el autoempleo entre las mujeres. La infraestructura es otro determinante positivo importante de la participación femenina en la fuerza laboral, mientras que las regulaciones del mercado laboral reducen la participación femenina.</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="n">
+      <c r="B294" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3679,8 +3381,7 @@
           <t>El Ministerio de Seguridad Social es responsable de la política social y supervisa las instituciones públicas que financian la atención médica, las licencias por enfermedad y los cuidados a largo plazo. Desde 2012, año en que se registró un aumento significativo, el gasto per cápita ha sido consistentemente el más alto de la UE y fue un 82 % más alto que el promedio de la UE en 201S (ver Figura 6). El financiamiento del seguro de salud se basa en un sistema de cobro compartido con el 40% de las cotizaciones pagadas por el Estado y el resto compartido entre la población asegurada y los empleadores. Dado que casi la mitad de la fuerza laboral de Luxemburgo son empleados transfronterizos, un tercio de los asegurados del CNS viven fuera del país (Recuadro 1, ADEM, 2017, IGSS, 2016).</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr"/>
-      <c r="C295" t="n">
+      <c r="B295" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3690,8 +3391,7 @@
           <t>En la última década, muchos de los procesos de paz en el continente africano entre 1991 y 2012 no tuvieron mujeres como mediadoras principales. Maximizar los beneficios de la participación de las mujeres en la prevención de conflictos y la consolidación de la paz exige pasar de la inclusión a la asociación para el cambio social. La ausencia de las mujeres en los procesos de paz no puede explicarse por su supuesta falta de experiencia en resolución de conflictos o negociaciones.</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr"/>
-      <c r="C296" t="n">
+      <c r="B296" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3701,8 +3401,7 @@
           <t>La colaboración docente está muy extendida entre los docentes de primaria en los seis países. Dos tercios o más de los docentes informan que participan en la enseñanza conjunta y el aprendizaje colaborativo, y casi todos los docentes de los seis países informan que intercambian materiales didácticos con colegas y asisten a conferencias de equipo. Este capítulo se basa en esa base al analizar más a fondo temas específicos relacionados con el maestro y la enseñanza. En la primera parte se analiza la evaluación y retroalimentación que reciben los docentes de primaria y las actividades de inducción, tutoría y desarrollo profesional en las que participan.</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr"/>
-      <c r="C297" t="n">
+      <c r="B297" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3712,8 +3411,7 @@
           <t>La correlación entre la desigualdad y los esfuerzos redistributivos es más fuerte, especialmente en los países avanzados, pero también se mantiene en los países en desarrollo. Nuevamente, este documento respalda el principio de que una de las herramientas de redistribución más eficientes y fundamentales es la expansión de la inversión en educación. Los estudiantes de familias de bajos ingresos a menudo empiezan la escuela atrasados ​​con respecto a sus compañeros de familias más acomodadas.</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr"/>
-      <c r="C298" t="n">
+      <c r="B298" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3723,8 +3421,7 @@
           <t>Las facturas salariales excesivas representan una amenaza para el tejido social en general. La Encuesta también señaló que “el aumento de los salarios del sector público hizo la mayor contribución a la desigualdad entre 2010 y 2014, en particular los salarios de los trabajadores calificados en organismos públicos fuera del gobierno central”, como la CCSS (OCDE, 2016a). Como se señaló en la Sección 1, por ejemplo, las tasas de obesidad son más altas en Costa Rica que en la mayoría de los países de la OCDE. En la mayoría de los sistemas de salud de la OCDE, la autoridad presupuestaria central (p. ej., el Ministerio de Finanzas) establece límites máximos de gasto para el sector de la salud, anualmente o en ciclos plurianuales.</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr"/>
-      <c r="C299" t="n">
+      <c r="B299" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3734,8 +3431,7 @@
           <t>Por lo tanto, es probable que mejorar la creación general de empleo reduzca el empleo marginal entre las mujeres pobres. Es consistentemente negativo en todos los niveles educativos en las regiones rurales, pero solo comienza a ganar importancia a partir de la educación primaria en las regiones urbanas. Sin embargo, la magnitud es mayor con cada nivel educativo adicional para las regiones urbanas. Mientras que en las zonas rurales el jefe de hogar con título universitario disminuye la probabilidad de participación de la mujer en 5pp frente al jefe de hogar analfabeto, el mismo factor disminuye la probabilidad en casi 13pp en las zonas urbanas.</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr"/>
-      <c r="C300" t="n">
+      <c r="B300" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3745,8 +3441,7 @@
           <t>De manera similar, Corea, México, Portugal y Estados Unidos tienen un desempeño inferior en el tratamiento de enfermedades infecciosas. En la práctica, sin embargo, a excepción de los datos preliminares sobre mortalidad tratable desarrollados recientemente en la OCDE, rara vez se dispone de datos comparables entre países sobre resultados por enfermedad.12 La medición de insumos y costos por enfermedad también enfrenta obstáculos (Heijink y Renaud, 2009) como la falta de información sobre las prácticas de atención ambulatoria y el consumo de fármacos dificulta la documentación completa de un episodio de atención. Por lo tanto, actualmente no es posible derivar estimaciones de eficiencia entre países a nivel de enfermedad, a excepción de algunas enfermedades específicas.</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr"/>
-      <c r="C301" t="n">
+      <c r="B301" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3756,8 +3451,7 @@
           <t>Como trabajan en Luxemburgo, están automáticamente asegurados con el CNS pero, comprensiblemente, buscan atención principalmente en su país de residencia. Este grupo representa la mayor parte de los pacientes transfronterizos. El segundo grupo, mucho más pequeño, comprende a los residentes de Luxemburgo que buscan servicios de salud especializados que no están disponibles en Luxemburgo (por ejemplo, atención oncológica pediátrica, trasplante de órganos).</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr"/>
-      <c r="C302" t="n">
+      <c r="B302" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3767,8 +3461,7 @@
           <t>Como resultado, no es posible investigar el problema de la brecha de género en el financiamiento de cadenas de valor utilizando estas bases de datos. Por último, estos conjuntos de datos se centran principalmente en el mercado estadounidense y no se puede evaluar la evidencia entre países sobre la importancia del fenómeno. Crunchbase, una popular plataforma en línea, conecta a los capitalistas de riesgo con las empresas emergentes en etapa inicial.</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr"/>
-      <c r="C303" t="n">
+      <c r="B303" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3778,8 +3471,7 @@
           <t>Es difícil de contemplar, especialmente cuando afecta a los niños. Sin embargo, incluso los que aparentemente están bien alimentados (aquellos que reciben suficientes calorías para alimentar sus actividades diarias) pueden sufrir el "hambre oculta" de la desnutrición de micronutrientes: deficiencias de elementos esenciales como la vitamina A, el hierro o el zinc de frutas, verduras, pescado o carne. Tiene muchas consecuencias a corto y largo plazo, incluido un retraso en el desarrollo mental, un mayor riesgo de enfermedades infecciosas y susceptibilidad a enfermedades crónicas en la vida adulta.20 En los países de bajos ingresos, es probable que la desnutrición infantil sea una consecuencia de la pobreza, caracterizada como es por el bajo nivel familiar y los ingresos, el medio ambiente y la vivienda deficientes, y el acceso inadecuado a los alimentos, el agua potable, la orientación y la atención de la salud. Al menos una cuarta parte de los niños urbanos menores de 5 años presentaban retraso en el crecimiento, lo que indica que habían estado desnutridos durante algún tiempo. Los ingresos fueron un factor importante.</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr"/>
-      <c r="C304" t="n">
+      <c r="B304" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3789,8 +3481,7 @@
           <t>Además del cumplimiento de los derechos fundamentales de las mujeres y las niñas, la igualdad de género ha sido aclamada recientemente como una estrategia "innovadora" para promover el desarrollo inclusivo y reducir la pobreza. Por lo tanto, comprender la naturaleza y el alcance de los obstáculos a la igualdad de género es fundamental para diseñar políticas eficaces que promuevan la igualdad entre hombres y mujeres y, en consecuencia, para mejorar los resultados del desarrollo. Los niveles más altos de instituciones discriminatorias en los países de origen dificultan la probabilidad de migración femenina, reduciendo la proporción de migrantes en las poblaciones de origen, que en consecuencia es demasiado baja para cambiar positivamente las normas discriminatorias hacia una mayor igualdad de género.</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr"/>
-      <c r="C305" t="n">
+      <c r="B305" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3800,8 +3491,7 @@
           <t>En 2014, los organismos encargados de hacer cumplir la ley de la India incautaron 32 kg de ketamina, una disminución significativa de los 1353 kg incautados en 2013. Las incautaciones indican que el tráfico de ketamina ahora puede estar disminuyendo como resultado del rigor de las autoridades que siguió a las recientes enmiendas a la Ley. . La mayoría de los países del sur de Asia no realizan regularmente encuestas nacionales sobre drogas, por lo que la información sobre el uso indebido y la prevalencia debe provenir de otras fuentes. El cannabis es la droga de abuso más común en la región.</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr"/>
-      <c r="C306" t="n">
+      <c r="B306" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3811,8 +3501,7 @@
           <t>Aunque Bélgica se desempeña relativamente bien en términos de nivel de resistencia para la mayoría de las bacterias bajo vigilancia del Centro Europeo para la Prevención y el Control de Enfermedades (ECDC, 2017), la tasa de incidencia de infecciones por estafilococos resistentes a los antibióticos adquiridas en el hospital es relativamente alta (Vrijens et al. ., Las tasas de mortalidad tratable en Bélgica se encuentran entre las más bajas de los países de la UE, debido en parte a la baja y decreciente mortalidad por enfermedades cardiovasculares. tipos de cáncer indican que el sistema de atención de la salud es eficaz en el tratamiento de personas con enfermedades que amenazan la vida.</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr"/>
-      <c r="C307" t="n">
+      <c r="B307" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3822,8 +3511,7 @@
           <t>Sin embargo, sigue siendo superior a la de algunos países de la UE y existe una notable disparidad en la tasa de hombres y mujeres (Figura 9). A este respecto, cabe señalar que en Grecia no existen programas de detección del cáncer basados ​​en la población o sistemáticos, por lo que la aceptación de la detección preventiva es baja, lo que dificulta el tratamiento oportuno. Además, el actual sistema de atención primaria no está orientado a actividades de promoción o prevención de la salud, existiendo grandes variaciones en la formación y conocimiento de los médicos en métodos de detección precoz. En el lado positivo, recientemente se ha agregado a la lista de exámenes reembolsables un nuevo conjunto de pruebas de diagnóstico, muchas de las cuales se utilizan para la detección.</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr"/>
-      <c r="C308" t="n">
+      <c r="B308" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3833,8 +3521,7 @@
           <t>Este aumento en el nivel educativo ha contribuido al gran aumento (11 puntos porcentuales) en los últimos 15 años en la tasa de empleo femenino al 70 % en Alemania: la proporción más alta de mujeres en la fuerza laboral remunerada fuera de los países nórdicos y otros países de la OCDE donde las mujeres suelen trabajar a tiempo parcial, como en los Países Bajos. Este aumento en la participación en la fuerza laboral se asoció con una disminución en el tiempo dedicado al trabajo doméstico y de cuidado no remunerado, pero en Alemania, como en otros lugares de la OCDE, las mujeres aún soportan la peor parte del trabajo no remunerado y los padres pasan mucho menos tiempo con los niños que las madres. Los padres alemanes son más propensos que sus compatriotas europeos a reportar conflictos entre trabajo y vida y, a pesar de los aumentos recientes, la tasa de fertilidad total (TFR) en 2014 fue de 1,47, por debajo del promedio de la OCDE de 2013 de 1,67 (Capítulo 2). Sin embargo, desde mediados de la década de 2000, la reforma de la política social ha aumentado las oportunidades para que los padres encuentren un mejor equilibrio entre el trabajo y la familia.</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr"/>
-      <c r="C309" t="n">
+      <c r="B309" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3844,8 +3531,7 @@
           <t>La creación de las Juntas Directivas abre caminos para mejorar la transparencia y los procedimientos de presentación de informes a nivel escolar, pero sus roles aún no están claros. Los fondos adicionales deben gastarse sabiamente y deben ir acompañados de una mejora en la eficiencia del uso de los fondos públicos. Las inversiones deben priorizarse en los primeros años educativos, así como en los aspectos de mejora de la equidad y la calidad. Otra prioridad debe ser el fortalecimiento de los mecanismos de control del desempeño y rendición de cuentas en el sistema educativo. Además, la dotación presupuestaria debe incrementarse lentamente, en paralelo con el aumento de la capacidad del sistema para absorber nuevos programas y nuevos enfoques.</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr"/>
-      <c r="C310" t="n">
+      <c r="B310" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3855,8 +3541,7 @@
           <t>Esto representa una mejora muy grande para los niños, el 26% de los cuales habían informado borracheras repetidas en 2001-02. Según los datos autoinformados de 2014 (que tienden a subestimar la verdadera prevalencia de la obesidad), aproximadamente uno de cada seis (16,1%) adultos en Portugal ahora es obeso, lo que representa casi un punto porcentual por encima del promedio de la UE. De acuerdo con el patrón en otros países de la UE, el nivel de obesidad entre aquellos con el nivel educativo más bajo es más del doble que el nivel entre los más educados. Las tasas de inactividad física tanto para adultos como para jóvenes de 15 años se encuentran entre las más altas de los países de la UE.</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
-      <c r="C311" t="n">
+      <c r="B311" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3866,8 +3551,7 @@
           <t>Igualdad de coeficientes para hombres y mujeres rechazada al nivel del 5%. Igualdad de coeficientes para hombres y mujeres rechazada al nivel del 10%. Las causas de la violencia de pareja íntima y la violencia sexual se investigan mejor mediante el uso de estudios longitudinales de las víctimas. Estos estudios rastrean a las personas a lo largo del tiempo para documentar sus experiencias de tal violencia y cómo estas experiencias se relacionan con otros factores en varias etapas de su vida. Desafortunadamente, existen pocos estudios de este tipo, ya que la medición de las condiciones sociales y culturales que podrían considerarse factores de riesgo (es decir, la condición de la mujer, las normas de género) plantea serios desafíos, especialmente entre países y diferentes culturas. La pobreza y el estrés asociado son factores clave que contribuyen a la violencia de pareja.</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr"/>
-      <c r="C312" t="n">
+      <c r="B312" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3877,8 +3561,7 @@
           <t>La disminución del número de estudiantes se traduce en un descenso de la eficiencia educativa, ya que disminuye la proporción de alumnos por profesor y se infrautilizan las instalaciones. El descenso del número de matriculaciones amenaza la calidad de los programas de estudios, ya que disminuye la oferta de cursos y el número de instructores. El descenso del número de estudiantes agrava un problema de escala preexistente al que se enfrentan las instituciones universitarias públicas lituanas, que son numerosas (14) y pequeñas.</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr"/>
-      <c r="C313" t="n">
+      <c r="B313" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3888,8 +3571,7 @@
           <t>De esos países, todos reportan algunos requisitos para el presupuesto de género en el nivel central de gobierno (Figura 4.12). Varios países informan haber establecido estos requisitos en regiones (Egipto, Jordania y la Autoridad Palestina), Egipto y la Autoridad Palestina también informan haberlo hecho a un nivel más local. En la Autoridad Palestina, estos requisitos se implementan en diferentes niveles y se están expandiendo lentamente a todos los sectores.</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr"/>
-      <c r="C314" t="n">
+      <c r="B314" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3899,8 +3581,7 @@
           <t>Sin embargo, estas fallas del mercado implican que la competencia por sí sola no es suficiente para garantizar el control de costos y que también se necesitan medidas para mejorar el funcionamiento del mercado tanto en el lado de la oferta como en el de la demanda. Esto reemplazó un sistema dual en el que el seguro público era obligatorio para aproximadamente dos tercios de la población, mientras que el otro tercio dependía del seguro privado voluntario. En el nuevo sistema, todos los ciudadanos tienen que pagar una prima de tarifa plana (fijada libremente por la aseguradora) a la aseguradora de salud de su elección y una contribución relacionada con los ingresos a un fondo de compensación de riesgos, que cubre el 50 % del gasto total en salud.</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr"/>
-      <c r="C315" t="n">
+      <c r="B315" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3910,8 +3591,7 @@
           <t>El modelo ambulatorio, donde los especialistas ven una selección de casos preseleccionados por el médico de atención primaria, es bastante utilizado en los países de la OCDE. En tales casos, los especialistas en salud mental visitan las clínicas de salud primaria para revisar, con el personal de la clínica de salud primaria, una pequeña selección de casos, que a veces incluye una reunión clínica con el paciente. Por lo general, toda la red de salud mental se reuniría periódicamente para coordinar, capacitar u otros fines. ¿Se requiere o se incentiva a los médicos de atención primaria a cumplir con las pautas de tratamiento o los protocolos de práctica establecidos?</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr"/>
-      <c r="C316" t="n">
+      <c r="B316" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3921,8 +3601,7 @@
           <t>Aunque el Artículo (58) de la Ley de Familia (Parte 1), requiere que las mujeres permanezcan en el alojamiento proporcionado por sus maridos, las mujeres tienen derecho a aplicar este artículo si así se estipula en el contrato de matrimonio o si se prueba un impedimento sustancial antes. el poder Judicial. Este texto pretende abordar la responsabilidad del esposo de proporcionar alojamiento en lugar de obstaculizar la movilidad de la esposa (información proporcionada por el gobierno de Bahrein). Existen dos tipos de custodia en Bahrein: i) la custodia que da preferencia al padre, relacionada con asuntos financieros y el matrimonio, establecida en la ley de custodia sobre asuntos financieros, ii) la custodia que da preferencia a la madre, que está relacionada a la custodia materna y la lactancia materna, establecido en el Artículo de la Ley de Familia (132) (información proporcionada por el gobierno de Bahrein). El abuso físico incluye golpes, bofetadas, puñetazos, asfixia, empujones, quemaduras y otros tipos de contacto que resultan en lesiones físicas a la víctima.</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr"/>
-      <c r="C317" t="n">
+      <c r="B317" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3932,8 +3611,7 @@
           <t>La edad media de los docentes es de 48,1 años en educación primaria y de 48,9 en educación secundaria. Alrededor del 41 % de los docentes de primaria y el 44 % de los docentes de secundaria inferior tenían 50 años o más en 2014, cifras significativamente más altas que los promedios de la OCDE (30 % y 34 %, respectivamente). Las habilidades cognitivas del personal docente son un determinante significativo de las diferencias internacionales en el desempeño de los estudiantes (Hanushek, Piopiunik y Wiederhold, 2016).</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr"/>
-      <c r="C318" t="n">
+      <c r="B318" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3943,8 +3621,7 @@
           <t>Este período fue crítico para la organización global, ya que las mujeres aprendieron a llegar a todos los continentes a pesar de que todavía era la era anterior a las comunicaciones por Internet, y a comprender su diversidad como una fuente de fortaleza y creatividad. Sin embargo, las crisis continuas dieron forma a las políticas incluso cuando las feministas comenzaron a establecer vínculos y conexiones entre temas como la macroeconomía, la ecología y la salud y los derechos sexuales y reproductivos (SDSR) como sustituto de las políticas tradicionales de control de la población. La capacidad del estado desarrollista para responder a las demandas feministas a nivel nacional se estaba erosionando, a medida que sus instituciones se fragmentaban bajo el ataque neoliberal.</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr"/>
-      <c r="C319" t="n">
+      <c r="B319" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3954,8 +3631,7 @@
           <t>La falta de habilidades generales, en particular la alfabetización y la aritmética, puede ser un problema para la empleabilidad a largo plazo, ya que hace que sea más difícil volver a capacitarse para adaptarse a las necesidades cambiantes del mercado laboral. Retrasar el seguimiento de los alumnos contribuiría a paliar esta falta de competencias generales. El acceso a las escuelas generales, secundarias profesionales y de formación profesional (este último hace más hincapié en las habilidades prácticas y reagrupa a una cuarta parte de los estudiantes, Figura 12) actualmente tiene lugar a los 14 años, frente a los 15-16 años en la mayoría de los países de la OCDE.</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr"/>
-      <c r="C320" t="n">
+      <c r="B320" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3965,8 +3641,7 @@
           <t>La figura 6.4 muestra que la relación entre el gasto en educación pública y el PIB de Corea es más alta que el promedio de la OCDE de alrededor del 5% del PIB. Históricamente, los gastos en educación han sido muy estables, alrededor del 16-20% del gasto total del gobierno, con una variación limitada debido al fuerte apoyo del gobierno al crecimiento nacional. Esta estabilidad indica el fuerte compromiso de Corea con la educación. La mayoría de las funciones gubernamentales restantes muestran una tendencia diferente, que es inconsistente y volátil debido al cambio de las necesidades sociales y de las prioridades políticas, junto con el desarrollo económico y social.</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr"/>
-      <c r="C321" t="n">
+      <c r="B321" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3976,8 +3651,7 @@
           <t>La gran cantidad de maestros y líderes escolares se debe a la proporción significativa de escuelas de clase pequeña en el país y las estrictas normas de dotación de personal. La gran cantidad de personal reduce los presupuestos escolares, crea rigideces y desplaza las inversiones en otras áreas. Alrededor del 93% del gasto escolar en las escuelas rurales se dedica a la remuneración del personal. Esto significa que los presupuestos son muy ajustados y que los directores tienen un margen de maniobra muy limitado para administrar los recursos de manera más eficiente o invertir en actividades de desarrollo escolar. En particular, la gran cantidad de personal desalienta mejoras en su remuneración, que se considera baja en Kazajistán, aunque la complejidad de la estructura salarial docente dificulta su análisis. La definición del tamaño de las clases es una compensación recurrente que tiene un gran impacto en el gasto debido a la naturaleza intensiva en mano de obra de la educación: las clases pequeñas requieren una gran cantidad de docentes, mientras que las clases más grandes pueden liberar recursos para mejorar la calidad de la enseñanza.</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr"/>
-      <c r="C322" t="n">
+      <c r="B322" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3987,8 +3661,7 @@
           <t>La experiencia internacional ha demostrado la importancia de la atención primaria, con un enfoque de prevención, para mejorar los resultados de salud y contener los costos. El gobierno planea expandir la atención primaria en las áreas rurales mediante el establecimiento de hospitales a nivel de condado y centros locales de atención médica (Eggleston, 2012). En China, al igual que en otros BRIICS y países en desarrollo, los sistemas de salud de seguro social enfrentan el desafío de recaudar contribuciones a la seguridad social debido a la gran informalidad del mercado laboral y otros problemas, como la falta de intercambio de información entre los fondos y el escaso uso de las TIC. El gobierno ha lanzado diferentes iniciativas para abordar estos problemas, incluida la recaudación integrada de contribuciones para cinco programas de seguridad social y un uso más avanzado de las TIC (AISS, 2013).</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
-      <c r="C323" t="n">
+      <c r="B323" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3998,8 +3671,7 @@
           <t>El artículo 23 del Código del Estatuto Personal, según el cual “la mujer respetará las prerrogativas del marido y le deberá obediencia” ha sido sustituido por una disposición que obliga a cada cónyuge a tratar al otro con consideración y solidaridad. operar en el manejo de los asuntos de la familia. En efecto, los cónyuges deben tratarse con bondad, convivir y evitar hacerse daño, cumplir la parte de los deberes conyugales que le corresponda, cooperar en los asuntos del hogar familiar y de los hijos. de la educación, incluidos sus estudios, viajes y asuntos financieros. El esposo, como cabeza de familia, es responsable del sustento económico de su esposa e hijos, dentro de sus medios económicos, la esposa también tiene que contribuir económicamente a la vida familiar si tiene los medios económicos (Artículo 23 ).18 Tal obligación constituye el reconocimiento del papel económico de la mujer y trae un nuevo orden a su estatus dentro de la familia.</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr"/>
-      <c r="C324" t="n">
+      <c r="B324" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4009,8 +3681,7 @@
           <t>Esto parecería ser una debilidad en los estándares acordados actualmente, y Escocia debería considerar si se deben incluir las medidas informadas por los pacientes (incluida la satisfacción y la experiencia del paciente). Varios sistemas de salud de la OCDE (en los países nórdicos y en Canadá, por ejemplo) utilizan cada vez más las medidas informadas por los pacientes en los marcos de responsabilidad y contratación (OCDE, 2015) en un esfuerzo por hacer que los servicios respondan mejor a las necesidades y preferencias de los pacientes. La inclusión de este objetivo ayuda a subrayar la necesidad de ver un enfoque de todo el sistema para los objetivos y el rendimiento del sistema en relación con los objetivos, teniendo en cuenta las entradas y los impulsores detrás de los objetivos cumplidos con éxito o sin éxito.</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr"/>
-      <c r="C325" t="n">
+      <c r="B325" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4020,8 +3691,7 @@
           <t>Como parte del programa de mujeres en el liderazgo, MWA defiende la evidencia y la investigación para demostrar las desventajas de estas normas. Como afirma MWA, el sesgo inconsciente en la forma en que vemos y evaluamos a las mujeres crea barreras invisibles para el liderazgo de las mujeres (MWA 2013). En relación con las normas sociales descritas anteriormente, el sesgo inconsciente a menudo se manifiesta en el comportamiento de los líderes superiores y los responsables de la toma de decisiones, cuyas actitudes negativas pueden obstaculizar el ascenso de las mujeres a los puestos superiores.</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr"/>
-      <c r="C326" t="n">
+      <c r="B326" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4031,8 +3701,7 @@
           <t>Los detalles sobre el método de la encuesta, las preguntas y los encuestados se proporcionan en el Anexo A. Dado que la atención primaria y ambulatoria segura es de vital importancia en todos los países fortalecidos a través de políticas que luchan por el acceso universal a la atención de la salud, este informe considera, cuando es posible, la atención primaria y ambulatoria segura. países de ingresos bajos (LMIC, por sus siglas en inglés) y países de ingresos medios altos y altos (en adelante, “países desarrollados” o simplemente HIC, por sus siglas en inglés).4 En cierto sentido, las naciones menos desarrolladas tienen la ventaja de construir las estructuras e instituciones necesarias en sus sistemas de salud a medida que estos se construyen y establecen. Las naciones desarrolladas, por otro lado, tienen la difícil tarea de adaptar la seguridad a sistemas completamente formados (OMS et al 2018). Si bien los hallazgos y las recomendaciones serán de interés para los proveedores de atención médica y las organizaciones, la audiencia principal de este informe son los responsables de la formulación de políticas que buscan mejorar la seguridad del paciente en la atención primaria/ambulatoria en un contexto de recursos limitados. Son similares a la terminología del informe anterior pero se modifican según las características, prioridades y riesgos específicos del entorno primario y ambulatorio.</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr"/>
-      <c r="C327" t="n">
+      <c r="B327" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4042,8 +3711,7 @@
           <t>En el pasado, las instituciones del mercado laboral, las políticas públicas y las normas sociales reforzaron los roles de género tradicionales, especialmente en Alemania Occidental, pero las reformas de la política social en la última década han aumentado las oportunidades para los padres. El nuevo enfoque de la política familiar alemana tiene como objetivo proporcionar a padres e hijos más tiempo juntos mediante el fomento de una asociación más igualitaria en el reparto de las responsabilidades laborales y de la vida familiar ("Partne rschaftl ichke it"). De acuerdo con las mejores prácticas internacionales, la reforma de 2007 también condujo a un aumento en el número de padres que se ausentaron.</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr"/>
-      <c r="C328" t="n">
+      <c r="B328" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4053,8 +3721,7 @@
           <t>La historia y la geografía de Finlandia, atrapada entre el poderoso reino del oeste y el imperio aún más grande del este, la obligó a priorizar el interés de la nación y no permitir que la política educativa fuera víctima de la política partidista. Finlandia es una pequeña nación que el resto del mundo ve como un lugar extraño que habla un idioma que nadie más entiende. Durante el último medio siglo, los finlandeses han adoptado la idea de que la única manera de sobrevivir como nación pequeña e independiente es educando a todas las personas.</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr"/>
-      <c r="C329" t="n">
+      <c r="B329" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4064,8 +3731,7 @@
           <t>Sirve como un marco general para una mayor orientación sobre temas específicos en diversas áreas y contiene una serie de disposiciones importantes relacionadas con la participación de las mujeres en la vida pública y las herramientas y condiciones previas institucionales necesarias. Si bien los países de MENA aún no han adoptado esta recomendación, sus disposiciones pueden servir como una guía útil para la acción enfocada para cerrar las brechas restantes en la región (Recuadro 2.2). Garantizar que los niños y las niñas tengan el mismo acceso a una educación de buena calidad, los mismos derechos y oportunidades para completar con éxito la educación y tomar decisiones educativas.</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr"/>
-      <c r="C330" t="n">
+      <c r="B330" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4075,8 +3741,7 @@
           <t>Aumentar el gasto público en salud para alentar la participación de los trabajadores informales y sus dependientes ampliará la cobertura del seguro de salud y ayudará a aliviar las restricciones financieras a largo plazo. El documento está organizado de la siguiente manera. En la siguiente sección, brindaremos una descripción general del desarrollo del sistema de atención médica vietnamita, con una discusión sobre su estado actual y los desafíos en el financiamiento y la prestación de servicios.</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr"/>
-      <c r="C331" t="n">
+      <c r="B331" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4086,8 +3751,7 @@
           <t>El dominio de la administración no se pudo evaluar debido a la falta de datos para los indicadores seleccionados, lo que indica dónde es necesario mejorar las capacidades de los sistemas de información para respaldar los esfuerzos de monitoreo y evaluación. Esta primera HSPA ahora sirve como referencia para medir cualquier mejora en los dominios de evaluación a lo largo del tiempo. En particular, la prevalencia de la obesidad es la más alta de la UE y representa un importante desafío para la salud pública.</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr"/>
-      <c r="C332" t="n">
+      <c r="B332" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4097,8 +3761,7 @@
           <t>La información contenida en este documento se relaciona con el área bajo el control efectivo del Gobierno de la República de Chipre. Andrade y O.F.A. Bueno (2008), "Contribución de la Educación, la Ocupación y las Actividades de Estimulación Cognitiva a la Formación de la Reserva Cognitiva", Dementia and Neuropsychologia, Vo\. 2, No. Working Paper ROA-RM-2010/1, Centro de Investigación para la Educación y el Mercado Laboral (ROA), Maastricht.</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr"/>
-      <c r="C333" t="n">
+      <c r="B333" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4108,8 +3771,7 @@
           <t>Más allá de la escuela, un mejor equilibrio entre la vida laboral y personal permitiría que más mujeres se matricularan en cursos profesionales y de capacitación en el trabajo. Las mujeres podrían perseguir mejor sus aspiraciones individuales y profesionales. La mejora de la satisfacción laboral ejerce un papel protector sobre la salud física y protege contra los trastornos mentales (Barnay, 2014).</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr"/>
-      <c r="C334" t="n">
+      <c r="B334" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4119,8 +3781,7 @@
           <t>Varios ejemplos han sugerido que las nuevas modalidades de tratamiento son rentables. Estos trastornos suelen tener síntomas menos graves y debilitantes que otros trastornos mentales (por ejemplo, psicóticos), y este capítulo excluye deliberadamente los casos más graves de trastornos mentales, incluidos los casos más graves de trastornos comunes como la depresión y la ansiedad. La gravedad del trastorno está determinada por el número y la gravedad de los síntomas, el grado de deterioro funcional y la duración de los síntomas. Los trastornos de leves a moderados impiden la salud, el funcionamiento diario y la calidad de vida de las personas afectadas y requieren un diagnóstico, tratamiento y atención adecuados.</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr"/>
-      <c r="C335" t="n">
+      <c r="B335" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4130,8 +3791,7 @@
           <t>La ley destaca la necesidad de que todos los aspectos de estos sistemas de evaluación interna sean transparentes. En general, existe poca documentación sobre los procesos de evaluación del profesorado diseñados y aplicados a nivel escolar. El proyecto de ley se presentó al Parlamento en marzo de 2012 y actualmente se está debatiendo. A medida que el profesor avanza en la estructura de la carrera profesional, tiene acceso a puestos con mayores responsabilidades dentro de los centros escolares.</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr"/>
-      <c r="C336" t="n">
+      <c r="B336" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4141,8 +3801,7 @@
           <t>Una definición establecida de presupuestos de género se refiere a “una evaluación de los presupuestos basada en el género, que incorpora una perspectiva de género en todos los niveles del proceso presupuestario y reestructura los ingresos y los gastos para promover la igualdad de género” (Consejo de Europa, 2009). La naturaleza y la calidad de estos enfoques parecen bastante variables, y van desde una declaración pro forma de impactos sobre la igualdad de género adjunta a todas las nuevas políticas que se presentan ante el gobierno, hasta “evaluaciones de impacto de género” más estructuradas y sistemáticas. Unos pocos países informaron que la igualdad de género está "transversalizadora" en el sentido de que la responsabilidad recae en los ministerios sectoriales para promover esta agenda dentro de sus respectivos dominios de políticas y, en consecuencia, no se prevé un papel particular para el proceso presupuestario como necesario.</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr"/>
-      <c r="C337" t="n">
+      <c r="B337" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4152,8 +3811,7 @@
           <t>Los datos se refieren a 2000-10 para Estonia y Finlandia, a 1999-2010 para Francia y a 2002-09 para México. Los datos se refieren a 1997-2006 para Australia, 1995-2006 para los Países Bajos, 1995-2005 para el Reino Unido y 1992-2002 para Alemania. Para obtener detalles sobre la definición de trabajo no remunerado y trabajo total, véase Miranda, V. (2011), â€œCooking, Caring and Volunteering: Unpaid Work around the World", Documentos de Trabajo sobre Social, Empleo y Migración de la OCDE, núm.</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr"/>
-      <c r="C338" t="n">
+      <c r="B338" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4163,8 +3821,7 @@
           <t>Además, el objetivo de la Ley es contrarrestar la discriminación directa e indirecta por motivos de género". (Statistics Greenland publicó recientemente un estudio sobre ingresos en 2013 (Statistics Greenland 2014). La diferencia general, aproximadamente un tercio a favor de los hombres, no solo refleja diferencias de género, pero también diferencias en educación y posición en las diferentes jerarquías, así como el hecho de que los hombres están sobrerrepresentados en grupos de edad caracterizados por mayores ingresos.</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr"/>
-      <c r="C339" t="n">
+      <c r="B339" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4174,8 +3831,7 @@
           <t>Las estimaciones de las ecuaciones 2-5 confirman los vínculos indirectos entre el nivel de discriminación por motivos de género en las instituciones sociales y los ingresos. El cuadro 5 muestra una fuerte relación negativa y significativa entre el SIGI y la productividad total de los factores, la fuerza laboral y el capital humano, cualquiera que sea la especificación utilizada (los anexos E, F y G presentan los resultados completos de la regresión). Los coeficientes SIGI siguen siendo significativamente negativos mientras se introducen variables de control adicionales, se controla la posible endogeneidad y se realizan verificaciones de robustez.</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr"/>
-      <c r="C340" t="n">
+      <c r="B340" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4185,8 +3841,7 @@
           <t>La orientación profesional debe proporcionar una imagen completa de las distintas vías del sistema educativo, que abarque en particular la opción de formación profesional. La orientación en educación y formación profesional tiene un papel importante que desempeñar para ayudar a las personas a identificar cómo pueden utilizar mejor las habilidades que han desarrollado a lo largo de su curso de educación y formación para construir carreras satisfactorias. La orientación profesional en las universidades puede respaldar transiciones efectivas al lugar de trabajo al involucrar a los empleadores (incluso a través de ferias profesionales y talleres para empleadores) para brindar oportunidades de aprendizaje relacionadas con el trabajo, y puede ayudar a garantizar que las habilidades de los graduados sean bien utilizadas.</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr"/>
-      <c r="C341" t="n">
+      <c r="B341" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4196,8 +3851,7 @@
           <t>Los problemas de salud mental también se incluyen en parte del trabajo en otras partes de los ministerios (más allá de la División de Bienestar y Salud Mental), por ejemplo, en la política de empleo se presta atención a los problemas de salud mental en áreas como el empleo de apoyo y el regreso al trabajo, y En educación. Este marco legal es una de las dos herramientas clave del gobierno central para promulgar cambios en línea con la dirección de la política. A través de esta Ley, que se analiza en detalle en el Capítulo 1, el MHLW indica la dirección de la política nacional y asegura el financiamiento requerido.</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr"/>
-      <c r="C342" t="n">
+      <c r="B342" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4207,8 +3861,7 @@
           <t>Es más probable que la invocación de los derechos individuales e inclusivos tenga un impacto de desecuritización, mientras que la reivindicación de derechos exclusivos para un grupo puede resultar en una mayor violación de los derechos humanos. Las dimensiones individual/colectiva e inclusiva/exclusiva de la formulación de derechos son muy importantes para el género, tanto en tiempos de paz3 como en tiempos de guerra. Esta definición apunta a una interdependencia de los niveles individual/colectivo, ya que las reivindicaciones de los derechos humanos de las “mujeres” dependen tanto de los derechos individuales como de una identidad colectiva. En el contexto de la guerra, las reivindicaciones colectivas de los derechos de las mujeres, especialmente cuando se invocan exclusivamente, pueden tener impactos de seguridad al reificar las identidades de género y jugar con las estrategias etnopolíticas.</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr"/>
-      <c r="C343" t="n">
+      <c r="B343" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4218,8 +3871,7 @@
           <t>Esto sugiere que pagar a los proveedores en función de la cantidad de actividades que se realizan da un fuerte incentivo a los hospitales para extender las estadías de los pacientes. Además, la prestación de atención a largo plazo en los hospitales también aumenta la duración media de la estancia (Jones, 2010). Como resultado, los proveedores de atención primaria tienen un incentivo financiero para convertirse en mini hospitales que brindan procedimientos quirúrgicos, a menudo cuando no son apropiados o seguros.</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr"/>
-      <c r="C344" t="n">
+      <c r="B344" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4229,8 +3881,7 @@
           <t>La primera sesión se organiza en septiembre e incluye una prueba de conocimientos de los alumnos. La última tiene lugar en abril y también incluye una prueba. Las pruebas se utilizan de dos formas: permiten la evaluación de las necesidades de los alumnos y la posterior elaboración de un plan de actividades formativas adaptadas a alumnos concretos, y también permiten la evaluación del progreso de los alumnos durante el curso escolar.</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr"/>
-      <c r="C345" t="n">
+      <c r="B345" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4240,8 +3891,7 @@
           <t>La Sección 3 investiga estrategias para promover una formación profesional de calidad, incluidos los aprendizajes, mientras que la Sección 4 se centra en el apoyo a los estudiantes en riesgo. Para una descripción más detallada y una evaluación del sistema educativo de Letonia, véase OCDE (2015e). El Ministerio de Educación y Ciencia (MoES) nacional tiene la función de supervisión y, a través del Centro Nacional de Educación subordinado, establece los estándares educativos nacionales y determina los planes de estudio y los procedimientos de examen. Proporciona el marco regulatorio para la provisión de educación vocacional y emplea a los directores de los establecimientos VET.1 También mantiene el registro de estándares ocupacionales y estudia las demandas de habilidades del mercado laboral.</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr"/>
-      <c r="C346" t="n">
+      <c r="B346" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4251,8 +3901,7 @@
           <t>La sección también explora cómo se distribuyen las responsabilidades de evaluación en diferentes países y cómo interactúan los diferentes niveles de gobierno para formar un sistema de evaluación coherente. Esto incluye el alcance de la evaluación, es decir, las áreas de aprendizaje que cubre la evaluación, así como las características procesales clave de la evaluación de los estudiantes en todos los países, es decir, la combinación de instrumentos utilizados en sistemas específicos de evaluación de estudiantes, el formato de las evaluaciones y el uso de las TIC en la evaluación. También revisa las formas en que el diseño de las evaluaciones puede mejorar o amenazar la justicia y la equidad en la educación. Incluye temas tales como: las capacidades que los estudiantes necesitan para participar y aprender de su evaluación, las competencias de evaluación que los docentes adquieren en la formación docente inicial, desarrollo profesional y arreglos de moderación, y la experiencia de las agencias involucradas en la evaluación de los estudiantes. Describe los estándares de calidad y los formatos de informes utilizados en diferentes contextos, revisa los marcos legales vigentes para regular los informes de resultados y analiza las formas en que los resultados de la evaluación se utilizan en diferentes contextos para registrar información, brindar retroalimentación a los estudiantes y tomar decisiones sobre su desempeño. trayectoria educativa posterior.</t>
         </is>
       </c>
-      <c r="B347" t="inlineStr"/>
-      <c r="C347" t="n">
+      <c r="B347" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4262,8 +3911,7 @@
           <t>A pesar de la importancia de capturar la multitarea para capturar la intensidad con la que las mujeres emplean el tiempo, no existe un estándar internacional sobre cómo medir las actividades simultáneas. La base de datos de uso del tiempo de la OCDE tiene como objetivo mejorar la comparabilidad entre los países de la OCDE (ver Cuadro 3). Con base en esta metodología, la OCDE ha realizado un análisis en cuatro países adicionales para explorar los impactos del trabajo de cuidado no remunerado en contextos de ingresos bajos y medios: Sudáfrica, Perú, Etiopía y Bangladesh (ver Anexo A).</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr"/>
-      <c r="C348" t="n">
+      <c r="B348" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4273,8 +3921,7 @@
           <t>Sin embargo, un gran número de estos países no cuentan con leyes específicas que prohíban la discriminación en el pago y la contratación por motivos de género y embarazo (WBL Database, 2016). De hecho, los únicos países que cuentan con dicha legislación son Chile, Costa Rica, Egipto, Indonesia, la Federación Rusa y Túnez. La evidencia existente de los países de la OCDE muestra que el público a menudo está mal informado sobre los derechos de los trabajadores (OCDE, 2008, Capítulo 3).</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr"/>
-      <c r="C349" t="n">
+      <c r="B349" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4284,8 +3931,7 @@
           <t>La siguiente tabla ilustra cómo las diferentes pedagogías establecidas tienden a conducir a diferentes tipos de experiencias de aprendizaje. La combinación de pedagogías que comparten prácticas comunes puede ayudar a reducir las ventajas y desventajas de usar demasiadas pedagogías. Por ejemplo, en una escuela donde los estudiantes practican el aprendizaje basado en la indagación, los maestros pueden sentirse más seguros al combinar su enfoque con desafíos o proyectos complejos, sabiendo que los estudiantes son competentes para administrar su propio aprendizaje. Estudiar combinaciones comunes de pedagogías puede ayudar a identificar aquellas prácticas que son comunes a varias pedagogías, como presentaciones de aprendizaje o autoevaluación de los estudiantes.</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr"/>
-      <c r="C350" t="n">
+      <c r="B350" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4295,8 +3941,7 @@
           <t>Las empresas farmacéuticas no siempre buscan la protección de patentes en todos los países debido, entre otras cosas, a la percepción de falta de tamaño del mercado. Por lo tanto, es posible que en algunos países, a pesar de la existencia de una ley nacional de patentes, ciertas sustancias farmacéuticas permanezcan sin patente y puedan usarse, fabricarse e importarse libremente en ese país. Si el inventor original cambia de opinión y busca la protección de la patente en un momento posterior, la solicitud sería rechazada por falta de novedad si la sustancia en cuestión se ha puesto a disposición del público antes de la presentación de la solicitud de patente.</t>
         </is>
       </c>
-      <c r="B351" t="inlineStr"/>
-      <c r="C351" t="n">
+      <c r="B351" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4306,8 +3951,7 @@
           <t>La Superintendencia de Educación también está integrada dentro del Sistema Nacional de Aseguramiento de la Calidad (Sistema Nacional de Aseguramiento de la Calidad, SAC), que brinda el potencial para vincular el monitoreo del uso de recursos con la calidad de la educación. La SAC brinda un marco institucional muy útil para promover un uso más efectivo de los recursos. Es un sistema relativamente nuevo que complementa otros mecanismos para la rendición de cuentas institucional que Chile ha desarrollado a lo largo del tiempo, incluyendo un sistema de evaluación docente, evaluaciones por parte de la Secretaría de Hacienda (Dirección de Presupuestos, DIPRES), datos detallados e información distribuida al público, entre otros. otros. A medida que crece y se desarrolla más plenamente con el tiempo, los efectos del SAC se sentirán más plenamente.</t>
         </is>
       </c>
-      <c r="B352" t="inlineStr"/>
-      <c r="C352" t="n">
+      <c r="B352" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4317,8 +3961,7 @@
           <t>La supervisión eficaz del personal es fundamental para la mejora continua de los servicios de EAPI, lo que indica la importancia de vincular la supervisión del personal con el desarrollo profesional. Junto con la calidad del servicio, es el área monitoreada con más frecuencia, tanto para mejorar el nivel de calidad del servicio como para informar la formulación de políticas. Además, se monitorea el desempeño del personal para identificar si necesita alguna mejora. Las encuestas para padres, las revisiones por pares y las pruebas del personal son menos populares.</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="n">
+      <c r="B353" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4328,8 +3971,7 @@
           <t>Esto es comparable al promedio del G7 y la OCDE, pero es significativamente más alto que en Francia, donde el 20 % de los bebedores más empedernidos consume solo alrededor de la mitad de todo el alcohol (OCDE, 2015). Los datos de Australia, el Reino Unido y los Estados Unidos son de 2012 en lugar de 2013. A pesar de una disminución en la tasa de suicidios en 2012, que según los datos estimados de las autoridades coreanas continuó en 2013 pasando de 29,1 por 100 000 habitantes en 2012 a 28,7 en 2013 (Ministerio de Salud de Corea, 2016), el suicidio sigue siendo una de las principales causas de muerte entre los adolescentes de Corea.</t>
         </is>
       </c>
-      <c r="B354" t="inlineStr"/>
-      <c r="C354" t="n">
+      <c r="B354" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4339,8 +3981,7 @@
           <t>La tarea de administrar la infraestructura es particularmente difícil ya que la capacidad de la junta escolar así como la capacidad de recaudar fondos de la comunidad local es a menudo menor en las áreas rurales, mientras que muchos edificios escolares están en muy malas condiciones ya que la mayoría de ellos fueron construido entre los años 50 y 70. Las cien escuelas primarias con el desempeño más bajo del país, medido por los niveles de repitencia y deserción, tienen menos de 50 alumnos y están ubicadas en su mayoría en zonas rurales fuera del área de la capital (PEN, 2013). También hay indicios de que los estudiantes de escuelas primarias pequeñas tienen menos probabilidades de hacer la transición a la escuela secundaria.</t>
         </is>
       </c>
-      <c r="B355" t="inlineStr"/>
-      <c r="C355" t="n">
+      <c r="B355" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4350,8 +3991,7 @@
           <t>La tasa de alfabetización de adultos mide la alfabetización entre personas de 15 años o más, y la tasa de alfabetización de jóvenes mide la alfabetización entre personas de 15 a 24 años. Cálculos agregados para tasas de alfabetización de adultos: UIS. Recopilados de registros escolares de tasa de supervivencia, encuestas o censos escolares, censos nacionales de población y encuestas de hogares y fuerza laboral. Datos obtenidos: mayo y junio de 2013.</t>
         </is>
       </c>
-      <c r="B356" t="inlineStr"/>
-      <c r="C356" t="n">
+      <c r="B356" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4361,8 +4001,7 @@
           <t>También tienen un impacto directo en la capacidad de las mujeres para acceder a los recursos y controlarlos. Algunos de estos países, incluidos Marruecos, la República de Corea y Turquía, comenzaron el período con amplias disposiciones discriminatorias, pero desde entonces han avanzado significativamente hacia leyes de familia con mayor igualdad de género. Sin embargo, a partir de 2005, ocho países (Argelia, Bangladesh, Egipto, la República Islámica de Irán, Jordania, Malasia, Pakistán y Arabia Saudita) han mantenido leyes altamente discriminatorias que, por ejemplo, respaldan la autoridad de los hombres sobre las mujeres en el matrimonio, dan a los hombres mayores derechos sobre la propiedad y limitan la capacidad de las mujeres para solicitar el divorcio.15 Estos países abarcan diferentes regiones, pero todos aplican una interpretación conservadora de la ley de familia islámica. En 1993 se llevaron a cabo reformas menores de la ley de familia, pero se resistieron cambios importantes.</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr"/>
-      <c r="C357" t="n">
+      <c r="B357" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4372,8 +4011,7 @@
           <t>En 2010, las tasas de participación de las mujeres en la fuerza laboral se mantuvieron por debajo del 30 por ciento en el norte de África y Asia occidental, por debajo del 40 por ciento en el sur de Asia y por debajo del 50 por ciento en el Caribe y América Central. La brecha entre las tasas de participación de mujeres y hombres se ha reducido ligeramente en los últimos 20 años, pero sigue siendo considerable. Las brechas de género más pequeñas se encuentran en los primeros años de la edad adulta y las más amplias en las edades laborales óptimas. En las economías más desarrolladas, la mano de obra, especialmente la mano de obra femenina, se emplea predominantemente en los servicios.</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr"/>
-      <c r="C358" t="n">
+      <c r="B358" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4383,8 +4021,7 @@
           <t>Además, el artículo 28, párrafo 2 de la convención adopta el principio de inadmisibilidad contenido en la Convención de Viena sobre el Derecho de los Tratados, que establece que no se permitirá una reserva incompatible con el objeto y fin de una convención. Ha instado sistemáticamente a los Estados partes a que los retiren y se aseguren de que sus sistemas jurídicos se ajusten a la convención en general y al artículo 16 en particular. El comité ha enfatizado que el Artículo 16 (entre otros) es “central para el objeto y propósito de la convención y que las reservas impactan negativamente en el disfrute de los derechos de las mujeres”. Como tal, las reservas al Artículo 16 contradicen los principios fundamentales de la convención de igualdad entre hombres y mujeres, y puede socavar los esfuerzos de los países para lograr la igualdad de género.</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr"/>
-      <c r="C359" t="n">
+      <c r="B359" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4394,8 +4031,7 @@
           <t>La Universidad de Maastricht aplica PBL en todos sus programas con el objetivo de generar estudiantes que sean independientes y emprendedores para resolver problemas. La universidad emplea varias versiones de PBL como modelo educativo que simula un entorno de trabajo orientado a la investigación que brinda a los estudiantes habilidades que llevarán consigo en sus carreras. Por ejemplo, la Facultad de Salud, Medicina y Ciencias de la Vida de Maastricht fue una de las primeras universidades en Europa en implementar PBL como la estrategia educativa dominante en la educación médica. La Escuela de Negocios y Economía de la Universidad de Maastricht ha estado utilizando PBL en todos sus programas de grado durante más de 20 años.</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr"/>
-      <c r="C360" t="n">
+      <c r="B360" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4405,8 +4041,7 @@
           <t>Revista de política y economía de la salud mental, vol. Jahrhundertsâ€ (Exclusión social de las personas con trastornos mentales. Equilibrio y perspectiva de la psiquiatría comunitaria a principios del siglo XXI), Fortschritte der Neurologie-Psychiatrie, vol. Repper (2000), “Empleo, Inclusión Social y Salud Mental”, Journal of Psychiatric and Mental Health Nursing, vol.</t>
         </is>
       </c>
-      <c r="B361" t="inlineStr"/>
-      <c r="C361" t="n">
+      <c r="B361" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4416,8 +4051,7 @@
           <t>El puesto adicional de vicepresidente de los Upazila Parishads del país se creó exclusivamente para candidatas. Los candidatos son elegidos por voto directo, aunque el cargo está reservado para mujeres (The Daily Star 2009). Sin embargo, las vicepresidentas de Upazila Parishads en todo el país no pudieron comenzar sus funciones después de las elecciones de 2009, ya que el gobierno no emitió una circular sobre los puestos recién creados.</t>
         </is>
       </c>
-      <c r="B362" t="inlineStr"/>
-      <c r="C362" t="n">
+      <c r="B362" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4427,8 +4061,7 @@
           <t>También tienen altas tasas de analfabetismo: en 2010, el 34,5% de las mujeres indígenas eran analfabetas (SEP, 2015). Sin embargo, estas tasas han ido mejorando entre cohortes: para 2015, solo el 1,2% de las mujeres de 15 a 29 años eran analfabetas (datos de INMUJERES proporcionados a la OCDE). México también tiene un desempeño inferior en lectura: el puntaje promedio de México está 72 puntos por debajo del promedio de la OCDE. El porcentaje de niños y niñas de bajo rendimiento en México también es el doble del porcentaje promedio en la OCDE en todas las materias, pero las cifras pueden ocultar diferencias aún mayores, muchos jóvenes de 15 años desfavorecidos abandonan la escuela y, por lo tanto, no son captados por estas estadísticas.</t>
         </is>
       </c>
-      <c r="B363" t="inlineStr"/>
-      <c r="C363" t="n">
+      <c r="B363" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4438,8 +4071,7 @@
           <t>Las barreras sociales incluyen la falta de conocimiento de sus derechos, el analfabetismo, la falta de información y la dependencia de familiares varones para recibir asistencia y recursos. Filipinas (Comité para la Eliminación de la Discriminación contra la Mujer, comunicación No. Según el Comité, del fallo se desprende claramente que la evaluación de la credibilidad de la versión de los hechos de la autora estuvo influida por una serie de estereotipos, la autora en esta situación no haber seguido lo que se esperaba de una "víctima ideal" y racional o lo que el juez consideró que era la respuesta ideal y racional de una mujer en una situación de violación. Además de ordenar al Estado parte el pago de una indemnización adecuada, el Comité ordenó la Estado a "garantizar que todos los procedimientos legales en casos relacionados con delitos de violación y otros delitos sexuales sean imparciales y justos, y no estén afectados por prejuicios o nociones estereotipadas de género".</t>
         </is>
       </c>
-      <c r="B364" t="inlineStr"/>
-      <c r="C364" t="n">
+      <c r="B364" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4449,8 +4081,7 @@
           <t>Las actividades operativas relacionadas con la educación vocacional formal y no formal están bajo la responsabilidad de los gobiernos distritales o municipales. Idealmente, un distrito podría amalgamar la provisión vocacional en un SMK “super” que ofrezca una variedad de materias. Sin embargo, casi todas las escuelas SMK revisadas por el equipo permanecieron en gran medida enfocadas en sus ofertas históricas de materias. Dada la alta inversión de capital requerida para la educación vocacional, muchas escuelas se han visto limitadas en los cursos que pueden ofrecer por sus instalaciones y equipos heredados. Otra innovación adoptada por el ministerio en 2014 fue la introducción de la Iniciativa de Escuela Modelo Vocacional, que establece una “súper” escuela SMK como escuela modelo, con más recursos, que puede actuar como un centro para escuelas satélite. Actualmente hay 90 escuelas de este tipo, pero la intención es crear 1 650 para 2020.</t>
         </is>
       </c>
-      <c r="B365" t="inlineStr"/>
-      <c r="C365" t="n">
+      <c r="B365" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4460,8 +4091,7 @@
           <t>La tasa TEA impulsada por la oportunidad es 78% en Uruguay, 71% en Chile y el Estado Plurinacional de Bolivia, 69% en Perú, 68% en Ecuador, 61% en Brasil y 59% en Colombia y Argentina (Kelley y otros, 2015 ). Emprendimiento de mujeres, Global Entrepreneurship Monitor (GEM), 2015. Los datos por país indican que la participación de mujeres empleadoras en la fuerza laboral osciló entre un mínimo de entre 1,7% y 2,3% en Argentina, República Bolivariana de Venezuela, Ecuador y Uruguay. a un máximo de 4,9% en Paraguay. Si bien estos empleadores son un grupo heterogéneo que opera empresas de diferentes tamaños, composición y origen, la gran mayoría de las empresas de mujeres empresarias emplean a menos de cinco trabajadores (OIT, 2014d). Sin embargo, hasta el momento se sabe muy poco sobre ellos.</t>
         </is>
       </c>
-      <c r="B366" t="inlineStr"/>
-      <c r="C366" t="n">
+      <c r="B366" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4471,8 +4101,7 @@
           <t>La medida más urgente consiste en poner en marcha una infraestructura de información integrada que permita decelerar las disfunciones y garantizar la libre circulación de la información entre los prestatarios, los pacientes y las estructuras. Au niveau des cabinets medicaux, la participación de los pacientes a la medida y la notificación de disfonctionnements est essentielle. La reussite des esfuerzos permanentes mis en ceuvre pour ameliorer la securite passe par une culture active de la securite, axee sur l'amelioration colectivo et le travail d'equipe.</t>
         </is>
       </c>
-      <c r="B367" t="inlineStr"/>
-      <c r="C367" t="n">
+      <c r="B367" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4482,8 +4111,7 @@
           <t>La Estrategia Nacional de Desarrollo Sostenible 2013-2020-2030 incluye una gama adicional de actividades que buscan reducir los riesgos ambientales y mejorar la salud y el bienestar. Rumania tiene algunos de los niveles más altos de resistencia a los antimicrobianos en la UE. Los datos de vigilancia muestran que en 2015, el 24,7 % de las infecciones del torrente sanguíneo por Klebsiella pneumoniae eran resistentes a los carbapenémicos, una importante clase de antibióticos de última línea para tratar infecciones bacterianas. Este porcentaje es mucho más alto que la mediana de la UE/EEE (0,5 %) y el tercero más alto de la UE/EEE (ECDC, 2017b).</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr"/>
-      <c r="C368" t="n">
+      <c r="B368" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4493,8 +4121,7 @@
           <t>Las asociaciones deben incluir organismos comunitarios locales, empresas e instituciones culturales, incluidos museos y bibliotecas. Los socios extraídos de la educación superior son fundamentales para ampliar los horizontes de aprendizaje tanto de los estudiantes como del personal y ofrecer experiencia adicional en el proceso constante de desarrollo. Igualmente importantes son las asociaciones con otras escuelas y entornos de aprendizaje a través de redes y aprendizaje profesional.</t>
         </is>
       </c>
-      <c r="B369" t="inlineStr"/>
-      <c r="C369" t="n">
+      <c r="B369" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4504,8 +4131,7 @@
           <t>Las brechas entre hombres y mujeres difieren considerablemente según la raza, la brecha más alta entre hombres y mujeres fue para los estudiantes afroamericanos, con casi un 12,5 % más de mujeres que se graduaron. La siguiente brecha más grande fue entre los estudiantes nativos de Alaska, con casi un 11 % más de mujeres nativas de Alaska que se graduaron que hombres. Los hombres nativos de Alaska tenían la tasa de graduación más baja (47,7 %) de todos los grupos étnicos o de género (Brian Laurent, comunicación personal, 3 de noviembre de 2013).</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr"/>
-      <c r="C370" t="n">
+      <c r="B370" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4515,8 +4141,7 @@
           <t>Existen argumentos sólidos para fortalecer la infraestructura de información de calidad en torno a los hospitales y desarrollar nuevas orientaciones políticas para impulsar la mejora en el resultado de la atención hospitalaria. Planificar la especialización y diferenciación más clara de la función de las camas hospitalarias es un paso fundamental para asegurar un uso adecuado de los recursos hospitalarios y mejorar tanto los resultados como la eficiencia asistencial. Con base en algunos indicadores de la OCDE relacionados con la estimación de supervivencia de cinco años para el cáncer, Japón parece tener un buen desempeño.</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr"/>
-      <c r="C371" t="n">
+      <c r="B371" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4526,8 +4151,7 @@
           <t>No se han identificado casos desde entonces, pero la fuente del brote sigue siendo incierta. En 2000, se informaron 291 casos de hepatitis viral A transmitida por el agua en Uvurkhangai Aimag. En comparación con 2015, se observó una disminución de los casos de sífilis congénita en 2016. De hecho, se registraron 42 casos de sífilis congénita en 2016 (52 casos en 2015), 25 de los cuales se registraron en Ulaanbaatar. Esta disminución en los casos de sífilis congénita se atribuyó a un mejor control del embarazo.</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr"/>
-      <c r="C372" t="n">
+      <c r="B372" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4537,8 +4161,7 @@
           <t>Las correlaciones entre innovación y equidad de oportunidades de aprendizaje son débiles (Figura 18.17). En particular, en toda la distribución de puntajes de innovación hay muchos sistemas educativos con poca equidad en términos de oportunidades de aprendizaje. Esto contrasta notablemente con la medida de igualdad de rendimiento de lectura descrita anteriormente. Sin embargo, los tres sistemas educativos más equitativos en este sentido, Hong Kong, Corea y Singapur, también están por encima del promedio en términos de innovación general.</t>
         </is>
       </c>
-      <c r="B373" t="inlineStr"/>
-      <c r="C373" t="n">
+      <c r="B373" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4548,8 +4171,7 @@
           <t>Las escuelas también están interesadas en mejorar su reputación enviando a la mayor cantidad posible de sus graduados a instituciones prestigiosas. Esto conduce a una miríada de técnicas para mejorar el rendimiento y mantiene a flote una industria de innovadores, productores y proveedores de dispositivos de trampa. Los cursos de tutoría y preparación para exámenes tienen un costo adicional y son proporcionados por un próspero sector privado.</t>
         </is>
       </c>
-      <c r="B374" t="inlineStr"/>
-      <c r="C374" t="n">
+      <c r="B374" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4559,8 +4181,7 @@
           <t>La BWF organiza capacitación especializada para alentar a las mujeres a integrarse en el sector empresarial y desarrollar sus habilidades para dirigir empresas, fortalece la creación de redes entre las empresarias palestinas con sus contrapartes en el extranjero, representa y defiende los intereses de sus miembros ante las autoridades correspondientes y organiza seminarios y talleres sobre diversos temas, como el tratamiento del entorno normativo y legal. La BWF también coopera con el proyecto global BiDNetwork en la realización del proyecto de “competencia de planes de negocios para mujeres empresarias en mercados emergentes” en la Autoridad Palestina. Su papel principal es brindar capacitación a las mujeres palestinas sobre cómo hacer un plan de negocios para que puedan competir. (</t>
         </is>
       </c>
-      <c r="B375" t="inlineStr"/>
-      <c r="C375" t="n">
+      <c r="B375" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4570,8 +4191,7 @@
           <t>Los datos de los Países Bajos se refieren a las diferencias de 2009-08. Para Suiza, las estadísticas se tabulan por sexo del (único) fundador de la empresa en lugar de por sexo del propietario único. Los países están ordenados de izquierda a derecha en orden ascendente de cambio en los nacimientos de empresas propiedad de mujeres. Las políticas para estimular el espíritu empresarial entre las mujeres deben basarse en un análisis exhaustivo de los factores que les impiden o desalientan emprender.</t>
         </is>
       </c>
-      <c r="B376" t="inlineStr"/>
-      <c r="C376" t="n">
+      <c r="B376" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4581,8 +4201,7 @@
           <t>Las escuelas y las autoridades locales (rayons) tienen poca flexibilidad para invertir más en recursos humanos (aumentando la plantilla o los salarios de los profesores) si éstos son más necesarios, o para invertir en recursos físicos (edificios escolares, equipamiento escolar como pizarras inteligentes) si los existentes son insuficientes o están anticuados. En general, los gobiernos locales y regionales tienen muy poca discrecionalidad de gasto, ya que las normas determinan cómo deben asignarse los recursos y las transferencias intergubernamentales tienen un efecto igualador muy limitado. Otro motivo de preocupación es la falta de consulta con las partes interesadas, lo que significa que las estrategias educativas podrían no reflejar plenamente la rica diversidad del país. La cantidad dedicada a la educación escolar, el 2,1% del PIB, es considerablemente inferior a la media de la OCDE, del 3,6%, aunque esta última también engloba los gastos postsecundarios no terciarios.</t>
         </is>
       </c>
-      <c r="B377" t="inlineStr"/>
-      <c r="C377" t="n">
+      <c r="B377" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4592,8 +4211,7 @@
           <t>Las respuestas nacionales a esta escasez, para atraer a los estudiantes a los estudios de ciencia y tecnología después de la educación obligatoria, tendrán beneficios particulares para las políticas de cambio climático. El aprendizaje a lo largo de toda la vida también puede desempeñar un papel importante al proporcionar a los trabajadores de edad avanzada las habilidades básicas clave que pueden carecer y contribuir a mejorar la conciencia ambiental y, por lo tanto, la eficiencia de los recursos y los hábitos de consumo de la población en general. La formación de aprendices y otros tipos de experiencia práctica se consideran particularmente valiosos para aumentar la adaptabilidad de los trabajadores en los mercados laborales cambiantes, con países que operan sistemas duales de educación y formación profesional, como Austria y Alemania, particularmente bien posicionados.</t>
         </is>
       </c>
-      <c r="B378" t="inlineStr"/>
-      <c r="C378" t="n">
+      <c r="B378" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4603,8 +4221,7 @@
           <t>Esfuerzos para mejorar la situación de mujeres y niñas en India (cont.) Por ejemplo, la Ley Nacional de Garantía de Empleo Rural de India (NREGA) tiene como objetivo promover la participación de las mujeres en la fuerza laboral mediante el establecimiento de cuotas explícitas para la participación femenina en el plan, estableciendo salarios iguales para hombres y mujeres, permitiendo que se proporcionen instalaciones para el cuidado de los niños en los lugares de trabajo y exigiendo la provisión de trabajo cerca de los hogares de los participantes (OCDE, 2012a). El programa logró otorgar a las mujeres salarios más altos que en el empleo rural privado (Holmes y Jones, 2011), pero ha sido criticado por los altos costos y la baja eficiencia (Niehaus y Sukhtankar, 2009), la corrupción (Liu y Deininger, 2010) y el falta de guarderías en los lugares de trabajo o cerca de ellos (Bhatty, 2006). Los hombres tienen un 70 % más de probabilidades que las mujeres de tener una cuenta en una institución financiera formal (44 % de los hombres y 26 % de las mujeres mayores de 15 años en 2011 - Demirguc-Kunt y Klapper, 2012).</t>
         </is>
       </c>
-      <c r="B379" t="inlineStr"/>
-      <c r="C379" t="n">
+      <c r="B379" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4614,8 +4231,7 @@
           <t>Las sucursales más pequeñas con tan solo 30 estudiantes brindan educación a estudiantes de primero a tercero o de primero a sexto grado en regiones geográficamente remotas. En las ciudades más grandes, el tamaño de las escuelas supera los 1 000 alumnos. La educación obligatoria para alumnos de entre 6 y 15 años se ofrece en las denominadas escuelas básicas y se organiza como una estructura única (sin distinción entre primaria y secundaria inferior). Actualmente, las escuelas eslovenas deben emplear una gran cantidad de personal de apoyo profesional, como parte del personal total, y retenerlos independientemente del tamaño de la escuela, lo que hace que el sistema sea muy costoso.</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr"/>
-      <c r="C380" t="n">
+      <c r="B380" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4625,8 +4241,7 @@
           <t>Las tasas de uso para las personas de 65 a 74 años con educación terciaria generalmente están en línea con las de la población general, y en algunos países se acercan a las tasas de uso entre las personas de 16 a 24 años. La diferencia de uso entre las personas de 65 a 74 años con un nivel educativo alto y bajo es particularmente grande en Hungría, Polonia y España (OCDE, 2014). Mientras que los usuarios con educación terciaria realizan en promedio 7,3 actividades diferentes, aquellos con educación secundaria inferior e inferior realizan solo 4,6 actividades.</t>
         </is>
       </c>
-      <c r="B381" t="inlineStr"/>
-      <c r="C381" t="n">
+      <c r="B381" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4636,8 +4251,7 @@
           <t>Las tendencias en estas variables entre 2003 y 2012 se examinan cuando hay datos comparables disponibles, y los estudios de casos, que examinan las reformas políticas adoptadas por los países que han mejorado en PISA, se destacan a lo largo del volumen. Proporciona la justificación para evaluar las habilidades de resolución de problemas y describe el desempeño dentro y entre países. Además, el volumen destaca las fortalezas y debilidades relativas de cada sistema escolar y examina cómo se relacionan con las características individuales de los estudiantes, como el género, el origen inmigrante y el estatus socioeconómico.</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr"/>
-      <c r="C382" t="n">
+      <c r="B382" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4647,8 +4261,7 @@
           <t>Ante la posibilidad de que su matrimonio pudiera terminar en divorcio, las mujeres buscaron obtener un empleo remunerado que les permitiera ser independientes en caso de ruptura de su unión marital (Hassani y Sjogren, 2014). Ordena a los Estados Partes que garanticen, sobre la base de la igualdad entre hombres y mujeres, “los mismos derechos y responsabilidades que los padres, independientemente de su estado civil, en asuntos relacionados con sus hijos” (16.1(d)) y “ “los mismos derechos y responsabilidades con respecto a la tutela, tutela, tutela y adopción de niños, o instituciones análogas cuando estos conceptos existan en la legislación nacional” (16.1(f)), agregando en ambas cláusulas que “en todos los casos los intereses de los hijos serán primordiales”. El marido es, en general, el tutor legal de sus hijos menores durante el matrimonio y en caso de disolución del mismo. La madre puede conservar la custodia de sus hijos hasta que alcancen cierta edad pero, según el país, tendrá que ceder al padre todas o la mayoría de las decisiones bajo el principio de tutela.</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr"/>
-      <c r="C383" t="n">
+      <c r="B383" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4658,8 +4271,7 @@
           <t>En una encuesta realizada por la OMS en 2000-11, Suhrcke et al. ( Luego sigue una discusión sobre la satisfacción del paciente, que proporciona información sobre otra dimensión de la calidad. Las características de una buena atención clínica del cáncer están bien establecidas y, si se siguen las pautas clínicas basadas en la evidencia, se estima que un tercio de los casos podría curarse con la atención oportuna. detección y tratamiento adecuado (OCDE, 2015).Como tal, los resultados del tratamiento del cáncer pueden servir como una medida de la calidad de los sistemas de salud.</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr"/>
-      <c r="C384" t="n">
+      <c r="B384" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4669,8 +4281,7 @@
           <t xml:space="preserve">Los actuales profesores del programa ITE, que han tenido éxito, recomiendan aún más apoyo y formación continua para los antiguos alumnos (ahora profesores), ya que a muchos licenciados les resulta demasiado difícil influir en las estructuras y prácticas desiguales relacionadas con la diversidad y las normas interculturales en sus escuelas. Otras formas de mejorar son la creación de un alumnado más diverso dentro del programa de ITE (ya que la mayoría de los estudiantes son finlandeses nativos) y la defensa de los contenidos de ITE en la formación general del profesorado en la Universidad de Oulu (Alasuutari y Jokikokko, 2010[i62i). De lo contrario, las cohortes anteriores podrían aferrarse a enfoques diferentes y, lo que es crucial, los profesores nuevos y actuales podrían no adaptarse a un entorno en continuo cambio (Van Driel, Darmody y Kerzil, 2016, p. 71(i67j)). Los programas de desarrollo profesional continuo incluyen el apoyo a los estudiantes de magisterio en la transición al cuerpo docente, así como la provisión de oportunidades para practicar y conocer nuevas estrategias para gestionar la diversidad una vez que están en la profesión. </t>
         </is>
       </c>
-      <c r="B385" t="inlineStr"/>
-      <c r="C385" t="n">
+      <c r="B385" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4680,8 +4291,7 @@
           <t>Rebecca Kadaga, primera mujer presidenta del parlamento de Uganda, también está de acuerdo en que es necesario centrarse más allá de aumentar el número de mujeres en el gobierno para aumentar su eficacia en los cargos políticos y su impacto en la toma de decisiones en todos los niveles. Las siguientes son algunas estrategias que han resultado exitosas para aumentar la representación de las mujeres en la toma de decisiones en todo el Commonwealth. Respaldo de los partidos políticos - Después de estudiar los procesos políticos en los países seleccionados, el ascenso incremental de las mujeres en estos países puede atribuirse directamente a los partidos políticos, especialmente al partido gobernante, que tomaron una decisión firme de institucionalizar mecanismos favorables al acceso de las mujeres al poder. y posiciones de autoridad en las estructuras del partido y de gobierno en todos los niveles de toma de decisiones.</t>
         </is>
       </c>
-      <c r="B386" t="inlineStr"/>
-      <c r="C386" t="n">
+      <c r="B386" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4691,8 +4301,7 @@
           <t>En Mauricio, por ejemplo, que cuenta con un plan de pensión social universal desde 1958, la pensión básica de jubilación asciende a alrededor de $118 por mes, equivalente a unas cinco veces la línea de pobreza. En la medida en que las mujeres dependen más que los hombres de las prestaciones no contributivas, la adecuación de estas prestaciones es motivo de gran preocupación desde una perspectiva de igualdad de género. La combinación de pensiones de vejez contributivas y no contributivas puede ser una forma efectiva de avanzar hacia pisos de protección social nacionales.</t>
         </is>
       </c>
-      <c r="B387" t="inlineStr"/>
-      <c r="C387" t="n">
+      <c r="B387" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4702,8 +4311,7 @@
           <t>La Reforma del Presupuesto Federal y el principio de orientación a los resultados se consideran una gran oportunidad para la elaboración de presupuestos con perspectiva de género y para promover políticas de igualdad de género en Austria. Su objetivo es utilizar los fondos existentes de manera equitativa para lograr la igualdad efectiva de mujeres y hombres dentro del presupuesto nacional. La base clave para la gestión presupuestaria sensible al género en todas las autoridades públicas se encuentra en la Constitución Federal de Austria: "La Federación, los Laender y los municipios deben aspirar a la igualdad de condiciones de mujeres y hombres en la gestión presupuestaria".</t>
         </is>
       </c>
-      <c r="B388" t="inlineStr"/>
-      <c r="C388" t="n">
+      <c r="B388" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4713,8 +4321,7 @@
           <t>Los alumnos noruegos de quinto grado, que fue la población principal en 2015, obtuvieron una puntuación media de 549, superior a la de Finlandia y Dinamarca. Nuevamente, los puntajes noruegos son significativamente más bajos, principalmente debido a su menor edad. Con el cambio de la población principal al grado 5, la puntuación noruega en ciencias fue de 538, ligeramente por debajo de la puntuación sueca de 540. En 2015, los estudiantes noruegos de noveno grado obtuvieron una puntuación media de 512 en matemáticas y una puntuación media de 509 en ciencias. Estos estudiantes tienen la misma edad que los estudiantes suecos de octavo grado. Como se muestra en las Figuras 5-7, todos los países nórdicos excepto Finlandia han tenido resultados con variaciones bastante pequeñas alrededor del promedio de la OCDE durante todo el período.</t>
         </is>
       </c>
-      <c r="B389" t="inlineStr"/>
-      <c r="C389" t="n">
+      <c r="B389" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4724,8 +4331,7 @@
           <t>Dentro del contexto más amplio de ese proyecto, se ha desarrollado el modelo de microsimulación de Prevención de Enfermedades Crónicas (CDP). El modelo epidemiológico CDP es capaz de simular la dinámica poblacional de factores de riesgo orientados al estilo de vida para enfermedades crónicas seleccionadas. Ni el impacto en la salud de realizar dos intervenciones juntas ni los costos de su producción conjunta son necesariamente aditivos.</t>
         </is>
       </c>
-      <c r="B390" t="inlineStr"/>
-      <c r="C390" t="n">
+      <c r="B390" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4735,8 +4341,7 @@
           <t>Una de las mujeres, de 24 años, que era de Bishkek, contó una historia en su entrevista sobre cómo fue acosada por hombres kirguises, a quienes no conocía, cuando viajaba en un taxi no registrado con un conductor uzbeko, además, ella contó otra historia sobre su compañera de trabajo kirguisa que era camarera en un café: su compañera de trabajo había sido perseguida por hombres kirguises porque tenía una relación romántica con un cocinero uzbeko. La mujer reflexionó sobre la influencia que estos episodios tuvieron en sus elecciones, dijo que ahora no consideraría tener ninguna relación con un hombre no kirguís -aunque le gustaría- por temor al acoso de grupos como los "Patriots de Kirguistán". También es probable que el lugar de trabajo haga que tanto las mujeres como los hombres migrantes tengan conexiones mixtas, mientras que las actividades de ocio y el alojamiento son entornos en los que es más probable que las mujeres se familiaricen con nuevas personas de países distintos a su país de origen.</t>
         </is>
       </c>
-      <c r="B391" t="inlineStr"/>
-      <c r="C391" t="n">
+      <c r="B391" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4746,8 +4351,7 @@
           <t>La calidad no se ha dejado de lado, como lo demuestra un marco de gestión del desempeño recientemente introducido para los médicos de atención primaria. Pronto seguirá un sistema similar para los hospitales. Los grupos de pacientes informan que están bien involucrados en la formulación de políticas y se han acordado varios memorandos de cooperación intersectoriales, incluso con la industria, sobre temas clave de salud pública. La educación médica también es excelente, y las facultades de medicina de Letonia han mantenido su reputación entre las mejores del mundo exsoviético.</t>
         </is>
       </c>
-      <c r="B392" t="inlineStr"/>
-      <c r="C392" t="n">
+      <c r="B392" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4757,8 +4361,7 @@
           <t>Además, los elementos de la intervención del mercado de mujeres deben diseñarse en torno a las barreras clave para atenuar su efecto sobre el acceso financiero, teniendo en cuenta las fortalezas, la dirección estratégica y el mandato de la institución financiera. En una encuesta global, de los 17 países de la Commonwealth cubiertos (que incorporó las respuestas de 57 bancos), se requirieron más de 3 documentos en más del 70 por ciento de los países (CGAP y Banco Mundial 2009). Los requisitos de documentación suelen ser una combinación de prueba de identidad y prueba de dirección residencial. Los bancos de Camerún, Sierra Leona, Uganda y Zambia exigen al menos cuatro formas diferentes de documentación -incluyendo documento de identidad y pasaporte, carta de recomendación, recibo de sueldo y prueba de domicilio- como requisito previo para abrir una cuenta corriente, el primer punto de entrada a acceder a los servicios bancarios formales.</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr"/>
-      <c r="C393" t="n">
+      <c r="B393" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4768,8 +4371,7 @@
           <t>Aunque la atención de la salud pública en principio ofrece servicios básicos de atención de la salud gratuitos para todos, los sistemas de salud de la mayoría de los estados sufren de gastos insuficientes y deficiencias en la gestión, lo que deja a muchos con una atención insuficiente. Como resultado, la mayoría de las personas recurren a proveedores privados de atención médica, que varían dramáticamente en calidad y, por supuesto, cobran por sus servicios. Los esfuerzos de salud pública en las últimas décadas han contribuido a estas mejoras, como lo demostró recientemente la reciente erradicación de la poliomielitis después de una ambiciosa campaña de inmunización. Sin embargo, la esperanza de vida sigue estando por debajo de la mayoría de los países grandes de ingresos medios y los resultados de salud están fuertemente influenciados por factores socioeconómicos, género, educación y geografía (Balarajan et al.,</t>
         </is>
       </c>
-      <c r="B394" t="inlineStr"/>
-      <c r="C394" t="n">
+      <c r="B394" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4779,8 +4381,7 @@
           <t>En los Países Bajos, los servicios de hospitalización también son gratuitos una vez que se alcanza el deducible general anual. Cuando se trata como un paciente privado en un hospital público o privado, Medicare cubre una proporción reducida de los costos y el costo restante a menudo lo paga un seguro de salud privado o de su propio bolsillo. En 2011-2012, los pacientes públicos representaron el 51 % de los ingresos hospitalarios y los pacientes cubiertos por seguros de salud privados el 39 %4 (Instituto Australiano de Salud y Bienestar, 2013).</t>
         </is>
       </c>
-      <c r="B395" t="inlineStr"/>
-      <c r="C395" t="n">
+      <c r="B395" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4790,8 +4391,7 @@
           <t>La CCSS estableció recientemente un programa de monitoreo de calidad en atención primaria (ver Sección 1), con planes para desarrollar un programa similar para hospitales. No se sabe lo suficiente sobre la calidad y los resultados de la atención en Costa Rica. Aunque algunas iniciativas importantes están en marcha, como el marco de monitoreo del desempeño de la atención primaria, la calidad no emerge como la idea rectora dominante dentro de la atención de salud costarricense. Todavía se piensa en la “calidad” en términos limitados (típicamente, tiempos de espera), lo que significa que persisten brechas importantes en la infraestructura de información del sistema de salud. Aunque existe un observatorio nacional del cáncer, por ejemplo, las autoridades no pudieron producir datos sobre el estadio del cáncer en el momento del diagnóstico (vital para comprender la eficacia de los programas de detección y prevención) cuando se les solicitó.</t>
         </is>
       </c>
-      <c r="B396" t="inlineStr"/>
-      <c r="C396" t="n">
+      <c r="B396" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4801,8 +4401,7 @@
           <t>Hubo reducciones de 69% y 75% en la tasa de mortalidad por diabetes, y disminuciones de 72% y 75% por enfermedad renal. Además de mejores resultados de salud, el estudio también demuestra la rentabilidad de fortalecer la atención primaria de salud (Zhao et al., En algunas áreas, un bajo volumen de pacientes hace inviable un hospital o un especialista. Estos también son lugares que no son percibidos por los profesionales de la salud como atractivos para vivir.</t>
         </is>
       </c>
-      <c r="B397" t="inlineStr"/>
-      <c r="C397" t="n">
+      <c r="B397" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4812,8 +4411,7 @@
           <t xml:space="preserve">Los centros de educación básica alternativa (EBA) ofrecen tres años con un plan de estudios alternativo en sustitución de los cuatro años que dura el primer ciclo ordinario de primaria. El nivel secundario consta de dos ciclos de dos aÃ±os cada uno: 9Â "10 y 11-12. Los que completan diez aÃ±os de escolaridad pueden acceder al segundo ciclo para prepararse para la enseÃ±anza superior, o ingresar en centros de EFTP para recibir formaciÃ³n para un empleo productivo (vÃ©ase la figura 8.1). </t>
         </is>
       </c>
-      <c r="B398" t="inlineStr"/>
-      <c r="C398" t="n">
+      <c r="B398" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4823,8 +4421,7 @@
           <t>Los coeficientes presentados en la figura proceden de regresiones separadas que incluyen controles por edad, sexo, nivel de educación y nivel de educación de los padres. Las barras rayadas indican coeficientes que no son estadísticamente significativos (al nivel del 10%). Los coeficientes se estiman a partir de un modelo de probabilidad lineal de una variable ficticia de sobrecualificación basada en la medida normativa del desajuste.</t>
         </is>
       </c>
-      <c r="B399" t="inlineStr"/>
-      <c r="C399" t="n">
+      <c r="B399" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4834,8 +4431,7 @@
           <t>Sin embargo, los compromisos para promover la cohesión de las familias no pueden verse aislados de dos elementos críticos de los ODS: la realización de los derechos humanos de todos y el logro de la igualdad de género y el empoderamiento de todas las mujeres y niñas (Agenda 2030, preámbulo).9 En De hecho, bajo los ODS, los Estados se comprometen explícitamente a garantizar el acceso universal a la planificación familiar (ODS 3.7) y la promoción de la responsabilidad compartida dentro de la familia (ODS 5.4). El impacto de las enfermedades se siente particularmente en los países africanos. Véase, por ejemplo, Mokomane 2012 y UNDG Western and Central Africa 2015.</t>
         </is>
       </c>
-      <c r="B400" t="inlineStr"/>
-      <c r="C400" t="n">
+      <c r="B400" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4845,8 +4441,7 @@
           <t>La propagación del VIH/SIDA invierte ese proceso a medida que las organizaciones experimentan trastornos y la disminución de los ingresos socava los logros obtenidos anteriormente mediante la especialización y la división del trabajo. La caída potencial de los ingresos de la persona derivada de los gastos relacionados con el VIH/SIDA puede provocar una disminución de los ahorros y una reorganización de los patrones de consumo. A menudo, los hogares se ven obligados a redirigir fondos de la educación, la atención médica general para los miembros de la familia no infectados e incluso alimentos, hacia el tratamiento y la atención de las personas que viven con el VIH/SIDA (PVVS).</t>
         </is>
       </c>
-      <c r="B401" t="inlineStr"/>
-      <c r="C401" t="n">
+      <c r="B401" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4856,8 +4451,7 @@
           <t>Sin embargo, el nivel de violencia varía mucho entre países y dentro de ellos. La revisión se refirió a los niveles de violencia perpetrados por parejas íntimas que afectan, según los datos, a las mujeres que van desde el 68 por ciento en Kiribati hasta el 6 por ciento de las mujeres en Canadá. También revisará los datos disponibles sobre niñas de 15 a 19 años que reportan sexo forzado antes de cumplir los 18, y las experiencias de niñas casadas o que viven en pareja que enfrentan violencia emocional, física o sexual cometida por una pareja íntima durante los últimos 12 meses.</t>
         </is>
       </c>
-      <c r="B402" t="inlineStr"/>
-      <c r="C402" t="n">
+      <c r="B402" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4867,8 +4461,7 @@
           <t>Quienes participan en el trabajo de cuidado remunerado â€”por ejemplo, trabajadoras del hogar remuneradas, enfermeras, educadoras y cuidadorasâ€” enfrentan condiciones de trabajo mÃ¡s precarias, con menor o nulo acceso a la seguridad y protecciÃ³n social, salarios mÃ¡s bajos y mayor probabilidad de caer en pobreza que quienes participan en otros sectores de la economía (CEPAL, 2013a y 2016b). Sin embargo, las mujeres siguen sin ser reconocidas ni remuneradas a un nivel económico, político y social más amplio, y esta situación también tiene consecuencias para el bienestar de los hogares y la persistencia de la pobreza (CEPAL, 2013a). Las mujeres asumen el costo personal de una función social que es crucial para garantizar la reproducción de las sociedades, e incluso la sostenibilidad de las políticas públicas, en particular las políticas sociales.</t>
         </is>
       </c>
-      <c r="B403" t="inlineStr"/>
-      <c r="C403" t="n">
+      <c r="B403" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4878,8 +4471,7 @@
           <t>Esto requiere esfuerzos para impulsar estrategias económicas de base para empoderar a las mujeres solas o en unidades familiares, la introducción y el apoyo de programas de microcrédito para mujeres, la promoción de los derechos laborales, territoriales y de propiedad de las mujeres, incluso a través de la reforma legal, y la integración de las mujeres en la transformación y gestión de las instituciones de seguridad de posguerra. Cerramos con algunas recomendaciones para los actores estatales y locales internacionales, incluidas las Naciones Unidas, las organizaciones regionales y los donantes bilaterales, pero también los gobiernos nacionales, las organizaciones de la sociedad civil y las comunidades de investigación nacionales e internacionales. Las mujeres son retratadas en toda su complejidad: no simplemente como víctimas indefensas o inocentes, sino como víctimas y agentes activos del cambio. Las reflexiones de diferentes partes del mundo llaman nuestra atención sobre las diferentes dinámicas de participación que se desarrollan en varios escenarios locales, nacionales e internacionales.</t>
         </is>
       </c>
-      <c r="B404" t="inlineStr"/>
-      <c r="C404" t="n">
+      <c r="B404" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4889,8 +4481,7 @@
           <t>De hecho, tanto en economías desarrolladas como en vías de desarrollo: "Las mujeres todavía tienen que alcanzar la igualdad con los hombres en medidas tales como logros educativos, salarios, empoderamiento político y participación económica". (Ernst &amp; Young, 2009, p.6) Las mujeres también están rezagadas ligeramente por detrás de los hombres en los resultados de salud (Foro Económico Mundial, 2015) Cada año, el Foro Económico Mundial (WEF) produce el Índice, que mide la brecha relativa entre hombres y mujeres en cuatro áreas clave o subíndices: salud, educación , economía y política, y realiza un seguimiento de su progreso a lo largo del tiempo.</t>
         </is>
       </c>
-      <c r="B405" t="inlineStr"/>
-      <c r="C405" t="n">
+      <c r="B405" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4900,8 +4491,7 @@
           <t xml:space="preserve">Los cursos no financiados con tasas no reguladas (y mucho más elevadas) han crecido en número, aunque siguen representando sólo una parte relativamente pequeña de la educación terciaria. Entre 1995 y 2006, el aumento porcentual del número de estudiantes en todos los niveles fue muy superior a la media de la OCDE (Figura 1, Panel A). Además, la proporción de estudiantes matriculados en todos los niveles educativos en relación con la población total es muy alta en comparación con la mayoría de los países de la OCDE (Figura 1, Panel B). </t>
         </is>
       </c>
-      <c r="B406" t="inlineStr"/>
-      <c r="C406" t="n">
+      <c r="B406" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4911,8 +4501,7 @@
           <t>Los datos de este estudio de caso indican que la mitad de los municipios estaban luchando con la implementación de AfL, a pesar de todo el trabajo y esfuerzo para asegurar el éxito. Los actores de la gobernanza y los líderes escolares requieren capacitación y apoyo en la adquisición de conocimientos de investigación para desarrollar una mayor competencia en esta área y permitirles facilitar el cambio. Necesitan conocimientos sobre el contenido del proceso de cambio, sobre lo que funciona y cuáles son los supuestos teóricos que subyacen al nuevo paradigma de enseñanza.</t>
         </is>
       </c>
-      <c r="B407" t="inlineStr"/>
-      <c r="C407" t="n">
+      <c r="B407" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4922,8 +4511,7 @@
           <t>Dada la infraestructura de datos más integrada y completa en los hospitales, la seguridad en ese entorno se considera potencialmente más atractiva para los investigadores. A pesar de estas dificultades, una serie de estudios muy innovadores han examinado la seguridad en la atención primaria y ambulatoria. Pero la falta de datos consistentes y una variedad de métodos utilizados para medir el daño han arrojado resultados muy variados. Las revisiones sistemáticas sugieren que las fallas de seguridad ocurren entre 1 y 24 veces en cada 100 consultas de atención primaria/ambulatoria. La hann más comúnmente proviene de errores de diagnóstico (y retrasos posteriores en el tratamiento o la terapia) y eventos adversos de medicamentos (ADE).</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr"/>
-      <c r="C408" t="n">
+      <c r="B408" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4933,8 +4521,7 @@
           <t>Una excelente atención médica será fundamental para lograrlo. Hasta ahora, la atención médica japonesa ha tenido un buen desempeño: la esperanza de vida es larga, 83,2 años en comparación con un promedio de la OCDE de 80,2 años, mientras que el gasto en salud es de USD 3 649 PPA per cápita por año, ligeramente superior a USD 3 484 en promedio. . Una característica llamativa del sistema de salud japonés es su apertura y flexibilidad.</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr"/>
-      <c r="C409" t="n">
+      <c r="B409" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4944,8 +4531,7 @@
           <t xml:space="preserve">Los días 9 y 10 de abril de 2018 tuvo lugar en Estocolmo una misión exploratoria que incluyó reuniones con funcionarios del Ministerio de Educación e Investigación, la Agencia Nacional de Educación y representantes de instituciones de formación del profesorado, municipios, escuelas independientes, sindicatos de profesores y directores, así como investigadores (anexo A). En cada sección se describen las políticas actuales, se analiza la situación y se ofrecen a Suecia ejemplos prometedores de países homólogos en varios niveles políticos: el aula, la escuela (o la universidad en algunos casos), el municipio, la región y el sistema. Con ello se pretende subrayar la responsabilidad compartida a todos los niveles del sistema educativo en la integración de los alumnos inmigrantes y refugiados. Por último, se ofrecen sugerencias políticas para orientar a Suecia sobre la mejor manera de responder a los actuales retos de integración en estos cuatro ámbitos. </t>
         </is>
       </c>
-      <c r="B410" t="inlineStr"/>
-      <c r="C410" t="n">
+      <c r="B410" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4955,8 +4541,7 @@
           <t>Por ejemplo, en la República Eslovaca y España, los pacientes deben pagar ciertos productos farmacéuticos innovadores que se proporcionan de forma gratuita en los demás países. En Canadá, los pacientes deben pagar los productos farmacéuticos utilizados para tratar enfermedades o afecciones distintas del cáncer (para pacientes con cáncer menores de 65 años), los que se utilizan fuera de los hospitales en Dinamarca y Suecia, y los que se utilizan en el sector privado en Portugal. En Dinamarca y Suecia, también existen límites máximos de pago (en el primero, para pacientes con enfermedades crónicas con uso permanente o alto de medicamentos), más allá de los cuales los medicamentos se proporcionan de forma gratuita.</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr"/>
-      <c r="C411" t="n">
+      <c r="B411" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4966,8 +4551,7 @@
           <t>Los directores de escuela también recibieron un cuestionario de 30 minutos que cubría el sistema escolar y el entorno de aprendizaje. En algunos países y economías, se distribuyeron cuestionarios opcionales a los padres, a quienes se les pidió que proporcionaran información sobre sus percepciones y participación en la escuela de sus hijos, su apoyo para el aprendizaje en el hogar y las expectativas profesionales de sus hijos, particularmente en matemáticas. Los países podrían elegir otros dos cuestionarios opcionales para los estudiantes: uno preguntaba a los estudiantes sobre su familiaridad con las tecnologías de la información y la comunicación y su uso, y el segundo buscaba información sobre su educación hasta la fecha, incluidas las interrupciones en su educación y si se están preparando para la educación y cómo lo están haciendo. una futura carrera.</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr"/>
-      <c r="C412" t="n">
+      <c r="B412" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4977,8 +4561,7 @@
           <t>En datos no tabulados, casi el 78 % pensó que “las perspectivas de las mujeres académicas mejorarán en los próximos 5 a 10 años” y una gran mayoría (80 %) pensó que las políticas que son buenas para las mujeres también son buenas para promover la excelencia. dentro de la educación superior en su conjunto. Sin embargo, también deben tenerse en cuenta los derechos de los hombres y las minorías. ¿Está comenzando a operar la legislación de una manera que hace que los hombres se sientan en desventaja?</t>
         </is>
       </c>
-      <c r="B413" t="inlineStr"/>
-      <c r="C413" t="n">
+      <c r="B413" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4988,8 +4571,7 @@
           <t>Usadas longitudinalmente, las escalas HoNOS deberían poder medir los resultados de los pacientes a lo largo del tiempo. En 2002, el Departamento de Salud encontró que 61 fideicomisos estaban usando HoNOS en sus servicios, con 5 implementando el uso de HoNOS en todo el servicio, los informes más recientes sugieren que el 21% de los registros del Conjunto Mínimo de Datos de Salud Mental incluyen informes de HoNOS (The Centro de Información Sanitaria y Social, 2011). La herramienta HoNOS también ha formado la base de la Herramienta de Clúster de Salud Mental, que será el mecanismo de evaluación para el Pago por Resultados (PbR) en salud mental (ver sección 5.2).</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="n">
+      <c r="B414" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4999,8 +4581,7 @@
           <t>Bélgica e Italia tienen cuotas para que las empresas que cotizan en bolsa alcancen un 33 % de mujeres en los directorios; este podría ser un factor que impulse el aumento. Suecia, por otro lado, tiene una regla voluntaria en su Código de Gobierno Corporativo "la distribución equitativa entre los sexos será el objetivo". Las mujeres ocuparon una media del 20,6 % de los escaños en las cámaras bajas o únicas del parlamento en 2002, el 27,5 % en 2013 y el 28,7 % en 2016. Si bien la representación de las mujeres en las cámaras bajas o únicas del parlamento ha aumentado en algunos países de la OCDE, como Reino Unido, México, Portugal y España- ha sufrido retrocesos en países como Finlandia, Grecia y Dinamarca (UIP, 2016).</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr"/>
-      <c r="C415" t="n">
+      <c r="B415" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5010,8 +4591,7 @@
           <t>Los docentes desempeñan un papel importante en la vida de los jóvenes de todo el mundo. Los maestros son vitales para el desarrollo de las habilidades de los estudiantes, la preparación de los estudiantes para el empleo futuro y la participación activa en la comunidad. El gobierno debe hacer mayores esfuerzos para apoyar y desarrollar la profesión docente, así como para promover la docencia como una carrera profesional atractiva.</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr"/>
-      <c r="C416" t="n">
+      <c r="B416" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5021,8 +4601,7 @@
           <t>Sin embargo, la brecha en la participación laboral entre mujeres pobres y no pobres cambió poco entre el inicio y el final de la primera década de los 2000. Dado que las desigualdades socioeconómicas y de género están estrechamente vinculadas, la reducción de cualquier tipo de desigualdad requiere abordar la conciliación de la vida laboral y familiar a través de políticas públicas. Además, no todas las políticas pueden promover la igualdad socioeconómica y de género simultáneamente.</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr"/>
-      <c r="C417" t="n">
+      <c r="B417" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5032,8 +4611,7 @@
           <t>Los docentes necesitan apoyo para participar activamente en esta transformación y exigen altos estándares de todos los estudiantes, teniendo en cuenta la creciente diversidad en sus aulas. En la mayoría de los países, los docentes reciben formación previa al servicio, seguida de un proceso de selección, y la formación continua posterior se proporciona principalmente a través de cursos y talleres. Nueva evidencia muestra que la proporción de maestros certificados y la mayoría de las formas de desarrollo profesional tienen un impacto débil en el desempeño de los estudiantes. Así, muchas reformas apuntan a mejorar la calidad de la formación docente, hacer más exigentes los procedimientos de selección, desarrollar nuevas formas de desarrollo profesional y elevar los estándares curriculares.</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr"/>
-      <c r="C418" t="n">
+      <c r="B418" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5043,8 +4621,7 @@
           <t>Los docentes pueden optar por alinear su enseñanza con los conocimientos y habilidades evaluados en la prueba estandarizada, descuidando así otras áreas del currículo que no van a ser evaluadas. Los problemas con la enseñanza para la prueba son dos. Primero, al enfatizar las habilidades para tomar exámenes y concentrarse en el contenido evaluado, los puntajes se inflarán sin reflejar un aumento en la comprensión de los conceptos por parte de los estudiantes (Hamilton y Stecher, 2002, Hout y Elliott, 2011).</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr"/>
-      <c r="C419" t="n">
+      <c r="B419" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5054,8 +4631,7 @@
           <t>Los docentes son actores clave en la creación de este contexto para el aprendizaje y el crecimiento y pueden ayudar a establecer entornos de aprendizaje efectivos. A medida que avanzamos hacia el futuro, se necesitarán nuevas formas de provisión educativa que reconozcan el papel esencial que desempeñan los docentes en la transformación de las aulas y que los apoyen en su esfuerzo. Este capítulo explora las implicaciones de la transformación digital en los sistemas educativos y explica cómo los docentes y los responsables políticos pueden trabajar juntos para aprovechar su potencial.</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr"/>
-      <c r="C420" t="n">
+      <c r="B420" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5065,8 +4641,7 @@
           <t>Los docentes tienen la capacidad de influir en cada una de estas capas, por lo que diseñar la pedagogía se convierte en una tarea más compleja, pero potencialmente más gratificante. Esto es de vital importancia para que podamos evaluar y evaluar las pedagogías desde una posición auténtica, en lugar de pretender que todas las pedagogías apuntan a los mismos objetivos. El relato anterior también estableció que tanto las pedagogías centradas en la disciplina como las centradas en el estudiante son fundamentales para lograr los propósitos de la educación: el estudio de cómo se desarrolla la pericia y de la “carga cognitiva” destaca que la enseñanza explícita de conocimientos y habilidades es un aspecto vital. parte de la educación.</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr"/>
-      <c r="C421" t="n">
+      <c r="B421" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5076,8 +4651,7 @@
           <t>Los documentos de políticas nacionales (como las directrices curriculares nacionales tanto para la EAPI como para la escuela primaria) o el seguimiento de las transiciones como parte de las inspecciones pueden respaldar la calidad de las prácticas de transición y garantizar que la calidad sea más uniforme en diferentes entornos o escuelas. Las encuestas a los padres son la herramienta más común, seguidas de los métodos de seguimiento de los niños (por ejemplo, carpetas, informes de desarrollo infantil o evaluaciones del desarrollo).</t>
         </is>
       </c>
-      <c r="B422" t="inlineStr"/>
-      <c r="C422" t="n">
+      <c r="B422" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5087,8 +4661,7 @@
           <t>Las conclusiones del Informe Mundial sobre las Drogas de este año dejan claro que la comunidad internacional debe intensificar sus respuestas para hacer frente a estos desafíos. La crisis de los opiáceos en América del Norte está recibiendo atención con razón, y la comunidad internacional ha tomado medidas. En marzo de 2018, la Comisión de Estupefacientes programó seis análogos de fentanilo, incluido el carfentanilo, que están contribuyendo al número de muertos. Esto se basa en la decisión de la Comisión en su 60.º período de sesiones, en 2017, de someter a fiscalización internacional dos precursores químicos utilizados en la fabricación de fentanilo y un análogo.</t>
         </is>
       </c>
-      <c r="B423" t="inlineStr"/>
-      <c r="C423" t="n">
+      <c r="B423" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5098,8 +4671,7 @@
           <t>Los entornos de aprendizaje deficientes también pueden generar resultados negativos en la primera infancia (ver Cuadro 3.1). Además, un comienzo desfavorable puede tener un impacto duradero en el futuro. Los niños que no reciben una adecuada atención y cuidado educativo desde temprana edad tienen un mayor riesgo de repetición de curso, incompleto de un título escolar, desempleo y bajos salarios (Barnett, 1995, Heckman, 1999, Leseman, 2002).</t>
         </is>
       </c>
-      <c r="B424" t="inlineStr"/>
-      <c r="C424" t="n">
+      <c r="B424" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5109,8 +4681,7 @@
           <t>Sin embargo, muchas mujeres pueden cambiar a un trabajo a tiempo parcial o reducir sus horas una vez que reanudan el trabajo si quieren pasar tiempo con sus hijos o enfrentar limitaciones en el cuidado de los niños. Por lo tanto, es probable que el promedio de horas de trabajo de las mujeres caiga por debajo del de los hombres incluso después de la introducción o extensión de la licencia relacionada con el parto. Las políticas de licencia también pueden tener consecuencias a más largo plazo para las tasas totales de empleo de las mujeres porque las actitudes normativas hacia el empleo femenino cambian en consecuencia.</t>
         </is>
       </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="n">
+      <c r="B425" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5120,8 +4691,7 @@
           <t>Los estudiantes de hoy solo podrán hacer frente a la revolución tecnológica y digital en curso si los sistemas educativos mejoran su calidad, lo que conduce a un mejor desempeño de los estudiantes, resultados equitativos y la adquisición de nuevos conjuntos de habilidades y mayor conocimiento. Lo más importante es qué y cómo enseñan y durante cuánto tiempo, cómo motivan a los estudiantes y cómo exigen altos estándares a todos los estudiantes, teniendo en cuenta sus diferencias. Esto requiere actualizar continuamente el conocimiento que se está generando, integrando tecnologías digitales, incorporando habilidades horizontales y socioemocionales, y fomentando el trabajo en equipo, el pensamiento crítico y la resolución de problemas complejos.</t>
         </is>
       </c>
-      <c r="B426" t="inlineStr"/>
-      <c r="C426" t="n">
+      <c r="B426" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5131,8 +4701,7 @@
           <t>Estos incluyen el aumento de la edad para contraer matrimonio, un mayor reconocimiento social y legal de una diversidad de formas de pareja, descensos en las tasas de natalidad a medida que las mujeres pueden elegir mejor si quieren tener hijos, cuándo y cuántos, y una mayor autonomía económica de las mujeres. Estas transformaciones son tanto causas como consecuencias de cambios demográficos a gran escala, cambios drásticos en el acceso de mujeres y niñas a la educación y el empleo, cambios normativos y de ideas y reformas legales, a menudo impulsadas e inspiradas por el activismo de las mujeres. Los esfuerzos concertados para hacer retroceder los logros de muchas décadas de trabajo por la igualdad de género, por parte de aquellos que niegan a las mujeres el derecho a tomar sus propias decisiones, se han envuelto recientemente en la retórica de los "valores familiares".</t>
         </is>
       </c>
-      <c r="B427" t="inlineStr"/>
-      <c r="C427" t="n">
+      <c r="B427" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5142,8 +4711,7 @@
           <t>Los estudiantes de primaria lituanos, al igual que los estudiantes de primaria de los países nórdicos vecinos, no reciben puntos. Más bien, los maestros registran en los diarios de educación primaria de los estudiantes una evaluación sumativa del nivel de logro de los estudiantes en el plan de estudios previsto. A partir del quinto grado, después de un período de adaptación, los resultados de aprendizaje de los estudiantes se evalúan en una escala de 10 puntos o se validan con entradas "aprobadas" o "no aprobadas".</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr"/>
-      <c r="C428" t="n">
+      <c r="B428" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5153,8 +4721,7 @@
           <t>Los estudiantes obtuvieron puntajes alrededor del promedio de la OCDE en lectura y ciencias y por encima del promedio de la OCDE en matemáticas. Los planes estudiantiles están destinados a fortalecer la base de la planificación y organización educativa, respaldar la evaluación actual de los estudiantes individuales y fortalecer la colaboración entre el hogar y la escuela. Además, la evaluación lingüística de los niños en la clase de jardín de infantes es obligatoria. Especialmente se fortalecieron las metas de lectura, matemáticas, ciencias naturales e inglés. Los objetivos ya no eran recomendaciones, sino objetivos vinculantes para que las escuelas los siguieran.</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr"/>
-      <c r="C429" t="n">
+      <c r="B429" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5164,8 +4731,7 @@
           <t>Es importante superar esas barreras. Es necesario involucrar a las familias y las comunidades, así como acciones sistemáticas a nivel distrital y nacional, para mejorar el acceso de los adolescentes a los servicios de atención calificada. Sin embargo, los países se encuentran en diferentes etapas de desarrollo del sistema de salud y acceso a la atención en establecimientos.</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr"/>
-      <c r="C430" t="n">
+      <c r="B430" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5175,8 +4741,7 @@
           <t>También patrocina un concurso de planes de negocios para mujeres empresarias, “The Women in Business Challenge” que genera el interés de las mujeres en desarrollar nuevas ideas de negocios y recibir capacitación y asesoramiento sobre cómo hacer un plan de negocios. ( Sin embargo, existían distinciones significativas de género en la profundidad de las necesidades identificadas y en la forma de brindar servicios de desarrollo empresarial de manera efectiva. Las limitaciones de tiempo, movilidad y socioculturales de las mujeres dan forma al enfoque, el contenido y la logística que son fundamentales para la provisión exitosa de SDE para mujeres ( Recuadro 6.1).</t>
         </is>
       </c>
-      <c r="B431" t="inlineStr"/>
-      <c r="C431" t="n">
+      <c r="B431" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5186,8 +4751,7 @@
           <t>España presenta ahora Informes de Impacto de Género al Parlamento para acompañar a sus Presupuestos Generales del Estado. El marco legal para estos informes se inició en 2003 con una ley de acciones para introducir la evaluación de impacto de género en todas las regulaciones gubernamentales. En 2009, el gobierno español aprobó una guía metodológica para la elaboración de este informe, que incluye una guía de impacto de género. Los países nórdicos también han brindado un liderazgo sustancial en PSG.</t>
         </is>
       </c>
-      <c r="B432" t="inlineStr"/>
-      <c r="C432" t="n">
+      <c r="B432" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5197,8 +4761,7 @@
           <t>Con una economía cada vez más impulsada por el conocimiento (global) y la competencia en la velocidad de la innovación, los gobiernos, particularmente en las economías desarrolladas con la infraestructura y las instituciones establecidas, deben priorizar el desarrollo y el uso completo del conjunto de habilidades disponibles de la población. Rara vez se alienta a las niñas a dedicarse a las matemáticas y las ciencias, que es más probable que se presenten como campos de estudio para los niños. Es importante que las matemáticas y las ciencias se enseñen en contextos que sean interesantes para niños y niñas, y una actitud positiva hacia una materia también se relaciona con relaciones positivas entre docentes y alumnos (OCDE, 2010a).</t>
         </is>
       </c>
-      <c r="B433" t="inlineStr"/>
-      <c r="C433" t="n">
+      <c r="B433" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5208,8 +4771,7 @@
           <t>De hecho, la mayoría de las personas necesitan adaptarse a ambos en su vida diaria. Sin embargo, sigue habiendo desequilibrios pronunciados entre hombres y mujeres en la forma en que se logra este equilibrio y en el grado de libertad disponible para tomar decisiones al respecto. Estos conducen a oportunidades y resultados marcadamente diferentes para el desarrollo humano.</t>
         </is>
       </c>
-      <c r="B434" t="inlineStr"/>
-      <c r="C434" t="n">
+      <c r="B434" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5219,8 +4781,7 @@
           <t>Los hallazgos sugieren que se debe proporcionar una identificación temprana de los alumnos de bajo rendimiento y apoyo específico a aquellos estudiantes en riesgo de quedarse atrás o abandonar la escuela por completo. Se debe brindar apoyo adicional a las escuelas desfavorecidas mediante la asignación adecuada de recursos, para garantizar que todos los estudiantes reciban la educación y la capacitación de alta calidad necesarias para participar plenamente en la sociedad. Los presupuestos escolares deben priorizarse en la contratación y el mantenimiento de recursos humanos bien calificados, como líderes escolares y maestros, que desempeñan un papel fundamental en la reducción de las desigualdades educativas en sus escuelas. Esto es particularmente cierto para aquellos estudiantes desfavorecidos que han tenido poca o ninguna experiencia preescolar.</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr"/>
-      <c r="C435" t="n">
+      <c r="B435" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5230,8 +4791,7 @@
           <t>El trabajo a tiempo parcial, frecuente en trabajos mayoritariamente ocupados por mujeres y vinculado a las obligaciones familiares y de cuidado, también puede desempeñar un papel en la segregación horizontal. Los datos para los Países Bajos están en equivalente a tiempo completo. Los datos de Suiza sobre puestos de secretaria también incluyen puestos técnicos. A pesar de algunas variaciones importantes entre los países de la OCDE (de menos del 10 % en Suiza, al 30 % en los Estados Unidos (Comisión para la Igualdad de Oportunidades en el Empleo de los EE. UU., 2011), a casi el 50 % en Polonia), las mujeres ocupan sistemáticamente menos de la mitad del servicio público puestos de toma de decisiones, que en promedio representan solo el 28,6% de los altos directivos en los países de la OCDE. Así, de media, en los países de la OCDE, el 39,7 % de los mandos intermedios son mujeres, aunque existen variaciones importantes entre países, con algunos países (Estonia, Eslovenia, Portugal y Polonia) no solo alcanzando la paridad de género sino también teniendo una mayoría de mujeres en esta categoría ocupacional.</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr"/>
-      <c r="C436" t="n">
+      <c r="B436" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5241,8 +4801,7 @@
           <t>Sin embargo, a partir de 2009, el desempleo ha disminuido para los hombres pero no para las mujeres: en el último trimestre de 2012, en toda la OCDE, la tasa de desempleo era de alrededor del 8 % tanto para hombres como para mujeres (OIT, 2012, OCDE, 2013b). Aunque la brecha entre la tasa de empleo de hombres y mujeres se reduce considerablemente con un mayor nivel educativo, en promedio, la tasa de empleo de las mujeres con educación terciaria sigue siendo 9 puntos porcentuales más baja que la de los hombres (Gráfico 4.5). La diferencia en las tasas de empleo entre hombres y mujeres con educación terciaria es particularmente marcada en Chile, República Checa, Japón, Corea, México e Hirkey, donde llega a 29 puntos porcentuales.</t>
         </is>
       </c>
-      <c r="B437" t="inlineStr"/>
-      <c r="C437" t="n">
+      <c r="B437" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5252,8 +4811,7 @@
           <t>Esto contrasta con otros modelos que no incluyen explícitamente el cambio tecnológico. No se incluyen los costos de administración e infraestructura que pueden ser necesarios para satisfacer la demanda de atención de salud proyectada. De manera similar, el modelo no considera el impacto del ingreso nacional o los presupuestos de salud en la demanda de servicios de salud.</t>
         </is>
       </c>
-      <c r="B438" t="inlineStr"/>
-      <c r="C438" t="n">
+      <c r="B438" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5263,8 +4821,7 @@
           <t>A pesar de consagrar los principios de no discriminación e igualdad entre hombres y mujeres en las constituciones y la legislación laboral, las desigualdades de género en el marco legislativo más amplio y en la práctica continúan afectando el acceso efectivo de las mujeres al empleo y al desarrollo profesional. Además, algunos sectores en los que las mujeres representan la mayoría de la mano de obra no están regulados ni protegidos por las disposiciones de la legislación laboral. Pero aún quedan desafíos para garantizar que las mujeres disfruten de igualdad de oportunidades para participar e influir en la toma de decisiones en parlamentos, gobiernos y consejos locales.</t>
         </is>
       </c>
-      <c r="B439" t="inlineStr"/>
-      <c r="C439" t="n">
+      <c r="B439" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5274,8 +4831,7 @@
           <t xml:space="preserve">Los informes de calidad deben basarse en los datos disponibles en un almacén nacional de datos (más información al respecto más adelante) y referirse a una serie de indicadores como el número de profesores con competencias docentes en las materias que imparten, los resultados relativos al rendimiento académico y el bienestar en relación con los indicadores establecidos en la reforma de la Folkeskole de 2014, las notas medias correlacionadas con el origen socioeconómico, las tasas de transición a la educación secundaria superior y las tasas de inclusión de alumnos con necesidades educativas especiales. A efectos de seguimiento, los informes de calidad pueden, sin embargo, revelar información sobre si el municipio o los centros escolares individuales cumplen sus objetivos de rendimiento y cómo evoluciona el rendimiento a lo largo del tiempo. Los seis municipios visitados por el equipo de revisión de la OCDE informaron de que disponen de procedimientos para garantizar el control de calidad de sus escuelas. Esto suele implicar reuniones anuales con los directores de los centros para debatir los resultados de los alumnos, basados en evaluaciones nacionales y municipales y en encuestas a los alumnos y/o al personal de los centros. </t>
         </is>
       </c>
-      <c r="B440" t="inlineStr"/>
-      <c r="C440" t="n">
+      <c r="B440" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5285,8 +4841,7 @@
           <t>En parejas con una mujer de 25 a 45 años de edad y al menos un hijo, los ingresos de las mujeres en Alemania representan, en promedio, poco menos de una cuarta parte de los ingresos del hogar. Se pueden encontrar patrones similares en Austria y Suiza (EUSILC, 2012 y Figura 1.3, Panel B). Por el contrario, en Francia, Suecia y Dinamarca, las parejas femeninas aportan más del 35% de los ingresos del hogar, en promedio (Capítulo 4). Se excluyen las parejas en las que ambos miembros de la pareja no trabajen.</t>
         </is>
       </c>
-      <c r="B441" t="inlineStr"/>
-      <c r="C441" t="n">
+      <c r="B441" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5296,8 +4851,7 @@
           <t>Los maestros suelen disfrutar ayudando a los niños a desarrollarse y haciendo una contribución a la sociedad, y no tienen motivos para rehuir los desafíos de enseñar a los estudiantes desfavorecidos. Pero también es más probable que los docentes quieran trabajar en escuelas desfavorecidas si sienten que cuentan con el apoyo de los directores, pueden colaborar con sus colegas y cuentan con los recursos adecuados para abordar los problemas que enfrentan. Los líderes escolares que apoyan y empoderan a los docentes no solo pueden atraer a más docentes mejor calificados para trabajar en escuelas desfavorecidas, sino que también tienen un impacto positivo en el clima escolar en general.</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr"/>
-      <c r="C442" t="n">
+      <c r="B442" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5307,8 +4861,7 @@
           <t>Los matriculados en educación vocacional/técnica e instituciones comerciales y técnicas constituyeron solo el 0.5%. Dado el papel del sector manufacturero en Penang y la baja proporción inscrita en estas instituciones, esta última estadística necesita la atención de los planificadores educativos. Durante la última década, las trabajadoras han tenido 10,3 años de educación en comparación con los 9,8 años de los trabajadores masculinos (Kharas et al. La expectativa de que los trabajadores con un alto nivel educativo pasen a trabajos mejor pagados no es necesariamente cierta.</t>
         </is>
       </c>
-      <c r="B443" t="inlineStr"/>
-      <c r="C443" t="n">
+      <c r="B443" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5318,8 +4871,7 @@
           <t>Los municipios también son responsables de cumplir con el derecho a un lugar en el jardín de infancia para todos los niños a partir de 1 año de edad. Las instituciones terciarias son en su mayoría autónomas en sus decisiones, incluidas aquellas sobre cómo asignan los recursos. Noruega cuenta con una financiación generosa en todos los niveles del sistema educativo: las instituciones educativas públicas y privadas de todos los niveles obtienen la mayor parte de su financiación de fuentes públicas, y la educación pública es gratuita, excepto en el nivel preescolar, donde los padres deben pagar algunas tasas.</t>
         </is>
       </c>
-      <c r="B444" t="inlineStr"/>
-      <c r="C444" t="n">
+      <c r="B444" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5329,8 +4881,7 @@
           <t>Estos períodos coinciden con distintas fases en la política de población y los programas de planificación familiar en la República Islámica de Irán (ver Abbasi-Shavazi, McDonald y Hosseini-Chavoshi, 2009). No había ningún programa activo de planificación familiar antes de 1985 y la fecundidad fue alta durante este período. El inicio de la disminución de la fecundidad comenzó en 1985 y fue seguido por la introducción del programa de planificación familiar en 1989.</t>
         </is>
       </c>
-      <c r="B445" t="inlineStr"/>
-      <c r="C445" t="n">
+      <c r="B445" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5340,8 +4891,7 @@
           <t>La prevalencia del tabaquismo es más del doble entre las personas con el nivel de educación más bajo. Más dramáticamente, el nivel de obesidad entre la población con el nivel de educación más bajo es casi tres veces más alto que aquellos con el nivel de educación más alto. Además de esto, CNS también es responsable de la financiación del seguro de atención a largo plazo. El Ministerio de Seguridad Social y el Ministerio de Salud son corresponsables de la gobernanza del sistema de salud. El Ministerio de Salud desarrolla la política y la legislación sanitarias, organiza la prestación de atención, autoriza grandes inversiones en hospitales y cofinancia directamente los programas de salud pública.</t>
         </is>
       </c>
-      <c r="B446" t="inlineStr"/>
-      <c r="C446" t="n">
+      <c r="B446" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5351,8 +4901,7 @@
           <t>Los nuevos estándares docentes (véase la Recomendación 3.1.1) deben guiar la revisión del examen final para garantizar que evalúa las competencias que los docentes necesitan en el aula. Rumania también podría considerar agregar más preguntas abiertas y orientadas a la práctica al examen para que sea una mejor medida de las competencias de los docentes. En el futuro, Rumania podría reducir el peso del examen a favor de una medida más auténtica de las competencias docentes, como una inspección basada en el desempeño de los nuevos docentes en el aula.</t>
         </is>
       </c>
-      <c r="B447" t="inlineStr"/>
-      <c r="C447" t="n">
+      <c r="B447" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5362,8 +4911,7 @@
           <t>Los objetivos de la intervención a menudo eran nuevos para los docentes, así como las rúbricas como herramienta pedagógica y algunas de las prácticas relacionadas. Por lo general, los equipos que implementaron una sesión única sobre creatividad y pensamiento crítico estaban implementando una pedagogía exclusiva para la cual los maestros estarían acompañados (consulte el Capítulo 3 para una discusión más detallada de las pedagogías exclusivas). Sin embargo, la capacitación fue más valiosa cuando consistió en varias sesiones realizadas a intervalos regulares y siguió incluyendo un enfoque en la creatividad, el pensamiento crítico y los materiales del proyecto.</t>
         </is>
       </c>
-      <c r="B448" t="inlineStr"/>
-      <c r="C448" t="n">
+      <c r="B448" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5373,8 +4921,7 @@
           <t>Esto se puede lograr construyendo resiliencia económica, social y ambiental para mujeres y hombres, mejorando su productividad y acelerando el ritmo de la transformación económica estructural en la región. Este informe explora dónde y cómo se ha logrado el progreso en la igualdad de género y cuál es la mejor manera de acelerar el ritmo del avance de género en África. Su enfoque en la igualdad de género llega en un momento de cambios tremendos en todo el continente, incluidas las dinámicas recientes de transformación social y económica que han resultado en avances significativos en el desarrollo humano de África.</t>
         </is>
       </c>
-      <c r="B449" t="inlineStr"/>
-      <c r="C449" t="n">
+      <c r="B449" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5384,8 +4931,7 @@
           <t>Finalmente, la desigualdad de género paraliza el crecimiento económico al reducir la contribución de las mujeres en las esferas económica, social y política (Bandiera y Natraj, 2013). Un análisis de género debe tener en cuenta tanto las perspectivas de género como la forma en que las políticas pueden afectar a hombres y mujeres de manera diferente. En 1985, en la Tercera Conferencia Mundial sobre la Mujer en Nairobi, los participantes acordaron desarrollar o reorganizar sus sistemas nacionales de información para recopilar y difundir estadísticas sobre mujeres y hombres a fin de abordar mejor las cuestiones de género.</t>
         </is>
       </c>
-      <c r="B450" t="inlineStr"/>
-      <c r="C450" t="n">
+      <c r="B450" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5395,8 +4941,7 @@
           <t>Entre las lecciones aprendidas está que estas experiencias facilitan el acceso de personas no indígenas al sistema de salud indígena y facilitan un “diálogo de sabidurías” entre hombres y mujeres practicantes de los sistemas de salud. Las experiencias de salud intercultural han dado lugar a mecanismos de coordinación entre los sistemas de salud indígenas y oficiales, incluso cuando no comparten las mismas instalaciones. La coordinación se basa en acuerdos de referencia y contrarreferencia.</t>
         </is>
       </c>
-      <c r="B451" t="inlineStr"/>
-      <c r="C451" t="n">
+      <c r="B451" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5406,8 +4951,7 @@
           <t>Los padres tienden a estar menos convencidos que los estudiantes de que las escuelas están contribuyendo al bienestar emocional, siendo los padres indígenas los menos convencidos, aunque en 2016 la brecha entre los padres indígenas de estudiantes K-12 y todos los padres de estudiantes K-12 de Alberta se había invertido. Las alumnas reportaron un mayor nivel de problemas emocionales que los hombres en los Territorios del Noroeste y las mujeres en el resto de Canadá. Tanto los estudiantes masculinos como femeninos informaron niveles más bajos de comportamiento prosocial y satisfacción con la vida que el promedio nacional.</t>
         </is>
       </c>
-      <c r="B452" t="inlineStr"/>
-      <c r="C452" t="n">
+      <c r="B452" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5417,8 +4961,7 @@
           <t>Los países que enfatizan las instituciones de cuidado infantil y preescolar exhiben niveles más bajos de desigualdad de oportunidades, lo que sugiere la efectividad de las políticas de intervención temprana para reducir la persistencia de los resultados educativos a lo largo de las generaciones. También existe una asociación positiva entre la desigualdad de oportunidades y la desigualdad de ingresos. Como consecuencia, las regresiones entre países sugerirían que las políticas redistributivas pueden ayudar a reducir las desigualdades de oportunidades educativas asociadas con el entorno socioeconómico y, por lo tanto, la persistencia de los resultados educativos entre generaciones.</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr"/>
-      <c r="C453" t="n">
+      <c r="B453" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5428,8 +4971,7 @@
           <t>Asegurar el acceso equitativo a la financiación para mujeres y hombres empresarios a través de acciones que influyan tanto en la oferta como en la demanda de financiación al: facilitar el acceso a la financiación para negocios viables propiedad de hombres y mujeres, tomar medidas para mejorar el conocimiento y las actitudes de las instituciones financieras, aumentar el conocimiento de las fuentes y herramientas de financiación entre las mujeres empresarias, y animar a más mujeres a unirse a redes de inversores informales o empresas de capital de riesgo. Ejemplos específicos de buenas prácticas que garantizan la igualdad de género y la no discriminación en las constituciones de MENA (cont.) Estos ejemplos brindan referencias para incorporar el principio de igualdad entre hombres y mujeres mientras se protege la familia, la maternidad y la infancia con respecto a su cultura y valores sociales. También cumplen con la Declaración Universal de los Derechos Humanos (1948), el artículo 3 de los Pactos Internacionales de 1966 y el artículo 2 (a) de la CEDAW (1979).</t>
         </is>
       </c>
-      <c r="B454" t="inlineStr"/>
-      <c r="C454" t="n">
+      <c r="B454" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5439,8 +4981,7 @@
           <t>El desafío será orientar el sistema de salud para ayudar a las personas con múltiples enfermedades crónicas. La investigación biomédica sobre enfermedades crónicas generalmente se enfoca en enfermedades crónicas únicas como la diabetes, ignorando a menudo las condiciones coexistentes que puede tener un diabético. De hecho, las personas con múltiples afecciones crónicas a menudo se excluyen de los ensayos clínicos aleatorios, lo que dificulta la creación de una base de evidencia para guiar su atención.</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="n">
+      <c r="B455" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5450,8 +4991,7 @@
           <t xml:space="preserve">Los profesores crean mayores conexiones con la comunidad en general y con los ancianos, y explicitan cómo lo que se está aprendiendo influye en uno mismo, en la familia, en la comunidad y en la tierra. Los profesores son activadores, mientras que los alumnos participan activamente en el diseño, la aplicación y la medición de las experiencias de aprendizaje. Las asociaciones gozan de un alto grado de equidad, transparencia, beneficio mutuo y responsabilidad. </t>
         </is>
       </c>
-      <c r="B456" t="inlineStr"/>
-      <c r="C456" t="n">
+      <c r="B456" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5461,8 +5001,7 @@
           <t>Pero también puede ser opresivo y explotador, obstaculizando las oportunidades y el disfrute de los derechos de los cuidadores. Como dice la economista feminista Diane Elson, el hecho de que gran parte del trabajo de cuidados no remunerado “se haga por amor, no significa que siempre nos encante hacerlo. Si bien el Estado no puede financiar ni brindar todas las formas de apoyo, tiene el deber de garantizar que dicho apoyo esté disponible, sea accesible y de calidad adecuada para todos. Pero el tiempo de las mujeres no es "infinitamente elástico", y las estrategias de afrontamiento pueden producir resultados no deseados.4 En el contexto de las crisis de salud, las niñas pueden faltar a la escuela debido al tiempo que dedican a ir a buscar agua y cuidar a familiares postrados en cama.</t>
         </is>
       </c>
-      <c r="B457" t="inlineStr"/>
-      <c r="C457" t="n">
+      <c r="B457" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5472,8 +5011,7 @@
           <t>La divergencia entre el derecho estatutario (formal) y el derecho consuetudinario y/o religioso puede abordarse al más alto nivel, es decir, con protecciones constitucionales. La Política Nacional de Tierras de Uganda (borrador final) también se compromete a reformar el derecho consuetudinario, modificar las normas de transmisión de los derechos sobre la tierra en virtud de la tenencia consuetudinaria de la tierra, garantizar la igualdad y la equidad de género y garantizar que las decisiones de las instituciones tradicionales de gestión de la tierra respeten los derechos constitucionales. derechos y obligaciones en materia de igualdad de género. En esta política, el Gobierno de Uganda se compromete específicamente a proteger los derechos de acceso, herencia y propiedad de la tierra para mujeres y niños, y abordar la desigualdad de género existente y garantizar que tanto hombres como mujeres disfruten de los mismos derechos a la tierra antes del matrimonio. en el matrimonio, después del matrimonio y en la sucesión, sin discriminación.</t>
         </is>
       </c>
-      <c r="B458" t="inlineStr"/>
-      <c r="C458" t="n">
+      <c r="B458" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5483,8 +5021,7 @@
           <t>Desde la aprobación de la Convención, no se ha desarrollado ningún plan de acción para las estrategias para implementarla, como lo requiere la Plataforma de Acción de Beijing. Las Islas Salomón tampoco han presentado un informe al Comité de la CEDAW' (Corrin 2008: 169-194). La constitución también otorgó a las mujeres derechos a la igualdad de oportunidades en las actividades políticas, económicas y sociales, el empleo, la educación y la atención de la salud, así como el derecho a representar a las Islas Salomón en las organizaciones internacionales (Corrin 2008). Las mujeres también están subrepresentadas en otros puestos de alto rango.</t>
         </is>
       </c>
-      <c r="B459" t="inlineStr"/>
-      <c r="C459" t="n">
+      <c r="B459" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5494,8 +5031,7 @@
           <t>¿Se habrán despejado para entonces los obstáculos que bloqueaban su camino hacia la edad adulta? El desafío es considerable, pero debemos honrar nuestros compromisos o el marco sonará hueco. El futuro pende de un hilo. Invertir en las niñas tiene mucho sentido desde el punto de vista financiero. Por el contrario, frustrar la inversión en ellos es nada menos que pobreza planificada (Bruce, 2012).</t>
         </is>
       </c>
-      <c r="B460" t="inlineStr"/>
-      <c r="C460" t="n">
+      <c r="B460" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5505,8 +5041,7 @@
           <t>Las mujeres, los hombres, los niños y las redes de parentesco o de la comunidad pueden ser importantes contribuyentes de tiempo no remunerado a la reproducción social. Sin embargo, también sabemos que las mujeres realizan la mayor parte del trabajo doméstico no remunerado, ya sea que participen o no en el trabajo remunerado (Budlender 2008, Charmes 2006, Folbre 2006). Debido a que nos concentramos en la desigualdad de género, la división del trabajo entre mujeres y hombres, así como, eventualmente, entre las mujeres y el estado, centra el análisis.</t>
         </is>
       </c>
-      <c r="B461" t="inlineStr"/>
-      <c r="C461" t="n">
+      <c r="B461" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5516,8 +5051,7 @@
           <t>Con respecto al tabaquismo y la obesidad, existe un conocimiento sustancial sobre los riesgos para la salud, la atención médica y las consecuencias para la productividad. La eficacia y la rentabilidad de la prevención primaria y secundaria del tabaquismo son bien conocidas. Por el contrario, la evidencia actual sobre los riesgos para la salud asociados con nutrientes particulares es en algunos casos ambigua (grasas saturadas, ciertos carbohidratos, alcohol).</t>
         </is>
       </c>
-      <c r="B462" t="inlineStr"/>
-      <c r="C462" t="n">
+      <c r="B462" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5527,8 +5061,7 @@
           <t>Los salarios estatutarios anuales de los docentes se refieren al salario bruto promedio programado por año de los docentes de aula a tiempo completo según las escalas salariales oficiales (OCDE, 2016b). Las calificaciones mínimas requeridas para ingresar a la profesión docente pueden no ser las calificaciones más comunes en la fuerza docente. En varios sistemas educativos, el maestro "típico" está certificado y calificado más allá de los requisitos mínimos y ha alcanzado una posición determinada en la escala salarial. Esto se denomina "formación típica" de los docentes en la Tabla IL.6.54 y varía según el país y el sistema escolar (OCDE, 2016b, Indicador D3).</t>
         </is>
       </c>
-      <c r="B463" t="inlineStr"/>
-      <c r="C463" t="n">
+      <c r="B463" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5538,8 +5071,7 @@
           <t>Los sistemas escolares públicos no empezaron hasta bastante más tarde, primero las escuelas primarias y luego la enseñanza secundaria, hacia la década de 1880. Las universidades australianas se establecieron por primera vez a mediados del siglo XIX, mientras que la educación infantil (aparte de los servicios ofrecidos por guarderías comunitarias y proveedores privados) es una mejora relativamente reciente de la oferta educativa australiana. En el duodécimo curso, el último de la enseñanza secundaria, los estudios suelen orientarse a la obtención de un título estatal o territorial reconocido por todas las universidades e instituciones de formación profesional australianas, así como por universidades internacionales.</t>
         </is>
       </c>
-      <c r="B464" t="inlineStr"/>
-      <c r="C464" t="n">
+      <c r="B464" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5549,8 +5081,7 @@
           <t>El valor de los modelos de pronóstico no radica en su capacidad para “predecir” el futuro, una tarea que ningún modelo a mediano o largo plazo podría lograr de manera realista. De hecho, si los modelos basados ​​en las tendencias actuales predijeran con precisión el futuro, podría indicar una falta de innovación o desarrollo de políticas. Como afirma un informe reciente del Ministerio de Salud y Asuntos Sociales de Suecia, “Los pronósticos efectivos cambian el futuro, lo que significa que prueban, y tienen que probar, que están equivocados” (Ministerio de Salud y Asuntos Sociales, 2010). La figura 1 presenta pronósticos de crecimiento del gasto público a partir de modelos en cinco países si no se toman medidas políticas.</t>
         </is>
       </c>
-      <c r="B465" t="inlineStr"/>
-      <c r="C465" t="n">
+      <c r="B465" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5560,8 +5091,7 @@
           <t>Los supervisores están destinados a visitar y supervisar el funcionamiento de las escuelas, asesorar a las escuelas y a la autoridad y realizar diversas tareas administrativas y pedagógicas. Sin embargo, las tareas administrativas ocupan la mayor parte de su tiempo. Sólo los antiguos directores de escuela pueden optar al puesto de supervisor, los nombramientos ATP sólo se conceden a antiguos profesores. Las solicitudes son evaluadas y los puestos asignados en cada estado por la Comisidn Nacional Mixta de Escalaf6n compuesta por la Secretarfa de Educacidn Publica (SEP) y representantes del Sindicato Nacional de Trabajadores de la Educacidn (SNTE). Sin embargo, este mecanismo está influido por criterios sindicales y políticos. Actualmente se están realizando esfuerzos para cambiar este proceso y hacerlo más transparente.</t>
         </is>
       </c>
-      <c r="B466" t="inlineStr"/>
-      <c r="C466" t="n">
+      <c r="B466" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5571,8 +5101,7 @@
           <t>El Objetivo 3 también incluye indicadores sobre la proporción de mujeres en el empleo asalariado en el sector no agrícola y en los parlamentos nacionales, pero estos no tienen puntos de referencia ni plazos. No se abordan temas críticos como la violencia contra la mujer y las leyes discriminatorias. Desafortunadamente, en la Reunión Plenaria de Alto Nivel de la Asamblea General de 2010 sobre los Objetivos de Desarrollo del Milenio, se reveló que era el más desviado de todos los Objetivos, a pesar de que el conocimiento y las herramientas están disponibles para hacer que el embarazo y la parto una experiencia segura para las mujeres. En 2010, el Secretario General lanzó la Estrategia mundial para la salud de la mujer y el niño, que establece acciones clave para mejorar la salud de las mujeres y los niños en todo el mundo.</t>
         </is>
       </c>
-      <c r="B467" t="inlineStr"/>
-      <c r="C467" t="n">
+      <c r="B467" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5582,8 +5111,7 @@
           <t>Los trabajadores con habilidades generales y más educación experimentaron mejores resultados en el mercado laboral, incluidos periodos de desempleo más breves (Rutkowski, 2007). Por un lado, debe hacer que los programas de formación profesional de corta duración sean más atractivos para los futuros estudiantes. Por otro lado, el sistema educativo debe centrarse más en proporcionar a los estudiantes habilidades generales fácilmente transferibles.</t>
         </is>
       </c>
-      <c r="B468" t="inlineStr"/>
-      <c r="C468" t="n">
+      <c r="B468" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5593,8 +5121,7 @@
           <t>Cuanto mayor es el índice, mayor es el número de reformas realizadas. La tasa de empleo de los hombres es constante y siempre cercana a 100 (pleno empleo). Por otro lado, para las mujeres la tasa de empleo es mucho menor y parece variar con el valor del índice laboral. En particular, las reformas laborales parecen afectar el empleo de cuello blanco y de servicios.</t>
         </is>
       </c>
-      <c r="B469" t="inlineStr"/>
-      <c r="C469" t="n">
+      <c r="B469" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5604,8 +5131,7 @@
           <t>En ausencia de un acceso efectivo a la anticoncepción, se espera que más embarazos se notifiquen como no deseados, una proporción significativa de los cuales pueden interrumpirse (Abbasi-Shavazi y Hosseini-Chavoshi, 2014). Ser joven y tener un bajo nivel de educación, una mala situación económica y un menor acceso a métodos anticonceptivos eficaces contribuyen a una mayor incidencia de embarazos no deseados (Khatiwada y otros, 2013). El fracaso en el uso de anticonceptivos es una de las principales causas directas de embarazos no deseados y accidentales (Blumenthal, Voedisch y Gemzell-Danielsson, 2011) y puede generar una demanda de aborto. Un estudio de 27 países indicó que la falla de los anticonceptivos es la razón más informada de embarazos interrumpidos prematuramente (Bankole, Singh y Haas, 1998, Black y otros, 2010).</t>
         </is>
       </c>
-      <c r="B470" t="inlineStr"/>
-      <c r="C470" t="n">
+      <c r="B470" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5615,8 +5141,7 @@
           <t>Esto apoyaría la atención continua y coordinada y permitiría el cálculo de indicadores de calidad para grupos de pacientes específicos (p. ej., tasa de control glucémico adecuado entre los diabéticos). El control glucémico adecuado en diabéticos, mencionado anteriormente, es un ejemplo de dónde se podría aplicar un incentivo financiero. Se podrían desarrollar varios otros ejemplos sobre el manejo de enfermedades crónicas, basados ​​en la experiencia en otros países de la OCDE. Esto apoyaría la prestación de atención médica preventiva y de promoción de la salud basada en la población y sentaría las bases para que los especialistas de atención primaria asuman roles de liderazgo en los sistemas de salud locales (y nacionales).</t>
         </is>
       </c>
-      <c r="B471" t="inlineStr"/>
-      <c r="C471" t="n">
+      <c r="B471" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5626,8 +5151,7 @@
           <t>Mientras estas mujeres solicitaban y recibían tierras, las mujeres más jóvenes desconocían sus derechos y enfrentaban desafíos únicos. Algunos líderes tradicionales entrevistados para este estudio expresaron su renuencia a asignar tierras comunales a mujeres jóvenes solteras. Las mujeres jóvenes tradicionalmente no tienen sus propios hogares, por lo general permanecen en las casas de sus padres hasta que se casan.</t>
         </is>
       </c>
-      <c r="B472" t="inlineStr"/>
-      <c r="C472" t="n">
+      <c r="B472" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5637,8 +5161,7 @@
           <t>Luego examina la educación y formación profesional en Suecia, centrándose en los programas de formación basados ​​en el lugar de trabajo y la orientación profesional en la escuela. Finalmente, da una visión general de los servicios sociales ofrecidos en la escuela, y la coordinación de estos servicios. Hasta la edad de 16 años, todos los estudiantes aprenden juntos en una escuela integral sin seguimiento ni repetición de grado.</t>
         </is>
       </c>
-      <c r="B473" t="inlineStr"/>
-      <c r="C473" t="n">
+      <c r="B473" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5648,8 +5171,7 @@
           <t>Necesitan evaluar continuamente el desempeño de los estudiantes utilizando diversas técnicas de evaluación y brindar apoyo correctivo a los estudiantes con dificultades (OBEC, 2013a). Deben conocer y utilizar la tecnología de la información y la comunicación (TIC) para mejorar el aprendizaje, e incluir a los estudiantes con necesidades especiales y de diferentes orígenes. Se espera que preparen a los estudiantes para la participación activa en la comunidad de la Asociación de Naciones del Sudeste Asiático (ASEAN) y el mercado global competitivo, al mismo tiempo que promueven los valores y la cultura tailandeses. Los docentes y los líderes escolares son fundamentales para lograr estos objetivos generales, y tendrán buenas posibilidades de éxito si Tailandia se esfuerza por fortalecer la preparación de los docentes, apoyar el desarrollo continuo de los docentes, permitir que los docentes se concentren en el aula, mejorar el liderazgo escolar y administrar de manera más eficiente su fuerza laboral escolar.</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr"/>
-      <c r="C474" t="n">
+      <c r="B474" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5659,8 +5181,7 @@
           <t>Por lo tanto, en una red causal, los eventos de enfermedad están influenciados por factores de riesgo tanto directa como indirectamente. La definición de los factores de riesgo, así como los umbrales utilizados para identificar a las personas en riesgo, se basan en gran medida en los datos proporcionados por la publicación de Cuantificación comparativa de riesgos para la salud de la OMS (Ezzati, López, Rodgers y Murray, 2004). En el modelo, los factores de riesgo proximales, como la presión arterial alta, el colesterol alto y la glucemia alta, tienen una influencia directa en la probabilidad de desarrollar dichas enfermedades crónicas. Esto explica el efecto de los mecanismos fisiopatológicos conocidos. Por el contrario, los factores de riesgo distales, como el bajo consumo de frutas y verduras, el alto consumo de grasas y la actividad física insuficiente, tienen una influencia indirecta en las enfermedades crónicas.</t>
         </is>
       </c>
-      <c r="B475" t="inlineStr"/>
-      <c r="C475" t="n">
+      <c r="B475" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5670,8 +5191,7 @@
           <t>Entre los inmigrantes de Tayikistán y Uzbekistán, más mujeres que hombres ganan 15.000 rublos o menos al mes (figura 10). El salario medio mensual de los hombres es de 32.780 rublos, mientras que el de las mujeres es de 28.875 (figura 11). La tarifa media por hora para los hombres es de 134 rublos, mientras que para las mujeres es de 114 rublos.</t>
         </is>
       </c>
-      <c r="B476" t="inlineStr"/>
-      <c r="C476" t="n">
+      <c r="B476" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5681,8 +5201,7 @@
           <t>No hay indicios de que la Universiti Sains Malaysia utilice la asistencia financiera para estudiantes para dar alta prioridad a garantizar el acceso de los estudiantes de bajos ingresos dentro de Penang y la Región Económica del Corredor del Norte. Hasta la fecha, los planes de desarrollo de estos dos sectores se realizan por separado. Por ejemplo, el Consejo Consultivo Educativo de Penang (PECC) bajo el gobierno estatal proporciona el mecanismo para una visión coherente de un sistema educativo a nivel regional, pero este consejo es solo para las instituciones privadas de educación superior en el estado. (</t>
         </is>
       </c>
-      <c r="B477" t="inlineStr"/>
-      <c r="C477" t="n">
+      <c r="B477" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5692,8 +5211,7 @@
           <t>Es importante documentar y utilizar estudios de casos que presenten mujeres y hombres PYME exitosos en roles económicos tradicionales y no convencionales. Ejemplos de esto se encuentran en muchos países que están más avanzados en atender el mercado de mujeres empresarias. El Cuadro 6.2 destaca ejemplos en los Estados Unidos y Canadá donde los gobiernos han apoyado redes de centros empresariales de mujeres, así como otras buenas prácticas de apoyo empresarial lideradas por el gobierno en Alemania, Suecia y Turquía. Las clientas informan que estos centros les ofrecen un entorno seguro, cálido y enriquecedor.</t>
         </is>
       </c>
-      <c r="B478" t="inlineStr"/>
-      <c r="C478" t="n">
+      <c r="B478" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5703,8 +5221,7 @@
           <t>El escenario de contención de costos asume una disminución gradual en el crecimiento anual del gasto en salud relacionado con precios, tecnología y políticas e instituciones de atención de la salud de 1.7% a cero en 2060. El escenario de contención de costos asume una disminución gradual en el crecimiento anual de el gasto en salud relacionado con el precio, la tecnología y las políticas e instituciones de atención de la salud del 1,7 % a cero en 2060. Los factores demográficos incluyen la estructura de edad de la población y su estado de salud, mientras que los no demográficos incluyen el ingreso, la tecnología y los precios relativos.</t>
         </is>
       </c>
-      <c r="B479" t="inlineStr"/>
-      <c r="C479" t="n">
+      <c r="B479" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5714,8 +5231,7 @@
           <t>Los beneficios universales o basados ​​en pensión refuerzan la autonomía económica de las mujeres, fortaleciendo su voz y agencia dentro de los hogares y elevando su estatus social.126 Por el contrario, las pensiones basadas en recursos a menudo requieren que los hogares, en lugar de los individuos, no tengan otra fuente de ingresos. Esto significa que excluyen a las mujeres que viven en hogares por encima del umbral de ingresos incluso si no tienen acceso a ingresos personales. Esto supone que los ingresos de los cónyuges que cohabitan u otros miembros de la familia se compartirán de manera justa, lo que no siempre es el caso.</t>
         </is>
       </c>
-      <c r="B480" t="inlineStr"/>
-      <c r="C480" t="n">
+      <c r="B480" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5725,8 +5241,7 @@
           <t>Especifica actividades en varios dominios relacionados con: aumentar la conciencia pública y desarrollar capacidades entre los profesionales sobre los efectos del cambio climático en la salud, actualizar el sistema de información con un conjunto de indicadores relevantes para las políticas para identificar y evaluar los riesgos para la salud relacionados con el clima y la efectividad de acciones, mejorando la vigilancia y el control de enfermedades infecciosas y vectores seleccionados, así como el monitoreo de la calidad del aire, etc. Además, describe las tareas y capacidades del sector salud en actividades intersectoriales coordinadas sobre emergencias relacionadas con eventos climáticos extremos, su planificación y respuesta. . El programa también contiene una serie de herramientas para facilitar los cursos de capacitación para el desarrollo de capacidades en el área de gestión de emergencias de salud pública en todos los niveles.</t>
         </is>
       </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="n">
+      <c r="B481" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5736,8 +5251,7 @@
           <t>Otra característica positiva es el hecho de que los presupuestos quinquenales brindan suficiente flexibilidad para realizar ajustes en los presupuestos educativos anuales. Sin embargo, los documentos presupuestarios no suelen proporcionar objetivos educativos, acciones, metas y resultados previstos claramente definidos. Las solicitudes de presupuesto presentadas por la ANEP al MEF típicamente no se presentan con una visión del sistema escolar en su conjunto y no establecen claramente las prioridades para el gasto público.</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr"/>
-      <c r="C482" t="n">
+      <c r="B482" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5747,8 +5261,7 @@
           <t>El objetivo es comprender y explicar por qué ocurre esto y luego reaccionar ante ello. Así, el concepto de mujer desaparecida se relaciona con la población femenina que cabría esperar si hombres y mujeres recibieran una atención similar en salud, medicina y nutrición. En definitiva, este concepto representa el déficit de mujeres y niñas que han muerto prematuramente respecto a una distribución poblacional de referencia.</t>
         </is>
       </c>
-      <c r="B483" t="inlineStr"/>
-      <c r="C483" t="n">
+      <c r="B483" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5758,8 +5271,7 @@
           <t>Sin embargo, la prescripción de un analgésico se asoció con un riesgo de uso no médico de opioides recetados unas ocho veces mayor que otros predictores. También de acuerdo con los hallazgos de otros informes recientes, el Estudio de Medicina de la Unión Europea mostró que la compra de opioides recetados en farmacias en línea también figuraba como una de las fuentes. Entre otros hallazgos, el policonsumo de drogas, particularmente el uso de drogas ilícitas entre los usuarios de opioides recetados sin fines médicos durante el último año, también fue bastante común en los cinco países europeos, desde el 21 por ciento de los usuarios del último año en España hasta el 43 por ciento. en el Reino Unido. Del mismo modo, aquellos que obtuvieron opioides recetados a través de robos, falsificaciones o consultas médicas tenían el doble de probabilidades de haber consumido drogas ilícitas que aquellos que no lo habían hecho.</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="n">
+      <c r="B484" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5769,8 +5281,7 @@
           <t>Examina si los programas e iniciativas, incluidas las estructuras de apoyo específicas establecidas por gobiernos o actores no gubernamentales, ayudan a las mujeres a obtener información económica, regulatoria o de mercado clave para tomar decisiones informadas a lo largo de las etapas de establecimiento y expansión del negocio. También analiza otras formas de apoyo a las mujeres empresarias, como medidas para mejorar el acceso de las mujeres a los mercados y la formación empresarial y de gestión. Los servicios de desarrollo empresarial son proporcionados por organizaciones gubernamentales, ONG, proveedores del sector privado y asociaciones empresariales.</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr"/>
-      <c r="C485" t="n">
+      <c r="B485" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5780,8 +5291,7 @@
           <t>Otro factor es la reforma escolar en la década de 1990, que ayudó a mejorar significativamente los resultados educativos, como se refleja en los resultados de alfabetización y aritmética de los estudiantes de 15 años en el Programa para la Evaluación Internacional de Estudiantes (PISA) de la OCDE. Polonia necesita ascender en la escala de valor y especializarse más en actividades más intensivas en conocimiento y de mayor valor agregado. Actualmente, Polonia va muy por detrás de muchos otros países de la OCDE en cuanto al contenido tecnológico de sus exportaciones (Figura 1.3), y los productos de innovación, como patentes y las principales publicaciones de investigación científica, aún no pueden competir con las principales economías de la OCDE (Figura 1.4).</t>
         </is>
       </c>
-      <c r="B486" t="inlineStr"/>
-      <c r="C486" t="n">
+      <c r="B486" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5791,8 +5301,7 @@
           <t>Sin embargo, la historia de cómo la igualdad de género se convirtió en una prioridad a nivel nacional y cómo se aplicaron progresivamente las cuotas pertenece a un marco más complejo. Narra cÃ³mo los partidos polÃticos desempeÃ±aron un papel primordial y el liderazgo y la capacidad de construir alianzas entre partidos de las mujeres mexicanas funcionaron como un catalizador para el cambio, generando un debate fructÃfero dentro y entre los partidos, en la legislatura nacional y en la opiniÃ³n pÃºblica. Si bien las mujeres en los partidos fueron la fuerza impulsora, con algunos altos funcionarios y figuras poderosas que usaron su influencia para reunir apoyo dentro y fuera del partido, no podrían haber impulsado las cuotas sin el apoyo de sus partidos.</t>
         </is>
       </c>
-      <c r="B487" t="inlineStr"/>
-      <c r="C487" t="n">
+      <c r="B487" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5802,8 +5311,7 @@
           <t>Para 1989, el 55% de los estudiantes inmigrantes en Hauptschulen estaban en esas clases, que fueron abolidas formalmente en 1995 (Glenn y de Jong, 1996). Un análisis de 108 áreas de captación de escuelas primarias en cuatro distritos mostró que una de cada cinco escuelas inscribió al doble de estudiantes de origen inmigrante que los que vivían en el área. Esto es una consecuencia de que los padres eluden la asignación oficial a la escuela primaria y las escuelas ofrecen formas, como clases separadas basadas en la elección de los padres de instrucción religiosa o de idioma extranjero, para atraer a estudiantes nativos y mejores maestros (Fincke and Lange, 2012, Open Society Justice Initiative, 2013). Mantuvo el Gymnasien, que seleccionaba al 60 % de sus alumnos, con un 10 % adicional reservado para los hermanos, dejando un 30 % seleccionado por sorteo (Basteck et al, 2015).</t>
         </is>
       </c>
-      <c r="B488" t="inlineStr"/>
-      <c r="C488" t="n">
+      <c r="B488" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5813,8 +5321,7 @@
           <t>Estos cambios podrían ayudar a atraer y retener a los trabajadores de la salud, y serán necesarios para que Suiza continúe brindando algunos de los mejores cuidados del mundo a sus ciudadanos. Los arreglos de pago por servicio en el sector de hospitales ambulatorios y los subsidios de los cantones a los hospitales públicos recompensan a los hospitales por hacer más y brindan incentivos débiles para la moderación de costos. Esto ayuda a explicar por qué, a pesar de las reducciones en la última década, las estancias hospitalarias en Suiza son más largas que el promedio de la OCDE y hay menos casos diarios como porcentaje de los casos hospitalarios generales en Suiza que en varios otros países.</t>
         </is>
       </c>
-      <c r="B489" t="inlineStr"/>
-      <c r="C489" t="n">
+      <c r="B489" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5824,8 +5331,7 @@
           <t>La Junta Nacional Sueca de Salud y Bienestar también ha desarrollado un marco de calidad multidimensional, “Good Care”, para monitorear el desempeño de la atención médica. El marco cubre varias dimensiones de la atención, incluidas la eficacia, la seguridad, la atención centrada en el paciente, la puntualidad, la equidad y la eficiencia. El marco utilizó más de 30 indicadores de procesos y resultados para comparar la calidad de la atención psiquiátrica entre regiones o grupos de pacientes.</t>
         </is>
       </c>
-      <c r="B490" t="inlineStr"/>
-      <c r="C490" t="n">
+      <c r="B490" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5835,8 +5341,7 @@
           <t>Solo en Corea y los Países Bajos se asigna una mayor proporción del gasto al cáncer y la salud mental, respectivamente. En promedio, las enfermedades cardiovasculares representan el 17 % del gasto hospitalario total, desde el 12 % en Australia hasta el 22 % en Japón. El gran porcentaje observado para Japón es algo sorprendente dadas las bajas tasas de mortalidad e incidencia de ECV observadas en este país.</t>
         </is>
       </c>
-      <c r="B491" t="inlineStr"/>
-      <c r="C491" t="n">
+      <c r="B491" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5846,8 +5351,7 @@
           <t>Este estudio es un excelente ejemplo de una metodología para modelar los efectos de género de los impuestos indirectos. Con respecto a los impuestos directos sobre la renta, el impacto de género depende del efecto de la presentación conjunta o individual: la presentación conjunta puede conducir a tasas impositivas marginales más altas sobre los ingresos de las mujeres, aunque ganen menos que los hombres, lo que desalienta su participación en la fuerza laboral. . Por lo tanto, examinar los códigos tributarios con una perspectiva de equidad de género puede sentar las bases para reformas del código tributario que sean igualitarias entre los géneros.</t>
         </is>
       </c>
-      <c r="B492" t="inlineStr"/>
-      <c r="C492" t="n">
+      <c r="B492" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5857,8 +5361,7 @@
           <t>Como resultado, la brecha de género en el desempleo se redujo inmediatamente después de la crisis a través de un proceso de nivelación: más hombres perdieron sus trabajos que mujeres. En Asia, las mujeres se han visto mucho más afectadas que los hombres por la pérdida de puestos de trabajo debido a su concentración en el sector manufacturero orientado a la exportación, que se ha visto especialmente afectado.108 Además, la persistencia de precios mundiales de los alimentos altos y volátiles tras las subidas de precios ha afectado los derechos de millones de personas a la alimentación ya un nivel de vida adecuado. El gasto en prestaciones por hijo, por ejemplo, que había alcanzado su punto máximo en Europa en 2009, volvió a caer por debajo de los niveles de 2008. Ser objeto de violencia, por ejemplo, no solo es una violación de la dignidad y el bienestar físico y mental, sino que también puede conducir a la falta de vivienda y la pobreza.</t>
         </is>
       </c>
-      <c r="B493" t="inlineStr"/>
-      <c r="C493" t="n">
+      <c r="B493" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5868,8 +5371,7 @@
           <t>España experimentó un ligero aumento, del 36% de mujeres en el parlamento en 2004 al 36,3% en 2008, un año después de la introducción, en la Ley de Régimen Electoral General, del requisito obligatorio de presencia equilibrada de mujeres y hombres (mínimo 40 por ciento de cada uno). sexo) en las listas de candidatos. Mecanismos de igualdad de género dentro de los órganos de gestión electoral Los órganos de gestión electoral (EMB, por sus siglas en inglés) pueden desempeñar un papel fundamental en la promoción de la participación política de las mujeres, ya que supervisan y organizan el proceso electoral, que incluye el registro de candidatos y la divulgación y educación de los votantes, entre otros. De hecho, ninguno de los encuestados indicó que sus órganos electorales hubieran designado asesores de género o puntos focales, incluido consideraciones de género en los procedimientos o políticas operativas de los OGE, o enfatizado el equilibrio de género en la composición de los OGE, incluso entre los comisionados y/o los funcionarios de las mesas electorales.</t>
         </is>
       </c>
-      <c r="B494" t="inlineStr"/>
-      <c r="C494" t="n">
+      <c r="B494" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5879,8 +5381,7 @@
           <t>Un posible punto débil es que solo hay un tope para los cargos para los enfermos crónicos. Ampliar este tope a la población en general reduciría potencialmente el riesgo de que los hogares de bajos ingresos (particularmente los grandes) se vean disuadidos de acceder al sistema de salud. Finalmente, los copagos por los servicios del NHI no deben ser el único enfoque, ya que los pagos directos vinculados a Shaban o al seguro comercial también pueden ser significativos para aquellos hogares que gastan una parte sustancial de sus ingresos en servicios de atención médica. Un enfoque es basar la elegibilidad en si los individuos (u hogares) reciben el beneficio de Apoyo a los Ingresos del Instituto Nacional de Seguros (Nil's) (o el Suplemento de Ingresos en el caso de los pensionistas). Sin embargo, los criterios de elegibilidad para este apoyo son tan estrictos que una parte significativa de los hogares de bajos ingresos no recibe estos beneficios. Claramente, el acceso a la atención de la salud se fortalecería si se ampliara el acceso a ellos, como se ha sugerido en otros análisis de la OCDE (OCDE, 2010a, 2010b y 2011b).</t>
         </is>
       </c>
-      <c r="B495" t="inlineStr"/>
-      <c r="C495" t="n">
+      <c r="B495" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5890,8 +5391,7 @@
           <t>En Bangladesh, generalmente se acepta que los hombres dirigirán los ministerios importantes, por lo que las mujeres designadas para estos puestos deben tener experiencia, conocimientos, competencia y capacidad para evitar percepciones negativas entre la gente sobre la calidad de la participación de las mujeres. Además, estas mujeres han incidido en las implicaciones sociales de las políticas con respecto a los servicios de salud, el cuidado de los niños, el alivio de la pobreza, los problemas de dote, la violencia contra las mujeres y las niñas y el desarrollo comunitario. Además, al planificar el desarrollo de la ciudad, las mujeres toman en consideración el entorno físico de las comunidades y la calidad de vida, sin excluir el arte y la cultura de las diversas comunidades.</t>
         </is>
       </c>
-      <c r="B496" t="inlineStr"/>
-      <c r="C496" t="n">
+      <c r="B496" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5901,8 +5401,7 @@
           <t>Sin embargo, se pueden ver signos alentadores en la iniciativa contra el estigma de Hjarnkoll, ya que un estudio encontró que se han medido mejoras entre 2009 y 2011 (por ejemplo, las opiniones han mejorado frente a la opinión pública de tener una persona con una enfermedad mental como vecino, y una de cada dos personas que inicialmente expresaron su desaprobación ha cambiado de opinión). El número de camas psiquiátricas (por cada 100 000 habitantes) se ha reducido a la mitad durante las últimas dos décadas, pasando de 0,95 en 1995 a 0,48 en 2010. El aumento de la financiación de los servicios ambulatorios puede ayudar a explicar esta disminución.</t>
         </is>
       </c>
-      <c r="B497" t="inlineStr"/>
-      <c r="C497" t="n">
+      <c r="B497" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5912,8 +5411,7 @@
           <t>Si bien existen variaciones entre los países en la protección de los derechos de las mujeres, la tendencia general en la región revela que la discriminación y la violencia contra las mujeres no están disminuyendo, lo que a menudo está respaldado por referencias a la religión y el origen cultural. Esta tendencia se debe a muchos factores, incluidas las barreras legales, la falta de aplicación de la ley, las crisis económicas y sociales de los países y el aumento de movimientos religiosos radicales, que exigen un retroceso en los logros en los derechos de las mujeres, particularmente en el ámbito familiar. En particular, los países que experimentaron cambios políticos y revoluciones en los últimos años han sido testigos de un aumento en el discurso religioso y tendencias retrógradas que tienden a amenazar los derechos de las mujeres.</t>
         </is>
       </c>
-      <c r="B498" t="inlineStr"/>
-      <c r="C498" t="n">
+      <c r="B498" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5923,8 +5421,7 @@
           <t>Los pacientes con condiciones crónicas severas pueden requerir visitas a servicios especializados de tercer nivel. En este caso, los costos de transporte pueden ser prohibitivos. Si bien esto puede estar cambiando, en parte como resultado del NPPH, la mayoría de los centros médicos de alta tecnología se concentran en la parte europea de la Federación Rusa (más precisamente en Moscú y San Petersburgo).</t>
         </is>
       </c>
-      <c r="B499" t="inlineStr"/>
-      <c r="C499" t="n">
+      <c r="B499" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5934,8 +5431,7 @@
           <t>Para ayudar con el costo de sus estudios, el gobierno también anunció recientemente que los estudiantes de cuota recibirán un estipendio de BRL 400 por mes (Souza, 2013) - Bolsa Permanencia (Beca para quedarse) - aumentando a BRL 900 por mes para indígenas y estudiantes quilombocr32. Los estados de Río de Janeiro y Bahía ya introdujeron sistemas de cuotas. Una evaluación de uno de estos esquemas en la Universidad de Brasilia (Francis y Tannuri-Pianto, 2012) encontró que aumentó la proporción de estudiantes negros en la universidad y que los estudiantes desplazados provenían en promedio de familias de nivel socioeconómico más bajo. Uno de los temas clave es que el sistema de educación superior brasileño es altamente regresivo. Las universidades públicas gratuitas y altamente selectivas son atendidas principalmente por estudiantes más ricos, mientras que los estudiantes más pobres se ven obligados a asistir a instituciones privadas de pago.</t>
         </is>
       </c>
-      <c r="B500" t="inlineStr"/>
-      <c r="C500" t="n">
+      <c r="B500" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5945,8 +5441,7 @@
           <t>Para las economías emergentes, la cultura puede ser un componente de primer orden en sus estrategias de desarrollo, ya sea literatura, música, videos y películas, o incluso la industria de la moda o la gastronomía. Lo más importante, creemos, es que nuestros hijos aprendan a disfrutar del arte: que se diviertan con la pintura, la escultura, la música, etc. La apreciación implica un juicio de valor: entender por qué me gusta lo que me gusta o por qué no.</t>
         </is>
       </c>
-      <c r="B501" t="inlineStr"/>
-      <c r="C501" t="n">
+      <c r="B501" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5956,8 +5451,7 @@
           <t>Para las escuelas con muy pocos estudiantes inmigrantes, los municipios podrían alentarlos a cooperar y compartir los recursos docentes de DSL a través de redes formalizadas. La investigación internacional indica que mientras los niños desarrollan habilidades lingüísticas "comunicativas" con relativa rapidez, les lleva mucho más tiempo dominar el lenguaje "académico" que se utiliza en los entornos escolares (Cummins, 1979). Esto se puede ver en los resultados de las pruebas de lectura realizadas por las escuelas a nivel local. A partir de entonces, la brecha entre los niños nativos y los inmigrantes a menudo se amplía y se convierte en una barrera para el éxito en la Folkeskole y más allá.</t>
         </is>
       </c>
-      <c r="B502" t="inlineStr"/>
-      <c r="C502" t="n">
+      <c r="B502" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5967,8 +5461,7 @@
           <t>Esto exige más intercambio de conocimientos y debates relacionados con el género y debe llevarse a cabo junto con un enfoque más práctico de las necesidades de género, por ejemplo, proporcionando espacios educativos y herramientas prácticas para permitir que las mujeres accedan a la educación. Esto puede conducir a cambios estratégicos a largo plazo en la educación. Esta perspectiva puede ser especialmente útil en el contexto de los países en desarrollo (Moser, 1993).</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr"/>
-      <c r="C503" t="n">
+      <c r="B503" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5978,8 +5471,7 @@
           <t>Para los niños más pequeños (bebés y niños pequeños), la capacitación especializada y práctica parece estar más fuertemente asociada con la calidad pedagógica y los resultados cognitivos y sociales. Los educadores de la primera infancia se encuentran con entornos sociales cada vez más complejos y se encuentran con una multiplicidad de antecedentes y experiencias familiares. Estos factores crean imperativos para adoptar nuevas pedagogías y prácticas organizacionales para acomodar este pluralismo (Elliott, 2006).</t>
         </is>
       </c>
-      <c r="B504" t="inlineStr"/>
-      <c r="C504" t="n">
+      <c r="B504" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5989,8 +5481,7 @@
           <t>La primera es una cuestión de contenido: la incapacidad de reconocer o abordar adecuadamente el trabajo no remunerado de las mujeres. Y el tercero es una cuestión de aplicación y remedio: la medida en que los órganos creados en virtud de tratados están aplicando la igualdad sustantiva para exigir 'nivelar hacia arriba' en situaciones donde la desigualdad de género está presente a fin de lograr resultados más transformadores. Si bien el preámbulo de la CEDAW habla sobre la “responsabilidad compartida entre hombres y mujeres y la sociedad en su conjunto”, esto no se pone en práctica en el cuerpo de la Convención más que en la referencia al apoyo a los padres en el lugar de trabajo.</t>
         </is>
       </c>
-      <c r="B505" t="inlineStr"/>
-      <c r="C505" t="n">
+      <c r="B505" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6000,8 +5491,7 @@
           <t>Para promover la docencia como carrera, en particular para los estudiantes de alto rendimiento, la calidad del trabajo importa al menos tanto como el salario. La transformación de la organización del trabajo de las escuelas, la participación de los docentes en la toma de decisiones escolares, la mejora de sus responsabilidades de liderazgo y la promoción de la enseñanza como una profesión exigente pero satisfactoria son palancas de política prometedoras.</t>
         </is>
       </c>
-      <c r="B506" t="inlineStr"/>
-      <c r="C506" t="n">
+      <c r="B506" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6011,8 +5501,7 @@
           <t>Como resultado, la proporción general de genéricos en el uso farmacéutico en Francia se mantuvo en torno a un tercio en 2015, a pesar de una tasa de sustitución cercana al 80 % dentro de las clases autorizadas de medicamentos (Panel B). Sería útil adoptar una lista más amplia de medicamentos a los que los genéricos pueden sustituir y, de manera más general, permitir un mayor uso de los genéricos (Cour des comptes, 2014c). De hecho, las autoridades planean una expansión limitada de la lista de dings que los genéricos pueden sustituir (ministere des Affaires sociales, de la Sante et des Droits des femmes, 2015). Participación en el mercado farmacéutico reembolsado.</t>
         </is>
       </c>
-      <c r="B507" t="inlineStr"/>
-      <c r="C507" t="n">
+      <c r="B507" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6022,8 +5511,7 @@
           <t>La guía también tiene secciones dedicadas a las consideraciones de las evaluaciones de impacto de género en el gasto público y las implicaciones de la falta de datos desagregados por género. Explicar claramente tales conceptos y establecer un caso válido para su aplicación es importante para aumentar la conciencia pública y proporciona a los servidores públicos instrucciones y un documento de referencia en respuesta a sus preguntas frecuentes. Si bien la presupuestación con perspectiva de género es obligatoria por ley, las herramientas necesarias para implementarla de manera inteligente y la incorporación más amplia de la perspectiva de género no lo son. Sin embargo, a menos que exista un mandato legal para realizar evaluaciones de impacto de género en la formulación de políticas y PSG y para recopilar datos desglosados ​​por género, estas herramientas generalmente se subutilizan o se pasan por alto.</t>
         </is>
       </c>
-      <c r="B508" t="inlineStr"/>
-      <c r="C508" t="n">
+      <c r="B508" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6033,8 +5521,7 @@
           <t>Sin embargo, los campos de alto crecimiento como la ciencia, la tecnología y la ingeniería siguen estando dominados por hombres. Las brechas salariales de género persisten y las mujeres están subrepresentadas en el liderazgo corporativo. Se necesitan políticas asequibles para el cuidado de los niños y favorables a la familia que incluyan licencias de paternidad pagadas para abordar las limitaciones de tiempo de las mujeres.</t>
         </is>
       </c>
-      <c r="B509" t="inlineStr"/>
-      <c r="C509" t="n">
+      <c r="B509" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6044,8 +5531,7 @@
           <t>En la mayoría de los contratos, el objetivo es llegar a cuatro o cinco pacientes por hora, cumpliendo también con los estándares de calidad especificados. En la encuesta nacional de salud de 2006, por ejemplo, el 31% de la población reportó obtener servicios de salud del sector privado al menos una vez al año, independientemente de su cobertura bajo la CCSS. En 2009, el 60% de los encuestados afirmó que prefería proveedores privados de atención médica (Gutiérrez, 2009).</t>
         </is>
       </c>
-      <c r="B510" t="inlineStr"/>
-      <c r="C510" t="n">
+      <c r="B510" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6055,8 +5541,7 @@
           <t>Parte de la razón de esto es que aún no hemos descubierto métodos confiables de acreditación, por lo que es difícil para los estudiantes convertir su experiencia MOOC en calificaciones que sean relevantes en el mercado laboral. Holm Keller, exvicepresidente de la Universidad Leuphana en Alemania, desarrolló una interesante variante colaborativa de un MOOC para PISA, llamada PISA4U.20 Pidió a los posibles alumnos, la mayoría de ellos educadores profesionales, que se suscribieran a un curso y luego los agrupó en función de un algoritmo para que los miembros del grupo compartieran aspiraciones comunes sobre sus objetivos educativos, pero fueran lo más diversos posible en prácticamente todos los demás aspectos. Luego, esos diversos grupos identificaron y trabajaron en los problemas en colaboración, con cada individuo apoyado por un mentor en línea y cada grupo apoyado por un tutor experimentado.</t>
         </is>
       </c>
-      <c r="B511" t="inlineStr"/>
-      <c r="C511" t="n">
+      <c r="B511" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6066,8 +5551,7 @@
           <t>Pero el trabajo crucial de implementar la EDS en la práctica educativa cotidiana aún está por delante. Los planes escolares son vistos como los instrumentos para implementar el “enfoque de toda la institución” en las operaciones escolares, particularmente en los niveles de educación preescolar, primaria y secundaria. Según lo definido por el grupo de trabajo ECE EDS sobre planes escolares, "La planificación escolar EDS es un medio para ir más allá de la concienciación sobre la sostenibilidad y participar activamente en un ciclo continuo de planificación, implementación y revisión de enfoques para la sostenibilidad como parte de cada escuela". ™s operaciones” (UNECE, 2014ft). El grupo de trabajo identificó una serie de dimensiones centrales para dichos planes, incluidos los arreglos de gobierno escolar, el plan de estudios, la enseñanza y el aprendizaje, las instalaciones y operaciones, las asociaciones y la cooperación, en particular con la comunidad circundante, y la autoevaluación.</t>
         </is>
       </c>
-      <c r="B512" t="inlineStr"/>
-      <c r="C512" t="n">
+      <c r="B512" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6077,8 +5561,7 @@
           <t>Pero la evidencia de la investigación apunta claramente a la importancia de garantizar que las oportunidades de aprendizaje profesional sean sostenibles (Darling-Hammond et al., Esto está respaldado por la comunidad de aprendizaje profesional y otra literatura relacionada (Rosenholtz, 1989, Louis, Kruse et al, 1995, Stoll et al, 2006). Los sistemas educativos de alto rendimiento, como los de Singapur y Japón, han institucionalizado esta buena práctica y han puesto la mayoría de los recursos de desarrollo profesional lo más cerca posible del punto de uso. En Singapur, por ejemplo, los docentes tienen derecho a 100 horas de desarrollo profesional cada año La mayor parte del desarrollo profesional se brinda en las escuelas donde trabajan los maestros y está dirigido a las metas y problemas específicos que los maestros y los líderes escolares están abordando en esas escuelas.</t>
         </is>
       </c>
-      <c r="B513" t="inlineStr"/>
-      <c r="C513" t="n">
+      <c r="B513" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6088,8 +5571,7 @@
           <t>No obstante, hay datos disponibles para siete de los países analizados en este capítulo en algún momento durante la última década (la única excepción es India, donde la última encuesta disponible es de 1998). La imagen que emerge es muy consistente en todos los países analizados. Los hombres suelen dedicar entre un 60 % y un 70 % menos de tiempo que las mujeres al trabajo no remunerado. En India, solo dedican media hora al trabajo no remunerado por cada cinco horas que dedican las mujeres.</t>
         </is>
       </c>
-      <c r="B514" t="inlineStr"/>
-      <c r="C514" t="n">
+      <c r="B514" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6099,8 +5581,7 @@
           <t>La prima otorgada a la garantía, el historial crediticio, la experiencia comercial y la estrategia comercial de los posibles prestatarios constituye un obstáculo para acceder a la financiación. Esto presenta un problema del lado de la oferta en términos de productos adecuados disponibles para las mujeres. Para sacar provecho de los resultados preliminares de esta encuesta, se podrían realizar más investigaciones en esta área. Las mujeres suelen tener un bajo nivel de educación financiera y, por lo general, no cuentan con las habilidades y los conocimientos necesarios para acercarse con éxito a los bancos en busca de financiación.</t>
         </is>
       </c>
-      <c r="B515" t="inlineStr"/>
-      <c r="C515" t="n">
+      <c r="B515" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6110,8 +5591,7 @@
           <t>Pero las personas que se ven a sí mismas como candidatas para las profesiones y se sienten atraídas por las condiciones de trabajo que disfrutan los profesionales, podrían no encontrar lo que buscan en las escuelas que utilizan la gestión burocrática para dirigir el trabajo de los docentes. Las campañas en los medios para mejorar la imagen de la profesión al resaltar su importancia para la nación, su sofisticación y complejidad, y el entusiasmo intelectual que puede generar, también pueden ayudar. Los países que deseen ampliar la gama de antecedentes y experiencias de los docentes podrían concentrarse en promover los beneficios de una carrera docente entre los grupos que están subrepresentados en la fuerza docente, como los hombres y las personas pertenecientes a minorías. Esto tiene como objetivo garantizar que todas las escuelas tengan acceso a maestros efectivos y un equilibrio de maestros experimentados y principiantes. La autoridad educativa local decide la asignación de maestros a las escuelas, y las reglas exactas que se siguen pueden diferir.</t>
         </is>
       </c>
-      <c r="B516" t="inlineStr"/>
-      <c r="C516" t="n">
+      <c r="B516" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6121,8 +5601,7 @@
           <t>La participación femenina en el empleo en puestos gerenciales del gobierno central ha aumentado en los últimos años, pero aún apunta a una tubería persistentemente con fugas (Figura 14.3). Los países marcados con un asterisco (*) habían legislado cuotas (es decir, cuotas implementadas a través del proceso legislativo) en vigor en 2016. En los 28 países de la Unión Europea para los que había datos disponibles, las mujeres ocupaban el 35,3% de los puestos administrativos más altos en el gobierno nacional en 2016: un aumento mínimo de 5,1 puntos porcentuales con respecto a 2013. En cuanto al segundo nivel más alto, las mujeres representaron el 41,1% de los puestos, un pequeño aumento de 2,5 puntos porcentuales con respecto a 2013. Detrás de estas cifras promedio, hay variaciones de un país a otro. , particularmente en los niveles más altos de la función pública (EIGE, 2016). Para obtener más detalles y notas específicas de cada país, consulte OCDE (2017, Figura 3.8 y Anexo D).</t>
         </is>
       </c>
-      <c r="B517" t="inlineStr"/>
-      <c r="C517" t="n">
+      <c r="B517" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6132,8 +5611,7 @@
           <t>En Nueva Zelanda, las declaraciones de impacto de género también se requieren en documentos para su Comité de Política Social del Gabinete. El Programa Nacional para la Igualdad de Género de Grecia también exige evaluaciones sistemáticas del impacto de género de los nuevos proyectos de ley. Aplica el análisis de género al gasto público para determinar cómo los presupuestos pueden tener un impacto diferencial en mujeres y hombres. El Consejo de Europa define PSG como “una aplicación de la incorporación de la perspectiva de género en el proceso presupuestario. Significa una evaluaciÃ³n de los presupuestos basada en el gÃ©nero, incorporando una perspectiva de gÃ©nero en todos los niveles del proceso presupuestario y reestructurando los ingresos y gastos para promover la igualdad de gÃ©neroâ€. déficit.</t>
         </is>
       </c>
-      <c r="B518" t="inlineStr"/>
-      <c r="C518" t="n">
+      <c r="B518" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6143,8 +5621,7 @@
           <t>En el momento de las reformas al sistema de salud a principios de la década de 1990, se esperaba que el nuevo sistema de seguro conduciría a un mejor acceso a la atención. Los datos disponibles sugieren que el nivel agregado de gasto privado ha ido en aumento (Capítulo 1). Como se señaló, tales problemas pueden surgir, por ejemplo, cuando se necesita un nivel mínimo de provisión en áreas rurales, aunque el costo y la calidad se atenderían mejor en hospitales más grandes o unidades policlínicas.</t>
         </is>
       </c>
-      <c r="B519" t="inlineStr"/>
-      <c r="C519" t="n">
+      <c r="B519" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6154,8 +5631,7 @@
           <t>Por ejemplo, en la educación preescolar y primaria, las inspecciones brindan información sobre las decisiones centrales sobre la distribución de puestos de personal en las escuelas y deciden sobre la distribución de programas específicos a escuelas individuales. Además, las preocupaciones sobre las necesidades de infraestructura pueden transmitirse desde las escuelas a través de la inspección al nivel central. Además, las inspecciones juegan un papel importante para la implementación de las decisiones sobre la organización y operación de las escuelas tomadas a nivel central.</t>
         </is>
       </c>
-      <c r="B520" t="inlineStr"/>
-      <c r="C520" t="n">
+      <c r="B520" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6165,8 +5641,7 @@
           <t>El Japan Council for Quality Health Care (JCQHC), que se creó en 1995 como una organización independiente, participa además en una serie de actividades de calidad, como la notificación de eventos médicos adversos o la acreditación de hospitales. Desde 2004, el Departamento de Prevención de Eventos Adversos del JCQHC recopila y analiza sistemáticamente datos sobre eventos médicos adversos. El objetivo general es promover la seguridad del paciente compartiendo información con instituciones médicas y usuarios. Para ello, se emiten informes trimestrales y anuales sobre eventos médicos adversos, se organizan talleres y se publican advertencias o guías.</t>
         </is>
       </c>
-      <c r="B521" t="inlineStr"/>
-      <c r="C521" t="n">
+      <c r="B521" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6176,8 +5651,7 @@
           <t>Por ejemplo, en los países de la OCDE, ocho de cada diez estudiantes informan que sus maestros les dicen lo que tienen que aprender en cada lección, y siete de cada diez estudiantes tienen maestros que hacen preguntas en cada lección para verificar que los estudiantes entienden lo que están aprendiendo. . Sin embargo, según los estudiantes, esta práctica se usa solo ocasionalmente, ya que menos de uno de cada tres estudiantes en los países de la OCDE informa que sus maestros usan esta práctica con frecuencia en sus lecciones. La Figura 3.4 muestra la frecuencia informada de las estrategias de enseñanza de matemáticas tanto dirigidas por el maestro como orientadas por el alumno.</t>
         </is>
       </c>
-      <c r="B522" t="inlineStr"/>
-      <c r="C522" t="n">
+      <c r="B522" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6187,8 +5661,7 @@
           <t>Una mayor participación laboral femenina, en particular en trabajos de tiempo completo, aumenta los ingresos familiares y mejora las perspectivas de carrera para las mujeres. Mayores ingresos para las mujeres fomentan su independencia financiera, reducen los riesgos de pobreza individual, familiar e infantil, mejoran la resiliencia frente a perturbaciones financieras adversas y aumentan los derechos de jubilación y la riqueza. El modelo se basa en un marco de contabilidad del crecimiento que permite ajustes en los parámetros estructurales que reflejan cambios en el equilibrio entre la vida laboral y personal entre mujeres y hombres, a saber, la transición hacia un modelo más equilibrado de doble ingreso y doble cuidador (Recuadro 2.2). Los resultados sugieren que es probable que el empleo a tiempo completo de las mujeres se beneficie más del gasto en licencias y subsidios por nacimiento, el gasto en servicios de cuidado infantil en general y el aumento en la cobertura de instalaciones formales de cuidado infantil para niños de 0 a 2 años en particular.</t>
         </is>
       </c>
-      <c r="B523" t="inlineStr"/>
-      <c r="C523" t="n">
+      <c r="B523" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6198,8 +5671,7 @@
           <t>Por ejemplo, las descripciones de competencias para los profesionales de la escuela (en relación con las cuales serán evaluados) y los indicadores de calidad para la evaluación de la escuela deben reflejar los objetivos de aprendizaje que el sistema escolar pretende alcanzar. Esto también implica garantizar que el marco de evaluación y evaluación capture una amplia gama de objetivos de aprendizaje de los estudiantes. Con este fin, sería útil iniciar la investigación y el desarrollo para fortalecer la gama de instrumentos disponibles para evaluar, por ejemplo, las competencias más amplias de los estudiantes, como la resolución de problemas, el razonamiento y la comunicación (Capítulo 3). Es más probable que los individuos y los grupos acepten los cambios si entienden las razones de estos cambios y pueden ver el papel que deben desempeñar dentro de la estrategia nacional general.</t>
         </is>
       </c>
-      <c r="B524" t="inlineStr"/>
-      <c r="C524" t="n">
+      <c r="B524" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6209,8 +5681,7 @@
           <t>Estrategias de igualdad de género en los países MENA (cont.) Ver Estrategia Nacional para Combatir la Violencia contra las Mujeres 2011-2019 MOWA. Egipto, Marruecos, Túnez, Autoridad Palestina, Estableciendo responsabilidades claras en todo el gobierno - Baluain, Egipto, Marruecos, Autoridad Palestina. Como tal, un componente de abajo hacia arriba en el desarrollo del plan garantizaría la participación de mujeres y hombres de todo el país.</t>
         </is>
       </c>
-      <c r="B525" t="inlineStr"/>
-      <c r="C525" t="n">
+      <c r="B525" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6220,8 +5691,7 @@
           <t>Por ejemplo, los aprendizajes pueden actuar como un medio para mejorar la integración de los refugiados y otros grupos desfavorecidos en los mercados laborales locales. Implican una combinación de aprendizaje teórico en el aula y capacitación en el trabajo, lo que generalmente conduce a una certificación formal, que otorga al individuo el estatus de "jornalero". Sin embargo, los sistemas de aprendizaje y sus marcos de gobernanza están integrados en los sistemas nacionales y regionales específicos de educación, mercado laboral y relaciones industriales de cada país de la OCDE.</t>
         </is>
       </c>
-      <c r="B526" t="inlineStr"/>
-      <c r="C526" t="n">
+      <c r="B526" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6231,8 +5701,7 @@
           <t>Por ejemplo, si los jóvenes no logran adquirir habilidades básicas sólidas (Reto 1), corren un mayor riesgo de abandonar la escuela (Reto 2), depender de los beneficios sociales (Reto 4) y tener malos resultados en el mercado laboral (Reto 5) . Incluso cuando encuentran un trabajo, su falta de habilidades básicas puede disuadir a sus empleadores de invertir en su capacitación (Desafío 7). En resumen, ningún desafío de habilidades existe de forma aislada: cada uno se ve afectado e impacta a otros dentro y entre los tres pilares.</t>
         </is>
       </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="n">
+      <c r="B527" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6242,8 +5711,7 @@
           <t>Por ejemplo, la brecha de género generalizada en las disciplinas STEM puede ser particularmente relevante para el emprendimiento innovador.5 Además, los emprendedores experimentados tienen más probabilidades de tener éxito en sus próximas empresas que los emprendedores primerizos (Gompers et al., Mecanismos adicionales que pueden contribuir a la las diferencias observadas en la financiación pueden incluir diferencias de género en la formación de redes u otras diferencias innatas entre mujeres y hombres (es decir, preferencias de riesgo, aptitud para la negociación, etc.). Si bien es imposible controlar todas las habilidades innatas y preferencias individuales, los análisis presentados en Esta sección permite desentrañar algunos mecanismos importantes, incluida la propensión a tener un título en STEM y experiencia profesional anterior, que pueden impulsar la brecha de género.</t>
         </is>
       </c>
-      <c r="B528" t="inlineStr"/>
-      <c r="C528" t="n">
+      <c r="B528" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6253,8 +5721,7 @@
           <t>Recientes iniciativas de política continúan enfatizando el papel primordial de las escuelas en sus propios procesos de evaluación y mejora. El programa Las escuelas tienen la iniciativa (School aan Zet) enfatiza aún más el papel de liderazgo de las escuelas en la determinación de las estrategias de mejora. Como dijeron algunas de las partes interesadas entrevistadas por el equipo de revisión de la OCDE, la idea es que siempre haya un “Plan B” en caso de que los propios mecanismos de garantía de calidad de una escuela no funcionen de manera satisfactoria.</t>
         </is>
       </c>
-      <c r="B529" t="inlineStr"/>
-      <c r="C529" t="n">
+      <c r="B529" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6264,8 +5731,7 @@
           <t>Según datos de la Comisión Económica para América Latina y el Caribe (CEPAL) basados ​​en encuestas de uso del tiempo, las mujeres realizan entre el 71% y el 86% de todo el trabajo no remunerado que necesitan los hogares (CEPAL, 2016b, p. 62). Además, entre el 12% y el 66% de las mujeres entre 20 y 59 años en Uruguay y El Salvador, respectivamente, están fuera del mercado laboral por motivos familiares (CEPAL, 2016b, p. 60). En primer lugar, quienes requieren cuidado deben recibirlo a través de servicios de calidad, el acceso al cuidado en el mercado no debe intensificar la pobreza en el hogar y el trabajo de cuidado no debe crear barreras para la educación y el empleo en igualdad de condiciones entre hombres y mujeres.</t>
         </is>
       </c>
-      <c r="B530" t="inlineStr"/>
-      <c r="C530" t="n">
+      <c r="B530" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6275,8 +5741,7 @@
           <t>Redes de pares tenc Los pocos sistemas de América Latina y Medio Oriente escala. La tabla indica dónde, entre todos los docentes, un determinado docente se beneficiaría de una sola mejor práctica, en comparación con aquellos que se benefician de cinco o diez tan importantes. La Tabla 2.1 muestra el puntaje de un docente en la profesionalidad docente que se espera que clasifique si se benefició de las prácticas que la OCDE identifica o se encuentra entre el tercio inferior de todas las profesiones y entornos laborales.</t>
         </is>
       </c>
-      <c r="B531" t="inlineStr"/>
-      <c r="C531" t="n">
+      <c r="B531" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6286,8 +5751,7 @@
           <t>Sin embargo, en varios países, los requisitos de cuotas que están respaldados por mecanismos de implementación efectivos, salvaguardias y estructuras sólidas de rendición de cuentas han ayudado a impulsar la representación de las mujeres en los últimos años. Como mecanismos de supervisión, los comités parlamentarios pueden beneficiarse aún más de la expansión de su experiencia en género para hacer que el gobierno rinda cuentas por el logro de los objetivos nacionales de igualdad de género. Se utilizaron con menos frecuencia los mecanismos que analizan los presupuestos y los gastos desde una perspectiva de género. El parlamento es responsable de implementar estas medidas, y los tribunales son responsables de la supervisión.</t>
         </is>
       </c>
-      <c r="B532" t="inlineStr"/>
-      <c r="C532" t="n">
+      <c r="B532" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6297,8 +5761,7 @@
           <t>Mientras que la tasa de recuento multidimensional de los hombres en 2011-2012 fue de 0,40, en el caso de las mujeres fue de 0,68 (Cuadro 11-21). El índice de Alkire y Foster de las mujeres fue de 0,28 frente a 0,10 de los hombres. Por lo tanto, el índice de sesgo de género llegó a 3,0, lo que indica que las mujeres tienen tres veces más privaciones que los hombres. También ha habido cambios estructurales en la población, incluida una mejor proporción de sexos, tasas de natalidad reducidas, un aumento en la edad promedio para contraer matrimonio, una mayor longevidad y un envejecimiento progresivo de la población.</t>
         </is>
       </c>
-      <c r="B533" t="inlineStr"/>
-      <c r="C533" t="n">
+      <c r="B533" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6308,8 +5771,7 @@
           <t>La mayoría de las trabajadoras rurales están empleadas en la agricultura tradicional. Las mujeres que trabajan por cuenta propia tienen más probabilidades que los hombres de ser clasificadas como trabajadoras familiares en lugar de trabajadoras por cuenta propia. Las mujeres y las niñas siguen teniendo un nivel educativo significativamente limitado, lo que contribuye a la segregación ocupacional. Estas brechas se explican en gran medida por las diferencias en las variables de capital humano, como la educación, la formación y la experiencia.</t>
         </is>
       </c>
-      <c r="B534" t="inlineStr"/>
-      <c r="C534" t="n">
+      <c r="B534" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6319,8 +5781,7 @@
           <t>En el Grupo de países 2 ("Comportamiento femenino polarizado en el mercado laboral"), donde las madres trabajan a tiempo completo o no trabajan, la probabilidad de trabajar a tiempo completo en lugar de a tiempo parcial aumenta solo cuando el hijo menor tiene entre 6 y 10 años. Y en países donde las madres suelen trabajar a tiempo parcial ("Mujeres con trabajo a tiempo parcial a largo plazo", Grupo de países 1), la probabilidad de trabajar a tiempo completo aumenta solo cuando el hijo menor tiene entre 11 y 15 años. como también es el caso en países con una brecha de género relativamente estrecha en las horas de trabajo (por ejemplo, Francia y los Países Nórdicos, Grupo de países 4). En los países de Europa del Este (Grupo de países 3), el número de niños en un hogar no parece tener un impacto significativo en la probabilidad de que una madre empleada trabaje a tiempo completo en lugar de a tiempo parcial.</t>
         </is>
       </c>
-      <c r="B535" t="inlineStr"/>
-      <c r="C535" t="n">
+      <c r="B535" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6330,8 +5791,7 @@
           <t>Los hombres también pueden tratar de mantener el control sobre cuánto están dispuestos a cambiar y bajo qué condiciones, conservando así las jerarquías de poder de género y reduciendo su responsabilidad ante las necesidades y deseos de las mujeres (Pierotti, Lake y Lewis, 2018). Si bien ninguna intervención puede cambiar la totalidad de una sociedad, existe la necesidad de trabajar no solo con los individuos sino también con las redes sociales que habitan, ya sean familias o compañeros. En cuanto a la prevención de la violencia de género, especialmente la VPI y la violencia doméstica, las parejas de los hombres y la familia en general también deben participar.</t>
         </is>
       </c>
-      <c r="B536" t="inlineStr"/>
-      <c r="C536" t="n">
+      <c r="B536" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6341,8 +5801,7 @@
           <t>Todos los países deben hacer del acceso a la atención básica de la salud y la promoción de la salud las estrategias centrales para reducir la mortalidad y la morbilidad. Se deben asignar recursos suficientes para que los servicios primarios de salud alcancen la cobertura total de la población. Los gobiernos deben fortalecer las actividades de información, educación y comunicación sobre salud y nutrición para permitir que las personas aumenten su control sobre su salud y la mejoren.</t>
         </is>
       </c>
-      <c r="B537" t="inlineStr"/>
-      <c r="C537" t="n">
+      <c r="B537" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6352,8 +5811,7 @@
           <t>Por ejemplo, la evidencia muestra que una distribución más equitativa de la propiedad dentro de la familia puede tener una variedad de beneficios, como aumentar la participación femenina en la fuerza laboral y mejorar la educación de las niñas. Por ejemplo, cuando las familias tienen pocos recursos, los niños pueden verse obligados a trabajar en lugar de ir a la escuela y las niñas pueden verse obligadas a casarse o se les puede negar la educación porque sus familias no pueden pagarla. Por ejemplo, el derecho igualitario de mujeres y hombres a decidir libremente el número y espaciamiento de sus hijos (p. ej., art. También exige garantizar que mujeres y hombres tengan los mismos derechos para tomar decisiones relativas a la reproducción libres de discriminación, coerción y violencia.</t>
         </is>
       </c>
-      <c r="B538" t="inlineStr"/>
-      <c r="C538" t="n">
+      <c r="B538" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6363,8 +5821,7 @@
           <t>Estos están dando sus frutos en el sector de la salud, donde la infraestructura de maternidad se integrará en todos los nuevos establecimientos de salud a nivel distrital o rural. Es un punto de entrada para garantizar que el gasto público sea sensible al género y beneficie a mujeres y hombres por igual. De los 36 países que informaron sobre el indicador, 12 cuentan con sistemas para rastrear y hacer públicas las asignaciones para la igualdad de género (PNUD-OCDE, 2014). Cuatro países adicionales tienen un sistema de seguimiento, pero las asignaciones no se hacen públicas.</t>
         </is>
       </c>
-      <c r="B539" t="inlineStr"/>
-      <c r="C539" t="n">
+      <c r="B539" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6374,8 +5831,7 @@
           <t>Reveló que Ofsted tiene poco control directo sobre este objetivo, excepto en lo que respecta a las disposiciones legales para identificar y monitorear las escuelas y el control regulatorio del cuidado infantil. Los hallazgos indican que los proveedores bien administrados y aquellos que causan preocupación son los más propensos a beneficiarse de las inspecciones. Este estudio proporciona una mirada más detallada a la calidad de los entornos de la primera infancia en Inglaterra (Reino Unido).</t>
         </is>
       </c>
-      <c r="B540" t="inlineStr"/>
-      <c r="C540" t="n">
+      <c r="B540" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6385,8 +5841,7 @@
           <t xml:space="preserve">Se analiza la necesidad de desarrollar competencias para hacer frente a la escasez actual y prevista en Ã¡reas emergentes, asÃ como los modos y mecanismos de compromiso de estas instituciones para promover el desarrollo regional. El capÃtulo tambiÃ©n explora las condiciones previas necesarias para promover con Ã©xito el compromiso local en relaciÃ³n con estas instituciones. Concluye con recomendaciones para los organismos nacionales y subnacionales, así como para las propias instituciones de enseñanza superior. </t>
         </is>
       </c>
-      <c r="B541" t="inlineStr"/>
-      <c r="C541" t="n">
+      <c r="B541" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6396,8 +5851,7 @@
           <t>Se necesita una planificación y protocolos cuidadosos para garantizar que las preguntas se formulen de manera adecuada y que las mujeres se sientan seguras de responder con honestidad. En su lugar, los países deberían recopilar regularmente sus propios datos para que sirvan como línea de base para medir el progreso. Para los países que han realizado múltiples oleadas de encuestas con preguntas sobre acoso sexual y/o violencia contra las mujeres, es posible observar cambios a lo largo del tiempo.</t>
         </is>
       </c>
-      <c r="B542" t="inlineStr"/>
-      <c r="C542" t="n">
+      <c r="B542" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6407,8 +5861,7 @@
           <t>Publica un informe de género que resume todos los programas y acciones en materia de igualdad de género, como el Plan de Acción para la Integración del Enfoque de Género en las Políticas Rurales. Varios ministerios han elaborado estrategias específicas para cada ministerio en el marco de esta nueva estrategia general de género. Más tarde estuvo bajo la revisión del Ministerio de Planificación y Desarrollo Administrativo (MoPAD).</t>
         </is>
       </c>
-      <c r="B543" t="inlineStr"/>
-      <c r="C543" t="n">
+      <c r="B543" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6418,8 +5871,7 @@
           <t>Sin embargo, por convención se registran en HC.5 cuando los consumidores los adquieren de vendedores minoristas, porque no se suele identificar el propósito. Esto incluye preparados medicinales, medicamentos de marca y genéricos, fármacos, medicamentos de patente, sueros y vacunas, y anticonceptivos orales. Los líquidos necesarios para la diálisis, así como los gases utilizados en la atención de la salud, como el oxígeno, también deben incluirse cuando el paciente o sus familiares los adquieran directamente.</t>
         </is>
       </c>
-      <c r="B544" t="inlineStr"/>
-      <c r="C544" t="n">
+      <c r="B544" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6429,8 +5881,7 @@
           <t>En Luxemburgo, México y los Países Bajos, la brecha de género a favor de los hombres se redujo porque los niños tuvieron un desempeño más bajo, mientras que las niñas se mantuvieron estables. Sin embargo, las comparaciones entre el desempeño de los estudiantes de 15 años en el PISA de la OCDE en 2003 y el desempeño de aproximadamente la misma cohorte de nacimiento alrededor de los 24 años en la Encuesta de Competencias de Adultos (PIAAC, por sus siglas en inglés) de la OCDE de 2012 sugiere que las brechas de género en matemáticas a veces ampliar a medida que los adolescentes pasan a la edad adulta (Figura 6.3). Entre los países de la OCDE con datos disponibles, la brecha de género promedio estandarizada es de 0,12 puntos a la edad de 15 años y de 0,18 puntos alrededor de los 24 años, todavía pequeña. Sin embargo, en Canadá, Austria y Noruega, la brecha de género estandarizada entre los que tienen alrededor de 24 años es superior a 0,3 puntos, y en Finlandia y Estados Unidos es superior a 0,5 puntos (Gráfico 6.3).</t>
         </is>
       </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="n">
+      <c r="B545" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6440,8 +5891,7 @@
           <t>Se están realizando esfuerzos integrales para aumentar el atractivo de la EFP, incluidos cambios en la gobernanza de las escuelas de EFP que fortalecerán la participación de la comunidad y la colaboración empresarial, mejoras en la fuerza laboral de capacitación vocacional a través de la educación profesional continua, inversiones a gran escala en una red nacional de centros de capacitación práctica sectorial que proporcionar instalaciones de última generación para la formación profesional, información mejorada sobre los resultados del mercado laboral a través de un nuevo sistema de información de recursos humanos y esfuerzos para aclarar la base legal de los aprendizajes y proporcionar subsidios a los empleadores, para que los empleadores puedan crear más oportunidades de aprendizaje. La evidencia preliminar sugiere pocos avances para aumentar el atractivo de la EFP para estudiantes o empleadores. Implementar el sistema de seguimiento de recursos humanos recientemente autorizado y utilizarlo para proporcionar evidencia de los beneficios de VET a los futuros estudiantes. Aumentar la capacidad escolar y los incentivos para la formación de aprendices, y aclarar el alcance de los incentivos de los empleadores para la creación de contratos de aprendizaje.</t>
         </is>
       </c>
-      <c r="B546" t="inlineStr"/>
-      <c r="C546" t="n">
+      <c r="B546" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6451,8 +5901,7 @@
           <t>Se han agrupado según las diferentes opciones políticas y su alcance. Casi uno de cada cinco estudiantes de 15 años en los países de la OCDE no alcanza un nivel mínimo de habilidades para funcionar en la sociedad actual, y existen grandes diferencias de rendimiento entre estudiantes de diferentes entornos socioeconómicos. Los países han adoptado diferentes opciones de políticas para responder a sus desafíos de equidad.</t>
         </is>
       </c>
-      <c r="B547" t="inlineStr"/>
-      <c r="C547" t="n">
+      <c r="B547" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6462,8 +5911,7 @@
           <t>Hacer que los beneficios del registro sean más visibles y sustanciales. Se necesitaron extracciones de datos originales ya que los conjuntos de datos disponibles (por ejemplo, las estadísticas de la fuerza laboral publicadas por la OCDE y la OIT) no brindan información distinta sobre los trabajadores por cuenta propia con y sin empleados. Esta desagregación es muy relevante porque las diferencias de género son generalmente más marcadas para la clase de empresarios con empleados asalariados (autónomos con empleados o “empleadores”). Tanto los empleadores femeninos como masculinos no incorporados y incorporados se incluyen en la Figura 22.1 cuando la información está disponible.</t>
         </is>
       </c>
-      <c r="B548" t="inlineStr"/>
-      <c r="C548" t="n">
+      <c r="B548" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6473,8 +5921,7 @@
           <t>Esto implica que el tiempo de las mujeres en el mercado laboral se ve afectado negativamente por las responsabilidades del cuidado de los hijos, mientras que es más probable que los maridos pasen más tiempo en el lugar de trabajo. La presencia de padres mayores, por otro lado, disminuye la participación de las esposas en el hogar, lo que sugiere que es probable que ayuden en algunas tareas domésticas. Su efecto negativo sobre la participación de los maridos en el mercado de trabajo puede explicarse por la práctica cultural de que los padres mayores vivan con las familias de sus hijos y, por lo tanto, el incentivo para que los maridos pasen más tiempo en casa.</t>
         </is>
       </c>
-      <c r="B549" t="inlineStr"/>
-      <c r="C549" t="n">
+      <c r="B549" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6484,8 +5931,7 @@
           <t>Indican que ha habido una mejora constante en la prescripción. El grupo brinda asesoramiento sobre evidencia clínica y rentabilidad, considerando tecnologías nuevas y existentes. El grupo también trabaja en estrecha colaboración con la Junta de Asociación de Innovación en Salud para optimizar el camino hacia las nuevas innovaciones en salud. Su resumen piloto de tecnología médica innovadora (IMTO), por ejemplo, toma semanas en lugar de años para evaluar una nueva tecnología. Proporciona información temprana sobre la naturaleza, el presupuesto potencial y el impacto en el servicio de las tecnologías sanitarias en desarrollo. La NFP está representada por las 22 juntas del NHS y el gobierno escocés, así como por otras partes interesadas.</t>
         </is>
       </c>
-      <c r="B550" t="inlineStr"/>
-      <c r="C550" t="n">
+      <c r="B550" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6495,8 +5941,7 @@
           <t>Las asociaciones de mujeres empresarias existen en casi todos los países MENA y brindan algún tipo de apoyo comercial (tutoría, ferias comerciales, seminarios) a pesar de sus limitados recursos financieros, humanos y técnicos. Proporcionan una gran cantidad de información sobre las limitaciones comerciales y las necesidades de apoyo de sus miembros, pero su papel de promoción de políticas a menudo es limitado porque están excluidos del diálogo sobre políticas nacionales. El WBF es una red interregional de representantes gubernamentales, del sector privado y de la sociedad civil que trabaja con los gobiernos para mejorar las políticas y la legislación que impactan en la integración económica de las mujeres. También trabaja con empresas, ONG y el mundo académico para facilitar el intercambio de experiencias y buenas prácticas para brindar apoyo concreto a las mujeres empresarias.</t>
         </is>
       </c>
-      <c r="B551" t="inlineStr"/>
-      <c r="C551" t="n">
+      <c r="B551" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6506,8 +5951,7 @@
           <t>Las tasas de fecundidad más bajas reducen la carga de trabajo no remunerado de las mujeres y facilitan su mayor participación en la fuerza laboral. Además, a medida que disminuyen las tasas de fecundidad, la población en edad de trabajar crece a un ritmo más rápido que la población general, lo que reduce la tasa de dependencia y ayuda a impulsar los ahorros y las inversiones (incluidas las inversiones en los niños), con efectos positivos en el crecimiento per cápita. -llamado â€œregalo demogrÃ¡ficoâ€. Reducir la brecha de género en el empleo también genera externalidades positivas.</t>
         </is>
       </c>
-      <c r="B552" t="inlineStr"/>
-      <c r="C552" t="n">
+      <c r="B552" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6517,8 +5961,7 @@
           <t>La legislación aprobada en junio de 2017 allana el camino para establecer un sistema nacional de salud con cobertura universal para 2020, lo que tendrá profundos efectos en la forma en que se financia y organiza la atención. Un 80% de la población reporta gozar de buena salud, aunque existen notables desigualdades socioeconómicas. El aumento de la esperanza de vida se debe principalmente a un menor número de muertes por enfermedades cardiovasculares, aunque siguen siendo la principal causa de muerte.</t>
         </is>
       </c>
-      <c r="B553" t="inlineStr"/>
-      <c r="C553" t="n">
+      <c r="B553" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6528,8 +5971,7 @@
           <t>La migración masiva de población a Ulaanbaatar genera dificultades para que la ciudad acomode a esta población y conduce a la formación de distritos ger en los alrededores de la ciudad. Las condiciones sanitarias, ambientales y sociales degradadas son más propensas al desarrollo de enfermedades. La proporción de la población de 5 a 14 años alcanzó el 17,4 % a fines de 2016, en comparación con el 26,3 % a fines de 1997.</t>
         </is>
       </c>
-      <c r="B554" t="inlineStr"/>
-      <c r="C554" t="n">
+      <c r="B554" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6539,8 +5981,7 @@
           <t>Se han introducido estándares para que los proveedores aseguren un nivel mínimo de calidad y un nuevo currículo establecerá por primera vez objetivos educativos para niños menores de 4 años. También se están desarrollando importantes herramientas de planificación, como un identificador único de niño y una base de datos georreferenciada para centros de atención, para orientar mejor los servicios hacia los más necesitados. Sin embargo, Costa Rica está muy rezagada con respecto a la mayoría de los países de la OCDE y muchos países de América Latina en términos de acceso, calidad y equidad de la provisión para la primera infancia.</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr"/>
-      <c r="C555" t="n">
+      <c r="B555" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6550,8 +5991,7 @@
           <t>El uso de dichos datos por parte de la OCDE es sin perjuicio del estado de los Altos del Golán, Jerusalén Este y los asentamientos israelíes en Cisjordania según los términos del derecho internacional. Cerrar esta brecha generaría mejoras en el bienestar de las mujeres individuales y de la sociedad en su conjunto. Esta opinión está respaldada por muchos estudios basados ​​en muestras pequeñas y respuestas autoinformadas (OCDE/CE, 2017). Sin embargo, Saridakis et al. (Tales diferencias pueden explicarse en parte por diferentes motivaciones y los diferentes sectores en los que operan las mujeres empresarias.</t>
         </is>
       </c>
-      <c r="B556" t="inlineStr"/>
-      <c r="C556" t="n">
+      <c r="B556" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6561,8 +6001,7 @@
           <t>Sin embargo, es esencial garantizar mandatos claros y poderosos, recursos suficientes y liderazgo político para que estas instituciones coloquen las consideraciones de género de manera efectiva en la parte superior de la agenda política. Alrededor de la mitad de los países de la OCDE también se ocupan de cuestiones de género como parte de las carteras más amplias de los ministerios (por ejemplo, la República Checa, Finlandia, Alemania, Grecia, Irlanda, Noruega, la República Eslovaca, España, Suecia y Suiza). En Argelia, una institución principal de género centralizada administrativamente se coordina con secciones geográficamente descentralizadas. A nivel local, existen oficinas de secciones sociales en cada wilaya (provincia) de Argelia con el fin de mejorar la situación de las familias y las mujeres.</t>
         </is>
       </c>
-      <c r="B557" t="inlineStr"/>
-      <c r="C557" t="n">
+      <c r="B557" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6572,8 +6011,7 @@
           <t>Las medidas para empoderar a las mujeres también deben llegar a las nuevas generaciones de mujeres de las que se espera que desempeñen un papel político más importante. Como señaló la jefa de una agencia de cooperación europea, "una mayor participación de las mujeres en el desarrollo de políticas del sector agrícola, comercial y financiero, y una mayor participación en el diseño de políticas de desarrollo económico local ayudarían a garantizar un mejor acceso de las mujeres a los medios de producción". , mercados, finanzas y conexiones políticas que ayudarían a desarrollar sus negocios” (Entrevista 3, 2018). Para la directora de una organización regional africana, la paridad en esta área implica "La introducción de módulos sobre liderazgo en cursos escolares y universitarios y un aumento en la conciencia de los líderes de opinión sobre el papel político que pueden desempeñar las mujeres y las limitaciones que enfrentan" ( Entrevista 31, 2018).</t>
         </is>
       </c>
-      <c r="B558" t="inlineStr"/>
-      <c r="C558" t="n">
+      <c r="B558" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6583,8 +6021,7 @@
           <t>Esto está frecuentemente relacionado con el matrimonio precoz, la maternidad y otras responsabilidades de cuidado. Incluso cuando ingresan al mercado laboral, es más probable que las mujeres se vean confinadas a los trabajos más vulnerables, con frecuencia en el sector informal. Esto sugiere que abordar las barreras que limitan el acceso de las niñas y las mujeres a la educación y las oportunidades de empleo probablemente tendría efectos positivos, entre otros, también en la reducción de la brecha de género en la educación financiera, mejorando así el empoderamiento financiero de las mujeres. y bienestar</t>
         </is>
       </c>
-      <c r="B559" t="inlineStr"/>
-      <c r="C559" t="n">
+      <c r="B559" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6594,8 +6031,7 @@
           <t>La seguridad del paciente también se implementa a través de mecanismos de acreditación, pero la cultura de seguridad del paciente y la implementación de políticas de seguridad varían. Estos son a menudo iniciados por la Asociación Danesa de Seguridad del Paciente. Se han establecido cuatro programas importantes para garantizar la seguridad del paciente: el Estudio Danés de Eventos Adversos en 2001, la Sociedad Danesa para la Seguridad del Paciente (DSFP), el Programa Danés de Hospitales Más Seguros y el Sistema Nacional de notificación de eventos adversos.</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr"/>
-      <c r="C560" t="n">
+      <c r="B560" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6605,8 +6041,7 @@
           <t>A medida que la comunidad mundial define los Objetivos de Desarrollo Sostenible (ODS) para la era posterior a 2015, hace un balance y extrae lecciones de las experiencias políticas en todo el mundo para trazar una agenda de acción con visión de futuro. Este Informe se basa en experiencias, evidencia y análisis de diversos contextos nacionales y regionales para responder a esta pregunta. Revisa los logros de las mujeres en la obtención de la igualdad ante la ley, el acceso a la educación y otros servicios sociales, en el aumento de su visibilidad como actores políticos, en la participación en el trabajo remunerado y sus beneficios, y en un mayor reconocimiento público de la escala y la gravedad de la violencia que sufren. experiencia. Pero también pregunta por qué el progreso para garantizar el disfrute práctico de una variedad de derechos económicos y sociales por parte de las mujeres ha sido tan lento y desigual entre países y entre grupos sociales.</t>
         </is>
       </c>
-      <c r="B561" t="inlineStr"/>
-      <c r="C561" t="n">
+      <c r="B561" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6616,8 +6051,7 @@
           <t>Se informan a nivel de escuela, se comparan con los promedios nacionales y municipales y se ajustan por las características de los estudiantes, para la gestión y mejora de la escuela. Existe un amplio margen para mejorar el uso de los recursos de evaluación bien desarrollados de Lituania, incluido el uso ampliado por parte de los directores y maestros escolares con el fin de mejorar la gestión escolar y las prácticas de instrucción, y por parte de las autoridades fuera de las escuelas que son responsables de la evaluación externa. seguro de calidad. Lituania ha establecido una participación universal efectiva en una evaluación nacional basada en criterios en los grados 4, 6 y 8. Ahora debe concluir su uso de la Encuesta Nacional de Rendimiento Estudiantil, incorporando a su sistema de evaluación aquellos componentes de la Encuesta Nacional, como como cuestionarios para docentes y alumnos, que brindan información que los docentes, los directores de escuela y otras partes interesadas consideran valiosa.</t>
         </is>
       </c>
-      <c r="B562" t="inlineStr"/>
-      <c r="C562" t="n">
+      <c r="B562" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6627,8 +6061,7 @@
           <t>La flexibilidad de las garantías es un elemento importante para las mujeres, porque los bienes, en particular la tierra, son tradicionalmente propiedad de los hombres. En 2007, el banco comercial Development Finance Company of Uganda, junto con la IFC y la Asociación de Mujeres Empresarias de Uganda, lanzaron el Programa de Mujeres Empresarias. Su enfoque especial en las PYME proporciona préstamos a mujeres empresarias sin requerir tierras como garantía".</t>
         </is>
       </c>
-      <c r="B563" t="inlineStr"/>
-      <c r="C563" t="n">
+      <c r="B563" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6638,8 +6071,7 @@
           <t>Se puede acceder al texto de esta recomendación en htln://www.un.org/womenwatch/daw/cedaw/recommendations/General%20recommendalion%2025%20(English).ndf. La proporción de mujeres en los parlamentos de la región árabe ha aumentado en general desde 1995 (Cuadro 2). Ha alcanzado más del 25 por ciento en Argelia, Irak, Mauritania, Sudán y Túnez, mostrando un aumento significativo después de la adopción de cuotas de género en estos países. Sin embargo, siguen existiendo grandes disparidades en la participación de las mujeres en toda la región, y la presencia de mujeres en el parlamento es casi nula en al menos siete países (Comoras, Egipto, Kuwait, Líbano, Omán, Qatar y Yemen).</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="n">
+      <c r="B564" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6649,8 +6081,7 @@
           <t>"No especialista" incluye médico general, farmacéutico, enfermero, trabajador social u "alguien más". â€œ Cualquierâ€ tratamiento incluye tratamiento por especialista o no especialista. Este resultado se aplica a la proporción que buscó algún tratamiento, independientemente del proveedor específico, así como a la proporción que buscó ayuda de especialistas en salud mental (p. ej., psiquiatras).</t>
         </is>
       </c>
-      <c r="B565" t="inlineStr"/>
-      <c r="C565" t="n">
+      <c r="B565" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6660,8 +6091,7 @@
           <t>En primer lugar, las remesas y otros beneficios para el hogar y la comunidad hacen que los beneficios de la emigración femenina sean más evidentes, lo que a su vez crea incentivos para aumentar la capacidad de las mujeres para migrar mediante la mejora del acceso de las mujeres a las oportunidades, los recursos y el poder. Por ejemplo, las mujeres que envían remesas ganan más respeto dentro de su familia y comunidad (Jolly y Reeves, 2005). Además, es menos probable que los padres que dependen de las remesas de sus hijas las obliguen a regresar a casa para casarse (Temin et al.,</t>
         </is>
       </c>
-      <c r="B566" t="inlineStr"/>
-      <c r="C566" t="n">
+      <c r="B566" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6671,8 +6101,7 @@
           <t>Pero el hecho es que son principalmente las mujeres las que se aprovechan de las políticas favorables a la familia, como los arreglos laborales flexibles, lo que perpetúa la idea de que las responsabilidades familiares son un asunto de mujeres. Si las mujeres son buenas para los negocios, ¿por qué tan pocas llegan a la cima y por qué tantas simplemente dejan de intentarlo? El teletrabajo y el trabajo a tiempo parcial o temporal pueden parecer atractivos a corto plazo como formas de hacer malabarismos con el trabajo y los compromisos familiares, pero la elección puede resultar costosa a largo plazo, no solo en términos de salario, sino también de pensiones y seguridad laboral. Las prácticas laborales favorables a la familia pueden facilitar la combinación del trabajo y la vida familiar, pero solo si tanto hombres como mujeres las aprovechan. Sin embargo, ¿los empleadores facilitan que hombres y mujeres compartan las responsabilidades domésticas y familiares fuera del lugar de trabajo?</t>
         </is>
       </c>
-      <c r="B567" t="inlineStr"/>
-      <c r="C567" t="n">
+      <c r="B567" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6682,8 +6111,7 @@
           <t>Se lanzó un piloto en 2005-07 en los sectores de la moda y la mecánica automotriz (pero sin una evaluación formal de los resultados) (Ministerio de Formación Profesional y Empleo, 2012). Además, apoya la inclusión social, al permitir que los adultos con educación formal limitada obtengan el reconocimiento de las competencias adquiridas mientras trabajaban, ayudándolos así a avanzar en sus carreras. Finalmente, también funciona como una herramienta para premiar el aprendizaje y las habilidades, ambos adquiridos en entornos informales.</t>
         </is>
       </c>
-      <c r="B568" t="inlineStr"/>
-      <c r="C568" t="n">
+      <c r="B568" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6693,8 +6121,7 @@
           <t>El desarrollo de las estadísticas de género debe concretarse dentro del marco legal de los sistemas estadísticos oficiales (Naciones Unidas, 2006). De crucial importancia para mejorar la disponibilidad de estadísticas de género es la especificación de requisitos formales para el desglose por sexo y la incorporación de una perspectiva de género dentro de la legislación estadística nacional que regula la producción y difusión de estadísticas oficiales. Con el fin de ampliar la gama de información disponible para el análisis de género, es necesario establecer requisitos no solo para las estadísticas ya recopiladas oficialmente por la oficina nacional de estadística, sino también para otras fuentes de datos, en particular los datos administrativos recopilados y difundidos por otros organismos gubernamentales. y por organizaciones de los sectores público y privado (Naciones Unidas, 2006).</t>
         </is>
       </c>
-      <c r="B569" t="inlineStr"/>
-      <c r="C569" t="n">
+      <c r="B569" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6704,8 +6131,7 @@
           <t>Las reformas laborales, la legislación para combatir la violencia contra las mujeres y las leyes de igualdad y no discriminación son ejemplos de resultados concretos facilitados a través del trabajo de las instituciones nacionales de género (Johan, 2010). En la región MENA, por ejemplo, las instituciones de género en Egipto presionaron al Parlamento para que cambiara las leyes de nacionalidad, las leyes de pensión, la ley de exención de impuestos1, la ley de fondo de pensión alimenticia y la ley de familia. En Jordania, la edad legal para contraer matrimonio se elevó mediante reformas legales apoyadas por las instituciones nacionales de género (Ibíd.).</t>
         </is>
       </c>
-      <c r="B570" t="inlineStr"/>
-      <c r="C570" t="n">
+      <c r="B570" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6715,8 +6141,7 @@
           <t>El gasto farmacéutico puede reducirse haciendo un uso más eficaz de las prácticas de contratación pública y fomentando la prescripción de genéricos. Hungría informa entre las tasas de mortalidad más altas tanto para los cánceres prevenibles (p. ej., cáncer de pulmón) como para los cánceres tratables (p. ej., cáncer de mama, de cuello uterino y de colon). Existen programas nacionales para promover la detección periódica del cáncer de mama y de cuello uterino, pero las tasas de detección entre las mujeres del grupo de edad objetivo siguen siendo bajas.</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr"/>
-      <c r="C571" t="n">
+      <c r="B571" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6726,8 +6151,7 @@
           <t>Las formas dañinas de alcohol son motivo de preocupación para los gobiernos y los empleadores privados, ya que pueden tener un impacto negativo en el empleo y los salarios, y reducir la productividad en el trabajo. De hecho, se ha demostrado que el abuso del alcohol tiene resultados negativos en el mercado laboral, aunque con algunos resultados mixtos según los patrones de bebida y el género (consulte la Sección 5). Por lo tanto, la prevención del uso nocivo del alcohol y las enfermedades crónicas relacionadas puede conducir a ganancias sustanciales en la producción económica a través de una fuerza laboral más sana y activa. Los hallazgos presentados en este informe no están exentos de limitaciones.</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr"/>
-      <c r="C572" t="n">
+      <c r="B572" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6737,8 +6161,7 @@
           <t>Este patrón muestra los impactos que tener un hijo puede tener sobre la participación en el mercado laboral y los ingresos de las mujeres y, en consecuencia, sobre los beneficios de pensión. En estos y otros tipos de sistemas de pensión que vinculan los beneficios con el empleo y los ingresos anteriores, los beneficios tienden a reflejar las "desventajas acumuladas de las mujeres por la participación de toda una vida en un mercado laboral con sesgo de género" (Comisión Europea 2013:21). De hecho , cuando los derechos de protección social están asociados al trabajo remunerado, y no existen o existen mecanismos insuficientes para reconocer y recompensar otro tipo de contribuciones que las personas realizan a la sociedad (como el trabajo no remunerado), las desigualdades de género en el mercado laboral se transmiten al sistema de protección social (Razaví 2011).</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr"/>
-      <c r="C573" t="n">
+      <c r="B573" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6748,8 +6171,7 @@
           <t>Los largos tiempos de espera para los servicios cubiertos pueden impedir gravemente el acceso a la atención y empeorar la salud de los pacientes que requieren un procedimiento. Los tiempos de espera se han medido en varios países de la OCDE, aunque no necesariamente de manera homogénea (Siciliani et al., La calidad de la atención tiene múltiples dimensiones y la OCDE ahora propone un conjunto de indicadores en diferentes dominios que pueden ser utilizados por país con sistemas de información apropiados ¿Qué proporción de los costos se cubre?</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr"/>
-      <c r="C574" t="n">
+      <c r="B574" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6759,8 +6181,7 @@
           <t>Existen pautas nacionales para fumar, el consumo de alcohol, la actividad física y la dieta; se espera que el personal de atención primaria aconseje a los pacientes sobre estos hábitos de estilo de vida y ofrezca asesoramiento, apoyo y remisiones. Para los pacientes que requieren atención a largo plazo, la responsabilidad del paciente se transfiere al municipio una vez que se ha desarrollado un plan de atención. Las responsabilidades y los arreglos para la atención primaria en el contexto de la atención a largo plazo para los ancianos son variables.</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr"/>
-      <c r="C575" t="n">
+      <c r="B575" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6770,8 +6191,7 @@
           <t>Se moviliza una red de actores competentes (los administradores de casos) para apoyar al estudiante en diferentes tareas que conducen a una calificación postobligatoria completa. El apoyo está diseñado para ser personalizado y empoderador y puede incluir apoyo para elegir un camino o encontrar un lugar de aprendizaje al terminar la educación obligatoria, para volver a la educación después de la deserción, así como una gama de medidas de apoyo adicionales para jóvenes con problemas educativos y sociales más generales. La duración de la gestión de casos es variable y depende de las necesidades individuales. Tenían que desarrollar una propuesta de proyecto concreta para 2007 que fue aprobada por el gobierno federal (Bundesamt fur Berufsbildung und Technologie, BBT) que financia la iniciativa.</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr"/>
-      <c r="C576" t="n">
+      <c r="B576" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6781,8 +6201,7 @@
           <t>Se necesitan más maestros donde se da más tiempo de preparación y el tamaño de la clase se mantiene constante. Consulte el Capítulo 2 para obtener detalles sobre el índice de enseñanza adaptativa. Hirt (2004), "Comparación de la eficacia docente del personal docente de enfermería clínica a tiempo parcial y a tiempo completo", Perspectivas de la educación en enfermería, vol. Org/l 0,102 3/A: 102 3200500215.</t>
         </is>
       </c>
-      <c r="B577" t="inlineStr"/>
-      <c r="C577" t="n">
+      <c r="B577" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6792,8 +6211,7 @@
           <t>Suecia inició el Consejo Nacional para la Prevención del Suicidio en 1993, convirtiéndose en uno de los primeros países del mundo en establecer una estrategia nacional integral para la prevención del suicidio. En 1994, una decisión parlamentaria condujo a la creación de un Centro Nacional para la Investigación del Suicidio y Prevención de Enfermedades Mentales (NASP). Esta red coordina la cooperación entre los actores involucrados, incluidos proveedores de atención médica, servicios sociales, escuelas, iglesias y ONG, y tiene como objetivo facilitar los esfuerzos de prevención del suicidio e integrar el trabajo de salud pública nacional a nivel local.</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr"/>
-      <c r="C578" t="n">
+      <c r="B578" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6803,8 +6221,7 @@
           <t>Por lo general, las mujeres de las zonas rurales desconocen los procesos de concesión de licencias, que a menudo son complicados, y en varias economías de MENA los negocios desde el hogar no pueden registrarse ni obtener una licencia. Por ejemplo, en los Emiratos Árabes Unidos, muchos municipios requieren prueba de una ubicación comercial arrendada antes de otorgar una licencia comercial. Esto impide que las mujeres inicien una empresa en el hogar (aunque hay evidencia de que esta sería la elección de muchas mujeres emiratíes tradicionales).</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr"/>
-      <c r="C579" t="n">
+      <c r="B579" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6814,8 +6231,7 @@
           <t>Según datos de 2013, menos de un tercio de los niños nigerianos pobres entre 15 y 17 años habían ingresado a la escuela primaria en el momento correcto, aunque casi todos los niños de hogares más ricos lo habían hecho (ver Figura 2.5). La brecha continúa ampliándose al comienzo de cada nivel de educación, a medida que una mayor proporción de niños pobres abandonan los estudios. Al comienzo de la educación secundaria superior, solo el 7 por ciento de los niños pobres ingresan a la escuela, en comparación con el 80 por ciento de los niños más ricos.</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr"/>
-      <c r="C580" t="n">
+      <c r="B580" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6825,8 +6241,7 @@
           <t>Según datos del Ministerio de Infancia, Educación e Igualdad de Género, el número de pedagogos en la Folkeskole aumentó de 3 961 en 2010/11 a 5 785 en 2013/14 (Ministerio de Infancia, Educación e Igualdad de Género de Dinamarca, 2016b). Los maestros de escuelas privadas están organizados en un sindicato separado y no toman parte en las negociaciones para los maestros que trabajan en la Folkeskole. Históricamente, las condiciones laborales de los docentes en la Folkeskole se han determinado en negociaciones entre el sindicato de docentes y la LGDK.</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr"/>
-      <c r="C581" t="n">
+      <c r="B581" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6836,8 +6251,7 @@
           <t>Se han realizado varios esfuerzos para hacer frente a las listas de espera, incluidas asignaciones presupuestarias adicionales para financiar el trabajo de horas extra en el sector público y "cupones" para que algunos pacientes obtengan atención en el sector privado. Sin embargo, estas proyecciones asumen una continuación de la baja prioridad que actualmente se le da a la salud, lo que probablemente no sea suficiente en el largo plazo dado que los niveles de gasto ya no son suficientes para brindar cobertura a toda la población y existen largos tiempos de espera para algunos servicios. . Esto se hizo particularmente evidente durante la reciente crisis económica.</t>
         </is>
       </c>
-      <c r="B582" t="inlineStr"/>
-      <c r="C582" t="n">
+      <c r="B582" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6847,8 +6261,7 @@
           <t>Además, la percepción de que el sistema de justicia penal las trata mal hace que muchas víctimas se excluyan de los procesos judiciales y de aplicación de la ley en una etapa temprana. Las víctimas que son tratadas con insensibilidad o falta de simpatía a menudo deciden no continuar con el proceso. Las víctimas quieren que termine la violencia y que estén seguras y protegidas. Si no creen que el sistema de justicia penal puede ayudarlos en eso, no cooperarán. Muchos países han adoptado leyes y políticas para responder a estos prejuicios, sin embargo, las mujeres y las niñas en todo el mundo continúan experimentando violencia, discriminación y dificultades para acceder a la justicia.</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr"/>
-      <c r="C583" t="n">
+      <c r="B583" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6858,8 +6271,7 @@
           <t>Por ejemplo, un mayor poder de negociación, representado por una mayor brecha de edad, afecta positivamente la cantidad de tiempo que los esposos dedican al trabajo en el mercado y que las esposas dedican al trabajo doméstico. No tiene efecto sobre el tiempo que los esposos dedican al trabajo doméstico o las esposas al trabajo en el mercado. Por otro lado, el proxy de la brecha educativa parece afectar negativamente la cantidad de tiempo que los esposos dedican al trabajo doméstico y de cuidados, afecta positivamente el tiempo que la esposa y el esposo dedican al trabajo del mercado y no afecta significativamente el tiempo que la esposa dedica a el trabajo doméstico. Esto sugiere que la división del trabajo en el hogar y, en particular, el tiempo de trabajo doméstico y de cuidados de las mujeres puede no estar sujeto a negociación.</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr"/>
-      <c r="C584" t="n">
+      <c r="B584" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6869,8 +6281,7 @@
           <t>La segregación de campo por género puede tener efectos negativos en los ingresos futuros y la progresión profesional de las mujeres, ya que las profesiones dominadas por hombres (como las de STEM) tienden a ofrecer salarios más lucrativos que muchas de las profesiones dominadas por mujeres. Las mujeres en México obtienen menos de la mitad de todos los títulos terciarios en campos STEM, excepto en ciencias de la vida (Figura 2.4). La brecha de género en las expectativas sobre el campo de trabajo es grande.</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="n">
+      <c r="B585" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6880,8 +6291,7 @@
           <t>Por ejemplo, los proyectos de ley liderados por WPC sobre la prevención del acoso laboral y el abuso doméstico han permitido un cambio en la división público-privado y han influido positivamente en las experiencias “informales” de violencia y abuso de las mujeres. También ha habido debates y discusiones sobre el papel de las prácticas socioculturales para mantener intacta la brecha de género. A través del intercambio regular de conocimientos con organizaciones internacionales y el monitoreo de la implementación efectiva de políticas inclusivas, WPC sirve como una especie de “perro guardián” en el parlamento, asegurando el cumplimiento de las medidas institucionales para la inclusión de las mujeres.</t>
         </is>
       </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="n">
+      <c r="B586" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6891,8 +6301,7 @@
           <t>Si bien el Pacto Mundial para la Migración Segura y Regular posiciona la migración internacional como una responsabilidad compartida, la educación no ocupa un lugar destacado en la agenda (Naciones Unidas, 2018). El papel de los docentes y la lucha contra la segregación escolar merecen un mayor reconocimiento. El capítulo destaca las desventajas que enfrentan los inmigrantes y reflexiona sobre las políticas y prácticas que pueden ampliar el acceso a la educación.</t>
         </is>
       </c>
-      <c r="B587" t="inlineStr"/>
-      <c r="C587" t="n">
+      <c r="B587" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6902,8 +6311,7 @@
           <t>Si bien las universidades de la región a menudo ven el desarrollo de Galilea como una parte clave de su misión, a menudo se enfocan en la educación y las ciencias sociales y están construyendo su investigación y vínculos con el comercio y la industria desde una base baja. Sin embargo, Tel Hai Academic College y ORT Braude ya se han establecido como proveedores casi únicos de ingenieros y técnicos del interior de la región y, cada vez más, también socios de las industrias regionales (ver Cuadro 3.6.). La universidad ha forjado fuertes vínculos con el Centro para el Conocimiento de la Alta Galilea (MIGAL), un centro de investigación y desarrollo de propiedad privada ubicado en un parque industrial en Kiryat Shmoneh. Comprende 15 grupos de investigación diferentes en agrociencias, ecología, terapéutica y química analítica y desarrolla actividades de investigación en laboratorios muy avanzados.</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr"/>
-      <c r="C588" t="n">
+      <c r="B588" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6913,8 +6321,7 @@
           <t>De hecho, la evidencia sólida muestra que una mayor igualdad de género en los mercados laborales y la educación puede contribuir al crecimiento económico, la felicidad nacional y el bienestar (OCDE 2012). Además, la confianza en las instituciones, un ingrediente clave para un clima de inversión favorable y el desarrollo empresarial, depende en gran medida de la medida en que los tomadores de decisiones reflejen la composición de la sociedad, incluso en términos de género. Finalmente, lograr resultados inclusivos y justos requiere procesos de políticas que sean inclusivos y que integren las diversas perspectivas de hombres y mujeres.</t>
         </is>
       </c>
-      <c r="B589" t="inlineStr"/>
-      <c r="C589" t="n">
+      <c r="B589" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6924,8 +6331,7 @@
           <t>Hay 21 grupos, cada uno de los cuales describe un grupo de personas con características similares. Los pacientes son evaluados periódicamente para monitorear sus necesidades cambiantes y reasignados a un grupo si es necesario. Cerrando la brecha: las prioridades para el cambio esencial en la salud mental incluyen el compromiso de continuar desarrollando un sistema nacional de pago para la salud mental. Inglaterra fue uno de los primeros países en comenzar el proceso de cerrar asilos psiquiátricos y centrar la atención de salud mental en la comunidad.</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr"/>
-      <c r="C590" t="n">
+      <c r="B590" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6935,8 +6341,7 @@
           <t>La matriculación en educación primaria en las regiones en desarrollo alcanzó el 90 % en 2010, frente al 82 % en 1999.13 En 2013, la matriculación neta de niñas en educación primaria alcanzó casi el 83 % en la región, frente a un promedio mundial del 88,3 %. La proporción de matriculación primaria de mujeres y hombres en la región fue del 96 % en 2013, frente al 98,3 % en todo el mundo.14 Las tasas de alfabetización entre adultos y jóvenes están aumentando, y las brechas de género se están reduciendo. En algunos países, en particular los del CCG, la participación de las mujeres jóvenes en la educación está superando rápidamente a la de los hombres.16 Qatar y los Emiratos Árabes Unidos tienen las tasas de matriculación universitaria de mujeres y hombres más altas del mundo. Incluso entre las familias extremadamente conservadoras, los logros educativos de las mujeres jóvenes a menudo son alentados y apreciados.</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr"/>
-      <c r="C591" t="n">
+      <c r="B591" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6946,8 +6351,7 @@
           <t>Significa ver las capacidades lingüísticas de los estudiantes como parte de su identidad personal, social y cultural y acogerlas como una herramienta para el aprendizaje y la comprensión (Holmen, 2009). Esto ayudará a los niños a cerrar la brecha entre su hogar y la escuela y asegurar que su origen cultural y lingüístico se valore tanto como el de la mayoría (Brind et al., Esta puede ser una forma de validar y señalar el dominio de otro idioma y de diseñar las estrategias de apoyo más adecuadas en el aprendizaje de idiomas para cada niño en particular.Además, reconocer que un estudiante sabe un idioma que no sea el danés es un primer paso para otorgar un valor a ese conocimiento.</t>
         </is>
       </c>
-      <c r="B592" t="inlineStr"/>
-      <c r="C592" t="n">
+      <c r="B592" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6957,8 +6361,7 @@
           <t>Por lo tanto, las diferenciaciones (o discriminaciones) legales entre hombres y mujeres que están vinculadas a la vida privada, como el acceso a las instituciones, el uso de la propiedad, la obtención de un trabajo, la provisión de incentivos para trabajar, la creación de crédito y los juicios, pueden perjudicar gravemente a las mujeres. la participación en la esfera pública. Se alienta a los países a considerar el desarrollo de principios y reglas con respecto a la poligamia, así como instituciones efectivas para proteger los derechos de todas las partes involucradas, particularmente mujeres y niños. Se necesitan salvaguardias adicionales para proteger a las mujeres del divorcio arbitrario.</t>
         </is>
       </c>
-      <c r="B593" t="inlineStr"/>
-      <c r="C593" t="n">
+      <c r="B593" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6968,8 +6371,7 @@
           <t>Sin embargo, ambos desafíos se pueden abordar juntos. Una de las razones de la disminución del interés en los programas cortos de educación secundaria vocacional es la falta de acceso directo a la educación terciaria para aquellos que se gradúan de estos programas. Por lo tanto, una forma de abordar este problema es alinear los elementos centrales de las diferentes pistas de secundaria superior.</t>
         </is>
       </c>
-      <c r="B594" t="inlineStr"/>
-      <c r="C594" t="n">
+      <c r="B594" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6979,8 +6381,7 @@
           <t>Esta disposición no privó a las mujeres de su derecho electoral a participar en las elecciones de los distritos electorales generales como candidatas independientes o de partidos políticos. A pesar de esto, las mujeres ocupan solo el 19,7 por ciento de los escaños en el parlamento actual, de los cuales el 13,37 por ciento son escaños reservados y el 6,33 por ciento están ocupados por mujeres miembros elegidas directamente (Mujeres en los Parlamentos Nacionales 2013). Solo el 11,76 por ciento de los ministros del gabinete son mujeres (Portal web nacional de Bangladesh).</t>
         </is>
       </c>
-      <c r="B595" t="inlineStr"/>
-      <c r="C595" t="n">
+      <c r="B595" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6990,8 +6391,7 @@
           <t>En 2013, las trabajadoras de tiempo completo ganaban casi un 13,4% menos que sus pares masculinos (Gráfico 2.13). La brecha salarial de género no está ajustada y se calcula como la diferencia entre los ingresos medios de hombres y mujeres en relación con los ingresos medios de los hombres. Las estimaciones de ganancias utilizadas en los cálculos se refieren a las ganancias brutas de los trabajadores asalariados a tiempo completo.</t>
         </is>
       </c>
-      <c r="B596" t="inlineStr"/>
-      <c r="C596" t="n">
+      <c r="B596" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7001,8 +6401,7 @@
           <t>Sin embargo, cada vez se reconoce más que muchas características importantes del desarrollo, el funcionamiento y el impacto de los sistemas educativos solo pueden evaluarse mediante la comprensión de los resultados del aprendizaje y sus relaciones con los insumos y procesos a nivel de individuos e instituciones. Estos pueden ser niños o adultos jóvenes que se encuentran en educación y formación inicial o adultos que siguen programas de aprendizaje a lo largo de toda la vida. Los indicadores de resultados examinan el efecto directo de los resultados de los sistemas educativos, como el empleo y los beneficios de obtener una educación superior. Los indicadores de impacto analizan el efecto indirecto a largo plazo de los resultados, como el conocimiento y las habilidades adquiridas, las contribuciones al crecimiento económico y el bienestar social, y la cohesión y equidad social. Dichos instrumentos de política se relacionan con los recursos invertidos en la educación, incluidos los recursos financieros, humanos (como maestros y otro personal escolar) o físicos (como edificios e infraestructura).</t>
         </is>
       </c>
-      <c r="B597" t="inlineStr"/>
-      <c r="C597" t="n">
+      <c r="B597" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7012,8 +6411,7 @@
           <t>Aun así, los datos de gasto sanitario más recientes muestran un aumento de los gastos de bolsillo como porcentaje del gasto sanitario total en la mayoría de los países europeos. Sin embargo, esta declaración necesita ser calificada, ya que en varios países la provisión de servicios se determina a nivel local o del proveedor, sujeto a limitaciones de recursos. A medida que se ajustan los presupuestos, en estos países es posible que haya habido cambios en la cobertura, pero de una manera difícil de cuantificar. La Sección 2 de este documento define lo que se considera como “cobertura de salud” en las secciones siguientes.</t>
         </is>
       </c>
-      <c r="B598" t="inlineStr"/>
-      <c r="C598" t="n">
+      <c r="B598" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7023,8 +6421,7 @@
           <t>En la actualidad, casi todas las instituciones de la Administración Pública Federal están intensificando sus esfuerzos para diseñar políticas orientadas a reducir la brecha de género en sus sectores de gobierno. Para que estos esfuerzos se arraiguen y logren un impacto duradero, es fundamental maximizar sistemáticamente el uso de herramientas de políticas como las evaluaciones de impacto de género, la elaboración de presupuestos con perspectiva de género y la recopilación de datos desglosados ​​por género que respalden la formulación de políticas basadas en evidencia. . En consecuencia, este capítulo examina qué herramientas y mecanismos está utilizando México actualmente en la búsqueda de sus objetivos de igualdad de género. Con ese fin, hace referencia a la Recomendación de la OCDE sobre la igualdad de género en la vida pública para brindar más orientación sobre cómo México puede garantizar políticas inclusivas y sostenibles sensibles al género. Si bien reconoce la igualdad de género como un objetivo transversal que apoya al país en el logro de sus metas nacionales de desarrollo, México se ha comprometido a incorporar una perspectiva de género en todas las acciones, políticas y leyes gubernamentales.</t>
         </is>
       </c>
-      <c r="B599" t="inlineStr"/>
-      <c r="C599" t="n">
+      <c r="B599" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7034,8 +6431,7 @@
           <t>Para 2009, la administración solicitó US$139 millones, siendo US$92 millones para Haití y US$20 millones para Guyana. El saldo de la solicitud para otros países es a través de la cuenta de financiamiento de asistencia exterior para supervivencia y salud infantil (CSH). En el Caribe, USAID brinda asistencia para el VIH/SIDA a través de programas bilaterales y regionales, y es un miembro activo de la Asociación Pancaribeña contra el VIH/SIDA. Como parte de su programa regional del Caribe, USAID ha iniciado un programa centrado en los países del Caribe que no cuentan con una presencia permanente de USAID: Trinidad y Tobago, Surinam, San Cristóbal y Nieves, Santa Lucía, San Vicente y las Granadinas, Granada, Antigua y Barbuda , Dominica y Barbados.</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr"/>
-      <c r="C600" t="n">
+      <c r="B600" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7045,8 +6441,7 @@
           <t>En Austria y Eslovenia, por ejemplo, las mujeres ocupan aproximadamente el 90 % de los puestos de secretaria (ver Figura 3.3). Esta tendencia es coherente con la segregación laboral tradicional, en la que las mujeres ocupan puestos de menor categoría y peor remunerados. El mayor nivel educativo de las mujeres ha llevado a un aumento de su representación en la esfera profesional en la mayoría de los países de la OCDE.</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="n">
+      <c r="B601" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7056,8 +6451,7 @@
           <t>Este sistema proporciona un estímulo débil para la mejora continua de la calidad en la prestación de la atención, ya que la mayoría de los profesionales son pagados únicamente a través de salarios fijos (sin vinculación con la evaluación del desempeño), y en muchos casos los contratos son temporales y no incluyen beneficios de seguridad social. La evidencia de otros escenarios nacionales ha concluido que alejarse de los mecanismos salariales para los profesionales de la salud es una estrategia exitosa para aumentar la eficiencia en la asignación, por ejemplo mediante el fortalecimiento del sistema de atención primaria, al mejorar la experiencia del usuario (cuando la remuneración está ligada, al menos en parte, al desempeño). ) así como la prevención de cuidados más costosos, incluidas las hospitalizaciones evitables (Moreno-Serra, 2014). Los proveedores tienden a concentrarse en gran medida en áreas densamente pobladas, con un aumento notable en el número de proveedores privados en esas localidades en los últimos diez años.</t>
         </is>
       </c>
-      <c r="B602" t="inlineStr"/>
-      <c r="C602" t="n">
+      <c r="B602" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7067,8 +6461,7 @@
           <t>La redistribución del trabajo no remunerado es uno de los pilares para lograr la igualdad de género en América Latina y el Caribe al 2030 (Bidegain Ponte, 2017). La capacidad de colocar a los niños pequeños en guarderías depende en gran medida del poder adquisitivo de los hogares o de los programas que atienden a las mujeres o los hogares pobres o vulnerables. En muchos casos, estos servicios no están regulados o bajo una estricta supervisión estatal, lo que hace que las condiciones y la calidad de la atención en los diferentes centros sean mixtas.</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="n">
+      <c r="B603" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7078,8 +6471,7 @@
           <t>En particular, los sistemas de información entre los institutos de la SP y la SS siguen siendo incompatibles y no existe un registro o censo nacional de pacientes (un requisito mínimo para permitir la interoperabilidad y un trabajo más cercano). La atención médica en México cuenta con menos recursos que en otros países de la OCDE. Actualmente, México gasta el 6.2% (2013) del PIB en salud, algo menos que el promedio de la OCDE de 8.9%, lo que equivale a USD 1 048 PPA per cápita por año (promedio de la OCDE USD PPP 3 453 en 2013).</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr"/>
-      <c r="C604" t="n">
+      <c r="B604" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7089,8 +6481,7 @@
           <t>En general, la implementación sólida y sistemática de las estrategias de participación de los pacientes y los programas de alfabetización en salud podría reducir el daño agregado hasta en un 15 %: un muy buen retorno de la inversión. Dado el problema de la seguridad de los medicamentos y los ADE en este entorno, fue sorprendente ver que las intervenciones dirigidas a una mejor dispensación y administración de medicamentos ocuparon un lugar comparativamente bajo entre las opciones proporcionadas en la encuesta. Algunos estudios útiles destacan el valor de un enfoque interprofesional para la seguridad de los medicamentos.</t>
         </is>
       </c>
-      <c r="B605" t="inlineStr"/>
-      <c r="C605" t="n">
+      <c r="B605" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7100,8 +6491,7 @@
           <t>Los 290 municipios financian la atención a la tercera edad, la atención domiciliaria y la atención social, mientras que las regiones son responsables de la atención médica primaria, psiquiátrica y especializada. Los impuestos locales y regionales se complementan con el gobierno central y con los cargos al usuario. Los subsidios para medicamentos recetados se pagan a través de subvenciones estatales designadas para las regiones.</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr"/>
-      <c r="C606" t="n">
+      <c r="B606" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7111,8 +6501,7 @@
           <t>Los países de ALC tienden a haber ratificado la convención antes que los países de otras regiones. Las actitudes discriminatorias también varían según las regiones: una persona de cada cuatro declara que los hombres son mejores líderes políticos que las mujeres en ALC (25 %), un tercio en los países de SSA (34 %) y la OCDE (35 %), y aproximadamente uno de cada dos en EAP (53%) y ECA (54%). Las actitudes sesgadas de género hacia el liderazgo político están muy extendidas en SA y MENA, donde el 67 % y el 74 % de la población, respectivamente, subestimaron el liderazgo político de las mujeres. Para abordar esta pregunta, comenzamos investigando la relación entre la discriminación por género en las instituciones sociales, capturada por el SIGI, y el ingreso per cápita, medido por el PIB per cápita.</t>
         </is>
       </c>
-      <c r="B607" t="inlineStr"/>
-      <c r="C607" t="n">
+      <c r="B607" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7122,8 +6511,7 @@
           <t>Una gran parte de la ganancia en la esperanza de vida ha sido después de los 65 años, por lo que las mujeres estonias a los 65 años tienen otros 20 años de vida y los hombres más de 15 años (2015). La mortalidad por cáncer es la segunda causa de muerte (representando el 22% de las mujeres y el 27% de los hombres). Las causas externas ocupan el tercer lugar para ambos y representan la muerte de aproximadamente el 10% de los hombres. Sin embargo, durante el mismo período, la mortalidad por cáncer no disminuyó y se mantiene muy por encima de la media de la UE. A pesar de las políticas para combatir el tabaquismo (consulte la Sección 5.1), el cáncer de pulmón sigue siendo la causa más común de mortalidad por cáncer.</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr"/>
-      <c r="C608" t="n">
+      <c r="B608" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7133,8 +6521,7 @@
           <t>Sin embargo, hay más que el país puede hacer para fortalecer el desarrollo profesional docente en las escuelas. Otra investigación confirma que el desarrollo profesional docente es más efectivo cuando es colaborativo e integrado en la práctica del aula (Cole, 2012). En particular, un sistema de evaluación de docentes más fuerte podría informar la progresión y diferenciación de la carrera en Costa Rica y la asignación de subsidios para docentes.</t>
         </is>
       </c>
-      <c r="B609" t="inlineStr"/>
-      <c r="C609" t="n">
+      <c r="B609" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7144,8 +6531,7 @@
           <t>Sin embargo, la calidad general del entorno de EAPI tuvo un efecto sobre los ingresos de los adultos. En muchos países, las proporciones entre el personal y los niños se han regulado con proporciones más altas entre el personal y los niños para los más pequeños y proporciones más bajas para los niños mayores (NICHD, 2002). Sin embargo, falta investigación sobre exactamente qué proporción es más favorable para mejorar la satisfacción laboral de los docentes, la calidad de la EAPI y los resultados de los niños.</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr"/>
-      <c r="C610" t="n">
+      <c r="B610" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7155,8 +6541,7 @@
           <t>Sin embargo, la implementación de la enseñanza de las ciencias basada en la indagación está plagada de desafíos. Por ejemplo, el descubrimiento mínimamente guiado, el aprendizaje basado en proyectos y el aprendizaje por indagación a veces se agrupan bajo el mismo título, aunque el nivel de participación del maestro puede diferir de una práctica a otra. Esto da como resultado la aplicación de una crítica general a estrategias que, en la práctica, son muy diferentes entre sí (Hmelo-Silver, Duncan y Chinn, 2007).</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr"/>
-      <c r="C611" t="n">
+      <c r="B611" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7166,8 +6551,7 @@
           <t>En el extremo inferior se encuentran Camboya (4,9 %), Turquía (4,0 %) y Azerbaiyán (2,9 %). Siete países de Asia y el Pacífico no tienen ministras, a saber, Bután, Brunei Darussalam, Nauru, Papua Nueva Guinea, Singapur, Islas Salomón y Vanuatu. Hong Kong, China ocupó el segundo lugar (8,6 %), seguida de China (8,1 %), Malasia (7,8 %), Nueva Zelanda (7,5 %), Singapur (6,4 %) e India (4,7 %)3. Además, la mitad de los 700 directorios examinados no tenían directoras en absoluto. China es el líder mundial con una proporción del 51 % de los puestos directivos ocupados por mujeres, seguido de Filipinas y Georgia con el 37 %, Tailandia y Viet Nam con el 36 % y el 33 %, respectivamente, y la Federación de Rusia con 31 por ciento</t>
         </is>
       </c>
-      <c r="B612" t="inlineStr"/>
-      <c r="C612" t="n">
+      <c r="B612" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7177,8 +6561,7 @@
           <t>El gobierno decidió recientemente establecer una formación especializada para enfermeras en cuidados crónicos fuera de los hospitales, con estas enfermeras muy probablemente empleadas en prácticas de médicos generales y servicios de salud municipales. Las regiones también invirtieron en centros de especialidades múltiples llamados 'Casas de salud', que incluyen médicos de cabecera (que también actúan como coordinadores de la atención), especialistas y fisioterapeutas, aunque han surgido dificultades para contratar médicos de cabecera (consulte la Sección 5.2). El sistema de atención primaria parece estar resistiendo bien a pesar de las reducciones en la actividad de atención aguda descritas anteriormente, aunque las hospitalizaciones evitables por ciertas afecciones son más altas que el promedio de la UE (consulte la Sección S.3).</t>
         </is>
       </c>
-      <c r="B613" t="inlineStr"/>
-      <c r="C613" t="n">
+      <c r="B613" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7188,8 +6571,7 @@
           <t>Los servicios locales de salud mental brindan diversos niveles de intervención y apoyo dentro de un entorno comunitario, con el objetivo de evitar la atención residencial hasta el punto en que se considere absolutamente necesario y apropiado. El tratamiento de la salud mental fue moldeado significativamente por el nacimiento del NHS en 1948, que se convirtió en el principal proveedor de atención médica en Inglaterra. El cambio lento de la detención de personas con trastornos mentales a la prevención y el tratamiento (que comenzó en la década de 1920) continuó bajo el NHS recién formado, a medida que comenzó un nuevo cambio de la institucionalización a la atención basada en la comunidad.</t>
         </is>
       </c>
-      <c r="B614" t="inlineStr"/>
-      <c r="C614" t="n">
+      <c r="B614" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7199,8 +6581,7 @@
           <t>Toutefois, qu'ils soient hommes ou femmes, les emprendedores son parientes raros en Inde par rapport a d'autres pays comparables, et ont tendance a travailler dans de petites entreprises souvent situees en dehors de l'economie formelle. Si bon nombre des obstaculos a la creation d'entreprise sont communs aux deux sexes (acces aux financements et aux reseaux economiques, formacion adecuada, locaux), les femmes emprendedoras se heurtent a des prejuges sexistes qui trouvent leur origine dans des facteurs socioeconomiques ou dans Certains partis consacres par le droit, notamment par le droit de Fheritage. La posible flexibilidad en el uso del tiempo del espíritu empresarial también puede facilitar el equilibrio entre el trabajo y las obligaciones familiares de las mujeres. Sin embargo, los empresarios, tanto hombres como mujeres, son relativamente escasos en la India en comparación con otros países, y tienden a trabajar en unidades pequeñas, a menudo fuera del sector formal.</t>
         </is>
       </c>
-      <c r="B615" t="inlineStr"/>
-      <c r="C615" t="n">
+      <c r="B615" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7210,8 +6591,7 @@
           <t>Sin embargo, la situación parece haber mejorado entre 2003 y 2012, particularmente en escuelas y programas técnico-profesionales muy desfavorables. Los datos se refieren a los promedios de la muestra de PISA 2012. Significa que la diferencia es significativa al 95% de nivel de confianza. Los errores estándar de las estimaciones están disponibles en la fuente original.</t>
         </is>
       </c>
-      <c r="B616" t="inlineStr"/>
-      <c r="C616" t="n">
+      <c r="B616" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7221,8 +6601,7 @@
           <t>Las sequías, las inundaciones, la contaminación y la deforestación suponen una carga importante para las mujeres, que ven cómo aumenta su tiempo de recolección de agua, cómo se frustran los esfuerzos de recolección de leña y forraje y cómo se ve afectada de manera desproporcionada su capacidad para mantener a sus familias y hacer frente a los desastres. Por el contrario, cuando a las mujeres y las niñas se les niegan derechos y oportunidades, el progreso inevitablemente flaqueará y la Agenda 2030 en su conjunto estará en peligro. Por lo tanto, la incorporación sistemática de una perspectiva de género en la implementación y el seguimiento de los Objetivos de Desarrollo Sostenible (ODS) es crucial. La única excepción a este enfoque es el ODS 5, que se cubre de manera integral al nivel de la meta utilizando los indicadores correspondientes con los datos disponibles.</t>
         </is>
       </c>
-      <c r="B617" t="inlineStr"/>
-      <c r="C617" t="n">
+      <c r="B617" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7232,8 +6611,7 @@
           <t>Sin embargo, los resultados empíricos sugieren que se puede obtener un uso de los recursos educativos que aumente la equidad a través de políticas que proporcionen las señales pertinentes a las escuelas y los docentes: por ejemplo, brindar incentivos financieros a los docentes calificados puede resultar una herramienta eficaz para dirigirse a los estudiantes desfavorecidos. o áreas. En tercer lugar, este trabajo llena un vacío en la investigación empírica al proporcionar evidencia entre países (a diferencia de países específicos) sobre la importancia de la política de intervención temprana para atenuar las desigualdades socioeconómicas intergeneracionales en las oportunidades educativas. Sugiere que las políticas de cuidado infantil e intervención temprana podrían ser efectivas para alcanzar este objetivo. Finalmente, el análisis entre países intenta descubrir el papel que juegan las políticas sociales y del mercado laboral para influir en la igualdad de oportunidades educativas, dada la relación positiva entre la desigualdad intergeneracional y transversal (de ingresos).</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr"/>
-      <c r="C618" t="n">
+      <c r="B618" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7243,8 +6621,7 @@
           <t>Algunos países han iniciado programas en este sentido. El objetivo de estas reformas ha sido mejorar la inclusión social de las personas con trastornos mentales. Aunque la situación actual y la calidad de vida de los pacientes con trastornos mentales graves no es comparable a su situación de vida, a menudo muy precaria, en los centros de larga estancia hace algunas décadas, la desinstitucionalización no ha llevado en general a una mejora en la inclusión social y el empleo.</t>
         </is>
       </c>
-      <c r="B619" t="inlineStr"/>
-      <c r="C619" t="n">
+      <c r="B619" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7254,8 +6631,7 @@
           <t>De manera similar, entre los bebedores no 'dañinos' actuales en 2002-03, el 17% se convirtió en no bebedor en 2004-05, el 61% sigue siendo bebedor no 'dañino' y el 22% son bebedores 'dañinos'. La proporción de bebedores "nocivos" varía según la edad: 47% en el grupo de edad de 18 a 24 años, 27% en el de 25 a 44 años, 17% en el de 45 a 64 años, 8% en el de 65 años o más. Estos hallazgos sugieren que los adultos jóvenes se ven más afectados por conductas de consumo de alcohol "dañinas" en comparación con otros grupos de edad. La Figura 9 muestra las tasas generales (población) en hombres y mujeres, la Figura 10 muestra las tendencias en HED en hombres y mujeres por grupo de edad. Los datos de NHANES muestran un claro aumento en HED en el grupo de edad de 20 a 24 años, mientras que los datos de NSDUH muestran un aumento significativamente más leve o nulo. El límite semanal es de 14 bebidas por semana para mujeres y 21 para hombres.</t>
         </is>
       </c>
-      <c r="B620" t="inlineStr"/>
-      <c r="C620" t="n">
+      <c r="B620" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7265,8 +6641,7 @@
           <t>Sin embargo, solo muy pocos países vinculan los resultados de la evaluación con recompensas y/o sanciones económicas. En varios estados y territorios de Australia y Francia (niveles CINE 1, 2 y 3), los directores y subdirectores de escuelas pueden recibir un incremento salarial permanente como recompensa por su desempeño sobresaliente. En Francia (niveles CINE 1, 2 y 3), el desempeño excepcional de los directores y subdirectores de escuela también puede recompensarse con una bonificación financiera única. En Chile (Evaluación de Desempeño), los líderes escolares destacados pueden recibir un incremento salarial por un período fijo de tiempo.</t>
         </is>
       </c>
-      <c r="B621" t="inlineStr"/>
-      <c r="C621" t="n">
+      <c r="B621" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7276,8 +6651,7 @@
           <t>Sobre la base de la importante base de conocimientos sobre políticas comparativas y sectoriales disponible en la OCDE, la serie dará lugar a una publicación bienal (primer volumen en 2014). Desarrollará una perspectiva comparativa de la política educativa proporcionando: a) un análisis del contexto, los desafíos y las políticas educativas de cada país (perfiles de políticas educativas) y de las tendencias internacionales yb) una visión comparativa de las políticas y reformas en temas seleccionados. Están destinados a llamar la atención sobre políticas específicas que son prometedoras o muestran resultados positivos y pueden ser relevantes para otros países. El apoyo editorial estuvo a cargo de Lynda Hawe y Susan Copeland.</t>
         </is>
       </c>
-      <c r="B622" t="inlineStr"/>
-      <c r="C622" t="n">
+      <c r="B622" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7287,8 +6661,7 @@
           <t>Son responsables ante las autoridades federales y, en general, están más preocupados por el desarrollo nacional que por el compromiso regional o local. Como en muchos otros países, las instituciones de educación superior en Malasia no tienen una misión regional explícita que se deja a la iniciativa de las instituciones individuales. Para las universidades intensivas en investigación, el principal impulsor es la excelencia científica.</t>
         </is>
       </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="n">
+      <c r="B623" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7298,8 +6671,7 @@
           <t>En Bahrein y Líbano existe, por ejemplo, una jurisdicción para sunitas y otra para chiítas, cada una de ellas con sus propias leyes no codificadas. Sin embargo, en el caso de Bahrein, la Ley de Familia (Parte 1), que se refiere a la secta sunita, se promulgó en virtud de la Ley No. La ley de menores egipcia se modificó en 2008 para elevar la edad mínima para el matrimonio de las niñas a 18 años.</t>
         </is>
       </c>
-      <c r="B624" t="inlineStr"/>
-      <c r="C624" t="n">
+      <c r="B624" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7309,8 +6681,7 @@
           <t>Los esfuerzos profesionales para seguir una forma moderna de educación médica continua están todavía en su infancia. Esto podría mitigar los esfuerzos para impulsar aún más las ganancias de calidad en los servicios de atención médica. Se está implementando un sistema de seguimiento y localización para dispositivos médicos que rastrea la ubicación de cada dispositivo médico (es decir, de cada paciente) y sus resultados.</t>
         </is>
       </c>
-      <c r="B625" t="inlineStr"/>
-      <c r="C625" t="n">
+      <c r="B625" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7320,8 +6691,7 @@
           <t>Su trabajo consiste en el mantenimiento de laboratorios, preparación de experimentos y asistencia a los profesores en la realización de clases de laboratorio. Se estipulan un total de otras 13 categorías profesionales para apoyar el funcionamiento diario de las escuelas (por ejemplo, contador, psicólogo, enfermero, bibliotecario, oficinista, secretario, reparador, guardia, portero) (Ver Anexo 4.A1). El número de puestos por categoría depende del tipo, nivel de educación y número de clases consolidadas de la escuela. Las normas para los maestros, las proporciones de estudiantes por maestro y las condiciones “sanitarias” de las escuelas significan que, dentro de las escuelas, se supone que la mayoría de los estudiantes se encuentran en condiciones comparables.</t>
         </is>
       </c>
-      <c r="B626" t="inlineStr"/>
-      <c r="C626" t="n">
+      <c r="B626" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7331,8 +6701,7 @@
           <t>En general, los sistemas de información de salud con el valor más alto en términos de disponibilidad, madurez y uso de datos se encontraron en Dinamarca, Finlandia, Islandia, Israel, Corea, Nueva Zelanda, Noruega, Singapur, Suecia y el Reino Unido (Escocia y Gales). Los conjuntos de datos nacionales de salud personal informados por los países tienden a tener una cobertura muy alta de las poblaciones objetivo, se basan en la extracción automática de datos de registros clínicos y administrativos electrónicos e incluyen el uso de códigos estándar para la terminología clínica. Las razones clave para aprobar estos vínculos incluyen el desarrollo de indicadores de rendimiento del sistema y la calidad de la atención médica para medir la coordinación de la atención, los resultados de las vías de atención, la utilización y los costos de los recursos, y el cumplimiento de las pautas nacionales de atención médica.</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr"/>
-      <c r="C627" t="n">
+      <c r="B627" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7342,8 +6711,7 @@
           <t>En tercer lugar, las tendencias en las brechas de género en el pago por hora pueden capturar la discriminación salarial directa, pero si las mujeres trabajan a tiempo parcial o tienen largos períodos sin empleo, las brechas de ingresos de género a lo largo de su vida serán aún mayores. Sin embargo, en las últimas décadas, las mujeres han aumentado su educación, a veces superando a la de los hombres, han ampliado su permanencia en el empleo y también han ingresado en nuevas ocupaciones, como la medicina y el derecho. Todo esto sugiere que la acción de las propias mujeres no es suficiente para lograr la igualdad y que es el contexto institucional en el que las mujeres desarrollan sus carreras el que debe cambiar. fijación de salarios, contratación y promoción, que es el tema central de este informe. Estos cambios deben ir de la mano con políticas para reconocer el valor del trabajo de cuidados no remunerado de las mujeres en el hogar y ampliar el apoyo social para el trabajo de cuidados, cuestiones que se abordan en el resumen de políticas No. Ambos tipos de reformas son esenciales para reducir la brecha salarial de género y la brecha en los ingresos de por vida de las mujeres. Las definiciones internacionales consideran que el salario bajo está por debajo del 60 al 66 por ciento del salario medio, pero los niveles de salario mínimo suelen estar por debajo de estas proporciones.</t>
         </is>
       </c>
-      <c r="B628" t="inlineStr"/>
-      <c r="C628" t="n">
+      <c r="B628" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7353,8 +6721,7 @@
           <t>Sin embargo, se debe tener el mismo cuidado para asegurar que la participación de niñas y mujeres en ambientes separados, o en deportes específicos, no refuerce las divisiones sociales o genere una resistencia inútil de otros miembros de la sociedad (Hayhurst et al. Estas consideraciones también señalar la importancia de adoptar enfoques descentralizados que sean sensibles a las normas culturales locales e involucren a todos los miembros de la familia y la comunidad (Kay y Spaaij 2012), incluidos niños y hombres, incluso en iniciativas que pueden estar dirigidas específicamente a niñas y mujeres. y la desigualdad estructurada es, por lo tanto, una prioridad en sí misma Para las mujeres jóvenes, en particular, las experiencias de liderazgo adquiridas a través de iniciativas basadas en el deporte pueden hacer contribuciones distintivas a su empoderamiento en otras esferas sociales, económicas y políticas (Lindsey et al.</t>
         </is>
       </c>
-      <c r="B629" t="inlineStr"/>
-      <c r="C629" t="n">
+      <c r="B629" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7364,8 +6731,7 @@
           <t>Las prácticas patriarcales como el sistema de dotes, el matrimonio precoz, la preferencia por los hijos varones, el purdah y la segregación de las mujeres durante la menstruación (chhapaudi) siguen estando muy extendidas y perjudican a las mujeres. Nepal ocupa el puesto 145 de 187 países en el Índice de Desarrollo Humano (IDH) de 2014, lo que lo ubica en la categoría de "desarrollo humano bajo"34, y el Informe sobre la brecha de género global del Foro Económico Mundial de 2015 ubicó a Nepal en el puesto 110 entre 145 países, detrás de Bangaldesh, Sri Lanka e India. Se codificaron y analizaron los estudios de casos de 307 mujeres migrantes retornadas que se alojaron en la casa de acogida de la organización no gubernamental (ONG) Pourakhi35 en Katmandú durante el período comprendido entre julio de 2015 y junio de 2016.</t>
         </is>
       </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="n">
+      <c r="B630" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7375,8 +6741,7 @@
           <t>Dichos servicios de atención médica son esenciales para minimizar la morbilidad asociada con tales eventos. Esto implica tanto el acceso financiero, para que el costo no imponga barreras innecesarias a la atención, como el acceso físico, para garantizar que la atención sea oportuna, y 3) el sistema de salud brinda atención de alta calidad. El análisis de este informe examina las vías por las que los países de la OCDE ofrecen los programas y servicios relacionados con las enfermedades cardiovasculares y la diabetes, a saber, la promoción de la salud, la salud pública, la atención primaria y la atención aguda.</t>
         </is>
       </c>
-      <c r="B631" t="inlineStr"/>
-      <c r="C631" t="n">
+      <c r="B631" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7386,8 +6751,7 @@
           <t>También debe invertir en desarrollo profesional para educadores y recursos de aprendizaje digital, que se abordarán más adelante en este capítulo. Para llegar a todas las regiones del país, Tailandia debe seguir utilizando la televisión como medio para proporcionar contenido educativo. No obstante, son necesarios para soportar cualquier inversión inicial en hardware.</t>
         </is>
       </c>
-      <c r="B632" t="inlineStr"/>
-      <c r="C632" t="n">
+      <c r="B632" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7397,8 +6761,7 @@
           <t>También puede implicar medidas para proteger los derechos de pensión después de que las mujeres se divorcien o enviudan, compensando los costos que la distribución del trabajo no remunerado en arreglos familiares puede tener sobre sus derechos de pensión. Esto implica promover esquemas de pensiones que combinen los riesgos de longevidad entre mujeres y hombres y eviten castigar a quienes viven más. También implica establecer mecanismos regulares de indexación de los beneficios de las pensiones para evitar la pérdida de poder adquisitivo con la edad, que hace que las mujeres sufran más por su longevidad.</t>
         </is>
       </c>
-      <c r="B633" t="inlineStr"/>
-      <c r="C633" t="n">
+      <c r="B633" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7408,8 +6771,7 @@
           <t>Aún así, persiste una limitación en la producción de estadísticas de género. El sexo se utiliza a menudo como una de las variables de desglose de los datos presentados. Como se explica en el capítulo I y se muestra en el capítulo II, las estadísticas de género y un análisis de género significativo normalmente requieren el desglose por sexo y otras características al mismo tiempo. Por ejemplo, la segregación de género en el mercado laboral está parcialmente determinada por la brecha de género en la educación, por lo tanto, los datos sobre ocupaciones deben desglosarse aún más por el nivel de educación alcanzado.</t>
         </is>
       </c>
-      <c r="B634" t="inlineStr"/>
-      <c r="C634" t="n">
+      <c r="B634" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7419,8 +6781,7 @@
           <t>Apuntando en la misma dirección, también hay evidencia de que existe una asociación positiva en los países de la OCDE entre la participación de las transferencias sociales en los ingresos de las personas en la vejez y el nivel de pobreza en la vejez (OIT 2014: Fig. Women's La tasa de pobreza en edades más avanzadas es más alta que la de los hombres en la mayoría de los países de la UE. Las cifras también incluyen otros elementos cruciales del bienestar, en particular el acceso a la vivienda, la atención médica y otros servicios sociales (cuidado de ancianos en el hogar, por ejemplo). Estos servicios pueden ser particularmente importantes para las mujeres mayores que, como se señaló anteriormente, viven más que los hombres en promedio y, por lo tanto, tienen más probabilidades de enviudar, vivir solas (mayores costos de vivienda) y carecer de asistencia de cuidado por parte de los miembros de la familia que cohabitan (mayor necesidad de servicios de cuidado de ancianos).</t>
         </is>
       </c>
-      <c r="B635" t="inlineStr"/>
-      <c r="C635" t="n">
+      <c r="B635" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7430,8 +6791,7 @@
           <t>Una preocupación particular son las tasas de obesidad que aumentan rápidamente, lo que trae como consecuencia enfermedades potencialmente devastadoras y costosas como la diabetes. Además, una gran proporción de la población sigue teniendo un empleo informal, donde las redes de seguridad social están menos desarrolladas. Para hacer frente a esta desafiante constelación de circunstancias, México necesita un sistema de salud que responda a las necesidades cambiantes de las personas, capaz de ofrecer una atención continua y personalizada, con una orientación proactiva y preventiva, así como rentable y sostenible. Una inversión considerable en la parte financiada con fondos públicos del sistema de salud no siempre se ha traducido en mejores resultados de salud.</t>
         </is>
       </c>
-      <c r="B636" t="inlineStr"/>
-      <c r="C636" t="n">
+      <c r="B636" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7441,8 +6801,7 @@
           <t>También dejan en claro que las escuelas desfavorecidas necesitan más apoyo para que puedan comenzar a considerar las diferencias étnicas como un recurso para el aprendizaje, en lugar de un obstáculo para el aprendizaje (OCDE, 2015b). Identificar la relación entre la educación preescolar y el desempeño escolar posterior es un desafío, porque la asistencia a la educación preescolar a menudo se correlaciona con la ventaja socioeconómica. Cuando los niños desfavorecidos ingresan al preescolar, ya van a la zaga de los niños favorecidos porque es probable que hayan tenido menos oportunidades de jugar en casa para explorar patrones, formas y relaciones espaciales, comparar magnitudes y contar objetos.</t>
         </is>
       </c>
-      <c r="B637" t="inlineStr"/>
-      <c r="C637" t="n">
+      <c r="B637" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7452,8 +6811,7 @@
           <t>En el espíritu de los ODS, dichas políticas deben adoptarse y evaluarse desde una perspectiva de equidad de género. La inversión pública puede ser una herramienta para lograr el pleno empleo, promoviendo los medios de subsistencia de las mujeres y al mismo tiempo reduciendo la competencia de género en los trabajos marítimos (O N Mujeres 2015). La inversión pública suele estimular el empleo, ya que las empresas contratan a más trabajadores para satisfacer el aumento de la demanda agregada. Cuando está bien dirigida, la inversión pública no solo promueve la acumulación de capacidades y reduce la vulnerabilidad, sino que también genera resiliencia (PNUD 2014).</t>
         </is>
       </c>
-      <c r="B638" t="inlineStr"/>
-      <c r="C638" t="n">
+      <c r="B638" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7463,8 +6821,7 @@
           <t>Será necesaria una reflexión que vaya más allá de un enfoque de paridad si la organización quiere llegar a una imagen más completa de las relaciones de poder y las dinámicas de género en juego. Los datos de las encuestas anuales de personal global muestran consistentemente que existen brechas entre las experiencias de hombres y mujeres con respecto al empoderamiento, el crecimiento profesional, la apertura, la equidad/respeto, el equilibrio entre la vida laboral y personal y la gestión de la oficina. La paridad de género generalmente se informa a nivel agregado tanto a nivel regional como de la sede, lo que puede oscurecer una imagen más diferenciada de la situación en las oficinas y unidades de cada país. Aunque el PNUD tiene una relación históricamente estrecha y, a menudo, de colaboración con ONU-Mujeres que ha madurado a medida que ONU-Mujeres ha reorganizado su presencia organizativa a nivel mundial, hay espacio para una mayor aclaración de los acuerdos de asociación.</t>
         </is>
       </c>
-      <c r="B639" t="inlineStr"/>
-      <c r="C639" t="n">
+      <c r="B639" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7474,8 +6831,7 @@
           <t>En Botswana, por ejemplo, el Ministerio de Salud (MoH, 2006) registró que el porcentaje de personas de 20 a 24 años que asistieron a ANC que estaban infectadas por el VIH disminuyó del 38,7 por ciento en 2001 al 27,9 por ciento en 2007. Una disminución de alrededor del 10,5 por ciento entre 2001 y 2006 entre las mujeres embarazadas (MoH, 2006). En particular, la prevalencia entre el grupo de edad de 15 a 19 años ha disminuido del 24,7% en 2001 al 17,5% en 2006 (MoH, 2006).</t>
         </is>
       </c>
-      <c r="B640" t="inlineStr"/>
-      <c r="C640" t="n">
+      <c r="B640" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7485,8 +6841,7 @@
           <t>Las mujeres con solo escolaridad obligatoria tienen una probabilidad muy alta de tener ingresos muy bajos a la edad de 45 años e incluso entre las que trabajan, los ingresos son muy bajos. En segundo lugar, si bien obtener algo de educación más allá de la escuela secundaria parece ser rentable para los hombres, obtener un título universitario no profesional no supone una diferencia significativa. Existe evidencia de un rendimiento algo mayor en este margen para las mujeres tanto en términos de empleo como de ingresos anuales. Es probable que algunas de estas diferencias en los resultados del mercado laboral se deban al hecho de que hombres y mujeres, dentro de estas categorías educativas, no se encuentran en los mismos campos educativos y, por lo tanto, se enfrentan a mercados laborales diferentes.</t>
         </is>
       </c>
-      <c r="B641" t="inlineStr"/>
-      <c r="C641" t="n">
+      <c r="B641" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7496,8 +6851,7 @@
           <t>La base de datos se actualiza anualmente, con motivo del Día Internacional de la Mujer, y sus estimaciones provienen de encuestas nacionales sobre el uso del tiempo, basadas en muestras representativas a nivel nacional de entre 4 000 y 20 000 personas. Para cada una de las categorías solo se tienen en cuenta las actividades primarias, mientras que las actividades simultáneas o secundarias se excluyen para mejorar la comparabilidad entre países. En Etiopía, por ejemplo, los hombres dedican casi el doble de tiempo al trabajo remunerado o al estudio que las mujeres, mientras que ocurre lo contrario con el trabajo de cuidados no remunerado.</t>
         </is>
       </c>
-      <c r="B642" t="inlineStr"/>
-      <c r="C642" t="n">
+      <c r="B642" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7507,8 +6861,7 @@
           <t>Sin embargo, se han planteado algunas dudas sobre la exogeneidad de tales instrumentos, ya que sí parecen estar asociados con el crecimiento económico (Taylor, 1998, Sachs y Warner, 2001, Klasen, 2002). Klasen (2002) utiliza la tasa de fertilidad en 1960, su crecimiento y el gasto público en educación para instrumentar las brechas de género en la educación. Este documento asume que esta influencia debería operar con un retraso.</t>
         </is>
       </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="n">
+      <c r="B643" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7518,8 +6871,7 @@
           <t>Estos efectos se pueden desglosar en cuatro componentes: las tasas de empleo de las mujeres, la intensidad del trabajo de las mujeres, la proporción de mujeres en trabajos calificados y los rendimientos generales del empleo femenino (efecto salario). La figura muestra que si la proporción de hogares con una mujer trabajadora hubiera permanecido igual que a mediados de la década de 1980, la desigualdad de ingresos de los hogares habría aumentado, en promedio en los países de la OCDE, en 0,8 puntos adicionales, es decir, un aumento en el Gini. de 28,2 a 31,6 en lugar de 30,8. El impacto igualador del aumento del empleo femenino fue mayor en países como Bélgica, los Países Bajos, España y el Reino Unido, donde la proporción de hogares en edad de trabajar con trabajadoras aumentó considerablemente: esto contribuyó a reducir la desigualdad en 2,5 o más puntos Gini en Estos países.</t>
         </is>
       </c>
-      <c r="B644" t="inlineStr"/>
-      <c r="C644" t="n">
+      <c r="B644" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7529,8 +6881,7 @@
           <t>También existe una confianza excesiva en las pruebas estandarizadas dentro del sistema para tomar decisiones que afectan la vida de las personas. La educación formal es obligatoria durante los primeros nueve años del sistema educativo, mientras que la educación no formal es puramente voluntaria y el aprendizaje informal está influenciado por los padres y la cultura. Sin embargo, también pueden trabajar juntos de una manera poderosa. También se necesitan programas de preparación para la universidad, por ejemplo, entre los estudiantes cuyas escuelas secundarias no los apoyaron adecuadamente como aprendices independientes.</t>
         </is>
       </c>
-      <c r="B645" t="inlineStr"/>
-      <c r="C645" t="n">
+      <c r="B645" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7540,8 +6891,7 @@
           <t>También presenta responsabilidad individual, lo que significa que el éxito del equipo depende del aprendizaje individual, no de los productos grupales. Se debe considerar que el plan de estudios tiene en cuenta las diferencias individuales significativas y que es capaz de ampliar a cada alumno un poco más allá de su capacidad autodefinida (Dumont, Istance y Benavides, 2010). Sin embargo, dada la variación entre países en cuanto a quién tiene la responsabilidad de los currículos, es difícil proporcionar una dirección política clara sobre los currículos a nivel escolar. Los métodos de aprendizaje cooperativo, que implican que el maestro coloque a los estudiantes dentro de la misma clase en pequeños grupos temporales con habilidades mixtas que se enfocan en tareas que requieren que confíen en las habilidades de los demás, tienden a funcionar igualmente bien para todos los tipos de estudiantes (Slavin, 2010).</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr"/>
-      <c r="C646" t="n">
+      <c r="B646" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7551,8 +6901,7 @@
           <t>También se ha encontrado que el estudio en grupo, así como la revisión por pares y el apoyo entre maestros, son útiles. En Japón, grupos de maestros trabajan juntos para planificar, ejecutar y evaluar lecciones individuales y estrategias de instrucción para lograr objetivos de aprendizaje específicos. Visitan las aulas de los demás para comprender la práctica docente de sus colegas. En Finlandia, los docentes disponen de una tarde cada semana para la planificación conjunta y el desarrollo curricular (Barber y Mourshed, 2007).</t>
         </is>
       </c>
-      <c r="B647" t="inlineStr"/>
-      <c r="C647" t="n">
+      <c r="B647" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7562,8 +6911,7 @@
           <t>En opinión del tribunal, el demandado, el organismo administrativo de la universidad, había fijado el promedio mínimo para ser aceptado por el Departamento de Medicina en 2080 para los hombres kuwaitíes y 3020 para las mujeres kuwaitíes, aunque los dos grupos estaban en la misma situación jurídica. de haber superado el año de fundación en el Centro de Ciencias Médicas. Al considerar que esto viola el principio de igualdad estipulado en el artículo 29 de la Constitución, el tribunal anuló la política de aceptación basada en la discriminación de género. Con excepción de la educación terciaria, el nivel educativo de las mujeres se ha incrementado desde 1970.</t>
         </is>
       </c>
-      <c r="B648" t="inlineStr"/>
-      <c r="C648" t="n">
+      <c r="B648" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7573,8 +6921,7 @@
           <t>También será necesario ampliar la formación para desarrollar un conocimiento del contenido de la materia más especializado, como se ha señalado anteriormente. Administra 17 escuelas en barrios de ingresos bajos a medios en Santiago. Dotadas con un nivel de recursos similar al de otras escuelas privadas subvencionadas, las escuelas del SIP logran sistemáticamente puntajes más altos en las pruebas SIMCE, con una varianza mucho menor, y esto es robusto al controlar por antecedentes socioeconómicos. De hecho, el desempeño de las escuelas SIP es cercano al de las escuelas privadas de pago, que atienden a estudiantes de altos ingresos con recursos mucho mayores como resultado de sus altas tarifas. Hay un proceso de selección para ingresar basado en entrevistas con los padres, aunque no en pruebas de habilidad. Un departamento pedagógico centralizado desarrolla pruebas para todas las escuelas SIP para evaluar sistemáticamente el progreso de los alumnos.</t>
         </is>
       </c>
-      <c r="B649" t="inlineStr"/>
-      <c r="C649" t="n">
+      <c r="B649" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7584,8 +6931,7 @@
           <t>También sería útil considerar cómo dichos programas podrían orientarse mejor para atender las necesidades y prioridades de la región. La experimentación con modelos de aprendizaje experiencial y basado en problemas en entornos grupales podría proporcionar una solución que traería beneficios para un grupo más amplio de estudiantes. Además, existe la necesidad de aumentar y mejorar agresivamente la educación empresarial.</t>
         </is>
       </c>
-      <c r="B650" t="inlineStr"/>
-      <c r="C650" t="n">
+      <c r="B650" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7595,8 +6941,7 @@
           <t>De manera similar, dada la representación desproporcionada de mujeres entre quienes viven en la pobreza, un plan de préstamos del gobierno para comprar tierras puede ser inaccesible para las mujeres debido a su costo, incluso si el plan está abierto tanto a hombres como a mujeres. Véase Entidad de las Naciones Unidas para la Igualdad de Género y el Empoderamiento de las Mujeres (ONU-Mujeres), El progreso de las mujeres en el mundo 2011-2012: En busca de la justicia (2011) e "Informe de la Oficina del Alto Comisionado de las Naciones Unidas para los Derechos Humanos". Derechos sobre buenas prácticas en los esfuerzos dirigidos a prevenir la violencia contra las mujeres” (A/HRC/17/23). Véase también Grupo de Trabajo sobre la cuestión de la discriminación contra la mujer en la ley y en la práctica, disponible en www.ohchr.org/EN/lssues/Women/WGWomen/Pages/WGWomenlndex.aspx (consultado el 6 de noviembre de 2013).</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr"/>
-      <c r="C651" t="n">
+      <c r="B651" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7606,8 +6951,7 @@
           <t>Team Academy ofrece un flujo educativo especial de tres años y medio. Cada estudiante recibe una formación intensiva en liderazgo y marketing como miembro de un equipo a través del trabajo en proyectos de la vida real. La Team Academy está abierta a estudiantes de negocios, pero en base a sus experiencias, se ha desarrollado un conjunto de cursos que promueven el emprendimiento para todos los estudiantes, bajo el título “el camino del emprendedor naciente”. Ha brindado educación empresarial a más de 500 graduados de BBA y ha dado origen a 17 empresas además de las cooperativas que operan durante el tiempo de estudio. Alrededor del 25% de los graduados de Team Academy son empresarios activos, especialmente en el sector de servicios y consultoría. Team Academy ha recibido una serie de premios nacionales por sus métodos de aprendizaje innovadores y su trayectoria comprobada en la mejora del espíritu empresarial.</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr"/>
-      <c r="C652" t="n">
+      <c r="B652" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7617,8 +6961,7 @@
           <t>Establece claramente que un buen sistema de tenencia de la tierra debe garantizar la seguridad de la tenencia y debe corregir las disposiciones que constituyan discriminación contra la mujer. La Ley de Reforma de Tierras Comunales de Namibia de 2002 otorga a los cónyuges sobrevivientes que residen en áreas rurales el derecho a permanecer en la tierra asignada a sus cónyuges fallecidos. Este derecho no se ve afectado por el nuevo matrimonio.</t>
         </is>
       </c>
-      <c r="B653" t="inlineStr"/>
-      <c r="C653" t="n">
+      <c r="B653" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7628,8 +6971,7 @@
           <t>Tendían a informar más a menudo que el trabajo en equipo mejora su propia eficiencia, que prefieren trabajar como parte de un equipo a trabajar solos y que piensan que los equipos toman mejores decisiones que los individuos. Las escuelas que logran desarrollar esas actitudes mediante el diseño de entornos de aprendizaje colaborativo podrían involucrar a los estudiantes desfavorecidos de nuevas maneras. Para empezar, los padres deben hacer su parte.</t>
         </is>
       </c>
-      <c r="B654" t="inlineStr"/>
-      <c r="C654" t="n">
+      <c r="B654" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7639,8 +6981,7 @@
           <t>Los hombres tienen tres veces más probabilidades que las mujeres de tener un negocio con empleados. Las mujeres rara vez son propietarias de grandes empresas y sus ingresos medios del trabajo por cuenta propia son hasta un 60 % más bajos que los de los hombres. Las normas culturales, los estereotipos y la falta de modelos a seguir hacen que las mujeres estén menos interesadas en una carrera empresarial y tengan menos confianza en sus capacidades como empresarias. Otros obstáculos, como la escasez de tiempo y la composición de sus redes profesionales, llevan a las mujeres a emprender negocios relativamente pequeños, con bajos niveles de capital inicial y financiamiento bancario. Estos obstáculos establecen una desventaja competitiva para las empresas propiedad de mujeres, lo que se traduce en niveles de productividad laboral entre un 5 y un 30% inferiores a los de las empresas propiedad de hombres. Este documento también presenta ejemplos de iniciativas de políticas en los dominios del crédito, la capacitación y la concientización que pueden desencadenar el doble dividendo del espíritu empresarial de las mujeres: mayor empoderamiento de las mujeres y empresas más productivas.</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr"/>
-      <c r="C655" t="n">
+      <c r="B655" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7650,8 +6991,7 @@
           <t>Sus estilos de negociación son más abarcadores para incluir todos los temas que afectan a hombres, mujeres, niñas y niños. Las mujeres han aprovechado debidamente los espacios políticos para promover los intereses de las mujeres y las niñas para el empoderamiento político y el desarrollo socioeconómico. Las mujeres líderes tienden a presionar por enmiendas y la iniciación de leyes nacionales y políticas locales para mejorar la infraestructura, reformas constitucionales y legislativas para derogar leyes repugnantes y la ratificación de resoluciones internacionales por los derechos de las mujeres.</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr"/>
-      <c r="C656" t="n">
+      <c r="B656" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7661,8 +7001,7 @@
           <t>El capítulo ofrece una variedad de marcos para comprender el género, los diferentes tipos de violencia contra las mujeres y las capacidades y roles de las mujeres como constructoras de paz, basándose en los campos de la biología, la sociología y la teoría política y la práctica de la construcción de paz. Ejemplos de todo el mundo brindan instantáneas de la compleja dinámica del género, la violencia y la consolidación de la paz. Una lente sensible al género en la consolidación de la paz destaca la necesidad urgente de ampliar la programación para incluir el empoderamiento de las mujeres y la atención a la violencia contra las mujeres en entornos públicos y privados.</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr"/>
-      <c r="C657" t="n">
+      <c r="B657" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7672,8 +7011,7 @@
           <t>Todas las solicitudes de uso público o comercial y derechos de traducción deben enviarse a rights@oecd.org. Presenta una descripción general de cómo los diferentes países de la OCDE asignan el tiempo de instrucción. También desarrolla un modelo para comprender el uso efectivo del tiempo de instrucción asignado y examina cómo los diferentes países de la OCDE se comparan en esto. El documento confirma el valor del tiempo de instrucción suficiente como un recurso educativo clave, pero la conclusión clave es que lo más importante es la forma en que se utiliza el tiempo asignado.</t>
         </is>
       </c>
-      <c r="B658" t="inlineStr"/>
-      <c r="C658" t="n">
+      <c r="B658" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7683,8 +7021,7 @@
           <t>Las brechas de género en el empleo siguen siendo mucho más amplias que las brechas de género en la educación, y hay evidencia de una mayor segregación laboral de género a nivel mundial, con una disminución de la participación de mujeres en el sector industrial en los últimos 20 años (IDRC 2013, Seguino 2016, de próxima publicación). Esto se debe a dos factores principales. La igualdad de medios de vida de las mujeres con los hombres genera poder de negociación para influir en la distribución de los recursos a nivel del hogar.</t>
         </is>
       </c>
-      <c r="B659" t="inlineStr"/>
-      <c r="C659" t="n">
+      <c r="B659" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7694,8 +7031,7 @@
           <t>La feminización de la fuerza laboral asociada con una reducción de la brecha entre las tasas de participación laboral masculina y femenina genera un crecimiento del PIB medido tanto en valores contemporáneos como rezagados, y existen indicios de un efecto potencialmente positivo a mediano plazo. Sin embargo, un aumento en el número de horas trabajadas (intensidad laboral) guarda una relación inversa con el crecimiento, lo que podría ser una señal de un impacto negativo de una reducción en el tiempo dedicado al trabajo de cuidado a menos que el déficit se compense con la sustitución de servicios públicos o privados de cuidado o por la asunción de alguna de estas tareas por otros miembros del hogar. Para verificar esta intuición, sería necesario realizar un análisis de cómo el trabajo y el ahorro de los hogares se ven influidos por cambios en la oferta laboral femenina. Esta es la condición subyacente para la viabilidad del crecimiento impulsado por la demanda, pero también está en consonancia con la conclusión anterior, ya que, aunque los salarios bajos en el presente pueden impulsar el crecimiento, los salarios tendrán que tender al alza si se quiere que esa tendencia de crecimiento se mantenga. sostenido.</t>
         </is>
       </c>
-      <c r="B660" t="inlineStr"/>
-      <c r="C660" t="n">
+      <c r="B660" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7705,8 +7041,7 @@
           <t>Estas brechas de género son generalizadas, aunque varían entre países y regiones del mundo. Mientras que en los países menos desarrollados, las niñas y las mujeres sufren un acceso desigual a los bienes económicos, la educación o las instalaciones básicas de atención médica, en la mayoría de los países desarrollados la desigualdad de género persiste en forma de instituciones sociales discriminatorias y creencias sobre los roles de género que socavan las oportunidades de las mujeres. , inhiben su plena participación en las actividades económicas, sociales y políticas y, por lo tanto, reducen su calidad de vida. En los países en desarrollo, los resultados de salud infantil están estrechamente relacionados con el acceso de las mujeres a los recursos: los países donde las mujeres carecen de cualquier derecho a la propiedad de la tierra tienen en promedio un 60 % más de niños desnutridos, donde las mujeres no tienen acceso al crédito, el número de niños desnutridos está un 85% por encima del promedio (OCDE, 2010a). En países de altos ingresos, se ha demostrado que el nivel de educación de la madre tiene un efecto en el rendimiento académico de sus hijos (OCDE, 2012b).</t>
         </is>
       </c>
-      <c r="B661" t="inlineStr"/>
-      <c r="C661" t="n">
+      <c r="B661" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7716,8 +7051,7 @@
           <t>Sin embargo, esto es más bajo que el promedio de la OCDE de 1,67 y muy por debajo de la tasa de reemplazo de la población de 2,1 hijos por mujer. El estancamiento de las tasas de fertilidad es un tema particularmente importante para Alemania: además de la satisfacción personal derivada de la crianza de los hijos, menos bebés significa menos trabajadores en el futuro, con consecuencias perniciosas para la economía. Las mujeres alemanas con mayor nivel educativo tienen menos probabilidades de tener hijos, al igual que las mujeres que realizan trabajos remunerados y (especialmente) las mujeres que realizan trabajos remunerados a tiempo completo. Las mujeres con ingresos más altos también tienen muchas menos probabilidades de tener un hijo que las mujeres con ingresos más bajos, ya que las mujeres con ingresos más bajos a menudo viven con un sostén económico masculino. Las diferencias en los roles de género son menos dramáticas en Francia, donde la probabilidad de dar a luz en realidad aumenta con los ingresos de la mujer (Capítulo 6).</t>
         </is>
       </c>
-      <c r="B662" t="inlineStr"/>
-      <c r="C662" t="n">
+      <c r="B662" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7727,8 +7061,7 @@
           <t>Del mismo modo, la obesidad es dos veces más frecuente entre las personas con el nivel educativo más bajo. Una mayor prevalencia de factores de riesgo entre los grupos desfavorecidos contribuye en gran medida a las disparidades en el estado de salud y la esperanza de vida. La regulación, supervisión, planificación y seguimiento de la calidad son funciones del gobierno nacional, mientras que la prestación de los servicios es responsabilidad de las regiones y municipios. Las regiones son responsables de definir y administrar los servicios de salud, los municipios son responsables de la prevención de enfermedades, la promoción de la salud, la rehabilitación, la atención domiciliaria y la atención a largo plazo (ver Sección 5.3).</t>
         </is>
       </c>
-      <c r="B663" t="inlineStr"/>
-      <c r="C663" t="n">
+      <c r="B663" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7738,8 +7071,7 @@
           <t>Todo esto debe estar vinculado a un enfoque más abierto y consultivo para el desarrollo de políticas y los servicios públicos y su prestación (OCDE, 2015a, 2016a). El aumento de la inversión en educación es vital para satisfacer las necesidades de una economía en rápida modernización, pero, como se describe en la parte anterior de este capítulo, a pesar de los grandes aumentos en el gasto, Costa Rica no ha visto mejoras significativas en la finalización de la escuela y el aprendizaje de los estudiantes. Otros indicadores en los que uno podría esperar ver los beneficios de la inversión en educación no son alentadores: la productividad apenas ha aumentado, el mercado laboral está fragmentado por la dualidad y un gran subsector informal, la escasez de habilidades es evidente y la desigualdad está creciendo (OCDE, 2016a) .</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr"/>
-      <c r="C664" t="n">
+      <c r="B664" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7749,8 +7081,7 @@
           <t>Se requieren inversiones adicionales en la mayoría de los países de MENA para incorporar la presupuestación de género en el ciclo presupuestario principal en todo el gobierno y para que estas prácticas se arraiguen. Sería importante garantizar que todas las partes interesadas pertinentes, incluidos los parlamentos, participen activamente en este proceso. Las buenas prácticas de los países de la OCDE y MENA (p. ej., Marruecos) pueden ayudar a los formuladores de políticas de MENA en la implementación de presupuestos de género de manera sistemática y sostenible. Esto permitiría que la incorporación de la perspectiva de género se tenga en cuenta de forma más estratégica y garantizaría la aceptación en todos los niveles de gobierno, así como aumentar la concienciación sobre la incorporación de la perspectiva de género.</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr"/>
-      <c r="C665" t="n">
+      <c r="B665" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7760,8 +7091,7 @@
           <t>El portal danés de salud electrónica es el portal oficial de los servicios públicos daneses de atención de la salud y permite que los pacientes y los profesionales de la salud encuentren información y se comuniquen. El país también publica informes anuales basados ​​en bases de datos clínicas nacionales e informes sobre la variación regional en los resultados de salud. El programa Folkesundheds 1999-2008 (Public Health Program 1999-2008) incluyó una serie de metas para la reducción de la desigualdad en salud.</t>
         </is>
       </c>
-      <c r="B666" t="inlineStr"/>
-      <c r="C666" t="n">
+      <c r="B666" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7771,8 +7101,7 @@
           <t>La economía y el suicidio: un estudio de serie temporal de los EE. UU. -Pobres y sin seguro para ser tratados en hospitales designados y medicamentos genéricos prescritos. - Aumento de los cargos de usuario de 3 € a 5 € para las instalaciones públicas ambulatorias, se eliminaron algunos cargos de usuario para grupos vulnerables. -Liberalización de las farmacias -Financiación basada en la producción hospitalaria utilizada para el presupuesto hospitalario a partir de 2013.</t>
         </is>
       </c>
-      <c r="B667" t="inlineStr"/>
-      <c r="C667" t="n">
+      <c r="B667" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7782,8 +7111,7 @@
           <t>Algunos países, como Dinamarca, los Países Bajos y Noruega, dependen en gran medida de dicho personal, mientras que en Hungría su papel parece ser limitado, como se refleja en sus cifras comparativamente bajas, de 2,5 por cada mil habitantes en 2008. En consonancia con la tendencia general Debido a la disminución del número de camas de hospital, el número de camas de hospital por mil habitantes en Hungría se redujo a alrededor de siete en 2009 desde casi nueve en 1996, debido a las políticas de contención de costos dirigidas al exceso de capacidad en el sector hospitalario y al advenimiento de nuevas tecnologías médicas permitiendo una mayor dependencia de la atención diurna en lugar de una larga hospitalización. No obstante, el número de camas hospitalarias se mantuvo por encima del promedio de la OCDE de cinco por mil en 2009 (OCDE, 2011, Figura 4.5). La duración media de la estancia en cuidados agudos y de hospitalización estuvo entre las más bajas de la OCDE en 2009.</t>
         </is>
       </c>
-      <c r="B668" t="inlineStr"/>
-      <c r="C668" t="n">
+      <c r="B668" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7793,8 +7121,7 @@
           <t>Las mujeres que trabajan fuera de sus hogares necesitan adquirir una variedad de servicios, incluidos el cuidado de los niños, la cocina o la sastrería, que de otro modo probablemente realizarían como tareas no remuneradas. Esta nueva demanda de servicios da como resultado la creación de empleos y oportunidades económicas para otros. Mientras tanto, el empleo femenino también conduce a un aumento en el poder adquisitivo del hogar y amplía la reserva de talento disponible en la economía.228 Por lo tanto, facilitar la entrada formal de las mujeres en la economía como trabajadoras, consumidoras e inversionistas aumenta la producción económica potencial y la riqueza.229 Un estudio que abarcó 18 países árabes encontró que las pérdidas del PIB debido a la brecha de género ascendieron al 27 por ciento.230 Además, los recursos en manos de las mujeres implican una gama de resultados positivos para el capital humano y las capacidades dentro del hogar, y pueden utilizarse para mejorar la salud y la educación de sus hijos.</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr"/>
-      <c r="C669" t="n">
+      <c r="B669" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7804,8 +7131,7 @@
           <t>Promedio de tres años (2011-13). Los datos de la mayoría de los países se basan en un umbral mínimo de 22 semanas de gestación (o 500 gramos de peso al nacer) para eliminar el impacto de las diferentes prácticas de registro de bebés extremadamente prematuros en los países. Al observar el número de camas per cápita en estos dos grupos de regiones, el primero (con tasas de hospitalización relativamente bajas) tiene un número más bajo de camas per cápita en promedio, y el segundo, un número muy alto de camas per cápita. La escasez de personal médico en las zonas rurales, los servicios de transporte deficientes y los largos tiempos de viaje a los centros de atención de la salud también pueden socavar el acceso a los servicios en las zonas remotas de todo el país (OMS, 2011).</t>
         </is>
       </c>
-      <c r="B670" t="inlineStr"/>
-      <c r="C670" t="n">
+      <c r="B670" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7815,8 +7141,7 @@
           <t>Como resultado, el número de camas se sitúa ahora en torno a la media de la UE, mientras que la duración media de la estancia está muy por debajo de la media de 6,8 días en comparación con los 8 días (2015). Esto, junto con el hecho de que todavía hay muchos hospitales regionales más pequeños, sugiere que hay espacio para racionalizar la red hospitalaria para mejorar la eficiencia, a pesar de la oposición pública que esto probablemente genere (ver Sección 5.2). La cirugía de cataratas ha sido un éxito particular con uno de los porcentajes más altos de casos ambulatorios en la UE (2015). Las amigdalectomías, por el contrario, todavía se realizan exclusivamente en entornos hospitalarios (Figura 14).</t>
         </is>
       </c>
-      <c r="B671" t="inlineStr"/>
-      <c r="C671" t="n">
+      <c r="B671" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7826,8 +7151,7 @@
           <t>Butler (1988) se basó en esta idea al describir el género como una actuación, como una "repetición estilizada de actos" en lugar de una categoría estable. La masculinidad hegemónica encarna la forma de masculinidad honrada o dominante, y requiere que todos los demás hombres se posicionen en relación con ella. La masculinidad cómplice describe a los hombres que no promulgan la masculinidad hegemónica, pero aún así se benefician de ella. La masculinidad subordinada se refiere a los hombres que están oprimidos por la masculinidad hegemónica (por ejemplo, los hombres homosexuales), pero aún se benefician de ser hombres, en lugar de mujeres.</t>
         </is>
       </c>
-      <c r="B672" t="inlineStr"/>
-      <c r="C672" t="n">
+      <c r="B672" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7837,8 +7161,7 @@
           <t>Los equipos de intervención temprana aceptan referencias de médicos de cabecera y otros equipos de salud mental de la comunidad. A veces, los equipos locales de intervención temprana también aceptarán autorreferencias o referencias de amigos y familiares. Las personas con necesidades complejas que requieren apoyo continuo pueden ser incluidas en el enfoque del programa de atención (CPA). Luego deben recibir un plan de atención y revisiones periódicas.</t>
         </is>
       </c>
-      <c r="B673" t="inlineStr"/>
-      <c r="C673" t="n">
+      <c r="B673" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7848,8 +7171,7 @@
           <t>Si una partera o un profesional capacitado realiza una visita domiciliaria, la atención de la madre podría incluir más intervenciones, como observar el flujo sanguíneo, medir la temperatura y proporcionar suplementos de hierro y ácido fólico y métodos anticonceptivos. Las madres adolescentes a menudo carecen de los conocimientos, la educación, la experiencia, los ingresos y el poder en relación con las madres mayores. En algunas culturas, también pueden tener que soportar los efectos de muchas actitudes críticas, lo que hace que una situación ya difícil sea aún peor. Por lo tanto, la provisión de atención continua hasta los primeros días posteriores al parto puede brindar el apoyo adicional necesario para la madre y su recién nacido.</t>
         </is>
       </c>
-      <c r="B674" t="inlineStr"/>
-      <c r="C674" t="n">
+      <c r="B674" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7859,8 +7181,7 @@
           <t>En países donde la cobertura de pensión contributiva es baja y estratificada, las mujeres de bajos ingresos a menudo se ven doblemente excluidas: carecen tanto de un beneficio de pensión de jubilación propio (por realizar trabajo no remunerado o informal durante su vida) como de una pensión derivada de sus esposos (por estar casado o conviviendo con un trabajador informal). Como resultado, en países con cobertura incompleta y estratificada, los beneficios derivados pueden terminar aumentando la transferencia total que el estado hace a las familias con empleo formal (a menudo de mayores ingresos). Los beneficios se han recortado o reducido significativamente, o se están eliminando, restringiendo su duración o sometiendo la elegibilidad a una prueba de medios (Saraceno y Keck 2011). Los países que han adoptado sistemas de pensión NDC han seguido cubriendo a las viudas con un plan de beneficios definidos PAYG separado o han eliminado los beneficios para sobrevivientes por completo (James 2012: 26). En Suecia, la pensión de viudedad se abolió en 1990 para las mujeres nacidas en 1945 o después y se reemplazó por un beneficio de reajuste que duraba solo un año para mujeres y hombres menores de 65 años.</t>
         </is>
       </c>
-      <c r="B675" t="inlineStr"/>
-      <c r="C675" t="n">
+      <c r="B675" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7870,8 +7191,7 @@
           <t>Ces obligaciones doivent etre respectees dans toutes les lois, politiques et intervenciones en lien avec la famille. Grace aux 17 objectifs de development durable (ODD) et a ses 169 cibles, le Program de development durable a I'horizon 2030 s'emploie a realiser les droits de I'homme de tous et a parvenir a I'egalite des sexes et a I'autonomisation de toutes les femmes et filles (preámbulo, párrafos 19-20). En outre, dans le cadre de ce program, les dirigeants mondiaux se sont se involucra en un promouvoir la cohesion des familys (párr. Si les familys ont change au fil du temps, quâ€™est-ce-quâ€™une Â« famille Â » de nuestros días ?</t>
         </is>
       </c>
-      <c r="B676" t="inlineStr"/>
-      <c r="C676" t="n">
+      <c r="B676" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7881,8 +7201,7 @@
           <t>Por ejemplo, las mujeres tienden a gastar los ingresos de manera diferente a los hombres, y ahora también es sabiduría casi convencional que a los niños les va mejor cuando sus madres controlan una mayor parte de los recursos del hogar, incluso si gran parte de esta evidencia proviene de la economía del desarrollo (Lundberg y Poliak, 1996). Apoyar el trabajo remunerado de las mujeres, dirían los modelos de negociación, les daría más discreción sobre dónde y cómo se gastan los recursos familiares. Dado que los niveles de educación de las mujeres jóvenes ahora igualan o superan a los de los hombres en la mayoría de los países de la OCDE y que cada vez más hombres y mujeres se asocian con alguien con un estatus socioeconómico similar, las pérdidas pueden ser sustanciales si las mujeres se quedan en casa.</t>
         </is>
       </c>
-      <c r="B677" t="inlineStr"/>
-      <c r="C677" t="n">
+      <c r="B677" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7892,8 +7211,7 @@
           <t>Turquía tiene varias prioridades que abordar, incluida la mejora de la equidad entre regiones y áreas urbanas y rurales, abordar las necesidades de los estudiantes desfavorecidos, preparar maestros y líderes escolares de calidad, mejorar el acceso y la finalización de la educación secundaria superior, la educación y formación profesional (VET), y educación terciaria, fortaleciendo los vínculos con el mercado laboral y financiando adecuadamente el sistema educativo. El Programa de Educación Básica (1997) y el Proyecto Secundario (2006-11), ambos con el Banco Mundial, tenían como objetivo mejorar la calidad de la educación en estos diferentes niveles. El Plan Maestro de Implementación (2001-05) incluyó múltiples proyectos de UNICEF para mejorar tanto la equidad como la calidad del sistema educativo. Se han desarrollado iniciativas en VET y educación terciaria con la Unión Europea para mejorar la alineación con los estándares europeos.</t>
         </is>
       </c>
-      <c r="B678" t="inlineStr"/>
-      <c r="C678" t="n">
+      <c r="B678" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7903,8 +7221,7 @@
           <t>También se debe incluir la reevaluación de las necesidades de los usuarios del servicio y/o la derivación a otros proveedores, si es necesario. Estos estándares aseguran la calidad mínima de atención y apoyo que las personas reciben mientras viven en su hogar y establecen la prestación mínima de servicios requerida. Se necesita énfasis en alentar a las personas necesitadas a vivir en su propia casa, en lugar de en hogares de ancianos.</t>
         </is>
       </c>
-      <c r="B679" t="inlineStr"/>
-      <c r="C679" t="n">
+      <c r="B679" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7914,8 +7231,7 @@
           <t>Un mayor acceso a la información debe complementarse con apoyo a los padres sobre cómo interpretar la información y cómo seleccionar la escuela más adecuada para sus hijos. La información podría estar disponible en idiomas extranjeros seleccionados y ser accesible para padres con alfabetización limitada (OCDE, 2010(ii4]). Esto implica la capacidad de tomar una decisión informada sobre lo que un individuo no quiere, así como sobre lo que le gusta y El valor de la elección está muy relacionado con ciertos grupos de la sociedad, como los padres de clase media (Allen, 2007(32], Reay y Allen, 1997(33]). Existe la necesidad de gestionar la admisión de estudiantes de acuerdo con el nivel socioeconómico. -estado económico y criterios de admisión no selectivos (OCDE, 2015(22]). Esto requiere garantizar que se adopten criterios de equidad para que las escuelas den prioridad a los estudiantes desfavorecidos o que los arreglos de financiación hagan que los estudiantes desfavorecidos sean más atractivos para las escuelas de alto rendimiento (OCDE, 2015(22) ]).</t>
         </is>
       </c>
-      <c r="B680" t="inlineStr"/>
-      <c r="C680" t="n">
+      <c r="B680" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7925,8 +7241,7 @@
           <t>A pesar de esto, las interdependencias importantes entre los factores ambientales, de salud y sociales solo se han investigado recientemente. Los retrasos en el fortalecimiento de la legislación de control del tabaco (acordado finalmente a principios de 2017) ejemplifican los desafíos (ver también la Sección 3). No obstante, el Documento Estratégico de Salud Pública (2012) estableció metas a largo plazo para expandir la salud pública tradicional para incluir las enfermedades no transmisibles.</t>
         </is>
       </c>
-      <c r="B681" t="inlineStr"/>
-      <c r="C681" t="n">
+      <c r="B681" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7936,8 +7251,7 @@
           <t>Una de las fortalezas de esta encuesta de monitoreo es la claridad de su propósito: NEMP tiene la intención de brindar una imagen nacional de los resultados de aprendizaje de los estudiantes en etapas clave (años 4 y 8) en lugar de informar sobre estudiantes, maestros o escuelas individuales. Aproximadamente 3 000 estudiantes de 260 escuelas son seleccionados al azar cada año para participar en las evaluaciones. La participación de las escuelas seleccionadas es voluntaria, pero el 98% sí participa.</t>
         </is>
       </c>
-      <c r="B682" t="inlineStr"/>
-      <c r="C682" t="n">
+      <c r="B682" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7947,8 +7261,7 @@
           <t>Varios países de la OCDE miden la calidad de la atención de la salud mental en entornos de atención primaria utilizando una variedad de indicadores. Suecia supervisa el uso de la atención somática hospitalaria para pacientes con un diagnóstico de trastorno mental que podría haberse evitado si la atención primaria y/o la prevención primaria o secundaria fueran suficientes. Finlandia realiza un seguimiento del total de visitas de salud mental a la atención primaria, que a veces incluyen visitas a especialistas (enfermera psiquiátrica, psiquiatra) que trabajan en la atención primaria, así como visitas relacionadas con la salud mental a un médico de atención primaria.</t>
         </is>
       </c>
-      <c r="B683" t="inlineStr"/>
-      <c r="C683" t="n">
+      <c r="B683" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7958,8 +7271,7 @@
           <t>Una prestación nacional por hijos proporciona ingresos complementarios a las familias de bajos ingresos elegibles en todas las provincias y territorios, excepto en Quebec, donde el acceso es mayor y las familias elegibles de bajos ingresos tienen acceso gratuito a la EAPI regulada. Un programa nacional Universal Child Care Benefit emite un pago mensual imponible de $100 a las familias por cada niño menor de seis años para ayudar a cubrir el costo del cuidado infantil. La educación primaria y secundaria pública se brinda de forma gratuita a los estudiantes que cumplen con los requisitos de edad y residencia, y algunas provincias y territorios han ampliado la duración de la educación obligatoria de los 16 a los 18 años.</t>
         </is>
       </c>
-      <c r="B684" t="inlineStr"/>
-      <c r="C684" t="n">
+      <c r="B684" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7969,8 +7281,7 @@
           <t>La mortalidad tratable, es decir, aquellas muertes que podrían evitarse con una atención médica oportuna y eficaz, proporciona una mejor medida del impacto de la atención de la salud en el estado de salud de la población que la esperanza de vida, aunque se ve afectada por la prevalencia de enfermedades como así como los logros médicos (Gay et al., la tasa de mortalidad tratable de Finlandia para los hombres es más alta que en cualquier otro país nórdico, pero para las mujeres es la segunda más baja después de Islandia. Los resultados también varían ampliamente según las enfermedades. Enfermedades del el sistema circulatorio y los cánceres, juntos, representan más del 80% de la mortalidad tratable en Finlandia y la OCDE.</t>
         </is>
       </c>
-      <c r="B685" t="inlineStr"/>
-      <c r="C685" t="n">
+      <c r="B685" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7980,8 +7291,7 @@
           <t>Ocupan, en el mejor de los casos, un tercio de los puestos directivos públicos (ver Figura 5.7) y están mejor representados, aunque no necesariamente en el nivel superior, en departamentos "blandos" como educación, medio ambiente y turismo (ver Figura 5.9) . También existe una discrepancia entre el número de mujeres en cargos públicos de alto rango y la proporción de mujeres (en el total de la población) con las calificaciones educativas para ocuparlos. Incluyen una cultura de largas horas de trabajo, la falta de arreglos de trabajo flexibles, servicios de cuidado infantil inadecuados, prácticas discriminatorias y acoso sexual.</t>
         </is>
       </c>
-      <c r="B686" t="inlineStr"/>
-      <c r="C686" t="n">
+      <c r="B686" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7991,8 +7301,7 @@
           <t>El marco Gender@Work (desarrollado por una colaboración internacional que ayuda a las organizaciones a construir culturas de igualdad y justicia) analiza el cambio en términos de conciencia y conciencia, acceso a recursos y oportunidades, políticas formales, leyes y arreglos institucionales, y cambio cultural informal. y estructura profunda. Se aplicaron técnicas cualitativas de codificación temática para categorizar estos resultados de género (ver el Capítulo 5 para más detalles).</t>
         </is>
       </c>
-      <c r="B687" t="inlineStr"/>
-      <c r="C687" t="n">
+      <c r="B687" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8002,8 +7311,7 @@
           <t>También propone algunas acciones concretas, como el establecimiento de un Banco Africano de Inversiones para Mujeres y la implementación de estándares de certificación del Sello de Igualdad de Género en África. Los capítulos anteriores examinaron los tipos de avances y desventajas sociales y económicos que enfrentan las mujeres, su voz política y su papel en la toma de decisiones, así como la interacción de las normas legales y sociales tanto para expandir como para obstaculizar los derechos y oportunidades de las mujeres. El Capítulo 7 revisó algunas de las políticas y respuestas institucionales que los gobiernos han utilizado para abordar la desigualdad de género.</t>
         </is>
       </c>
-      <c r="B688" t="inlineStr"/>
-      <c r="C688" t="n">
+      <c r="B688" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8013,8 +7321,7 @@
           <t>Una reforma a fines de la década de 1970 fortaleció la formación docente y la hizo altamente selectiva. La formación docente pasó de los colegios de profesores a las universidades, y los profesores de primaria debían tener un título de maestría. En la actualidad, la formación docente está a cargo de nueve universidades, de las cuales ocho cuentan con escuelas de formación docente.</t>
         </is>
       </c>
-      <c r="B689" t="inlineStr"/>
-      <c r="C689" t="n">
+      <c r="B689" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8024,8 +7331,7 @@
           <t>Una segunda etapa de seguimiento ocurre a los 13/14 años (gimnasio de 6 años). Alrededor del 13% de los estudiantes en el grupo de edad relevante están matriculados en estas vías (Strakova et al., Los estudiantes son seleccionados en las diferentes vías mediante exámenes de admisión y pruebas de aptitud, y aquellos con el rendimiento académico más alto generalmente optan por vías generales como el gimnasio y liceo.</t>
         </is>
       </c>
-      <c r="B690" t="inlineStr"/>
-      <c r="C690" t="n">
+      <c r="B690" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8035,8 +7341,7 @@
           <t>Una vez que los estudiantes comienzan a comprenderse a sí mismos como seres culturales, se vuelven más receptivos a aceptar la cultura, la raza y el origen étnico de sus estudiantes (Gay, 2010(159]). El programa eTutor tenía como objetivo crear un entorno en el que los futuros maestros pudieran para interrogar sus propias culturas y las de otros de manera segura, solidaria, inclusiva, desafiante y atractiva (Carr, 2016(160]). La experiencia de interactuar con niños de múltiples culturas en un entorno en línea resultó en una actitud positiva. cambio para la mayoría de los participantes, los maestros en formación, muchos de los cuales habían comenzado con una visión etnocéntrica, terminaron con una visión etnorrelativa, demostrando empatía y cuidado por los niños de diferentes culturas. (</t>
         </is>
       </c>
-      <c r="B691" t="inlineStr"/>
-      <c r="C691" t="n">
+      <c r="B691" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8046,8 +7351,7 @@
           <t>Usando el enfoque basado en computadora, ha sido posible registrar los sentimientos, reacciones y decisiones de los estudiantes a lo largo del curso de la tarea de aprendizaje. Es evidente que el software interactivo como este brinda un gran potencial para que la investigación educativa investigue más profundamente la forma en que los estudiantes interactúan con las tareas. Estos estudios demuestran la capacidad de las TIC para proporcionar información sobre las secuencias que siguen los estudiantes cuando completan una tarea.</t>
         </is>
       </c>
-      <c r="B692" t="inlineStr"/>
-      <c r="C692" t="n">
+      <c r="B692" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8057,8 +7361,7 @@
           <t>Tal cambio de punto de vista puede explicar la identificación y divulgación de un mayor número de casos, en lugar de un aumento real de los problemas de salud mental de una proporción tan dramática. En cualquier caso, se recomienda desarrollar un plan de prestaciones por discapacidad para personas menores de 30 años que haga hincapié en la rehabilitación profesional y reemplace el derecho a la prestación por discapacidad de los jóvenes por escolaridad prolongada con una beca de estudio. Para reducir la tendencia a la dependencia temprana de las prestaciones por invalidez, se sugiere implementar políticas y medidas laborales que impulsen la demanda laboral y fomenten la contratación de jóvenes (OCDE, 2013b). El sistema de salud en Suecia, financiado principalmente a través de los impuestos generales, está altamente descentralizado y se caracteriza por la cobertura universal y el acceso equitativo a los servicios.</t>
         </is>
       </c>
-      <c r="B693" t="inlineStr"/>
-      <c r="C693" t="n">
+      <c r="B693" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8068,8 +7371,7 @@
           <t>El apoyo político y práctico para garantizar que las mujeres, incluidas las organizaciones de mujeres de la sociedad civil, estén incluidas en los procesos de paz es un punto de entrada crucial para garantizar que se tengan en cuenta las necesidades de seguridad de mujeres, hombres, niños y niñas. Por lo tanto, es fundamental que los equipos de negociación/mediación aprovechen la experiencia en género desde el comienzo de un proceso de paz. Se pueden proporcionar sesiones informativas sobre cuestiones de género a los equipos de negociación/mediación y otras personas con poder de decisión. Las organizaciones de la sociedad civil, incluidas las organizaciones de mujeres, también deben incluirse en los procesos de vía dos y pueden desempeñar un papel importante en el seguimiento de la implementación de los acuerdos de paz.</t>
         </is>
       </c>
-      <c r="B694" t="inlineStr"/>
-      <c r="C694" t="n">
+      <c r="B694" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8079,8 +7381,7 @@
           <t>La mayoría de los países ahora han respaldado el principio de igualdad para las mujeres y lo han dotado de universalidad normativa. Tales conflictos surgen en el contexto de casi todas las religiones y culturas tradicionales, ya que se basan en normas y prácticas sociales formuladas o interpretadas en un contexto patriarcal en un momento en que los derechos humanos individuales en general, y el derecho de las mujeres a la igualdad en particular, aún no se había convertido en un imperativo mundial. Las barreras a los derechos de las mujeres no son específicas de una región o religión, pero su forma y gravedad varían entre regiones y religiones.</t>
         </is>
       </c>
-      <c r="B695" t="inlineStr"/>
-      <c r="C695" t="n">
+      <c r="B695" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8090,8 +7391,7 @@
           <t>La naturaleza da descanso y un poco de comida. Las cuestiones de género se pierden principalmente cuando la cuestión de la vida cotidiana y la supervivencia están presentes (Westman 2005: 134). La desegregación, es decir, la división del mercado laboral en función del género, ha sido un tema de actualidad en las políticas de igualdad de género desde (los años 80).</t>
         </is>
       </c>
-      <c r="B696" t="inlineStr"/>
-      <c r="C696" t="n">
+      <c r="B696" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8101,8 +7401,7 @@
           <t>Utilizar estrategias de evaluación que sean consistentes con los objetivos de aprendizaje, la materia impartida y el marco curricular nacional, y permitan que todos los estudiantes demuestren lo aprendido. El docente: - conoce y comprende los principios y conceptos fundamentales involucrados en las materias) o disciplinadas) impartidas por él/ella. - Mostrar altas expectativas sobre las posibilidades de aprendizaje y B3. Crear y mantener normas coherentes sobre el aula B4.</t>
         </is>
       </c>
-      <c r="B697" t="inlineStr"/>
-      <c r="C697" t="n">
+      <c r="B697" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8112,8 +7411,7 @@
           <t>Utilizar la formación y los proyectos de corta duración en los centros/investigación como herramienta de desarrollo profesional que conduzca a cambios en el currículo/la enseñanza y el aprendizaje. Las empresas de la región sufren por la escasez de personal calificado y las habilidades inadecuadas que se ofrecen al mercado laboral. Las habilidades de los estudiantes universitarios deben actualizarse en habilidades transferibles y blandas, como la comunicación, el trabajo en equipo y el pensamiento analítico.</t>
         </is>
       </c>
-      <c r="B698" t="inlineStr"/>
-      <c r="C698" t="n">
+      <c r="B698" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8123,8 +7421,7 @@
           <t>O puede darse de baja llamando a XXXXXXX o visitando www. Un ensayo controlado aleatorizado similar de 2 años de duración entre 537 hombres indios asiáticos con prediabetes encontró que los mensajes de teléfono móvil eran un método aceptable para brindar asesoramiento y apoyo para la modificación del estilo de vida para prevenir la diabetes tipo 2 (Ramachandran, 2013). El ensayo fue el primero en mostrar el beneficio de esta tecnología en la prevención de la diabetes, con una reducción del 36 % en el riesgo relativo en comparación con la atención estándar en 2 años. Otro estudio piloto de 1 año de duración entre 200 pacientes con diabetes tipo 2 en la clínica mostró que los mensajes de teléfonos móviles sobre los principios del control de la diabetes ayudaron a mejorar los resultados de la atención médica.</t>
         </is>
       </c>
-      <c r="B699" t="inlineStr"/>
-      <c r="C699" t="n">
+      <c r="B699" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8134,8 +7431,7 @@
           <t>Considere establecer o fortalecer la capacidad de instituciones independientes (como Comisiones Independientes, Entidades Fiscalizadoras Superiores, Oficinas de Ombudsman) y órganos asesores (p. ej., consejos de Gobierno) para monitorear la implementación de estrategias de igualdad de género, integrar cuestiones de género en la formulación de políticas y facilitar informes regulares, auditorías y mediciones. Para ser eficaz, dicha supervisión debe llevarse a cabo de manera equilibrada y evitar enfoques prescriptivos para fomentar la mejora continua al tiempo que permite realizar un seguimiento del progreso en la igualdad de género. Por ejemplo, sobre la base de buenas prácticas y según corresponda, estas medidas pueden incluir requisitos de divulgación, cuotas, metas voluntarias, leyes de paridad, alternancia de sexos en la lista del partido y vinculación de las proporciones de género en los partidos políticos con su acceso a la financiación pública. Promover la contratación basada en el mérito, considerar políticas y prácticas positivas para garantizar una representación equilibrada de hombres y mujeres en cada grupo ocupacional en el empleo del sector público, y desarrollar medidas concretas para garantizar la eliminación efectiva de las barreras implícitas en los procesos de contratación y dotación de personal, donde apropiado y necesario.</t>
         </is>
       </c>
-      <c r="B700" t="inlineStr"/>
-      <c r="C700" t="n">
+      <c r="B700" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8145,8 +7441,7 @@
           <t>Varios líderes escolares habían decidido un tema para su aprendizaje profesional en toda la escuela (por ejemplo, "aprendizaje visible" basado en el trabajo de John Hattie [2012, 2009]) y las escuelas estaban planificando talleres en los que todos los maestros debían participar. Desafíos con este tipo de aprendizaje profesional incluyen una falta de diferenciación basada en la necesidad del maestro, una falta de propiedad del maestro sobre su aprendizaje y, a menudo, una falta de conexión con las necesidades de aprendizaje de los estudiantes. En términos más generales, como sugieren las entrevistas realizadas durante este y un estudio anterior de la OCDE, así como los datos internacionales, el desarrollo profesional no siempre se planifica sistemáticamente a nivel escolar, no se basa en evaluaciones sólidas de los docentes ni en el conocimiento sobre las necesidades de desarrollo de los docentes para satisfacer mejor las necesidades de los docentes. las necesidades de sus estudiantes (más sobre esto a continuación), y carece de vínculos sólidos con una planificación más amplia del desarrollo escolar.</t>
         </is>
       </c>
-      <c r="B701" t="inlineStr"/>
-      <c r="C701" t="n">
+      <c r="B701" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8156,8 +7451,7 @@
           <t>Cada vez con más frecuencia, los traficantes de drogas utilizan números de registro de aeronaves robados o falsificados cuando transportan envíos ilícitos por vía aérea. En la mayoría de los países de América Central y el Caribe se producen niveles significativos de hierba de cannabis. Jamaica sigue siendo el mayor productor de cannabis en el Caribe, con un cultivo total de planta de cannabis estimado por las autoridades locales en unas 15.000 ha.</t>
         </is>
       </c>
-      <c r="B702" t="inlineStr"/>
-      <c r="C702" t="n">
+      <c r="B702" t="n">
         <v>3</v>
       </c>
     </row>
@@ -8167,8 +7461,7 @@
           <t>Varios municipios describieron cómo trabajaron con los líderes escolares de manera colaborativa para apoyar su capacitación en el trabajo en áreas como la elaboración de presupuestos, la planificación de la mejora escolar y el seguimiento y la evaluación de las iniciativas de mejora escolar. Los municipios utilizan cada vez más la gestión por objetivos para sus directores de escuela. Los contratos de resultados, los acuerdos con el director de la escuela y otras formas de contratación sirven como medio para definir los objetivos de la escuela individual (y el director de la escuela), generalmente por un período de uno o dos años. En consecuencia, los sistemas de seguimiento y desempeño se utilizan para evaluar continuamente si la escuela se está desempeñando de acuerdo con los objetivos establecidos.</t>
         </is>
       </c>
-      <c r="B703" t="inlineStr"/>
-      <c r="C703" t="n">
+      <c r="B703" t="n">
         <v>4</v>
       </c>
     </row>
